--- a/Jogos_da_Semana_FlashScore_2025-04-06.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-06.xlsx
@@ -1501,13 +1501,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="H9" t="n">
         <v>3.6</v>
       </c>
       <c r="I9" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J9" t="n">
         <v>1.05</v>
@@ -1528,22 +1528,22 @@
         <v>1.95</v>
       </c>
       <c r="P9" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="Q9" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="R9" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S9" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T9" t="n">
         <v>7.5</v>
       </c>
       <c r="U9" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="V9" t="n">
         <v>8.5</v>
@@ -1555,34 +1555,34 @@
         <v>15</v>
       </c>
       <c r="Y9" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Z9" t="n">
         <v>11</v>
       </c>
       <c r="AA9" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB9" t="n">
         <v>15</v>
       </c>
       <c r="AC9" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD9" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AE9" t="n">
         <v>13</v>
       </c>
       <c r="AF9" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG9" t="n">
         <v>15</v>
       </c>
       <c r="AH9" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI9" t="n">
         <v>34</v>
@@ -2659,13 +2659,13 @@
         <v>6</v>
       </c>
       <c r="AA18" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB18" t="n">
         <v>21</v>
       </c>
       <c r="AC18" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AD18" t="n">
         <v>501</v>
@@ -2965,13 +2965,13 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H21" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="I21" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="J21" t="n">
         <v>1.1</v>
@@ -3453,13 +3453,13 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H25" t="n">
         <v>2.8</v>
       </c>
       <c r="I25" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="J25" t="n">
         <v>1.17</v>
@@ -3516,7 +3516,7 @@
         <v>6</v>
       </c>
       <c r="AB25" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC25" t="n">
         <v>126</v>
@@ -3537,7 +3537,7 @@
         <v>51</v>
       </c>
       <c r="AI25" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AJ25" t="n">
         <v>67</v>
@@ -3706,10 +3706,10 @@
         <v>4.1</v>
       </c>
       <c r="J27" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="K27" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="L27" t="n">
         <v>1.73</v>
@@ -3730,16 +3730,16 @@
         <v>2.03</v>
       </c>
       <c r="R27" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="S27" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T27" t="n">
         <v>4.75</v>
       </c>
       <c r="U27" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="V27" t="n">
         <v>11</v>
@@ -3748,7 +3748,7 @@
         <v>19</v>
       </c>
       <c r="X27" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y27" t="n">
         <v>51</v>
@@ -3760,7 +3760,7 @@
         <v>6.5</v>
       </c>
       <c r="AB27" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC27" t="n">
         <v>126</v>
@@ -3769,7 +3769,7 @@
         <v>101</v>
       </c>
       <c r="AE27" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AF27" t="n">
         <v>19</v>
@@ -3781,10 +3781,10 @@
         <v>51</v>
       </c>
       <c r="AI27" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AJ27" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28">
@@ -4206,10 +4206,10 @@
         <v>4</v>
       </c>
       <c r="N31" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="O31" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="P31" t="n">
         <v>1.33</v>
@@ -5060,10 +5060,10 @@
         <v>2.75</v>
       </c>
       <c r="N38" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="O38" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="P38" t="n">
         <v>1.53</v>
@@ -5173,13 +5173,13 @@
         <v>1.07</v>
       </c>
       <c r="K39" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L39" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="M39" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="N39" t="n">
         <v>2.15</v>
@@ -5417,7 +5417,7 @@
         <v>1.08</v>
       </c>
       <c r="K41" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="L41" t="n">
         <v>1.4</v>
@@ -6381,13 +6381,13 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="H49" t="n">
         <v>3.4</v>
       </c>
       <c r="I49" t="n">
-        <v>2.45</v>
+        <v>2.6</v>
       </c>
       <c r="J49" t="n">
         <v>1.04</v>
@@ -6420,22 +6420,22 @@
         <v>2.25</v>
       </c>
       <c r="T49" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="U49" t="n">
         <v>15</v>
       </c>
       <c r="V49" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W49" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="X49" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y49" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z49" t="n">
         <v>13</v>
@@ -6456,13 +6456,13 @@
         <v>11</v>
       </c>
       <c r="AF49" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG49" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH49" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AI49" t="n">
         <v>19</v>
@@ -6625,13 +6625,13 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>2.2</v>
+        <v>2.35</v>
       </c>
       <c r="H51" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I51" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="J51" t="n">
         <v>1.04</v>
@@ -6664,16 +6664,16 @@
         <v>2.25</v>
       </c>
       <c r="T51" t="n">
+        <v>10</v>
+      </c>
+      <c r="U51" t="n">
+        <v>13</v>
+      </c>
+      <c r="V51" t="n">
         <v>9.5</v>
       </c>
-      <c r="U51" t="n">
-        <v>12</v>
-      </c>
-      <c r="V51" t="n">
-        <v>9</v>
-      </c>
       <c r="W51" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="X51" t="n">
         <v>17</v>
@@ -6706,13 +6706,13 @@
         <v>11</v>
       </c>
       <c r="AH51" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI51" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ51" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="52">
@@ -7112,36 +7112,92 @@
           <t>Yanbian Longding</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr"/>
-      <c r="H55" t="inlineStr"/>
-      <c r="I55" t="inlineStr"/>
+      <c r="G55" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="H55" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>6.6</v>
+      </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="inlineStr"/>
-      <c r="O55" t="inlineStr"/>
-      <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
-      <c r="S55" t="inlineStr"/>
-      <c r="T55" t="inlineStr"/>
-      <c r="U55" t="inlineStr"/>
-      <c r="V55" t="inlineStr"/>
-      <c r="W55" t="inlineStr"/>
-      <c r="X55" t="inlineStr"/>
-      <c r="Y55" t="inlineStr"/>
-      <c r="Z55" t="inlineStr"/>
-      <c r="AA55" t="inlineStr"/>
-      <c r="AB55" t="inlineStr"/>
-      <c r="AC55" t="inlineStr"/>
-      <c r="AD55" t="inlineStr"/>
-      <c r="AE55" t="inlineStr"/>
-      <c r="AF55" t="inlineStr"/>
-      <c r="AG55" t="inlineStr"/>
-      <c r="AH55" t="inlineStr"/>
-      <c r="AI55" t="inlineStr"/>
-      <c r="AJ55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="M55" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="N55" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="O55" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="P55" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R55" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S55" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="T55" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="U55" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="V55" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="W55" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="X55" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>30</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AB55" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC55" t="n">
+        <v>110</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE55" t="n">
+        <v>16</v>
+      </c>
+      <c r="AF55" t="n">
+        <v>40</v>
+      </c>
+      <c r="AG55" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH55" t="n">
+        <v>150</v>
+      </c>
+      <c r="AI55" t="n">
+        <v>80</v>
+      </c>
+      <c r="AJ55" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -7174,36 +7230,92 @@
           <t>Shaanxi Union</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr"/>
-      <c r="H56" t="inlineStr"/>
-      <c r="I56" t="inlineStr"/>
+      <c r="G56" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="H56" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>2.42</v>
+      </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="inlineStr"/>
-      <c r="O56" t="inlineStr"/>
-      <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
-      <c r="S56" t="inlineStr"/>
-      <c r="T56" t="inlineStr"/>
-      <c r="U56" t="inlineStr"/>
-      <c r="V56" t="inlineStr"/>
-      <c r="W56" t="inlineStr"/>
-      <c r="X56" t="inlineStr"/>
-      <c r="Y56" t="inlineStr"/>
-      <c r="Z56" t="inlineStr"/>
-      <c r="AA56" t="inlineStr"/>
-      <c r="AB56" t="inlineStr"/>
-      <c r="AC56" t="inlineStr"/>
-      <c r="AD56" t="inlineStr"/>
-      <c r="AE56" t="inlineStr"/>
-      <c r="AF56" t="inlineStr"/>
-      <c r="AG56" t="inlineStr"/>
-      <c r="AH56" t="inlineStr"/>
-      <c r="AI56" t="inlineStr"/>
-      <c r="AJ56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M56" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="N56" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="O56" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="P56" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="R56" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S56" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="T56" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="U56" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="W56" t="n">
+        <v>35</v>
+      </c>
+      <c r="X56" t="n">
+        <v>27</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>37</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB56" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC56" t="n">
+        <v>75</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>700</v>
+      </c>
+      <c r="AE56" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AF56" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG56" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH56" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI56" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ56" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -7236,36 +7348,88 @@
           <t>Chongqing Tonglianglong</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr"/>
-      <c r="H57" t="inlineStr"/>
-      <c r="I57" t="inlineStr"/>
+      <c r="G57" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="H57" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="I57" t="n">
+        <v>2.32</v>
+      </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="inlineStr"/>
-      <c r="O57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M57" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="N57" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="O57" t="n">
+        <v>1.65</v>
+      </c>
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
-      <c r="S57" t="inlineStr"/>
-      <c r="T57" t="inlineStr"/>
-      <c r="U57" t="inlineStr"/>
-      <c r="V57" t="inlineStr"/>
-      <c r="W57" t="inlineStr"/>
-      <c r="X57" t="inlineStr"/>
-      <c r="Y57" t="inlineStr"/>
-      <c r="Z57" t="inlineStr"/>
-      <c r="AA57" t="inlineStr"/>
-      <c r="AB57" t="inlineStr"/>
-      <c r="AC57" t="inlineStr"/>
-      <c r="AD57" t="inlineStr"/>
-      <c r="AE57" t="inlineStr"/>
-      <c r="AF57" t="inlineStr"/>
-      <c r="AG57" t="inlineStr"/>
-      <c r="AH57" t="inlineStr"/>
-      <c r="AI57" t="inlineStr"/>
-      <c r="AJ57" t="inlineStr"/>
+      <c r="R57" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="S57" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="T57" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="U57" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>11</v>
+      </c>
+      <c r="W57" t="n">
+        <v>40</v>
+      </c>
+      <c r="X57" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>37</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AB57" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC57" t="n">
+        <v>65</v>
+      </c>
+      <c r="AD57" t="n">
+        <v>500</v>
+      </c>
+      <c r="AE57" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AF57" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AG57" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH57" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI57" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ57" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -7298,36 +7462,92 @@
           <t>Nantong Zhiyun</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr"/>
-      <c r="H58" t="inlineStr"/>
-      <c r="I58" t="inlineStr"/>
+      <c r="G58" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="H58" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="I58" t="n">
+        <v>2.92</v>
+      </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="inlineStr"/>
-      <c r="O58" t="inlineStr"/>
-      <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
-      <c r="S58" t="inlineStr"/>
-      <c r="T58" t="inlineStr"/>
-      <c r="U58" t="inlineStr"/>
-      <c r="V58" t="inlineStr"/>
-      <c r="W58" t="inlineStr"/>
-      <c r="X58" t="inlineStr"/>
-      <c r="Y58" t="inlineStr"/>
-      <c r="Z58" t="inlineStr"/>
-      <c r="AA58" t="inlineStr"/>
-      <c r="AB58" t="inlineStr"/>
-      <c r="AC58" t="inlineStr"/>
-      <c r="AD58" t="inlineStr"/>
-      <c r="AE58" t="inlineStr"/>
-      <c r="AF58" t="inlineStr"/>
-      <c r="AG58" t="inlineStr"/>
-      <c r="AH58" t="inlineStr"/>
-      <c r="AI58" t="inlineStr"/>
-      <c r="AJ58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M58" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="N58" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="O58" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="P58" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="R58" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="S58" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="T58" t="n">
+        <v>7</v>
+      </c>
+      <c r="U58" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="W58" t="n">
+        <v>27</v>
+      </c>
+      <c r="X58" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>35</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AB58" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC58" t="n">
+        <v>75</v>
+      </c>
+      <c r="AD58" t="n">
+        <v>600</v>
+      </c>
+      <c r="AE58" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AF58" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG58" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH58" t="n">
+        <v>37</v>
+      </c>
+      <c r="AI58" t="n">
+        <v>27</v>
+      </c>
+      <c r="AJ58" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -7370,10 +7590,10 @@
         <v>6</v>
       </c>
       <c r="J59" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="K59" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="L59" t="n">
         <v>1.53</v>
@@ -7483,25 +7703,25 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="H60" t="n">
         <v>3.25</v>
       </c>
       <c r="I60" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="J60" t="n">
         <v>1.08</v>
       </c>
       <c r="K60" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="L60" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="M60" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="N60" t="n">
         <v>2.35</v>
@@ -7510,10 +7730,10 @@
         <v>1.57</v>
       </c>
       <c r="P60" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Q60" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="R60" t="n">
         <v>2</v>
@@ -7736,10 +7956,10 @@
         <v>5.25</v>
       </c>
       <c r="J62" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K62" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L62" t="n">
         <v>1.5</v>
@@ -7967,13 +8187,13 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="H64" t="n">
         <v>3.15</v>
       </c>
       <c r="I64" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
@@ -7981,7 +8201,7 @@
         <v>1.39</v>
       </c>
       <c r="M64" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="N64" t="n">
         <v>2.12</v>
@@ -8002,16 +8222,16 @@
         <v>1.72</v>
       </c>
       <c r="T64" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="U64" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="V64" t="n">
         <v>9</v>
       </c>
       <c r="W64" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="X64" t="n">
         <v>19.5</v>
@@ -8035,10 +8255,10 @@
         <v>900</v>
       </c>
       <c r="AE64" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AF64" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AG64" t="n">
         <v>12</v>
@@ -8203,21 +8423,21 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="H66" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I66" t="n">
-        <v>11.5</v>
+        <v>10.75</v>
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="M66" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="N66" t="n">
         <v>1.98</v>
@@ -8229,40 +8449,40 @@
         <v>1.47</v>
       </c>
       <c r="Q66" t="n">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="R66" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="S66" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="T66" t="n">
         <v>5.1</v>
       </c>
       <c r="U66" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="V66" t="n">
         <v>8.25</v>
       </c>
       <c r="W66" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="X66" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Y66" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Z66" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AA66" t="n">
-        <v>7.9</v>
+        <v>7.6</v>
       </c>
       <c r="AB66" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AC66" t="n">
         <v>150</v>
@@ -8271,16 +8491,16 @@
         <v>101</v>
       </c>
       <c r="AE66" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF66" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AG66" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="AH66" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AI66" t="n">
         <v>200</v>
@@ -8336,10 +8556,10 @@
         <v>10</v>
       </c>
       <c r="L67" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M67" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="N67" t="n">
         <v>2.05</v>
@@ -8931,10 +9151,10 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H72" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I72" t="n">
         <v>3.1</v>
@@ -8988,10 +9208,10 @@
         <v>23</v>
       </c>
       <c r="Z72" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA72" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB72" t="n">
         <v>12</v>
@@ -9847,13 +10067,13 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="H80" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="I80" t="n">
-        <v>4.85</v>
+        <v>4.8</v>
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
@@ -9876,31 +10096,31 @@
         <v>2.55</v>
       </c>
       <c r="R80" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="S80" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="T80" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="U80" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="V80" t="n">
         <v>7.8</v>
       </c>
       <c r="W80" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="X80" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="Y80" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="Z80" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AA80" t="n">
         <v>7.2</v>
@@ -9915,7 +10135,7 @@
         <v>250</v>
       </c>
       <c r="AE80" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AF80" t="n">
         <v>35</v>
@@ -9927,10 +10147,10 @@
         <v>100</v>
       </c>
       <c r="AI80" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ80" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="81">
@@ -9990,10 +10210,10 @@
       <c r="P81" t="inlineStr"/>
       <c r="Q81" t="inlineStr"/>
       <c r="R81" t="n">
-        <v>2.75</v>
+        <v>2.95</v>
       </c>
       <c r="S81" t="n">
-        <v>1.42</v>
+        <v>1.37</v>
       </c>
       <c r="T81" t="n">
         <v>32</v>
@@ -10232,55 +10452,55 @@
         <v>1.7</v>
       </c>
       <c r="T83" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="U83" t="n">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="V83" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="W83" t="n">
         <v>13.5</v>
       </c>
       <c r="X83" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="Y83" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Z83" t="n">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="AA83" t="n">
         <v>6.4</v>
       </c>
       <c r="AB83" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AC83" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AD83" t="n">
         <v>900</v>
       </c>
       <c r="AE83" t="n">
-        <v>11.25</v>
+        <v>11.75</v>
       </c>
       <c r="AF83" t="n">
         <v>29</v>
       </c>
       <c r="AG83" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AH83" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AI83" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AJ83" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="84">
@@ -11418,10 +11638,10 @@
         <v>3</v>
       </c>
       <c r="N93" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O93" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="P93" t="n">
         <v>1.5</v>
@@ -11885,10 +12105,10 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="H97" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I97" t="n">
         <v>1.85</v>
@@ -11915,25 +12135,25 @@
         <v>1.44</v>
       </c>
       <c r="Q97" t="n">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="R97" t="n">
         <v>1.8</v>
       </c>
       <c r="S97" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="T97" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="U97" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="V97" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="W97" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="X97" t="n">
         <v>40</v>
@@ -11945,10 +12165,10 @@
         <v>7</v>
       </c>
       <c r="AA97" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AB97" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AC97" t="n">
         <v>70</v>
@@ -11957,10 +12177,10 @@
         <v>600</v>
       </c>
       <c r="AE97" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AF97" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AG97" t="n">
         <v>8.25</v>
@@ -12257,7 +12477,7 @@
         <v>3.35</v>
       </c>
       <c r="I100" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="J100" t="n">
         <v>1.07</v>
@@ -12299,7 +12519,7 @@
         <v>8.5</v>
       </c>
       <c r="W100" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="X100" t="n">
         <v>16.5</v>
@@ -12311,7 +12531,7 @@
         <v>6.8</v>
       </c>
       <c r="AA100" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AB100" t="n">
         <v>16.5</v>
@@ -12326,7 +12546,7 @@
         <v>10</v>
       </c>
       <c r="AF100" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AG100" t="n">
         <v>13</v>
@@ -12373,40 +12593,40 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>4.75</v>
+        <v>4.7</v>
       </c>
       <c r="H101" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I101" t="n">
         <v>1.7</v>
       </c>
       <c r="J101" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="K101" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="L101" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="M101" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="N101" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="O101" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="P101" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Q101" t="n">
         <v>2.35</v>
       </c>
-      <c r="O101" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="P101" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="Q101" t="n">
-        <v>2.32</v>
-      </c>
       <c r="R101" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="S101" t="n">
         <v>1.6</v>
@@ -12424,19 +12644,19 @@
         <v>90</v>
       </c>
       <c r="X101" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="Y101" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="Z101" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AA101" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AB101" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AC101" t="n">
         <v>150</v>
@@ -12445,7 +12665,7 @@
         <v>101</v>
       </c>
       <c r="AE101" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="AF101" t="n">
         <v>6.8</v>
@@ -12454,7 +12674,7 @@
         <v>8.75</v>
       </c>
       <c r="AH101" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AI101" t="n">
         <v>16.5</v>
@@ -12617,7 +12837,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>4</v>
+        <v>4.05</v>
       </c>
       <c r="H103" t="n">
         <v>3.25</v>
@@ -12647,7 +12867,7 @@
         <v>1.52</v>
       </c>
       <c r="Q103" t="n">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="R103" t="n">
         <v>2.1</v>
@@ -12659,7 +12879,7 @@
         <v>9.25</v>
       </c>
       <c r="U103" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="V103" t="n">
         <v>14.5</v>
@@ -12888,10 +13108,10 @@
         <v>1.6</v>
       </c>
       <c r="P105" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="Q105" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="R105" t="n">
         <v>1.98</v>
@@ -12933,10 +13153,10 @@
         <v>900</v>
       </c>
       <c r="AE105" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AF105" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AG105" t="n">
         <v>13.5</v>
@@ -12948,7 +13168,7 @@
         <v>40</v>
       </c>
       <c r="AJ105" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="106">
@@ -13010,10 +13230,10 @@
         <v>1.6</v>
       </c>
       <c r="P106" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="Q106" t="n">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="R106" t="n">
         <v>1.93</v>
@@ -13025,7 +13245,7 @@
         <v>7</v>
       </c>
       <c r="U106" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="V106" t="n">
         <v>10</v>
@@ -13070,7 +13290,7 @@
         <v>25</v>
       </c>
       <c r="AJ106" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="107">
@@ -13117,7 +13337,7 @@
         <v>1.08</v>
       </c>
       <c r="K107" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="L107" t="n">
         <v>1.44</v>
@@ -13370,10 +13590,10 @@
         <v>3</v>
       </c>
       <c r="N109" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="O109" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="P109" t="n">
         <v>1.44</v>
@@ -13492,10 +13712,10 @@
         <v>3</v>
       </c>
       <c r="N110" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="O110" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="P110" t="n">
         <v>1.44</v>
@@ -13593,13 +13813,13 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="H111" t="n">
         <v>2.9</v>
       </c>
       <c r="I111" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="J111" t="n">
         <v>1.11</v>
@@ -13641,7 +13861,7 @@
         <v>12</v>
       </c>
       <c r="W111" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="X111" t="n">
         <v>29</v>
@@ -14203,19 +14423,19 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="H116" t="n">
         <v>3.5</v>
       </c>
       <c r="I116" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="J116" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K116" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L116" t="n">
         <v>1.36</v>
@@ -14230,10 +14450,10 @@
         <v>1.67</v>
       </c>
       <c r="P116" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Q116" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="R116" t="n">
         <v>1.91</v>
@@ -14242,10 +14462,10 @@
         <v>1.8</v>
       </c>
       <c r="T116" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="U116" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V116" t="n">
         <v>10</v>
@@ -14281,7 +14501,7 @@
         <v>13</v>
       </c>
       <c r="AG116" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH116" t="n">
         <v>29</v>
@@ -14325,13 +14545,13 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="H117" t="n">
         <v>3.4</v>
       </c>
       <c r="I117" t="n">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="J117" t="n">
         <v>1.05</v>
@@ -14509,19 +14729,19 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1.7</v>
+        <v>1.57</v>
       </c>
       <c r="H119" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="I119" t="n">
-        <v>5.25</v>
+        <v>6.25</v>
       </c>
       <c r="J119" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K119" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L119" t="n">
         <v>1.3</v>
@@ -14536,67 +14756,67 @@
         <v>1.83</v>
       </c>
       <c r="P119" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q119" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R119" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S119" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T119" t="n">
         <v>6.5</v>
       </c>
       <c r="U119" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="V119" t="n">
         <v>8.5</v>
       </c>
       <c r="W119" t="n">
+        <v>11</v>
+      </c>
+      <c r="X119" t="n">
         <v>13</v>
-      </c>
-      <c r="X119" t="n">
-        <v>15</v>
       </c>
       <c r="Y119" t="n">
         <v>29</v>
       </c>
       <c r="Z119" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA119" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB119" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC119" t="n">
+        <v>67</v>
+      </c>
+      <c r="AD119" t="n">
+        <v>401</v>
+      </c>
+      <c r="AE119" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF119" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG119" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH119" t="n">
+        <v>67</v>
+      </c>
+      <c r="AI119" t="n">
         <v>51</v>
       </c>
-      <c r="AD119" t="n">
-        <v>351</v>
-      </c>
-      <c r="AE119" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF119" t="n">
-        <v>26</v>
-      </c>
-      <c r="AG119" t="n">
-        <v>17</v>
-      </c>
-      <c r="AH119" t="n">
+      <c r="AJ119" t="n">
         <v>51</v>
-      </c>
-      <c r="AI119" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ119" t="n">
-        <v>41</v>
       </c>
     </row>
     <row r="120">
@@ -14652,10 +14872,10 @@
         <v>8</v>
       </c>
       <c r="N120" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="O120" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P120" t="n">
         <v>1.18</v>
@@ -14685,7 +14905,7 @@
         <v>10</v>
       </c>
       <c r="Y120" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Z120" t="n">
         <v>23</v>
@@ -14703,19 +14923,19 @@
         <v>201</v>
       </c>
       <c r="AE120" t="n">
+        <v>41</v>
+      </c>
+      <c r="AF120" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG120" t="n">
         <v>34</v>
-      </c>
-      <c r="AF120" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG120" t="n">
-        <v>29</v>
       </c>
       <c r="AH120" t="n">
         <v>151</v>
       </c>
       <c r="AI120" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AJ120" t="n">
         <v>51</v>
@@ -14759,7 +14979,7 @@
         <v>3.25</v>
       </c>
       <c r="I121" t="n">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
@@ -14767,7 +14987,7 @@
         <v>1.2</v>
       </c>
       <c r="M121" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="N121" t="n">
         <v>1.6</v>
@@ -14784,13 +15004,13 @@
         <v>2.32</v>
       </c>
       <c r="T121" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="U121" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="V121" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="W121" t="n">
         <v>30</v>
@@ -14799,16 +15019,16 @@
         <v>18.5</v>
       </c>
       <c r="Y121" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Z121" t="n">
         <v>12.5</v>
       </c>
       <c r="AA121" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AB121" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AC121" t="n">
         <v>37</v>
@@ -14817,7 +15037,7 @@
         <v>200</v>
       </c>
       <c r="AE121" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AF121" t="n">
         <v>15</v>
@@ -14826,10 +15046,10 @@
         <v>9.5</v>
       </c>
       <c r="AH121" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AI121" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AJ121" t="n">
         <v>23</v>
@@ -14867,13 +15087,13 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="H122" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="I122" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
@@ -14895,7 +15115,7 @@
         <v>1.7</v>
       </c>
       <c r="S122" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="T122" t="n">
         <v>7.5</v>
@@ -14907,7 +15127,7 @@
         <v>8.25</v>
       </c>
       <c r="W122" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="X122" t="n">
         <v>14</v>
@@ -14919,16 +15139,16 @@
         <v>11</v>
       </c>
       <c r="AA122" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="AB122" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AC122" t="n">
         <v>65</v>
       </c>
       <c r="AD122" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AE122" t="n">
         <v>12</v>
@@ -14937,7 +15157,7 @@
         <v>22</v>
       </c>
       <c r="AG122" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AH122" t="n">
         <v>60</v>
@@ -16082,7 +16302,7 @@
         <v>1.25</v>
       </c>
       <c r="H132" t="n">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="I132" t="n">
         <v>8.5</v>
@@ -16142,7 +16362,7 @@
         <v>13</v>
       </c>
       <c r="AB132" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC132" t="n">
         <v>126</v>
@@ -16160,7 +16380,7 @@
         <v>26</v>
       </c>
       <c r="AH132" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AI132" t="n">
         <v>81</v>
@@ -16323,19 +16543,19 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="H134" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="I134" t="n">
-        <v>2.05</v>
+        <v>2.6</v>
       </c>
       <c r="J134" t="n">
         <v>1.04</v>
       </c>
       <c r="K134" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L134" t="n">
         <v>1.29</v>
@@ -16344,10 +16564,10 @@
         <v>3.5</v>
       </c>
       <c r="N134" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="O134" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="P134" t="n">
         <v>1.4</v>
@@ -16356,61 +16576,61 @@
         <v>2.75</v>
       </c>
       <c r="R134" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="S134" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="T134" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="U134" t="n">
+        <v>12</v>
+      </c>
+      <c r="V134" t="n">
         <v>9.5</v>
       </c>
-      <c r="U134" t="n">
-        <v>17</v>
-      </c>
-      <c r="V134" t="n">
-        <v>11</v>
-      </c>
       <c r="W134" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="X134" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="Y134" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z134" t="n">
         <v>12</v>
       </c>
       <c r="AA134" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB134" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC134" t="n">
         <v>51</v>
       </c>
       <c r="AD134" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AE134" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AF134" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG134" t="n">
         <v>10</v>
       </c>
-      <c r="AG134" t="n">
-        <v>9</v>
-      </c>
       <c r="AH134" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AI134" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AJ134" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="135">
@@ -16695,7 +16915,7 @@
         <v>3.3</v>
       </c>
       <c r="I137" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="J137" t="n">
         <v>1.04</v>
@@ -16704,16 +16924,16 @@
         <v>12</v>
       </c>
       <c r="L137" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M137" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N137" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="O137" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="P137" t="n">
         <v>1.36</v>
@@ -16743,7 +16963,7 @@
         <v>21</v>
       </c>
       <c r="Y137" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z137" t="n">
         <v>12</v>
@@ -16761,7 +16981,7 @@
         <v>151</v>
       </c>
       <c r="AE137" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AF137" t="n">
         <v>13</v>
@@ -17055,19 +17275,19 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="H140" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I140" t="n">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="J140" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K140" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L140" t="n">
         <v>1.29</v>
@@ -17076,10 +17296,10 @@
         <v>3.5</v>
       </c>
       <c r="N140" t="n">
-        <v>1.98</v>
+        <v>1.94</v>
       </c>
       <c r="O140" t="n">
-        <v>1.88</v>
+        <v>1.79</v>
       </c>
       <c r="P140" t="n">
         <v>1.4</v>
@@ -17097,16 +17317,16 @@
         <v>7.5</v>
       </c>
       <c r="U140" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="V140" t="n">
         <v>9</v>
       </c>
       <c r="W140" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="X140" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y140" t="n">
         <v>26</v>
@@ -17124,13 +17344,13 @@
         <v>51</v>
       </c>
       <c r="AD140" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AE140" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF140" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG140" t="n">
         <v>13</v>
@@ -17139,10 +17359,10 @@
         <v>41</v>
       </c>
       <c r="AI140" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ140" t="n">
         <v>34</v>
-      </c>
-      <c r="AJ140" t="n">
-        <v>41</v>
       </c>
     </row>
     <row r="141">
@@ -17198,10 +17418,10 @@
         <v>3.5</v>
       </c>
       <c r="N141" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="O141" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="P141" t="n">
         <v>1.4</v>
@@ -17299,13 +17519,13 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="H142" t="n">
         <v>3.1</v>
       </c>
       <c r="I142" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="J142" t="n">
         <v>1.1</v>
@@ -17347,7 +17567,7 @@
         <v>10</v>
       </c>
       <c r="W142" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="X142" t="n">
         <v>23</v>
@@ -17371,7 +17591,7 @@
         <v>501</v>
       </c>
       <c r="AE142" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AF142" t="n">
         <v>13</v>
@@ -19129,13 +19349,13 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>2.65</v>
+        <v>2.52</v>
       </c>
       <c r="H157" t="n">
         <v>3.25</v>
       </c>
       <c r="I157" t="n">
-        <v>2.4</v>
+        <v>2.52</v>
       </c>
       <c r="J157" t="n">
         <v>1.05</v>
@@ -19144,7 +19364,7 @@
         <v>7.7</v>
       </c>
       <c r="L157" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="M157" t="n">
         <v>3.55</v>
@@ -19168,52 +19388,52 @@
         <v>2.18</v>
       </c>
       <c r="T157" t="n">
-        <v>10.25</v>
+        <v>9.75</v>
       </c>
       <c r="U157" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="V157" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="W157" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="X157" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="Y157" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z157" t="n">
         <v>7.7</v>
       </c>
       <c r="AA157" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AB157" t="n">
         <v>12</v>
       </c>
       <c r="AC157" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AD157" t="n">
         <v>300</v>
       </c>
       <c r="AE157" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF157" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AG157" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AH157" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI157" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AJ157" t="n">
         <v>26</v>
@@ -19254,10 +19474,10 @@
         <v>1.13</v>
       </c>
       <c r="H158" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="I158" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
@@ -19289,7 +19509,7 @@
         <v>9.75</v>
       </c>
       <c r="U158" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="V158" t="n">
         <v>10.75</v>
@@ -19315,21 +19535,23 @@
       <c r="AC158" t="n">
         <v>150</v>
       </c>
-      <c r="AD158" t="inlineStr"/>
+      <c r="AD158" t="n">
+        <v>1000</v>
+      </c>
       <c r="AE158" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AF158" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AG158" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AH158" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="AI158" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AJ158" t="n">
         <v>150</v>
@@ -20221,13 +20443,13 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="H166" t="n">
         <v>3.3</v>
       </c>
       <c r="I166" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="J166" t="n">
         <v>1.07</v>
@@ -20242,10 +20464,10 @@
         <v>3</v>
       </c>
       <c r="N166" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O166" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="P166" t="n">
         <v>1.5</v>
@@ -20263,7 +20485,7 @@
         <v>6.5</v>
       </c>
       <c r="U166" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="V166" t="n">
         <v>9</v>
@@ -20293,7 +20515,7 @@
         <v>351</v>
       </c>
       <c r="AE166" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AF166" t="n">
         <v>19</v>
@@ -20608,10 +20830,10 @@
         <v>3</v>
       </c>
       <c r="N169" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O169" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="P169" t="n">
         <v>1.5</v>
@@ -20831,19 +21053,19 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="H171" t="n">
         <v>3</v>
       </c>
       <c r="I171" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J171" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="K171" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="L171" t="n">
         <v>1.53</v>
@@ -20873,13 +21095,13 @@
         <v>6</v>
       </c>
       <c r="U171" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V171" t="n">
         <v>11</v>
       </c>
       <c r="W171" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="X171" t="n">
         <v>26</v>
@@ -20909,7 +21131,7 @@
         <v>13</v>
       </c>
       <c r="AG171" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH171" t="n">
         <v>34</v>
@@ -21197,7 +21419,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="H174" t="n">
         <v>3.2</v>
@@ -21269,16 +21491,16 @@
         <v>351</v>
       </c>
       <c r="AE174" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AF174" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG174" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH174" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI174" t="n">
         <v>26</v>
@@ -21444,28 +21666,28 @@
         <v>1.55</v>
       </c>
       <c r="H176" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I176" t="n">
         <v>5.5</v>
       </c>
       <c r="J176" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K176" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="L176" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="M176" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="N176" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="O176" t="n">
-        <v>1.65</v>
+        <v>1.53</v>
       </c>
       <c r="P176" t="n">
         <v>1.5</v>
@@ -21474,16 +21696,16 @@
         <v>2.5</v>
       </c>
       <c r="R176" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="S176" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="T176" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="U176" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="V176" t="n">
         <v>9.5</v>
@@ -21492,13 +21714,13 @@
         <v>11</v>
       </c>
       <c r="X176" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y176" t="n">
         <v>41</v>
       </c>
       <c r="Z176" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AA176" t="n">
         <v>7.5</v>
@@ -21566,7 +21788,7 @@
         <v>1.57</v>
       </c>
       <c r="H177" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I177" t="n">
         <v>5.75</v>
@@ -21596,13 +21818,13 @@
         <v>2.63</v>
       </c>
       <c r="R177" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S177" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="T177" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="U177" t="n">
         <v>6.5</v>
@@ -21620,7 +21842,7 @@
         <v>34</v>
       </c>
       <c r="Z177" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AA177" t="n">
         <v>7</v>
@@ -21685,19 +21907,19 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="H178" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="I178" t="n">
-        <v>5.5</v>
+        <v>6.25</v>
       </c>
       <c r="J178" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="K178" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L178" t="n">
         <v>1.3</v>
@@ -21727,13 +21949,13 @@
         <v>6.5</v>
       </c>
       <c r="U178" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="V178" t="n">
         <v>9</v>
       </c>
       <c r="W178" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X178" t="n">
         <v>15</v>
@@ -21745,16 +21967,16 @@
         <v>9</v>
       </c>
       <c r="AA178" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB178" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC178" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD178" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="AE178" t="n">
         <v>15</v>
@@ -21763,13 +21985,13 @@
         <v>29</v>
       </c>
       <c r="AG178" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH178" t="n">
+        <v>67</v>
+      </c>
+      <c r="AI178" t="n">
         <v>51</v>
-      </c>
-      <c r="AI178" t="n">
-        <v>41</v>
       </c>
       <c r="AJ178" t="n">
         <v>51</v>
@@ -22182,22 +22404,22 @@
         <v>3.75</v>
       </c>
       <c r="J182" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K182" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="L182" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="M182" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N182" t="n">
-        <v>2.35</v>
+        <v>2.2</v>
       </c>
       <c r="O182" t="n">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="P182" t="n">
         <v>1.5</v>
@@ -22242,7 +22464,7 @@
         <v>51</v>
       </c>
       <c r="AD182" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="AE182" t="n">
         <v>10</v>
@@ -22539,13 +22761,13 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>2.15</v>
+        <v>1.85</v>
       </c>
       <c r="H185" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="I185" t="n">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="J185" t="n">
         <v>1.07</v>
@@ -22566,31 +22788,31 @@
         <v>1.67</v>
       </c>
       <c r="P185" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="Q185" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="R185" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="S185" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T185" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="U185" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="V185" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W185" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="X185" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y185" t="n">
         <v>34</v>
@@ -22602,28 +22824,28 @@
         <v>6</v>
       </c>
       <c r="AB185" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC185" t="n">
         <v>51</v>
       </c>
       <c r="AD185" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AE185" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF185" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AG185" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH185" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI185" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AJ185" t="n">
         <v>41</v>
@@ -23164,16 +23386,16 @@
         <v>10</v>
       </c>
       <c r="L190" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M190" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="N190" t="n">
         <v>2.05</v>
       </c>
       <c r="O190" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="P190" t="n">
         <v>1.44</v>
@@ -23191,7 +23413,7 @@
         <v>6.5</v>
       </c>
       <c r="U190" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="V190" t="n">
         <v>8.5</v>
@@ -23218,7 +23440,7 @@
         <v>51</v>
       </c>
       <c r="AD190" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AE190" t="n">
         <v>13</v>
@@ -23405,7 +23627,7 @@
         <v>1.06</v>
       </c>
       <c r="K192" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="L192" t="n">
         <v>1.3</v>
@@ -23515,19 +23737,19 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="H193" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I193" t="n">
         <v>3.8</v>
       </c>
       <c r="J193" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K193" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="L193" t="n">
         <v>1.36</v>
@@ -23557,7 +23779,7 @@
         <v>6.5</v>
       </c>
       <c r="U193" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="V193" t="n">
         <v>9</v>
@@ -23584,7 +23806,7 @@
         <v>51</v>
       </c>
       <c r="AD193" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AE193" t="n">
         <v>9.5</v>
@@ -23759,13 +23981,13 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="H195" t="n">
         <v>3.7</v>
       </c>
       <c r="I195" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="J195" t="n">
         <v>1.03</v>
@@ -23807,7 +24029,7 @@
         <v>8.5</v>
       </c>
       <c r="W195" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="X195" t="n">
         <v>13</v>
@@ -23822,7 +24044,7 @@
         <v>7.5</v>
       </c>
       <c r="AB195" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC195" t="n">
         <v>41</v>
@@ -23846,7 +24068,7 @@
         <v>29</v>
       </c>
       <c r="AJ195" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="196">
@@ -24125,46 +24347,46 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="H198" t="n">
-        <v>4.05</v>
+        <v>4.35</v>
       </c>
       <c r="I198" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="J198" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K198" t="n">
-        <v>8.25</v>
+        <v>9</v>
       </c>
       <c r="L198" t="n">
-        <v>1.23</v>
+        <v>1.19</v>
       </c>
       <c r="M198" t="n">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="N198" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="O198" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="P198" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="Q198" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="R198" t="n">
         <v>1.7</v>
       </c>
-      <c r="O198" t="n">
+      <c r="S198" t="n">
         <v>2.05</v>
       </c>
-      <c r="P198" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="Q198" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="R198" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="S198" t="n">
-        <v>1.93</v>
-      </c>
       <c r="T198" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="U198" t="n">
         <v>35</v>
@@ -24179,40 +24401,40 @@
         <v>50</v>
       </c>
       <c r="Y198" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="Z198" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA198" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB198" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AC198" t="n">
+        <v>60</v>
+      </c>
+      <c r="AD198" t="n">
+        <v>400</v>
+      </c>
+      <c r="AE198" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AF198" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG198" t="n">
         <v>8.25</v>
-      </c>
-      <c r="AA198" t="n">
-        <v>8</v>
-      </c>
-      <c r="AB198" t="n">
-        <v>16</v>
-      </c>
-      <c r="AC198" t="n">
-        <v>70</v>
-      </c>
-      <c r="AD198" t="n">
-        <v>500</v>
-      </c>
-      <c r="AE198" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AF198" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AG198" t="n">
-        <v>8</v>
       </c>
       <c r="AH198" t="n">
         <v>11</v>
       </c>
       <c r="AI198" t="n">
-        <v>12</v>
+        <v>11.25</v>
       </c>
       <c r="AJ198" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="199">
@@ -24756,10 +24978,10 @@
         <v>4</v>
       </c>
       <c r="N203" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="O203" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="P203" t="n">
         <v>1.33</v>
@@ -24979,13 +25201,13 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H205" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="I205" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
@@ -25002,31 +25224,31 @@
         <v>1.65</v>
       </c>
       <c r="P205" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="Q205" t="n">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="R205" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="S205" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="T205" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="U205" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="V205" t="n">
         <v>9</v>
       </c>
       <c r="W205" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="X205" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="Y205" t="n">
         <v>30</v>
@@ -25035,16 +25257,16 @@
         <v>8.5</v>
       </c>
       <c r="AA205" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="AB205" t="n">
         <v>14.5</v>
       </c>
       <c r="AC205" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AD205" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="AE205" t="n">
         <v>8.5</v>
@@ -25053,10 +25275,10 @@
         <v>15</v>
       </c>
       <c r="AG205" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AH205" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AI205" t="n">
         <v>28</v>
@@ -25097,13 +25319,13 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="H206" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="I206" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
@@ -25126,37 +25348,37 @@
         <v>3.3</v>
       </c>
       <c r="R206" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="S206" t="n">
         <v>1.5</v>
       </c>
       <c r="T206" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="U206" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="V206" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="W206" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="X206" t="n">
         <v>11.75</v>
       </c>
       <c r="Y206" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Z206" t="n">
         <v>12</v>
       </c>
       <c r="AA206" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AB206" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AC206" t="n">
         <v>175</v>
@@ -25168,16 +25390,16 @@
         <v>24</v>
       </c>
       <c r="AF206" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AG206" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AH206" t="n">
         <v>350</v>
       </c>
       <c r="AI206" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AJ206" t="n">
         <v>150</v>
@@ -25238,10 +25460,10 @@
         <v>2.1</v>
       </c>
       <c r="P207" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="Q207" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="R207" t="n">
         <v>1.93</v>
@@ -25586,10 +25808,10 @@
         <v>1.75</v>
       </c>
       <c r="J210" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K210" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L210" t="n">
         <v>1.3</v>
@@ -25598,10 +25820,10 @@
         <v>3.4</v>
       </c>
       <c r="N210" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="O210" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="P210" t="n">
         <v>1.4</v>
@@ -25699,19 +25921,19 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="H211" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I211" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="J211" t="n">
         <v>1.06</v>
       </c>
       <c r="K211" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="L211" t="n">
         <v>1.3</v>
@@ -25750,16 +25972,16 @@
         <v>34</v>
       </c>
       <c r="X211" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Y211" t="n">
         <v>34</v>
       </c>
       <c r="Z211" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AA211" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB211" t="n">
         <v>15</v>
@@ -25774,13 +25996,13 @@
         <v>7.5</v>
       </c>
       <c r="AF211" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG211" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AH211" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI211" t="n">
         <v>19</v>
@@ -26196,13 +26418,13 @@
         <v>4.9</v>
       </c>
       <c r="J215" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K215" t="n">
         <v>7.1</v>
       </c>
       <c r="L215" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M215" t="n">
         <v>3.25</v>
@@ -26226,16 +26448,16 @@
         <v>1.93</v>
       </c>
       <c r="T215" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="U215" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="V215" t="n">
         <v>7.8</v>
       </c>
       <c r="W215" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="X215" t="n">
         <v>13</v>
@@ -26250,7 +26472,7 @@
         <v>6.6</v>
       </c>
       <c r="AB215" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AC215" t="n">
         <v>70</v>
@@ -26259,22 +26481,22 @@
         <v>500</v>
       </c>
       <c r="AE215" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AF215" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AG215" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AH215" t="n">
         <v>100</v>
       </c>
       <c r="AI215" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AJ215" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="216">

--- a/Jogos_da_Semana_FlashScore_2025-04-06.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-06.xlsx
@@ -838,7 +838,7 @@
         <v>51</v>
       </c>
       <c r="AD3" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AE3" t="n">
         <v>9</v>
@@ -1626,16 +1626,16 @@
         <v>1.75</v>
       </c>
       <c r="H10" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I10" t="n">
         <v>4.5</v>
       </c>
       <c r="J10" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K10" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L10" t="n">
         <v>1.25</v>
@@ -1644,10 +1644,10 @@
         <v>4</v>
       </c>
       <c r="N10" t="n">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="O10" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="P10" t="n">
         <v>1.36</v>
@@ -1656,10 +1656,10 @@
         <v>3</v>
       </c>
       <c r="R10" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S10" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T10" t="n">
         <v>7.5</v>
@@ -1683,7 +1683,7 @@
         <v>12</v>
       </c>
       <c r="AA10" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB10" t="n">
         <v>15</v>
@@ -1882,10 +1882,10 @@
         <v>8</v>
       </c>
       <c r="L12" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="M12" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="N12" t="n">
         <v>2.2</v>
@@ -2111,7 +2111,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H14" t="n">
         <v>3.8</v>
@@ -2120,10 +2120,10 @@
         <v>5</v>
       </c>
       <c r="J14" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K14" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L14" t="n">
         <v>1.25</v>
@@ -2189,7 +2189,7 @@
         <v>26</v>
       </c>
       <c r="AG14" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH14" t="n">
         <v>51</v>
@@ -2605,7 +2605,7 @@
         <v>3.1</v>
       </c>
       <c r="I18" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="J18" t="n">
         <v>1.13</v>
@@ -3209,13 +3209,13 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="H23" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I23" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="J23" t="n">
         <v>1.07</v>
@@ -3230,10 +3230,10 @@
         <v>3</v>
       </c>
       <c r="N23" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="O23" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="P23" t="n">
         <v>1.44</v>
@@ -3242,22 +3242,22 @@
         <v>2.63</v>
       </c>
       <c r="R23" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S23" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="T23" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="U23" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="V23" t="n">
         <v>8.5</v>
       </c>
       <c r="W23" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X23" t="n">
         <v>15</v>
@@ -3266,13 +3266,13 @@
         <v>34</v>
       </c>
       <c r="Z23" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA23" t="n">
         <v>7</v>
       </c>
       <c r="AB23" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC23" t="n">
         <v>67</v>
@@ -3281,19 +3281,19 @@
         <v>501</v>
       </c>
       <c r="AE23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF23" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG23" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH23" t="n">
+        <v>67</v>
+      </c>
+      <c r="AI23" t="n">
         <v>51</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>41</v>
       </c>
       <c r="AJ23" t="n">
         <v>51</v>
@@ -3453,13 +3453,13 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H25" t="n">
         <v>2.8</v>
       </c>
       <c r="I25" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="J25" t="n">
         <v>1.17</v>
@@ -3537,7 +3537,7 @@
         <v>51</v>
       </c>
       <c r="AI25" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AJ25" t="n">
         <v>67</v>
@@ -3590,10 +3590,10 @@
         <v>4.5</v>
       </c>
       <c r="L26" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="M26" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="N26" t="n">
         <v>3.6</v>
@@ -3632,7 +3632,7 @@
         <v>51</v>
       </c>
       <c r="Z26" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AA26" t="n">
         <v>6</v>
@@ -3656,10 +3656,10 @@
         <v>17</v>
       </c>
       <c r="AH26" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI26" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AJ26" t="n">
         <v>67</v>
@@ -3828,10 +3828,10 @@
         <v>5</v>
       </c>
       <c r="J28" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="K28" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="L28" t="n">
         <v>1.57</v>
@@ -3950,10 +3950,10 @@
         <v>4.5</v>
       </c>
       <c r="J29" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="K29" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="L29" t="n">
         <v>1.53</v>
@@ -3974,10 +3974,10 @@
         <v>2.25</v>
       </c>
       <c r="R29" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S29" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="T29" t="n">
         <v>5.5</v>
@@ -4004,7 +4004,7 @@
         <v>6</v>
       </c>
       <c r="AB29" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC29" t="n">
         <v>81</v>
@@ -4013,7 +4013,7 @@
         <v>101</v>
       </c>
       <c r="AE29" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF29" t="n">
         <v>21</v>
@@ -4816,10 +4816,10 @@
         <v>3</v>
       </c>
       <c r="N36" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="O36" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="P36" t="n">
         <v>1.5</v>
@@ -5893,13 +5893,13 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="H45" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I45" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="J45" t="n">
         <v>1.1</v>
@@ -5932,16 +5932,16 @@
         <v>1.62</v>
       </c>
       <c r="T45" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="U45" t="n">
         <v>8.5</v>
       </c>
       <c r="V45" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W45" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="X45" t="n">
         <v>21</v>
@@ -5977,10 +5977,10 @@
         <v>41</v>
       </c>
       <c r="AI45" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ45" t="n">
         <v>41</v>
-      </c>
-      <c r="AJ45" t="n">
-        <v>51</v>
       </c>
     </row>
     <row r="46">
@@ -6036,10 +6036,10 @@
         <v>3</v>
       </c>
       <c r="N46" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="O46" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="P46" t="n">
         <v>1.5</v>
@@ -6048,10 +6048,10 @@
         <v>2.5</v>
       </c>
       <c r="R46" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S46" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="T46" t="n">
         <v>8.5</v>
@@ -6069,7 +6069,7 @@
         <v>23</v>
       </c>
       <c r="Y46" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z46" t="n">
         <v>7</v>
@@ -6102,7 +6102,7 @@
         <v>23</v>
       </c>
       <c r="AJ46" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="47">
@@ -6146,37 +6146,37 @@
         <v>1.57</v>
       </c>
       <c r="J47" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K47" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="L47" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="M47" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N47" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O47" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="P47" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="Q47" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="R47" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S47" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="T47" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="U47" t="n">
         <v>29</v>
@@ -6194,13 +6194,13 @@
         <v>51</v>
       </c>
       <c r="Z47" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA47" t="n">
         <v>8</v>
       </c>
       <c r="AB47" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC47" t="n">
         <v>81</v>
@@ -6396,16 +6396,16 @@
         <v>13</v>
       </c>
       <c r="L49" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="M49" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="N49" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="O49" t="n">
-        <v>2.15</v>
+        <v>2.08</v>
       </c>
       <c r="P49" t="n">
         <v>1.33</v>
@@ -6515,7 +6515,7 @@
         <v>1.03</v>
       </c>
       <c r="K50" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L50" t="n">
         <v>1.17</v>
@@ -6524,10 +6524,10 @@
         <v>5</v>
       </c>
       <c r="N50" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="O50" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="P50" t="n">
         <v>1.29</v>
@@ -6750,10 +6750,10 @@
         <v>1.8</v>
       </c>
       <c r="H52" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I52" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J52" t="n">
         <v>1.03</v>
@@ -6825,7 +6825,7 @@
         <v>23</v>
       </c>
       <c r="AG52" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH52" t="n">
         <v>41</v>
@@ -6869,10 +6869,10 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="H53" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I53" t="n">
         <v>2.35</v>
@@ -6881,34 +6881,34 @@
         <v>1.03</v>
       </c>
       <c r="K53" t="n">
+        <v>17</v>
+      </c>
+      <c r="L53" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="N53" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="O53" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="P53" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="R53" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S53" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="T53" t="n">
         <v>15</v>
-      </c>
-      <c r="L53" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="M53" t="n">
-        <v>5</v>
-      </c>
-      <c r="N53" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="O53" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="P53" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="Q53" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="R53" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S53" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="T53" t="n">
-        <v>13</v>
       </c>
       <c r="U53" t="n">
         <v>17</v>
@@ -6926,25 +6926,25 @@
         <v>23</v>
       </c>
       <c r="Z53" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA53" t="n">
         <v>7</v>
       </c>
       <c r="AB53" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC53" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AD53" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AE53" t="n">
         <v>12</v>
       </c>
       <c r="AF53" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG53" t="n">
         <v>9.5</v>
@@ -7113,27 +7113,27 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="H55" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I55" t="n">
-        <v>6.6</v>
+        <v>7.3</v>
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="M55" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="N55" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="O55" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="P55" t="n">
         <v>1.38</v>
@@ -7151,13 +7151,13 @@
         <v>6.2</v>
       </c>
       <c r="U55" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="V55" t="n">
         <v>8.25</v>
       </c>
       <c r="W55" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="X55" t="n">
         <v>12</v>
@@ -7166,37 +7166,37 @@
         <v>30</v>
       </c>
       <c r="Z55" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AA55" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AB55" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AC55" t="n">
         <v>110</v>
       </c>
       <c r="AD55" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AE55" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AF55" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AG55" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AH55" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AI55" t="n">
+        <v>90</v>
+      </c>
+      <c r="AJ55" t="n">
         <v>80</v>
-      </c>
-      <c r="AJ55" t="n">
-        <v>75</v>
       </c>
     </row>
     <row r="56">
@@ -7234,42 +7234,42 @@
         <v>2.82</v>
       </c>
       <c r="H56" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="I56" t="n">
-        <v>2.42</v>
+        <v>2.45</v>
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="M56" t="n">
-        <v>2.67</v>
+        <v>2.6</v>
       </c>
       <c r="N56" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="O56" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="P56" t="n">
         <v>1.42</v>
       </c>
       <c r="Q56" t="n">
-        <v>2.47</v>
+        <v>2.45</v>
       </c>
       <c r="R56" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="S56" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="T56" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="U56" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="V56" t="n">
         <v>10.5</v>
@@ -7278,31 +7278,31 @@
         <v>35</v>
       </c>
       <c r="X56" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Y56" t="n">
         <v>37</v>
       </c>
       <c r="Z56" t="n">
-        <v>8.25</v>
+        <v>7.8</v>
       </c>
       <c r="AA56" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AB56" t="n">
         <v>15</v>
       </c>
       <c r="AC56" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AD56" t="n">
         <v>700</v>
       </c>
       <c r="AE56" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="AF56" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AG56" t="n">
         <v>9.5</v>
@@ -7311,10 +7311,10 @@
         <v>26</v>
       </c>
       <c r="AI56" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AJ56" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="57">
@@ -7349,62 +7349,66 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>3.05</v>
+        <v>3.45</v>
       </c>
       <c r="H57" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="I57" t="n">
-        <v>2.32</v>
+        <v>2.1</v>
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="M57" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="N57" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="O57" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr"/>
+        <v>1.7</v>
+      </c>
+      <c r="P57" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>2.65</v>
+      </c>
       <c r="R57" t="n">
         <v>1.72</v>
       </c>
       <c r="S57" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="T57" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="U57" t="n">
-        <v>15.5</v>
+        <v>18.5</v>
       </c>
       <c r="V57" t="n">
-        <v>11</v>
+        <v>11.75</v>
       </c>
       <c r="W57" t="n">
+        <v>50</v>
+      </c>
+      <c r="X57" t="n">
+        <v>32</v>
+      </c>
+      <c r="Y57" t="n">
         <v>40</v>
-      </c>
-      <c r="X57" t="n">
-        <v>29</v>
-      </c>
-      <c r="Y57" t="n">
-        <v>37</v>
       </c>
       <c r="Z57" t="n">
         <v>8.5</v>
       </c>
       <c r="AA57" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AB57" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AC57" t="n">
         <v>65</v>
@@ -7413,19 +7417,19 @@
         <v>500</v>
       </c>
       <c r="AE57" t="n">
-        <v>7.8</v>
+        <v>7.2</v>
       </c>
       <c r="AF57" t="n">
-        <v>11.75</v>
+        <v>10</v>
       </c>
       <c r="AG57" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AH57" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AI57" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ57" t="n">
         <v>28</v>
@@ -7590,10 +7594,10 @@
         <v>6</v>
       </c>
       <c r="J59" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="K59" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="L59" t="n">
         <v>1.53</v>
@@ -7608,10 +7612,10 @@
         <v>1.44</v>
       </c>
       <c r="P59" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="Q59" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="R59" t="n">
         <v>2.63</v>
@@ -7626,10 +7630,10 @@
         <v>6.5</v>
       </c>
       <c r="V59" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W59" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X59" t="n">
         <v>19</v>
@@ -7653,10 +7657,10 @@
         <v>101</v>
       </c>
       <c r="AE59" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF59" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG59" t="n">
         <v>21</v>
@@ -7703,7 +7707,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="H60" t="n">
         <v>3.25</v>
@@ -7736,10 +7740,10 @@
         <v>2.38</v>
       </c>
       <c r="R60" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S60" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="T60" t="n">
         <v>8.5</v>
@@ -7778,13 +7782,13 @@
         <v>6</v>
       </c>
       <c r="AF60" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AG60" t="n">
         <v>9.5</v>
       </c>
       <c r="AH60" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI60" t="n">
         <v>19</v>
@@ -8553,7 +8557,7 @@
         <v>1.06</v>
       </c>
       <c r="K67" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="L67" t="n">
         <v>1.3</v>
@@ -8580,7 +8584,7 @@
         <v>1.91</v>
       </c>
       <c r="T67" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U67" t="n">
         <v>12</v>
@@ -8589,7 +8593,7 @@
         <v>10</v>
       </c>
       <c r="W67" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="X67" t="n">
         <v>21</v>
@@ -8598,7 +8602,7 @@
         <v>29</v>
       </c>
       <c r="Z67" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AA67" t="n">
         <v>6</v>
@@ -8613,7 +8617,7 @@
         <v>251</v>
       </c>
       <c r="AE67" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF67" t="n">
         <v>13</v>
@@ -8672,10 +8676,10 @@
         <v>8</v>
       </c>
       <c r="J68" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K68" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L68" t="n">
         <v>1.25</v>
@@ -8741,7 +8745,7 @@
         <v>41</v>
       </c>
       <c r="AG68" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AH68" t="n">
         <v>101</v>
@@ -8750,7 +8754,7 @@
         <v>67</v>
       </c>
       <c r="AJ68" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
     </row>
     <row r="69">
@@ -8818,16 +8822,16 @@
         <v>2.75</v>
       </c>
       <c r="R69" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="S69" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="T69" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="U69" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="V69" t="n">
         <v>11</v>
@@ -8854,10 +8858,10 @@
         <v>51</v>
       </c>
       <c r="AD69" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AE69" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AF69" t="n">
         <v>10</v>
@@ -8872,7 +8876,7 @@
         <v>17</v>
       </c>
       <c r="AJ69" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="70">
@@ -8907,19 +8911,19 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H70" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I70" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="J70" t="n">
         <v>1.04</v>
       </c>
       <c r="K70" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L70" t="n">
         <v>1.25</v>
@@ -8934,22 +8938,22 @@
         <v>2</v>
       </c>
       <c r="P70" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q70" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R70" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="S70" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T70" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U70" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V70" t="n">
         <v>9</v>
@@ -8958,25 +8962,25 @@
         <v>19</v>
       </c>
       <c r="X70" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y70" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z70" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA70" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB70" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC70" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD70" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AE70" t="n">
         <v>11</v>
@@ -8994,7 +8998,7 @@
         <v>26</v>
       </c>
       <c r="AJ70" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="71">
@@ -9041,7 +9045,7 @@
         <v>1.06</v>
       </c>
       <c r="K71" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="L71" t="n">
         <v>1.3</v>
@@ -9193,16 +9197,16 @@
         <v>9.5</v>
       </c>
       <c r="U72" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V72" t="n">
         <v>9</v>
       </c>
       <c r="W72" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="X72" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y72" t="n">
         <v>23</v>
@@ -9226,7 +9230,7 @@
         <v>12</v>
       </c>
       <c r="AF72" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG72" t="n">
         <v>12</v>
@@ -9710,22 +9714,22 @@
         <v>2.3</v>
       </c>
       <c r="J77" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="K77" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L77" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="M77" t="n">
         <v>4.33</v>
       </c>
       <c r="N77" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="O77" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="P77" t="n">
         <v>1.33</v>
@@ -9823,22 +9827,22 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="H78" t="n">
         <v>3.3</v>
       </c>
       <c r="I78" t="n">
-        <v>2.35</v>
+        <v>2.45</v>
       </c>
       <c r="J78" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K78" t="n">
         <v>13</v>
       </c>
       <c r="L78" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="M78" t="n">
         <v>4</v>
@@ -9892,7 +9896,7 @@
         <v>41</v>
       </c>
       <c r="AD78" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AE78" t="n">
         <v>10</v>
@@ -9901,13 +9905,13 @@
         <v>13</v>
       </c>
       <c r="AG78" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH78" t="n">
         <v>23</v>
       </c>
       <c r="AI78" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ78" t="n">
         <v>23</v>
@@ -9954,22 +9958,22 @@
         <v>2.8</v>
       </c>
       <c r="J79" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="K79" t="n">
         <v>10</v>
       </c>
       <c r="L79" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M79" t="n">
         <v>3.5</v>
       </c>
       <c r="N79" t="n">
-        <v>1.98</v>
+        <v>1.92</v>
       </c>
       <c r="O79" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="P79" t="n">
         <v>1.4</v>
@@ -10067,13 +10071,13 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="H80" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="I80" t="n">
-        <v>4.8</v>
+        <v>4.85</v>
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
@@ -10096,16 +10100,16 @@
         <v>2.55</v>
       </c>
       <c r="R80" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="S80" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="T80" t="n">
         <v>9.25</v>
       </c>
       <c r="U80" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="V80" t="n">
         <v>7.8</v>
@@ -10144,13 +10148,13 @@
         <v>15</v>
       </c>
       <c r="AH80" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AI80" t="n">
         <v>45</v>
       </c>
       <c r="AJ80" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="81">
@@ -10305,7 +10309,7 @@
         <v>5.1</v>
       </c>
       <c r="I82" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
@@ -10313,46 +10317,46 @@
         <v>1.32</v>
       </c>
       <c r="M82" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="N82" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="O82" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="P82" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="Q82" t="n">
-        <v>2.47</v>
+        <v>2.45</v>
       </c>
       <c r="R82" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="S82" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="T82" t="n">
-        <v>4.25</v>
+        <v>4.15</v>
       </c>
       <c r="U82" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="V82" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="W82" t="n">
-        <v>4.8</v>
+        <v>4.75</v>
       </c>
       <c r="X82" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Y82" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="Z82" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AA82" t="n">
         <v>10.75</v>
@@ -10361,7 +10365,7 @@
         <v>45</v>
       </c>
       <c r="AC82" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AD82" t="n">
         <v>101</v>
@@ -10370,10 +10374,10 @@
         <v>21</v>
       </c>
       <c r="AF82" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AG82" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AH82" t="n">
         <v>250</v>
@@ -10382,7 +10386,7 @@
         <v>300</v>
       </c>
       <c r="AJ82" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
     </row>
     <row r="83">
@@ -10417,13 +10421,13 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.72</v>
+        <v>1.82</v>
       </c>
       <c r="H83" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="I83" t="n">
-        <v>5.1</v>
+        <v>4.4</v>
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
@@ -10446,58 +10450,58 @@
         <v>2.32</v>
       </c>
       <c r="R83" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="S83" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="T83" t="n">
-        <v>5.7</v>
+        <v>6.1</v>
       </c>
       <c r="U83" t="n">
-        <v>7.3</v>
+        <v>8</v>
       </c>
       <c r="V83" t="n">
         <v>8.25</v>
       </c>
       <c r="W83" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="X83" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Y83" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Z83" t="n">
         <v>7.9</v>
       </c>
       <c r="AA83" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="AB83" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AC83" t="n">
         <v>90</v>
       </c>
       <c r="AD83" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="AE83" t="n">
-        <v>11.75</v>
+        <v>10.5</v>
       </c>
       <c r="AF83" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="AG83" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="AH83" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AI83" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AJ83" t="n">
         <v>60</v>
@@ -10544,13 +10548,13 @@
         <v>2.7</v>
       </c>
       <c r="J84" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="K84" t="n">
         <v>10</v>
       </c>
       <c r="L84" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="M84" t="n">
         <v>3.4</v>
@@ -10666,13 +10670,13 @@
         <v>5.25</v>
       </c>
       <c r="J85" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K85" t="n">
         <v>15</v>
       </c>
       <c r="L85" t="n">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="M85" t="n">
         <v>4.5</v>
@@ -10791,13 +10795,13 @@
         <v>1.02</v>
       </c>
       <c r="K86" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L86" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="M86" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="N86" t="n">
         <v>1.48</v>
@@ -10812,28 +10816,28 @@
         <v>3.75</v>
       </c>
       <c r="R86" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="S86" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="T86" t="n">
         <v>9.5</v>
       </c>
       <c r="U86" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="V86" t="n">
         <v>9</v>
       </c>
       <c r="W86" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="X86" t="n">
         <v>11</v>
       </c>
       <c r="Y86" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Z86" t="n">
         <v>17</v>
@@ -10842,7 +10846,7 @@
         <v>10</v>
       </c>
       <c r="AB86" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC86" t="n">
         <v>51</v>
@@ -10851,7 +10855,7 @@
         <v>201</v>
       </c>
       <c r="AE86" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF86" t="n">
         <v>41</v>
@@ -10860,13 +10864,13 @@
         <v>23</v>
       </c>
       <c r="AH86" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AI86" t="n">
         <v>51</v>
       </c>
       <c r="AJ86" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="87">
@@ -11259,13 +11263,13 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>2.6</v>
+        <v>2.65</v>
       </c>
       <c r="H90" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I90" t="n">
-        <v>2.5</v>
+        <v>2.47</v>
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
@@ -11273,13 +11277,13 @@
         <v>1.25</v>
       </c>
       <c r="M90" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="N90" t="n">
         <v>1.75</v>
       </c>
       <c r="O90" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="P90" t="inlineStr"/>
       <c r="Q90" t="inlineStr"/>
@@ -11287,31 +11291,31 @@
         <v>1.6</v>
       </c>
       <c r="S90" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="T90" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="U90" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="V90" t="n">
         <v>9.75</v>
       </c>
       <c r="W90" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="X90" t="n">
         <v>21</v>
       </c>
       <c r="Y90" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Z90" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AA90" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AB90" t="n">
         <v>12.5</v>
@@ -11323,22 +11327,22 @@
         <v>350</v>
       </c>
       <c r="AE90" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AF90" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AG90" t="n">
         <v>9.25</v>
       </c>
       <c r="AH90" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AI90" t="n">
         <v>19</v>
       </c>
       <c r="AJ90" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="91">
@@ -11412,7 +11416,7 @@
         <v>1.91</v>
       </c>
       <c r="T91" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="U91" t="n">
         <v>8</v>
@@ -11421,7 +11425,7 @@
         <v>8.5</v>
       </c>
       <c r="W91" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X91" t="n">
         <v>12</v>
@@ -11507,7 +11511,7 @@
         <v>1.07</v>
       </c>
       <c r="K92" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="L92" t="n">
         <v>1.36</v>
@@ -11582,7 +11586,7 @@
         <v>19</v>
       </c>
       <c r="AJ92" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="93">
@@ -11748,22 +11752,22 @@
         <v>2.7</v>
       </c>
       <c r="J94" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K94" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="L94" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M94" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N94" t="n">
-        <v>2.03</v>
+        <v>1.95</v>
       </c>
       <c r="O94" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="P94" t="n">
         <v>1.4</v>
@@ -11861,31 +11865,31 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="H95" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I95" t="n">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="J95" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K95" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L95" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M95" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N95" t="n">
         <v>2</v>
       </c>
       <c r="O95" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="P95" t="n">
         <v>1.4</v>
@@ -11894,16 +11898,16 @@
         <v>2.75</v>
       </c>
       <c r="R95" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="S95" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="T95" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="U95" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="V95" t="n">
         <v>8.5</v>
@@ -11915,7 +11919,7 @@
         <v>15</v>
       </c>
       <c r="Y95" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z95" t="n">
         <v>10</v>
@@ -11936,10 +11940,10 @@
         <v>13</v>
       </c>
       <c r="AF95" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG95" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH95" t="n">
         <v>51</v>
@@ -12105,7 +12109,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="H97" t="n">
         <v>3.25</v>
@@ -12138,19 +12142,19 @@
         <v>2.6</v>
       </c>
       <c r="R97" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="S97" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="T97" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="U97" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="V97" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="W97" t="n">
         <v>65</v>
@@ -12177,10 +12181,10 @@
         <v>600</v>
       </c>
       <c r="AE97" t="n">
-        <v>6.8</v>
+        <v>7.1</v>
       </c>
       <c r="AF97" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AG97" t="n">
         <v>8.25</v>
@@ -12192,7 +12196,7 @@
         <v>15</v>
       </c>
       <c r="AJ97" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="98">
@@ -12233,7 +12237,7 @@
         <v>3.15</v>
       </c>
       <c r="I98" t="n">
-        <v>4.7</v>
+        <v>4.65</v>
       </c>
       <c r="J98" t="n">
         <v>1.12</v>
@@ -12245,7 +12249,7 @@
         <v>1.57</v>
       </c>
       <c r="M98" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="N98" t="n">
         <v>2.65</v>
@@ -12260,13 +12264,13 @@
         <v>2.18</v>
       </c>
       <c r="R98" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="S98" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="T98" t="n">
-        <v>4.65</v>
+        <v>4.7</v>
       </c>
       <c r="U98" t="n">
         <v>6.6</v>
@@ -12281,7 +12285,7 @@
         <v>19.5</v>
       </c>
       <c r="Y98" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="Z98" t="n">
         <v>5.3</v>
@@ -12349,13 +12353,13 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>2.95</v>
+        <v>2.92</v>
       </c>
       <c r="H99" t="n">
         <v>3.05</v>
       </c>
       <c r="I99" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="J99" t="n">
         <v>1.1</v>
@@ -12379,7 +12383,7 @@
         <v>1.53</v>
       </c>
       <c r="Q99" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="R99" t="n">
         <v>2.1</v>
@@ -12424,7 +12428,7 @@
         <v>6.1</v>
       </c>
       <c r="AF99" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AG99" t="n">
         <v>10</v>
@@ -12608,7 +12612,7 @@
         <v>6</v>
       </c>
       <c r="L101" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="M101" t="n">
         <v>2.57</v>
@@ -12843,7 +12847,7 @@
         <v>3.25</v>
       </c>
       <c r="I103" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="J103" t="n">
         <v>1.09</v>
@@ -12888,7 +12892,7 @@
         <v>65</v>
       </c>
       <c r="X103" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="Y103" t="n">
         <v>65</v>
@@ -12921,7 +12925,7 @@
         <v>15</v>
       </c>
       <c r="AI103" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AJ103" t="n">
         <v>37</v>
@@ -12959,25 +12963,25 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="H104" t="n">
         <v>3.4</v>
       </c>
       <c r="I104" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="J104" t="n">
         <v>1.07</v>
       </c>
       <c r="K104" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="L104" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="M104" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="N104" t="n">
         <v>2.05</v>
@@ -12989,7 +12993,7 @@
         <v>1.42</v>
       </c>
       <c r="Q104" t="n">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
       <c r="R104" t="n">
         <v>1.93</v>
@@ -13004,19 +13008,19 @@
         <v>8.25</v>
       </c>
       <c r="V104" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="W104" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="X104" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="Y104" t="n">
         <v>32</v>
       </c>
       <c r="Z104" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AA104" t="n">
         <v>6.7</v>
@@ -13031,10 +13035,10 @@
         <v>800</v>
       </c>
       <c r="AE104" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AF104" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AG104" t="n">
         <v>13</v>
@@ -13108,10 +13112,10 @@
         <v>1.6</v>
       </c>
       <c r="P105" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="Q105" t="n">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="R105" t="n">
         <v>1.98</v>
@@ -13120,22 +13124,22 @@
         <v>1.75</v>
       </c>
       <c r="T105" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="U105" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="V105" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="W105" t="n">
         <v>16.5</v>
       </c>
       <c r="X105" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Y105" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Z105" t="n">
         <v>6.2</v>
@@ -13153,10 +13157,10 @@
         <v>900</v>
       </c>
       <c r="AE105" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF105" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AG105" t="n">
         <v>13.5</v>
@@ -13165,10 +13169,10 @@
         <v>60</v>
       </c>
       <c r="AI105" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ105" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="106">
@@ -13456,10 +13460,10 @@
         <v>2.7</v>
       </c>
       <c r="J108" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K108" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="L108" t="n">
         <v>1.5</v>
@@ -13468,10 +13472,10 @@
         <v>2.5</v>
       </c>
       <c r="N108" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="O108" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="P108" t="n">
         <v>1.57</v>
@@ -13691,7 +13695,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="H110" t="n">
         <v>3.4</v>
@@ -13703,13 +13707,13 @@
         <v>1.07</v>
       </c>
       <c r="K110" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="L110" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M110" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N110" t="n">
         <v>2.1</v>
@@ -13736,7 +13740,7 @@
         <v>8.5</v>
       </c>
       <c r="V110" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W110" t="n">
         <v>15</v>
@@ -13775,7 +13779,7 @@
         <v>41</v>
       </c>
       <c r="AI110" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ110" t="n">
         <v>41</v>
@@ -13950,10 +13954,10 @@
         <v>9</v>
       </c>
       <c r="L112" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M112" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N112" t="n">
         <v>2.1</v>
@@ -14188,10 +14192,10 @@
         <v>4.75</v>
       </c>
       <c r="J114" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K114" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L114" t="n">
         <v>1.25</v>
@@ -14200,25 +14204,25 @@
         <v>3.75</v>
       </c>
       <c r="N114" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="O114" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="P114" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q114" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R114" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="S114" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="T114" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="U114" t="n">
         <v>8</v>
@@ -14230,28 +14234,28 @@
         <v>13</v>
       </c>
       <c r="X114" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y114" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z114" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA114" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB114" t="n">
         <v>15</v>
-      </c>
-      <c r="Y114" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z114" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA114" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB114" t="n">
-        <v>17</v>
       </c>
       <c r="AC114" t="n">
         <v>51</v>
       </c>
       <c r="AD114" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AE114" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF114" t="n">
         <v>23</v>
@@ -14301,7 +14305,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="H115" t="n">
         <v>3.25</v>
@@ -14346,7 +14350,7 @@
         <v>11</v>
       </c>
       <c r="V115" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W115" t="n">
         <v>23</v>
@@ -14370,13 +14374,13 @@
         <v>51</v>
       </c>
       <c r="AD115" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AE115" t="n">
         <v>8</v>
       </c>
       <c r="AF115" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG115" t="n">
         <v>11</v>
@@ -14666,36 +14670,88 @@
           <t>Perak</t>
         </is>
       </c>
-      <c r="G118" t="inlineStr"/>
-      <c r="H118" t="inlineStr"/>
-      <c r="I118" t="inlineStr"/>
+      <c r="G118" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="H118" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I118" t="n">
+        <v>3.3</v>
+      </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="inlineStr"/>
-      <c r="N118" t="inlineStr"/>
-      <c r="O118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="M118" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="N118" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="O118" t="n">
+        <v>2.24</v>
+      </c>
       <c r="P118" t="inlineStr"/>
       <c r="Q118" t="inlineStr"/>
-      <c r="R118" t="inlineStr"/>
-      <c r="S118" t="inlineStr"/>
-      <c r="T118" t="inlineStr"/>
-      <c r="U118" t="inlineStr"/>
-      <c r="V118" t="inlineStr"/>
-      <c r="W118" t="inlineStr"/>
-      <c r="X118" t="inlineStr"/>
-      <c r="Y118" t="inlineStr"/>
-      <c r="Z118" t="inlineStr"/>
-      <c r="AA118" t="inlineStr"/>
-      <c r="AB118" t="inlineStr"/>
-      <c r="AC118" t="inlineStr"/>
-      <c r="AD118" t="inlineStr"/>
-      <c r="AE118" t="inlineStr"/>
-      <c r="AF118" t="inlineStr"/>
-      <c r="AG118" t="inlineStr"/>
-      <c r="AH118" t="inlineStr"/>
-      <c r="AI118" t="inlineStr"/>
-      <c r="AJ118" t="inlineStr"/>
+      <c r="R118" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="S118" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="T118" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="U118" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="V118" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="W118" t="n">
+        <v>15</v>
+      </c>
+      <c r="X118" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y118" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z118" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA118" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AB118" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AC118" t="n">
+        <v>35</v>
+      </c>
+      <c r="AD118" t="n">
+        <v>101</v>
+      </c>
+      <c r="AE118" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF118" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG118" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AH118" t="n">
+        <v>35</v>
+      </c>
+      <c r="AI118" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ118" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -14729,37 +14785,37 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="H119" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="I119" t="n">
-        <v>6.25</v>
+        <v>5.75</v>
       </c>
       <c r="J119" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K119" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L119" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M119" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="N119" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="O119" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="P119" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Q119" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="R119" t="n">
         <v>2</v>
@@ -14768,7 +14824,7 @@
         <v>1.75</v>
       </c>
       <c r="T119" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="U119" t="n">
         <v>7</v>
@@ -14777,19 +14833,19 @@
         <v>8.5</v>
       </c>
       <c r="W119" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X119" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y119" t="n">
         <v>29</v>
       </c>
       <c r="Z119" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AA119" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB119" t="n">
         <v>19</v>
@@ -14801,19 +14857,19 @@
         <v>401</v>
       </c>
       <c r="AE119" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF119" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG119" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH119" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AI119" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AJ119" t="n">
         <v>51</v>
@@ -14863,7 +14919,7 @@
         <v>1.01</v>
       </c>
       <c r="K120" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L120" t="n">
         <v>1.08</v>
@@ -14872,10 +14928,10 @@
         <v>8</v>
       </c>
       <c r="N120" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="O120" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P120" t="n">
         <v>1.18</v>
@@ -14905,7 +14961,7 @@
         <v>10</v>
       </c>
       <c r="Y120" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Z120" t="n">
         <v>23</v>
@@ -14923,19 +14979,19 @@
         <v>201</v>
       </c>
       <c r="AE120" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AF120" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG120" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AH120" t="n">
         <v>151</v>
       </c>
       <c r="AI120" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AJ120" t="n">
         <v>51</v>
@@ -14979,7 +15035,7 @@
         <v>3.25</v>
       </c>
       <c r="I121" t="n">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
@@ -15004,28 +15060,28 @@
         <v>2.32</v>
       </c>
       <c r="T121" t="n">
-        <v>11.25</v>
+        <v>10.5</v>
       </c>
       <c r="U121" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="V121" t="n">
         <v>9.5</v>
       </c>
       <c r="W121" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="X121" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="Y121" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Z121" t="n">
         <v>12.5</v>
       </c>
       <c r="AA121" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AB121" t="n">
         <v>11</v>
@@ -15037,22 +15093,22 @@
         <v>200</v>
       </c>
       <c r="AE121" t="n">
-        <v>10.75</v>
+        <v>11.5</v>
       </c>
       <c r="AF121" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AG121" t="n">
         <v>9.5</v>
       </c>
       <c r="AH121" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AI121" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AJ121" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="122">
@@ -15087,13 +15143,13 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="H122" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="I122" t="n">
-        <v>3.95</v>
+        <v>3.6</v>
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
@@ -15112,61 +15168,61 @@
       <c r="P122" t="inlineStr"/>
       <c r="Q122" t="inlineStr"/>
       <c r="R122" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="S122" t="n">
-        <v>1.91</v>
+        <v>1.98</v>
       </c>
       <c r="T122" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="U122" t="n">
-        <v>8.75</v>
+        <v>9.5</v>
       </c>
       <c r="V122" t="n">
         <v>8.25</v>
       </c>
       <c r="W122" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="X122" t="n">
         <v>14.5</v>
-      </c>
-      <c r="X122" t="n">
-        <v>14</v>
       </c>
       <c r="Y122" t="n">
         <v>25</v>
       </c>
       <c r="Z122" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AA122" t="n">
-        <v>7.1</v>
+        <v>6.8</v>
       </c>
       <c r="AB122" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AC122" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AD122" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AE122" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AF122" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG122" t="n">
         <v>12</v>
       </c>
-      <c r="AF122" t="n">
-        <v>22</v>
-      </c>
-      <c r="AG122" t="n">
-        <v>13.5</v>
-      </c>
       <c r="AH122" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AI122" t="n">
+        <v>30</v>
+      </c>
+      <c r="AJ122" t="n">
         <v>35</v>
-      </c>
-      <c r="AJ122" t="n">
-        <v>40</v>
       </c>
     </row>
     <row r="123">
@@ -16299,7 +16355,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="H132" t="n">
         <v>6.5</v>
@@ -16421,7 +16477,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="H133" t="n">
         <v>3.6</v>
@@ -16543,13 +16599,13 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>2.4</v>
+        <v>2.57</v>
       </c>
       <c r="H134" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I134" t="n">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="J134" t="n">
         <v>1.04</v>
@@ -16582,19 +16638,19 @@
         <v>2</v>
       </c>
       <c r="T134" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U134" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V134" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W134" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="X134" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y134" t="n">
         <v>29</v>
@@ -16603,7 +16659,7 @@
         <v>12</v>
       </c>
       <c r="AA134" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB134" t="n">
         <v>15</v>
@@ -16612,22 +16668,22 @@
         <v>51</v>
       </c>
       <c r="AD134" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AE134" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF134" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG134" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH134" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI134" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ134" t="n">
         <v>29</v>
@@ -16665,7 +16721,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="H135" t="n">
         <v>3.8</v>
@@ -16909,13 +16965,13 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="H137" t="n">
         <v>3.3</v>
       </c>
       <c r="I137" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="J137" t="n">
         <v>1.04</v>
@@ -17180,10 +17236,10 @@
         <v>2.35</v>
       </c>
       <c r="P139" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="Q139" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="R139" t="n">
         <v>1.67</v>
@@ -17192,7 +17248,7 @@
         <v>2.1</v>
       </c>
       <c r="T139" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U139" t="n">
         <v>8.5</v>
@@ -17228,7 +17284,7 @@
         <v>19</v>
       </c>
       <c r="AF139" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG139" t="n">
         <v>17</v>
@@ -17296,10 +17352,10 @@
         <v>3.5</v>
       </c>
       <c r="N140" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="O140" t="n">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="P140" t="n">
         <v>1.4</v>
@@ -17418,10 +17474,10 @@
         <v>3.5</v>
       </c>
       <c r="N141" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="O141" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="P141" t="n">
         <v>1.4</v>
@@ -17439,7 +17495,7 @@
         <v>11</v>
       </c>
       <c r="U141" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="V141" t="n">
         <v>13</v>
@@ -17475,7 +17531,7 @@
         <v>9</v>
       </c>
       <c r="AG141" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AH141" t="n">
         <v>15</v>
@@ -17534,10 +17590,10 @@
         <v>7</v>
       </c>
       <c r="L142" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="M142" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="N142" t="n">
         <v>2.5</v>
@@ -17546,16 +17602,16 @@
         <v>1.5</v>
       </c>
       <c r="P142" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="Q142" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="R142" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S142" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="T142" t="n">
         <v>6.5</v>
@@ -17582,13 +17638,13 @@
         <v>6</v>
       </c>
       <c r="AB142" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC142" t="n">
         <v>67</v>
       </c>
       <c r="AD142" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AE142" t="n">
         <v>7.5</v>
@@ -17787,7 +17843,7 @@
         <v>2.05</v>
       </c>
       <c r="O144" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="P144" t="n">
         <v>1.44</v>
@@ -17826,7 +17882,7 @@
         <v>6</v>
       </c>
       <c r="AB144" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC144" t="n">
         <v>51</v>
@@ -18138,10 +18194,10 @@
         <v>3.5</v>
       </c>
       <c r="J147" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K147" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L147" t="n">
         <v>1.4</v>
@@ -18150,10 +18206,10 @@
         <v>2.75</v>
       </c>
       <c r="N147" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="O147" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="P147" t="n">
         <v>1.5</v>
@@ -18632,10 +18688,10 @@
         <v>8</v>
       </c>
       <c r="L151" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="M151" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N151" t="n">
         <v>2.25</v>
@@ -18742,28 +18798,28 @@
         <v>2.7</v>
       </c>
       <c r="H152" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I152" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="J152" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="K152" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="L152" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M152" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N152" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="O152" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="P152" t="n">
         <v>1.4</v>
@@ -18796,7 +18852,7 @@
         <v>29</v>
       </c>
       <c r="Z152" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA152" t="n">
         <v>6.5</v>
@@ -19236,10 +19292,10 @@
         <v>4.75</v>
       </c>
       <c r="J156" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K156" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L156" t="n">
         <v>1.29</v>
@@ -19349,40 +19405,40 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>2.52</v>
+        <v>2.57</v>
       </c>
       <c r="H157" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I157" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="J157" t="n">
         <v>1.05</v>
       </c>
       <c r="K157" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="L157" t="n">
         <v>1.26</v>
       </c>
       <c r="M157" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="N157" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="O157" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="P157" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="Q157" t="n">
-        <v>2.8</v>
+        <v>2.77</v>
       </c>
       <c r="R157" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S157" t="n">
         <v>2.18</v>
@@ -19391,22 +19447,22 @@
         <v>9.75</v>
       </c>
       <c r="U157" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="V157" t="n">
         <v>9.5</v>
       </c>
       <c r="W157" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="X157" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="Y157" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Z157" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="AA157" t="n">
         <v>6.4</v>
@@ -19415,22 +19471,22 @@
         <v>12</v>
       </c>
       <c r="AC157" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AD157" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AE157" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AF157" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AG157" t="n">
         <v>9.5</v>
       </c>
       <c r="AH157" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AI157" t="n">
         <v>20</v>
@@ -19471,87 +19527,87 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="H158" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="I158" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="M158" t="n">
-        <v>5.6</v>
+        <v>6.1</v>
       </c>
       <c r="N158" t="n">
-        <v>1.36</v>
+        <v>1.31</v>
       </c>
       <c r="O158" t="n">
-        <v>2.9</v>
+        <v>3.15</v>
       </c>
       <c r="P158" t="n">
-        <v>1.23</v>
+        <v>1.2</v>
       </c>
       <c r="Q158" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="R158" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="S158" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="T158" t="n">
-        <v>9.75</v>
+        <v>11</v>
       </c>
       <c r="U158" t="n">
-        <v>6.6</v>
+        <v>7.3</v>
       </c>
       <c r="V158" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="W158" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="X158" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="Y158" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Z158" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AA158" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AB158" t="n">
         <v>32</v>
       </c>
       <c r="AC158" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AD158" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="AE158" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AF158" t="n">
         <v>200</v>
       </c>
       <c r="AG158" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AH158" t="n">
         <v>900</v>
       </c>
       <c r="AI158" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AJ158" t="n">
         <v>150</v>
@@ -19589,31 +19645,31 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="H159" t="n">
         <v>3.15</v>
       </c>
       <c r="I159" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="J159" t="n">
         <v>1.07</v>
       </c>
       <c r="K159" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="L159" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="M159" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="N159" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="O159" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="P159" t="n">
         <v>1.45</v>
@@ -19622,61 +19678,61 @@
         <v>2.55</v>
       </c>
       <c r="R159" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="S159" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="T159" t="n">
         <v>9.75</v>
       </c>
       <c r="U159" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="V159" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="W159" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="X159" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Y159" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Z159" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AA159" t="n">
         <v>6.2</v>
       </c>
       <c r="AB159" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AC159" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AD159" t="n">
         <v>500</v>
       </c>
       <c r="AE159" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="AF159" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AG159" t="n">
         <v>8.75</v>
       </c>
       <c r="AH159" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI159" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AJ159" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="160">
@@ -19711,94 +19767,94 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>1.88</v>
+        <v>1.98</v>
       </c>
       <c r="H160" t="n">
         <v>3.4</v>
       </c>
       <c r="I160" t="n">
-        <v>4.05</v>
+        <v>3.75</v>
       </c>
       <c r="J160" t="n">
         <v>1.06</v>
       </c>
       <c r="K160" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="L160" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="M160" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="N160" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="O160" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="P160" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="Q160" t="n">
-        <v>2.8</v>
+        <v>2.85</v>
       </c>
       <c r="R160" t="n">
         <v>1.7</v>
       </c>
       <c r="S160" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="T160" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="U160" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="V160" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="W160" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="X160" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="Y160" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Z160" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AA160" t="n">
         <v>6.9</v>
       </c>
       <c r="AB160" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AC160" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AD160" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AE160" t="n">
-        <v>11.25</v>
+        <v>11.75</v>
       </c>
       <c r="AF160" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AG160" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH160" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AI160" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AJ160" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="161">
@@ -19833,10 +19889,10 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>2.72</v>
+        <v>2.67</v>
       </c>
       <c r="H161" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="I161" t="n">
         <v>2.42</v>
@@ -19857,7 +19913,7 @@
         <v>1.83</v>
       </c>
       <c r="O161" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="P161" t="n">
         <v>1.4</v>
@@ -19866,28 +19922,28 @@
         <v>2.8</v>
       </c>
       <c r="R161" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="S161" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="T161" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="U161" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="V161" t="n">
         <v>10.5</v>
       </c>
       <c r="W161" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="X161" t="n">
         <v>23</v>
       </c>
       <c r="Y161" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Z161" t="n">
         <v>8</v>
@@ -19896,19 +19952,19 @@
         <v>7</v>
       </c>
       <c r="AB161" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AC161" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AD161" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AE161" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AF161" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AG161" t="n">
         <v>10</v>
@@ -19917,7 +19973,7 @@
         <v>27</v>
       </c>
       <c r="AI161" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ161" t="n">
         <v>30</v>
@@ -20199,25 +20255,25 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="H164" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I164" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="J164" t="n">
         <v>1.05</v>
       </c>
       <c r="K164" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="L164" t="n">
         <v>1.25</v>
       </c>
       <c r="M164" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="N164" t="n">
         <v>1.75</v>
@@ -20229,16 +20285,16 @@
         <v>1.37</v>
       </c>
       <c r="Q164" t="n">
-        <v>2.85</v>
+        <v>2.87</v>
       </c>
       <c r="R164" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S164" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="T164" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="U164" t="n">
         <v>35</v>
@@ -20250,16 +20306,16 @@
         <v>110</v>
       </c>
       <c r="X164" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="Y164" t="n">
         <v>55</v>
       </c>
       <c r="Z164" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA164" t="n">
         <v>7.9</v>
-      </c>
-      <c r="AA164" t="n">
-        <v>7.8</v>
       </c>
       <c r="AB164" t="n">
         <v>17</v>
@@ -20271,22 +20327,22 @@
         <v>600</v>
       </c>
       <c r="AE164" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AF164" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="AG164" t="n">
         <v>8</v>
       </c>
       <c r="AH164" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AI164" t="n">
         <v>12</v>
       </c>
       <c r="AJ164" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="165">
@@ -20443,13 +20499,13 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H166" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I166" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="J166" t="n">
         <v>1.07</v>
@@ -20464,10 +20520,10 @@
         <v>3</v>
       </c>
       <c r="N166" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O166" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="P166" t="n">
         <v>1.5</v>
@@ -20491,19 +20547,19 @@
         <v>9</v>
       </c>
       <c r="W166" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="X166" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y166" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z166" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA166" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB166" t="n">
         <v>17</v>
@@ -20518,7 +20574,7 @@
         <v>9.5</v>
       </c>
       <c r="AF166" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AG166" t="n">
         <v>13</v>
@@ -21175,19 +21231,19 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H172" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I172" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="J172" t="n">
         <v>1.04</v>
       </c>
       <c r="K172" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L172" t="n">
         <v>1.22</v>
@@ -21196,16 +21252,16 @@
         <v>4</v>
       </c>
       <c r="N172" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="O172" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="P172" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q172" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R172" t="n">
         <v>1.62</v>
@@ -21235,7 +21291,7 @@
         <v>12</v>
       </c>
       <c r="AA172" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB172" t="n">
         <v>13</v>
@@ -21250,7 +21306,7 @@
         <v>13</v>
       </c>
       <c r="AF172" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG172" t="n">
         <v>13</v>
@@ -21259,7 +21315,7 @@
         <v>41</v>
       </c>
       <c r="AI172" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ172" t="n">
         <v>34</v>
@@ -21907,19 +21963,19 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="H178" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="I178" t="n">
-        <v>6.25</v>
+        <v>4.75</v>
       </c>
       <c r="J178" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K178" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="L178" t="n">
         <v>1.3</v>
@@ -21928,34 +21984,34 @@
         <v>3.4</v>
       </c>
       <c r="N178" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="O178" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="P178" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q178" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R178" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S178" t="n">
         <v>1.8</v>
-      </c>
-      <c r="P178" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="Q178" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="R178" t="n">
-        <v>2</v>
-      </c>
-      <c r="S178" t="n">
-        <v>1.73</v>
       </c>
       <c r="T178" t="n">
         <v>6.5</v>
       </c>
       <c r="U178" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="V178" t="n">
         <v>9</v>
       </c>
       <c r="W178" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X178" t="n">
         <v>15</v>
@@ -21964,37 +22020,37 @@
         <v>29</v>
       </c>
       <c r="Z178" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA178" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AB178" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC178" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD178" t="n">
         <v>900</v>
       </c>
       <c r="AE178" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF178" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG178" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AH178" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AI178" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AJ178" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="179">
@@ -22151,13 +22207,13 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>2.35</v>
+        <v>2.45</v>
       </c>
       <c r="H180" t="n">
         <v>2.88</v>
       </c>
       <c r="I180" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="J180" t="n">
         <v>1.1</v>
@@ -22184,16 +22240,16 @@
         <v>2.25</v>
       </c>
       <c r="R180" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S180" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="T180" t="n">
         <v>6.5</v>
       </c>
       <c r="U180" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V180" t="n">
         <v>11</v>
@@ -22208,7 +22264,7 @@
         <v>41</v>
       </c>
       <c r="Z180" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AA180" t="n">
         <v>6</v>
@@ -22229,10 +22285,10 @@
         <v>13</v>
       </c>
       <c r="AG180" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH180" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI180" t="n">
         <v>29</v>
@@ -22395,19 +22451,19 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H182" t="n">
         <v>2.8</v>
       </c>
       <c r="I182" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="J182" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K182" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="L182" t="n">
         <v>1.36</v>
@@ -22416,10 +22472,10 @@
         <v>3</v>
       </c>
       <c r="N182" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="O182" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="P182" t="n">
         <v>1.5</v>
@@ -22434,13 +22490,13 @@
         <v>1.8</v>
       </c>
       <c r="T182" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="U182" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="V182" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W182" t="n">
         <v>19</v>
@@ -22452,7 +22508,7 @@
         <v>34</v>
       </c>
       <c r="Z182" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AA182" t="n">
         <v>6</v>
@@ -22470,10 +22526,10 @@
         <v>10</v>
       </c>
       <c r="AF182" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AG182" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH182" t="n">
         <v>41</v>
@@ -22532,16 +22588,16 @@
         <v>6.5</v>
       </c>
       <c r="L183" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="M183" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="N183" t="n">
-        <v>2.38</v>
+        <v>2.35</v>
       </c>
       <c r="O183" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P183" t="n">
         <v>1.5</v>
@@ -22639,13 +22695,13 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H184" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="I184" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="J184" t="n">
         <v>1.11</v>
@@ -22654,16 +22710,16 @@
         <v>6</v>
       </c>
       <c r="L184" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="M184" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="N184" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="O184" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P184" t="n">
         <v>1.57</v>
@@ -22720,13 +22776,13 @@
         <v>13</v>
       </c>
       <c r="AH184" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI184" t="n">
         <v>34</v>
       </c>
       <c r="AJ184" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="185">
@@ -22830,7 +22886,7 @@
         <v>51</v>
       </c>
       <c r="AD185" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="AE185" t="n">
         <v>11</v>
@@ -23386,10 +23442,10 @@
         <v>10</v>
       </c>
       <c r="L190" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M190" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="N190" t="n">
         <v>2.05</v>
@@ -23413,7 +23469,7 @@
         <v>6.5</v>
       </c>
       <c r="U190" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="V190" t="n">
         <v>8.5</v>
@@ -23440,10 +23496,10 @@
         <v>51</v>
       </c>
       <c r="AD190" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AE190" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF190" t="n">
         <v>23</v>
@@ -23624,10 +23680,10 @@
         <v>3.1</v>
       </c>
       <c r="J192" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K192" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L192" t="n">
         <v>1.3</v>
@@ -23636,10 +23692,10 @@
         <v>3.4</v>
       </c>
       <c r="N192" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="O192" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="P192" t="n">
         <v>1.44</v>
@@ -23737,25 +23793,25 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H193" t="n">
         <v>3.4</v>
       </c>
       <c r="I193" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="J193" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K193" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="L193" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M193" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N193" t="n">
         <v>2.1</v>
@@ -23779,7 +23835,7 @@
         <v>6.5</v>
       </c>
       <c r="U193" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="V193" t="n">
         <v>9</v>
@@ -23809,7 +23865,7 @@
         <v>351</v>
       </c>
       <c r="AE193" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF193" t="n">
         <v>19</v>
@@ -23868,10 +23924,10 @@
         <v>2.3</v>
       </c>
       <c r="J194" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K194" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L194" t="n">
         <v>1.2</v>
@@ -23880,10 +23936,10 @@
         <v>4.33</v>
       </c>
       <c r="N194" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="O194" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="P194" t="n">
         <v>1.33</v>
@@ -23981,13 +24037,13 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="H195" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I195" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="J195" t="n">
         <v>1.03</v>
@@ -24041,7 +24097,7 @@
         <v>15</v>
       </c>
       <c r="AA195" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB195" t="n">
         <v>12</v>
@@ -24056,7 +24112,7 @@
         <v>15</v>
       </c>
       <c r="AF195" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG195" t="n">
         <v>13</v>
@@ -24124,10 +24180,10 @@
         <v>3.75</v>
       </c>
       <c r="N196" t="n">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="O196" t="n">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="P196" t="n">
         <v>1.4</v>
@@ -25201,90 +25257,90 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>2.3</v>
+        <v>2.12</v>
       </c>
       <c r="H205" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I205" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
-        <v>1.34</v>
+        <v>1.42</v>
       </c>
       <c r="M205" t="n">
-        <v>2.75</v>
+        <v>2.47</v>
       </c>
       <c r="N205" t="n">
-        <v>1.98</v>
+        <v>2.22</v>
       </c>
       <c r="O205" t="n">
-        <v>1.65</v>
+        <v>1.52</v>
       </c>
       <c r="P205" t="n">
-        <v>1.45</v>
+        <v>1.52</v>
       </c>
       <c r="Q205" t="n">
-        <v>2.37</v>
+        <v>2.22</v>
       </c>
       <c r="R205" t="n">
-        <v>1.75</v>
+        <v>1.93</v>
       </c>
       <c r="S205" t="n">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="T205" t="n">
-        <v>7.3</v>
+        <v>6.1</v>
       </c>
       <c r="U205" t="n">
-        <v>11</v>
+        <v>9.25</v>
       </c>
       <c r="V205" t="n">
         <v>9</v>
       </c>
       <c r="W205" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="X205" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="Y205" t="n">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="Z205" t="n">
-        <v>8.5</v>
+        <v>7.1</v>
       </c>
       <c r="AA205" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AB205" t="n">
-        <v>14.5</v>
+        <v>16.5</v>
       </c>
       <c r="AC205" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="AD205" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="AE205" t="n">
         <v>8.5</v>
       </c>
       <c r="AF205" t="n">
-        <v>15</v>
+        <v>17.5</v>
       </c>
       <c r="AG205" t="n">
-        <v>10.75</v>
+        <v>12.5</v>
       </c>
       <c r="AH205" t="n">
+        <v>50</v>
+      </c>
+      <c r="AI205" t="n">
         <v>37</v>
       </c>
-      <c r="AI205" t="n">
-        <v>28</v>
-      </c>
       <c r="AJ205" t="n">
-        <v>37</v>
+        <v>50</v>
       </c>
     </row>
     <row r="206">
@@ -25319,69 +25375,69 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="H206" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="I206" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M206" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="N206" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="O206" t="n">
-        <v>1.98</v>
+        <v>1.88</v>
       </c>
       <c r="P206" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="Q206" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="R206" t="n">
-        <v>2.27</v>
+        <v>2.47</v>
       </c>
       <c r="S206" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="T206" t="n">
-        <v>6.3</v>
+        <v>5.8</v>
       </c>
       <c r="U206" t="n">
-        <v>5.4</v>
+        <v>5.1</v>
       </c>
       <c r="V206" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W206" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="X206" t="n">
-        <v>11.75</v>
+        <v>12.5</v>
       </c>
       <c r="Y206" t="n">
         <v>40</v>
       </c>
       <c r="Z206" t="n">
-        <v>12</v>
+        <v>10.75</v>
       </c>
       <c r="AA206" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AB206" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="AC206" t="n">
-        <v>175</v>
+        <v>250</v>
       </c>
       <c r="AD206" t="n">
         <v>101</v>
@@ -25390,19 +25446,19 @@
         <v>24</v>
       </c>
       <c r="AF206" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AG206" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AH206" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="AI206" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AJ206" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
     </row>
     <row r="207">
@@ -25437,90 +25493,90 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>1.32</v>
+        <v>1.23</v>
       </c>
       <c r="H207" t="n">
-        <v>4.85</v>
+        <v>5.2</v>
       </c>
       <c r="I207" t="n">
-        <v>7.8</v>
+        <v>12</v>
       </c>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
-        <v>1.19</v>
+        <v>1.23</v>
       </c>
       <c r="M207" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="N207" t="n">
-        <v>1.57</v>
+        <v>1.7</v>
       </c>
       <c r="O207" t="n">
-        <v>2.1</v>
+        <v>1.93</v>
       </c>
       <c r="P207" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="Q207" t="n">
-        <v>3.45</v>
+        <v>3.25</v>
       </c>
       <c r="R207" t="n">
-        <v>1.93</v>
+        <v>2.37</v>
       </c>
       <c r="S207" t="n">
-        <v>1.7</v>
+        <v>1.45</v>
       </c>
       <c r="T207" t="n">
-        <v>7.3</v>
+        <v>6.1</v>
       </c>
       <c r="U207" t="n">
-        <v>6.4</v>
+        <v>5.3</v>
       </c>
       <c r="V207" t="n">
-        <v>8.75</v>
+        <v>9.5</v>
       </c>
       <c r="W207" t="n">
-        <v>8.25</v>
+        <v>6.6</v>
       </c>
       <c r="X207" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y207" t="n">
+        <v>40</v>
+      </c>
+      <c r="Z207" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AA207" t="n">
         <v>11</v>
       </c>
-      <c r="Y207" t="n">
-        <v>28</v>
-      </c>
-      <c r="Z207" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AA207" t="n">
-        <v>9.75</v>
-      </c>
       <c r="AB207" t="n">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="AC207" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AD207" t="n">
         <v>800</v>
       </c>
       <c r="AE207" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AF207" t="n">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="AG207" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="AH207" t="n">
+        <v>500</v>
+      </c>
+      <c r="AI207" t="n">
         <v>200</v>
       </c>
-      <c r="AI207" t="n">
-        <v>90</v>
-      </c>
       <c r="AJ207" t="n">
-        <v>80</v>
+        <v>175</v>
       </c>
     </row>
     <row r="208">
@@ -25698,10 +25754,10 @@
         <v>3.75</v>
       </c>
       <c r="N209" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="O209" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="P209" t="n">
         <v>1.36</v>
@@ -25820,10 +25876,10 @@
         <v>3.4</v>
       </c>
       <c r="N210" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="O210" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="P210" t="n">
         <v>1.4</v>
@@ -26424,7 +26480,7 @@
         <v>7.1</v>
       </c>
       <c r="L215" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M215" t="n">
         <v>3.25</v>
@@ -26472,7 +26528,7 @@
         <v>6.6</v>
       </c>
       <c r="AB215" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AC215" t="n">
         <v>70</v>
@@ -26481,7 +26537,7 @@
         <v>500</v>
       </c>
       <c r="AE215" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AF215" t="n">
         <v>30</v>
@@ -26496,7 +26552,7 @@
         <v>55</v>
       </c>
       <c r="AJ215" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="216">

--- a/Jogos_da_Semana_FlashScore_2025-04-06.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-06.xlsx
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H2" t="n">
         <v>3.6</v>
@@ -656,10 +656,10 @@
         <v>2.15</v>
       </c>
       <c r="J2" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L2" t="n">
         <v>1.14</v>
@@ -668,16 +668,16 @@
         <v>5.5</v>
       </c>
       <c r="N2" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="O2" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="P2" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="Q2" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="R2" t="n">
         <v>1.44</v>
@@ -704,7 +704,7 @@
         <v>26</v>
       </c>
       <c r="Z2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA2" t="n">
         <v>8</v>
@@ -784,16 +784,16 @@
         <v>11</v>
       </c>
       <c r="L3" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M3" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N3" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="O3" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="P3" t="n">
         <v>1.36</v>
@@ -897,13 +897,13 @@
         <v>5.5</v>
       </c>
       <c r="I4" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="J4" t="n">
         <v>1.02</v>
       </c>
       <c r="K4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L4" t="n">
         <v>1.13</v>
@@ -912,43 +912,43 @@
         <v>6</v>
       </c>
       <c r="N4" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="O4" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="P4" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="Q4" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="R4" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S4" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="T4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="U4" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="V4" t="n">
         <v>9.5</v>
       </c>
       <c r="W4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X4" t="n">
         <v>11</v>
       </c>
       <c r="Y4" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z4" t="n">
         <v>21</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>23</v>
       </c>
       <c r="AA4" t="n">
         <v>12</v>
@@ -957,10 +957,10 @@
         <v>19</v>
       </c>
       <c r="AC4" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD4" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AE4" t="n">
         <v>26</v>
@@ -975,7 +975,7 @@
         <v>81</v>
       </c>
       <c r="AI4" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AJ4" t="n">
         <v>41</v>
@@ -1135,13 +1135,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="H6" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I6" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="J6" t="n">
         <v>1.03</v>
@@ -1168,10 +1168,10 @@
         <v>3.5</v>
       </c>
       <c r="R6" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S6" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="T6" t="n">
         <v>9</v>
@@ -1213,10 +1213,10 @@
         <v>34</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH6" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI6" t="n">
         <v>41</v>
@@ -1266,10 +1266,10 @@
         <v>2.8</v>
       </c>
       <c r="J7" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L7" t="n">
         <v>1.29</v>
@@ -1278,10 +1278,10 @@
         <v>3.75</v>
       </c>
       <c r="N7" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="O7" t="n">
-        <v>1.99</v>
+        <v>1.95</v>
       </c>
       <c r="P7" t="n">
         <v>1.4</v>
@@ -1510,10 +1510,10 @@
         <v>4.5</v>
       </c>
       <c r="J9" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L9" t="n">
         <v>1.29</v>
@@ -1522,10 +1522,10 @@
         <v>3.75</v>
       </c>
       <c r="N9" t="n">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="O9" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="P9" t="n">
         <v>1.4</v>
@@ -1558,10 +1558,10 @@
         <v>26</v>
       </c>
       <c r="Z9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB9" t="n">
         <v>15</v>
@@ -1623,7 +1623,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="H10" t="n">
         <v>3.9</v>
@@ -1632,10 +1632,10 @@
         <v>4.5</v>
       </c>
       <c r="J10" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K10" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L10" t="n">
         <v>1.25</v>
@@ -1644,10 +1644,10 @@
         <v>4</v>
       </c>
       <c r="N10" t="n">
-        <v>1.8</v>
+        <v>1.84</v>
       </c>
       <c r="O10" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="P10" t="n">
         <v>1.36</v>
@@ -1748,22 +1748,22 @@
         <v>2.3</v>
       </c>
       <c r="H11" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="I11" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="J11" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L11" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="M11" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N11" t="n">
         <v>2.3</v>
@@ -1784,7 +1784,7 @@
         <v>1.8</v>
       </c>
       <c r="T11" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="U11" t="n">
         <v>10</v>
@@ -1826,7 +1826,7 @@
         <v>13</v>
       </c>
       <c r="AH11" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI11" t="n">
         <v>29</v>
@@ -1867,13 +1867,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="H12" t="n">
+        <v>3</v>
+      </c>
+      <c r="I12" t="n">
         <v>3.1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>3</v>
       </c>
       <c r="J12" t="n">
         <v>1.08</v>
@@ -1894,22 +1894,22 @@
         <v>1.67</v>
       </c>
       <c r="P12" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="R12" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="S12" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="T12" t="n">
         <v>7.5</v>
       </c>
       <c r="U12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V12" t="n">
         <v>10</v>
@@ -1945,16 +1945,16 @@
         <v>15</v>
       </c>
       <c r="AG12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH12" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI12" t="n">
         <v>26</v>
       </c>
       <c r="AJ12" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13">
@@ -2132,10 +2132,10 @@
         <v>4</v>
       </c>
       <c r="N14" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="O14" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="P14" t="n">
         <v>1.36</v>
@@ -2355,13 +2355,13 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="H16" t="n">
         <v>3.2</v>
       </c>
       <c r="I16" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="J16" t="n">
         <v>1.08</v>
@@ -2382,10 +2382,10 @@
         <v>1.57</v>
       </c>
       <c r="P16" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="R16" t="n">
         <v>2</v>
@@ -2394,7 +2394,7 @@
         <v>1.75</v>
       </c>
       <c r="T16" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U16" t="n">
         <v>15</v>
@@ -2403,7 +2403,7 @@
         <v>12</v>
       </c>
       <c r="W16" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="X16" t="n">
         <v>29</v>
@@ -2430,13 +2430,13 @@
         <v>6.5</v>
       </c>
       <c r="AF16" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AG16" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI16" t="n">
         <v>21</v>
@@ -2477,13 +2477,13 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="H17" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I17" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="J17" t="n">
         <v>1.08</v>
@@ -2516,7 +2516,7 @@
         <v>1.8</v>
       </c>
       <c r="T17" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="U17" t="n">
         <v>17</v>
@@ -2528,7 +2528,7 @@
         <v>41</v>
       </c>
       <c r="X17" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Y17" t="n">
         <v>41</v>
@@ -2555,7 +2555,7 @@
         <v>9.5</v>
       </c>
       <c r="AG17" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AH17" t="n">
         <v>19</v>
@@ -2605,7 +2605,7 @@
         <v>3.1</v>
       </c>
       <c r="I18" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="J18" t="n">
         <v>1.13</v>
@@ -2864,10 +2864,10 @@
         <v>2.5</v>
       </c>
       <c r="N20" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="O20" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="P20" t="n">
         <v>1.57</v>
@@ -2903,7 +2903,7 @@
         <v>6.5</v>
       </c>
       <c r="AA20" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB20" t="n">
         <v>19</v>
@@ -2998,13 +2998,13 @@
         <v>2.25</v>
       </c>
       <c r="R21" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S21" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="T21" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="U21" t="n">
         <v>8.5</v>
@@ -3028,10 +3028,10 @@
         <v>6.5</v>
       </c>
       <c r="AB21" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC21" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AD21" t="n">
         <v>501</v>
@@ -3230,10 +3230,10 @@
         <v>3</v>
       </c>
       <c r="N23" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="O23" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="P23" t="n">
         <v>1.44</v>
@@ -3242,22 +3242,22 @@
         <v>2.63</v>
       </c>
       <c r="R23" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S23" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="T23" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="U23" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="V23" t="n">
         <v>8.5</v>
       </c>
       <c r="W23" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X23" t="n">
         <v>15</v>
@@ -3266,13 +3266,13 @@
         <v>34</v>
       </c>
       <c r="Z23" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA23" t="n">
         <v>7</v>
       </c>
       <c r="AB23" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC23" t="n">
         <v>67</v>
@@ -3281,7 +3281,7 @@
         <v>501</v>
       </c>
       <c r="AE23" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF23" t="n">
         <v>29</v>
@@ -3364,10 +3364,10 @@
         <v>2.63</v>
       </c>
       <c r="R24" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S24" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="T24" t="n">
         <v>6</v>
@@ -3394,7 +3394,7 @@
         <v>6.5</v>
       </c>
       <c r="AB24" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC24" t="n">
         <v>67</v>
@@ -3590,10 +3590,10 @@
         <v>4.5</v>
       </c>
       <c r="L26" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="M26" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="N26" t="n">
         <v>3.6</v>
@@ -3703,7 +3703,7 @@
         <v>3</v>
       </c>
       <c r="I27" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="J27" t="n">
         <v>1.17</v>
@@ -3736,7 +3736,7 @@
         <v>1.4</v>
       </c>
       <c r="T27" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="U27" t="n">
         <v>7.5</v>
@@ -3745,7 +3745,7 @@
         <v>11</v>
       </c>
       <c r="W27" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="X27" t="n">
         <v>26</v>
@@ -4328,10 +4328,10 @@
         <v>5.5</v>
       </c>
       <c r="N32" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="O32" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="P32" t="n">
         <v>1.25</v>
@@ -4554,7 +4554,7 @@
         <v>1.38</v>
       </c>
       <c r="H34" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="I34" t="n">
         <v>7</v>
@@ -4599,13 +4599,13 @@
         <v>8.5</v>
       </c>
       <c r="W34" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X34" t="n">
         <v>11</v>
       </c>
       <c r="Y34" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Z34" t="n">
         <v>21</v>
@@ -4614,7 +4614,7 @@
         <v>10</v>
       </c>
       <c r="AB34" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC34" t="n">
         <v>41</v>
@@ -4623,7 +4623,7 @@
         <v>151</v>
       </c>
       <c r="AE34" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AF34" t="n">
         <v>41</v>
@@ -4673,13 +4673,13 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="H35" t="n">
         <v>3.3</v>
       </c>
       <c r="I35" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="J35" t="n">
         <v>1.1</v>
@@ -4718,10 +4718,10 @@
         <v>8</v>
       </c>
       <c r="V35" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W35" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X35" t="n">
         <v>19</v>
@@ -4736,10 +4736,10 @@
         <v>6.5</v>
       </c>
       <c r="AB35" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC35" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD35" t="n">
         <v>501</v>
@@ -4748,13 +4748,13 @@
         <v>9</v>
       </c>
       <c r="AF35" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG35" t="n">
         <v>15</v>
       </c>
       <c r="AH35" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI35" t="n">
         <v>41</v>
@@ -4816,10 +4816,10 @@
         <v>3</v>
       </c>
       <c r="N36" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="O36" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="P36" t="n">
         <v>1.5</v>
@@ -4938,10 +4938,10 @@
         <v>3</v>
       </c>
       <c r="N37" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O37" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="P37" t="n">
         <v>1.5</v>
@@ -5045,7 +5045,7 @@
         <v>3.1</v>
       </c>
       <c r="I38" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J38" t="n">
         <v>1.08</v>
@@ -5893,19 +5893,19 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H45" t="n">
         <v>3.25</v>
       </c>
       <c r="I45" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J45" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K45" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="L45" t="n">
         <v>1.5</v>
@@ -5914,10 +5914,10 @@
         <v>2.5</v>
       </c>
       <c r="N45" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="O45" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="P45" t="n">
         <v>1.57</v>
@@ -5932,7 +5932,7 @@
         <v>1.62</v>
       </c>
       <c r="T45" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="U45" t="n">
         <v>8.5</v>
@@ -5950,7 +5950,7 @@
         <v>41</v>
       </c>
       <c r="Z45" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AA45" t="n">
         <v>6.5</v>
@@ -5977,10 +5977,10 @@
         <v>41</v>
       </c>
       <c r="AI45" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ45" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="46">
@@ -6259,10 +6259,10 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="H48" t="n">
-        <v>3.75</v>
+        <v>4.1</v>
       </c>
       <c r="I48" t="n">
         <v>1.67</v>
@@ -6301,7 +6301,7 @@
         <v>17</v>
       </c>
       <c r="U48" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="V48" t="n">
         <v>15</v>
@@ -6319,7 +6319,7 @@
         <v>15</v>
       </c>
       <c r="AA48" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB48" t="n">
         <v>13</v>
@@ -6328,10 +6328,10 @@
         <v>41</v>
       </c>
       <c r="AD48" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AE48" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF48" t="n">
         <v>9.5</v>
@@ -6381,13 +6381,13 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="H49" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I49" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="J49" t="n">
         <v>1.04</v>
@@ -6402,10 +6402,10 @@
         <v>4</v>
       </c>
       <c r="N49" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="O49" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="P49" t="n">
         <v>1.33</v>
@@ -6420,7 +6420,7 @@
         <v>2.25</v>
       </c>
       <c r="T49" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U49" t="n">
         <v>15</v>
@@ -6435,7 +6435,7 @@
         <v>19</v>
       </c>
       <c r="Y49" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Z49" t="n">
         <v>13</v>
@@ -6444,13 +6444,13 @@
         <v>6.5</v>
       </c>
       <c r="AB49" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC49" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AD49" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AE49" t="n">
         <v>11</v>
@@ -6465,10 +6465,10 @@
         <v>26</v>
       </c>
       <c r="AI49" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ49" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="50">
@@ -6518,10 +6518,10 @@
         <v>17</v>
       </c>
       <c r="L50" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="M50" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="N50" t="n">
         <v>1.53</v>
@@ -6911,7 +6911,7 @@
         <v>15</v>
       </c>
       <c r="U53" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="V53" t="n">
         <v>11</v>
@@ -6941,7 +6941,7 @@
         <v>81</v>
       </c>
       <c r="AE53" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF53" t="n">
         <v>15</v>
@@ -7012,10 +7012,10 @@
         <v>3.75</v>
       </c>
       <c r="N54" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="O54" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="P54" t="n">
         <v>1.36</v>
@@ -7116,10 +7116,10 @@
         <v>1.4</v>
       </c>
       <c r="H55" t="n">
-        <v>4.2</v>
+        <v>4.25</v>
       </c>
       <c r="I55" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
@@ -7127,13 +7127,13 @@
         <v>1.25</v>
       </c>
       <c r="M55" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="N55" t="n">
         <v>1.75</v>
       </c>
       <c r="O55" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="P55" t="n">
         <v>1.38</v>
@@ -7148,7 +7148,7 @@
         <v>1.65</v>
       </c>
       <c r="T55" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="U55" t="n">
         <v>6.2</v>
@@ -7178,13 +7178,13 @@
         <v>110</v>
       </c>
       <c r="AD55" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AE55" t="n">
         <v>18</v>
       </c>
       <c r="AF55" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AG55" t="n">
         <v>23</v>
@@ -7349,13 +7349,13 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="H57" t="n">
         <v>3.1</v>
       </c>
       <c r="I57" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
@@ -7363,7 +7363,7 @@
         <v>1.32</v>
       </c>
       <c r="M57" t="n">
-        <v>2.82</v>
+        <v>2.85</v>
       </c>
       <c r="N57" t="n">
         <v>1.93</v>
@@ -7384,10 +7384,10 @@
         <v>1.88</v>
       </c>
       <c r="T57" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="U57" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="V57" t="n">
         <v>11.75</v>
@@ -7399,13 +7399,13 @@
         <v>32</v>
       </c>
       <c r="Y57" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Z57" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AA57" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AB57" t="n">
         <v>14</v>
@@ -7417,19 +7417,19 @@
         <v>500</v>
       </c>
       <c r="AE57" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AF57" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AG57" t="n">
         <v>8.5</v>
       </c>
       <c r="AH57" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AI57" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AJ57" t="n">
         <v>28</v>
@@ -7710,10 +7710,10 @@
         <v>3.7</v>
       </c>
       <c r="H60" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I60" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="J60" t="n">
         <v>1.08</v>
@@ -7722,10 +7722,10 @@
         <v>7.5</v>
       </c>
       <c r="L60" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="M60" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="N60" t="n">
         <v>2.35</v>
@@ -7734,10 +7734,10 @@
         <v>1.57</v>
       </c>
       <c r="P60" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Q60" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="R60" t="n">
         <v>2.1</v>
@@ -7746,7 +7746,7 @@
         <v>1.67</v>
       </c>
       <c r="T60" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U60" t="n">
         <v>17</v>
@@ -8911,31 +8911,31 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H70" t="n">
         <v>3.5</v>
       </c>
       <c r="I70" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J70" t="n">
         <v>1.04</v>
       </c>
       <c r="K70" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L70" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M70" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N70" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="O70" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="P70" t="n">
         <v>1.36</v>
@@ -8950,7 +8950,7 @@
         <v>2.1</v>
       </c>
       <c r="T70" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U70" t="n">
         <v>11</v>
@@ -8968,7 +8968,7 @@
         <v>23</v>
       </c>
       <c r="Z70" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA70" t="n">
         <v>7</v>
@@ -8983,10 +8983,10 @@
         <v>151</v>
       </c>
       <c r="AE70" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF70" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG70" t="n">
         <v>12</v>
@@ -9033,13 +9033,13 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="H71" t="n">
         <v>3.1</v>
       </c>
       <c r="I71" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="J71" t="n">
         <v>1.06</v>
@@ -9105,7 +9105,7 @@
         <v>201</v>
       </c>
       <c r="AE71" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF71" t="n">
         <v>13</v>
@@ -9310,7 +9310,7 @@
         <v>2.75</v>
       </c>
       <c r="R73" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="S73" t="n">
         <v>2</v>
@@ -9461,13 +9461,13 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="H75" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I75" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J75" t="n">
         <v>1.04</v>
@@ -9494,16 +9494,16 @@
         <v>3.25</v>
       </c>
       <c r="R75" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="S75" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T75" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U75" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="V75" t="n">
         <v>8.5</v>
@@ -9521,10 +9521,10 @@
         <v>13</v>
       </c>
       <c r="AA75" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB75" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC75" t="n">
         <v>41</v>
@@ -9539,13 +9539,13 @@
         <v>26</v>
       </c>
       <c r="AG75" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH75" t="n">
         <v>51</v>
       </c>
       <c r="AI75" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ75" t="n">
         <v>41</v>
@@ -9714,13 +9714,13 @@
         <v>2.3</v>
       </c>
       <c r="J77" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K77" t="n">
         <v>15</v>
       </c>
       <c r="L77" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="M77" t="n">
         <v>4.33</v>
@@ -9836,13 +9836,13 @@
         <v>2.45</v>
       </c>
       <c r="J78" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K78" t="n">
         <v>13</v>
       </c>
       <c r="L78" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="M78" t="n">
         <v>4</v>
@@ -9958,22 +9958,22 @@
         <v>2.8</v>
       </c>
       <c r="J79" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="K79" t="n">
         <v>10</v>
       </c>
       <c r="L79" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M79" t="n">
         <v>3.5</v>
       </c>
       <c r="N79" t="n">
-        <v>1.92</v>
+        <v>1.98</v>
       </c>
       <c r="O79" t="n">
-        <v>1.82</v>
+        <v>1.88</v>
       </c>
       <c r="P79" t="n">
         <v>1.4</v>
@@ -10214,10 +10214,10 @@
       <c r="P81" t="inlineStr"/>
       <c r="Q81" t="inlineStr"/>
       <c r="R81" t="n">
-        <v>2.95</v>
+        <v>2.85</v>
       </c>
       <c r="S81" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="T81" t="n">
         <v>32</v>
@@ -10332,10 +10332,10 @@
         <v>2.45</v>
       </c>
       <c r="R82" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="S82" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="T82" t="n">
         <v>4.15</v>
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="H83" t="n">
         <v>3.15</v>
@@ -10456,10 +10456,10 @@
         <v>1.75</v>
       </c>
       <c r="T83" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="U83" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="V83" t="n">
         <v>8.25</v>
@@ -10468,10 +10468,10 @@
         <v>15</v>
       </c>
       <c r="X83" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="Y83" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Z83" t="n">
         <v>7.9</v>
@@ -10489,10 +10489,10 @@
         <v>800</v>
       </c>
       <c r="AE83" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AF83" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AG83" t="n">
         <v>14.5</v>
@@ -10501,10 +10501,10 @@
         <v>80</v>
       </c>
       <c r="AI83" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AJ83" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="84">
@@ -10548,13 +10548,13 @@
         <v>2.7</v>
       </c>
       <c r="J84" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="K84" t="n">
         <v>10</v>
       </c>
       <c r="L84" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="M84" t="n">
         <v>3.4</v>
@@ -10670,13 +10670,13 @@
         <v>5.25</v>
       </c>
       <c r="J85" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K85" t="n">
         <v>15</v>
       </c>
       <c r="L85" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="M85" t="n">
         <v>4.5</v>
@@ -10795,13 +10795,13 @@
         <v>1.02</v>
       </c>
       <c r="K86" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L86" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="M86" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="N86" t="n">
         <v>1.48</v>
@@ -11026,30 +11026,30 @@
         <v>2.82</v>
       </c>
       <c r="H88" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I88" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="M88" t="n">
         <v>6</v>
       </c>
       <c r="N88" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="O88" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="P88" t="n">
         <v>1.2</v>
       </c>
       <c r="Q88" t="n">
-        <v>4.05</v>
+        <v>4.1</v>
       </c>
       <c r="R88" t="n">
         <v>1.32</v>
@@ -11067,19 +11067,19 @@
         <v>11.5</v>
       </c>
       <c r="W88" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="X88" t="n">
         <v>19.5</v>
       </c>
       <c r="Y88" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="Z88" t="n">
         <v>32</v>
       </c>
       <c r="AA88" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AB88" t="n">
         <v>10.75</v>
@@ -11091,7 +11091,7 @@
         <v>100</v>
       </c>
       <c r="AE88" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AF88" t="n">
         <v>17</v>
@@ -11100,7 +11100,7 @@
         <v>9.75</v>
       </c>
       <c r="AH88" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI88" t="n">
         <v>14</v>
@@ -11263,7 +11263,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>2.65</v>
+        <v>2.62</v>
       </c>
       <c r="H90" t="n">
         <v>3.25</v>
@@ -11274,7 +11274,7 @@
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="M90" t="n">
         <v>3.2</v>
@@ -11294,10 +11294,10 @@
         <v>2.05</v>
       </c>
       <c r="T90" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="U90" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="V90" t="n">
         <v>9.75</v>
@@ -11312,7 +11312,7 @@
         <v>27</v>
       </c>
       <c r="Z90" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AA90" t="n">
         <v>6.4</v>
@@ -11324,25 +11324,25 @@
         <v>50</v>
       </c>
       <c r="AD90" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AE90" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AF90" t="n">
         <v>13</v>
       </c>
       <c r="AG90" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AH90" t="n">
         <v>27</v>
       </c>
       <c r="AI90" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AJ90" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="91">
@@ -11377,13 +11377,13 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="H91" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="I91" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="J91" t="n">
         <v>1.04</v>
@@ -11392,16 +11392,16 @@
         <v>13</v>
       </c>
       <c r="L91" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M91" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N91" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="O91" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="P91" t="n">
         <v>1.33</v>
@@ -11419,13 +11419,13 @@
         <v>7.5</v>
       </c>
       <c r="U91" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="V91" t="n">
         <v>8.5</v>
       </c>
       <c r="W91" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X91" t="n">
         <v>12</v>
@@ -11437,7 +11437,7 @@
         <v>13</v>
       </c>
       <c r="AA91" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB91" t="n">
         <v>17</v>
@@ -11446,19 +11446,19 @@
         <v>51</v>
       </c>
       <c r="AD91" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AE91" t="n">
         <v>17</v>
       </c>
       <c r="AF91" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG91" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH91" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI91" t="n">
         <v>41</v>
@@ -11511,7 +11511,7 @@
         <v>1.07</v>
       </c>
       <c r="K92" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L92" t="n">
         <v>1.36</v>
@@ -11520,10 +11520,10 @@
         <v>3</v>
       </c>
       <c r="N92" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="O92" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="P92" t="n">
         <v>1.44</v>
@@ -11764,7 +11764,7 @@
         <v>3.5</v>
       </c>
       <c r="N94" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="O94" t="n">
         <v>1.85</v>
@@ -11874,22 +11874,22 @@
         <v>4.75</v>
       </c>
       <c r="J95" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K95" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L95" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M95" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N95" t="n">
         <v>2</v>
       </c>
       <c r="O95" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="P95" t="n">
         <v>1.4</v>
@@ -12841,13 +12841,13 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>4.05</v>
+        <v>4</v>
       </c>
       <c r="H103" t="n">
         <v>3.25</v>
       </c>
       <c r="I103" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="J103" t="n">
         <v>1.09</v>
@@ -12871,7 +12871,7 @@
         <v>1.52</v>
       </c>
       <c r="Q103" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="R103" t="n">
         <v>2.1</v>
@@ -12883,7 +12883,7 @@
         <v>9.25</v>
       </c>
       <c r="U103" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V103" t="n">
         <v>14.5</v>
@@ -12892,7 +12892,7 @@
         <v>65</v>
       </c>
       <c r="X103" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="Y103" t="n">
         <v>65</v>
@@ -12925,7 +12925,7 @@
         <v>15</v>
       </c>
       <c r="AI103" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AJ103" t="n">
         <v>37</v>
@@ -12963,19 +12963,19 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="H104" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="I104" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="J104" t="n">
         <v>1.07</v>
       </c>
       <c r="K104" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="L104" t="n">
         <v>1.36</v>
@@ -12993,25 +12993,25 @@
         <v>1.42</v>
       </c>
       <c r="Q104" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="R104" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="S104" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="T104" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="U104" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="V104" t="n">
         <v>8.75</v>
       </c>
       <c r="W104" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="X104" t="n">
         <v>16.5</v>
@@ -13020,13 +13020,13 @@
         <v>32</v>
       </c>
       <c r="Z104" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AA104" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AB104" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AC104" t="n">
         <v>90</v>
@@ -13035,7 +13035,7 @@
         <v>800</v>
       </c>
       <c r="AE104" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AF104" t="n">
         <v>18.5</v>
@@ -13044,13 +13044,13 @@
         <v>13</v>
       </c>
       <c r="AH104" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AI104" t="n">
         <v>37</v>
       </c>
       <c r="AJ104" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="105">
@@ -13207,13 +13207,13 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>2.52</v>
+        <v>2.62</v>
       </c>
       <c r="H106" t="n">
         <v>3.1</v>
       </c>
       <c r="I106" t="n">
-        <v>2.62</v>
+        <v>2.52</v>
       </c>
       <c r="J106" t="n">
         <v>1.09</v>
@@ -13246,19 +13246,19 @@
         <v>1.78</v>
       </c>
       <c r="T106" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="U106" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="V106" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="W106" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="X106" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Y106" t="n">
         <v>40</v>
@@ -13279,19 +13279,19 @@
         <v>800</v>
       </c>
       <c r="AE106" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AF106" t="n">
-        <v>12.5</v>
+        <v>11.75</v>
       </c>
       <c r="AG106" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AH106" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AI106" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AJ106" t="n">
         <v>37</v>
@@ -13460,10 +13460,10 @@
         <v>2.7</v>
       </c>
       <c r="J108" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K108" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="L108" t="n">
         <v>1.5</v>
@@ -13472,10 +13472,10 @@
         <v>2.5</v>
       </c>
       <c r="N108" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="O108" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="P108" t="n">
         <v>1.57</v>
@@ -13573,13 +13573,13 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="H109" t="n">
         <v>3.2</v>
       </c>
       <c r="I109" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="J109" t="n">
         <v>1.07</v>
@@ -13618,10 +13618,10 @@
         <v>13</v>
       </c>
       <c r="V109" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W109" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="X109" t="n">
         <v>23</v>
@@ -13648,7 +13648,7 @@
         <v>8</v>
       </c>
       <c r="AF109" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG109" t="n">
         <v>10</v>
@@ -13701,7 +13701,7 @@
         <v>3.4</v>
       </c>
       <c r="I110" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J110" t="n">
         <v>1.07</v>
@@ -13737,7 +13737,7 @@
         <v>6.5</v>
       </c>
       <c r="U110" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="V110" t="n">
         <v>8.5</v>
@@ -13776,7 +13776,7 @@
         <v>15</v>
       </c>
       <c r="AH110" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI110" t="n">
         <v>41</v>
@@ -13954,16 +13954,16 @@
         <v>9</v>
       </c>
       <c r="L112" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M112" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N112" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="O112" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="P112" t="n">
         <v>1.44</v>
@@ -14061,13 +14061,13 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="H113" t="n">
         <v>3.1</v>
       </c>
       <c r="I113" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="J113" t="n">
         <v>1.08</v>
@@ -14103,13 +14103,13 @@
         <v>7</v>
       </c>
       <c r="U113" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V113" t="n">
         <v>9.5</v>
       </c>
       <c r="W113" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="X113" t="n">
         <v>21</v>
@@ -14118,7 +14118,7 @@
         <v>34</v>
       </c>
       <c r="Z113" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AA113" t="n">
         <v>6</v>
@@ -14133,7 +14133,7 @@
         <v>351</v>
       </c>
       <c r="AE113" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF113" t="n">
         <v>15</v>
@@ -14183,13 +14183,13 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H114" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I114" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J114" t="n">
         <v>1.04</v>
@@ -14237,7 +14237,7 @@
         <v>13</v>
       </c>
       <c r="Y114" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Z114" t="n">
         <v>11</v>
@@ -14258,7 +14258,7 @@
         <v>13</v>
       </c>
       <c r="AF114" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AG114" t="n">
         <v>15</v>
@@ -14314,10 +14314,10 @@
         <v>3</v>
       </c>
       <c r="J115" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K115" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L115" t="n">
         <v>1.4</v>
@@ -14326,10 +14326,10 @@
         <v>2.75</v>
       </c>
       <c r="N115" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="O115" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="P115" t="n">
         <v>1.5</v>
@@ -14436,10 +14436,10 @@
         <v>2.63</v>
       </c>
       <c r="J116" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K116" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L116" t="n">
         <v>1.36</v>
@@ -14785,13 +14785,13 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="H119" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I119" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="J119" t="n">
         <v>1.06</v>
@@ -14806,10 +14806,10 @@
         <v>3.25</v>
       </c>
       <c r="N119" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="O119" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="P119" t="n">
         <v>1.44</v>
@@ -14857,7 +14857,7 @@
         <v>401</v>
       </c>
       <c r="AE119" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF119" t="n">
         <v>26</v>
@@ -14928,10 +14928,10 @@
         <v>8</v>
       </c>
       <c r="N120" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="O120" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P120" t="n">
         <v>1.18</v>
@@ -14952,7 +14952,7 @@
         <v>8.5</v>
       </c>
       <c r="V120" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W120" t="n">
         <v>8.5</v>
@@ -14961,10 +14961,10 @@
         <v>10</v>
       </c>
       <c r="Y120" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Z120" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AA120" t="n">
         <v>13</v>
@@ -14976,16 +14976,16 @@
         <v>51</v>
       </c>
       <c r="AD120" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AE120" t="n">
+        <v>41</v>
+      </c>
+      <c r="AF120" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG120" t="n">
         <v>34</v>
-      </c>
-      <c r="AF120" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG120" t="n">
-        <v>29</v>
       </c>
       <c r="AH120" t="n">
         <v>151</v>
@@ -15029,13 +15029,13 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>2.52</v>
+        <v>2.62</v>
       </c>
       <c r="H121" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I121" t="n">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
@@ -15054,58 +15054,58 @@
       <c r="P121" t="inlineStr"/>
       <c r="Q121" t="inlineStr"/>
       <c r="R121" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="S121" t="n">
-        <v>2.32</v>
+        <v>2.27</v>
       </c>
       <c r="T121" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="U121" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="V121" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="W121" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="X121" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Y121" t="n">
         <v>23</v>
       </c>
       <c r="Z121" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AA121" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AB121" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AC121" t="n">
+        <v>40</v>
+      </c>
+      <c r="AD121" t="n">
+        <v>250</v>
+      </c>
+      <c r="AE121" t="n">
         <v>11</v>
       </c>
-      <c r="AC121" t="n">
-        <v>37</v>
-      </c>
-      <c r="AD121" t="n">
-        <v>200</v>
-      </c>
-      <c r="AE121" t="n">
-        <v>11.5</v>
-      </c>
       <c r="AF121" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AG121" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AH121" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AI121" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AJ121" t="n">
         <v>22</v>
@@ -15400,10 +15400,10 @@
         <v>3.5</v>
       </c>
       <c r="N124" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="O124" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="P124" t="n">
         <v>1.4</v>
@@ -16355,7 +16355,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="H132" t="n">
         <v>6.5</v>
@@ -16367,7 +16367,7 @@
         <v>1.04</v>
       </c>
       <c r="K132" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L132" t="n">
         <v>1.25</v>
@@ -16376,16 +16376,16 @@
         <v>3.75</v>
       </c>
       <c r="N132" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="O132" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="P132" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q132" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R132" t="n">
         <v>2.63</v>
@@ -16412,13 +16412,13 @@
         <v>41</v>
       </c>
       <c r="Z132" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA132" t="n">
         <v>13</v>
       </c>
       <c r="AB132" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC132" t="n">
         <v>126</v>
@@ -16436,7 +16436,7 @@
         <v>26</v>
       </c>
       <c r="AH132" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AI132" t="n">
         <v>81</v>
@@ -16477,7 +16477,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="H133" t="n">
         <v>3.6</v>
@@ -16599,13 +16599,13 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>2.57</v>
+        <v>2.7</v>
       </c>
       <c r="H134" t="n">
         <v>3.8</v>
       </c>
       <c r="I134" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="J134" t="n">
         <v>1.04</v>
@@ -16659,7 +16659,7 @@
         <v>12</v>
       </c>
       <c r="AA134" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB134" t="n">
         <v>15</v>
@@ -16674,13 +16674,13 @@
         <v>8.5</v>
       </c>
       <c r="AF134" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG134" t="n">
         <v>9.5</v>
       </c>
       <c r="AH134" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI134" t="n">
         <v>19</v>
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1.56</v>
+        <v>1.6</v>
       </c>
       <c r="H135" t="n">
         <v>3.8</v>
@@ -16965,13 +16965,13 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="H137" t="n">
         <v>3.3</v>
       </c>
       <c r="I137" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="J137" t="n">
         <v>1.04</v>
@@ -17700,10 +17700,10 @@
         <v>2.05</v>
       </c>
       <c r="H143" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="I143" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="J143" t="n">
         <v>1.08</v>
@@ -17718,10 +17718,10 @@
         <v>2.75</v>
       </c>
       <c r="N143" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="O143" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="P143" t="n">
         <v>1.5</v>
@@ -17730,10 +17730,10 @@
         <v>2.5</v>
       </c>
       <c r="R143" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S143" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="T143" t="n">
         <v>6</v>
@@ -17831,7 +17831,7 @@
         <v>1.06</v>
       </c>
       <c r="K144" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="L144" t="n">
         <v>1.3</v>
@@ -17843,7 +17843,7 @@
         <v>2.05</v>
       </c>
       <c r="O144" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="P144" t="n">
         <v>1.44</v>
@@ -17882,7 +17882,7 @@
         <v>6</v>
       </c>
       <c r="AB144" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC144" t="n">
         <v>51</v>
@@ -18438,10 +18438,10 @@
         <v>3.4</v>
       </c>
       <c r="J149" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K149" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L149" t="n">
         <v>1.3</v>
@@ -18450,10 +18450,10 @@
         <v>3.4</v>
       </c>
       <c r="N149" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="O149" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="P149" t="n">
         <v>1.4</v>
@@ -18673,13 +18673,13 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H151" t="n">
         <v>3</v>
       </c>
       <c r="I151" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="J151" t="n">
         <v>1.08</v>
@@ -18724,7 +18724,7 @@
         <v>21</v>
       </c>
       <c r="X151" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y151" t="n">
         <v>34</v>
@@ -18748,13 +18748,13 @@
         <v>9</v>
       </c>
       <c r="AF151" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG151" t="n">
         <v>13</v>
       </c>
       <c r="AH151" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI151" t="n">
         <v>29</v>
@@ -18816,10 +18816,10 @@
         <v>3.75</v>
       </c>
       <c r="N152" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="O152" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="P152" t="n">
         <v>1.4</v>
@@ -19176,10 +19176,10 @@
         <v>19</v>
       </c>
       <c r="L155" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="M155" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="N155" t="n">
         <v>1.44</v>
@@ -19405,13 +19405,13 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>2.57</v>
+        <v>2.32</v>
       </c>
       <c r="H157" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I157" t="n">
-        <v>2.5</v>
+        <v>2.77</v>
       </c>
       <c r="J157" t="n">
         <v>1.05</v>
@@ -19423,7 +19423,7 @@
         <v>1.26</v>
       </c>
       <c r="M157" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="N157" t="n">
         <v>1.78</v>
@@ -19441,25 +19441,25 @@
         <v>1.62</v>
       </c>
       <c r="S157" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="T157" t="n">
-        <v>9.75</v>
+        <v>8.75</v>
       </c>
       <c r="U157" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="V157" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W157" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="X157" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="Y157" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z157" t="n">
         <v>7.6</v>
@@ -19477,22 +19477,22 @@
         <v>350</v>
       </c>
       <c r="AE157" t="n">
-        <v>9.25</v>
+        <v>10.25</v>
       </c>
       <c r="AF157" t="n">
-        <v>13.5</v>
+        <v>16</v>
       </c>
       <c r="AG157" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH157" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="AI157" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AJ157" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="158">
@@ -19527,13 +19527,13 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="H158" t="n">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="I158" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
@@ -19541,49 +19541,49 @@
         <v>1.09</v>
       </c>
       <c r="M158" t="n">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="N158" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="O158" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="P158" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="Q158" t="n">
-        <v>4</v>
+        <v>4.15</v>
       </c>
       <c r="R158" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="S158" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="T158" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="U158" t="n">
-        <v>7.3</v>
+        <v>7.8</v>
       </c>
       <c r="V158" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="W158" t="n">
-        <v>6.9</v>
+        <v>7.2</v>
       </c>
       <c r="X158" t="n">
         <v>10.5</v>
       </c>
       <c r="Y158" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z158" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AA158" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AB158" t="n">
         <v>32</v>
@@ -19595,19 +19595,19 @@
         <v>800</v>
       </c>
       <c r="AE158" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AF158" t="n">
+        <v>150</v>
+      </c>
+      <c r="AG158" t="n">
+        <v>50</v>
+      </c>
+      <c r="AH158" t="n">
+        <v>700</v>
+      </c>
+      <c r="AI158" t="n">
         <v>200</v>
-      </c>
-      <c r="AG158" t="n">
-        <v>55</v>
-      </c>
-      <c r="AH158" t="n">
-        <v>900</v>
-      </c>
-      <c r="AI158" t="n">
-        <v>250</v>
       </c>
       <c r="AJ158" t="n">
         <v>150</v>
@@ -19654,85 +19654,85 @@
         <v>2.05</v>
       </c>
       <c r="J159" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="K159" t="n">
-        <v>6.8</v>
+        <v>6.3</v>
       </c>
       <c r="L159" t="n">
-        <v>1.34</v>
+        <v>1.4</v>
       </c>
       <c r="M159" t="n">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="N159" t="n">
-        <v>2</v>
+        <v>2.18</v>
       </c>
       <c r="O159" t="n">
-        <v>1.72</v>
+        <v>1.6</v>
       </c>
       <c r="P159" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="Q159" t="n">
-        <v>2.55</v>
+        <v>2.42</v>
       </c>
       <c r="R159" t="n">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S159" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="T159" t="n">
-        <v>9.75</v>
+        <v>8.5</v>
       </c>
       <c r="U159" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="V159" t="n">
-        <v>11.75</v>
+        <v>12.5</v>
       </c>
       <c r="W159" t="n">
+        <v>45</v>
+      </c>
+      <c r="X159" t="n">
+        <v>35</v>
+      </c>
+      <c r="Y159" t="n">
         <v>50</v>
       </c>
-      <c r="X159" t="n">
-        <v>32</v>
-      </c>
-      <c r="Y159" t="n">
-        <v>40</v>
-      </c>
       <c r="Z159" t="n">
-        <v>6.8</v>
+        <v>6.3</v>
       </c>
       <c r="AA159" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="AB159" t="n">
-        <v>14.5</v>
+        <v>17</v>
       </c>
       <c r="AC159" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="AD159" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="AE159" t="n">
-        <v>7.1</v>
+        <v>6.4</v>
       </c>
       <c r="AF159" t="n">
-        <v>9.75</v>
+        <v>9</v>
       </c>
       <c r="AG159" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AH159" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AI159" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="AJ159" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="160">
@@ -20255,13 +20255,13 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="H164" t="n">
-        <v>4.1</v>
+        <v>4.15</v>
       </c>
       <c r="I164" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="J164" t="n">
         <v>1.05</v>
@@ -20270,22 +20270,22 @@
         <v>8</v>
       </c>
       <c r="L164" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="M164" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="N164" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="O164" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="P164" t="n">
         <v>1.37</v>
       </c>
       <c r="Q164" t="n">
-        <v>2.87</v>
+        <v>2.85</v>
       </c>
       <c r="R164" t="n">
         <v>1.85</v>
@@ -20294,19 +20294,19 @@
         <v>1.85</v>
       </c>
       <c r="T164" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="U164" t="n">
         <v>35</v>
       </c>
       <c r="V164" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="W164" t="n">
         <v>110</v>
       </c>
       <c r="X164" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="Y164" t="n">
         <v>55</v>
@@ -20315,10 +20315,10 @@
         <v>8</v>
       </c>
       <c r="AA164" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AB164" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AC164" t="n">
         <v>80</v>
@@ -20330,19 +20330,19 @@
         <v>7</v>
       </c>
       <c r="AF164" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="AG164" t="n">
         <v>8</v>
       </c>
       <c r="AH164" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AI164" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AJ164" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="165">
@@ -20392,10 +20392,10 @@
         <v>7.5</v>
       </c>
       <c r="L165" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="M165" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="N165" t="n">
         <v>2.35</v>
@@ -20410,10 +20410,10 @@
         <v>2.38</v>
       </c>
       <c r="R165" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="S165" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="T165" t="n">
         <v>7.5</v>
@@ -20455,7 +20455,7 @@
         <v>12</v>
       </c>
       <c r="AG165" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH165" t="n">
         <v>26</v>
@@ -20520,10 +20520,10 @@
         <v>3</v>
       </c>
       <c r="N166" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O166" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="P166" t="n">
         <v>1.5</v>
@@ -21109,13 +21109,13 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="H171" t="n">
         <v>3</v>
       </c>
       <c r="I171" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J171" t="n">
         <v>1.13</v>
@@ -21151,13 +21151,13 @@
         <v>6</v>
       </c>
       <c r="U171" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V171" t="n">
         <v>11</v>
       </c>
       <c r="W171" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="X171" t="n">
         <v>26</v>
@@ -21172,7 +21172,7 @@
         <v>6</v>
       </c>
       <c r="AB171" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC171" t="n">
         <v>81</v>
@@ -21243,7 +21243,7 @@
         <v>1.04</v>
       </c>
       <c r="K172" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L172" t="n">
         <v>1.22</v>
@@ -21252,10 +21252,10 @@
         <v>4</v>
       </c>
       <c r="N172" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="O172" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="P172" t="n">
         <v>1.33</v>
@@ -21484,10 +21484,10 @@
         <v>3</v>
       </c>
       <c r="J174" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K174" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L174" t="n">
         <v>1.36</v>
@@ -21722,16 +21722,16 @@
         <v>1.55</v>
       </c>
       <c r="H176" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I176" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="J176" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K176" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="L176" t="n">
         <v>1.44</v>
@@ -21746,10 +21746,10 @@
         <v>1.53</v>
       </c>
       <c r="P176" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Q176" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="R176" t="n">
         <v>2.5</v>
@@ -21776,16 +21776,16 @@
         <v>41</v>
       </c>
       <c r="Z176" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AA176" t="n">
         <v>7.5</v>
       </c>
       <c r="AB176" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC176" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AD176" t="n">
         <v>101</v>
@@ -21806,7 +21806,7 @@
         <v>51</v>
       </c>
       <c r="AJ176" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
     </row>
     <row r="177">
@@ -21880,10 +21880,10 @@
         <v>1.62</v>
       </c>
       <c r="T177" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="U177" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="V177" t="n">
         <v>9</v>
@@ -21919,10 +21919,10 @@
         <v>29</v>
       </c>
       <c r="AG177" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH177" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AI177" t="n">
         <v>51</v>
@@ -22094,10 +22094,10 @@
         <v>2.9</v>
       </c>
       <c r="J179" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="K179" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L179" t="n">
         <v>1.33</v>
@@ -22112,19 +22112,19 @@
         <v>1.7</v>
       </c>
       <c r="P179" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Q179" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="R179" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S179" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="T179" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U179" t="n">
         <v>12</v>
@@ -22136,13 +22136,13 @@
         <v>23</v>
       </c>
       <c r="X179" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y179" t="n">
         <v>34</v>
       </c>
       <c r="Z179" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AA179" t="n">
         <v>5.5</v>
@@ -22151,7 +22151,7 @@
         <v>13</v>
       </c>
       <c r="AC179" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD179" t="n">
         <v>151</v>
@@ -22169,10 +22169,10 @@
         <v>29</v>
       </c>
       <c r="AI179" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ179" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="180">
@@ -22350,10 +22350,10 @@
         <v>4</v>
       </c>
       <c r="N181" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="O181" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="P181" t="n">
         <v>1.36</v>
@@ -22398,7 +22398,7 @@
         <v>41</v>
       </c>
       <c r="AD181" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="AE181" t="n">
         <v>17</v>
@@ -22722,10 +22722,10 @@
         <v>1.44</v>
       </c>
       <c r="P184" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="Q184" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R184" t="n">
         <v>2.2</v>
@@ -22740,7 +22740,7 @@
         <v>9.5</v>
       </c>
       <c r="V184" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W184" t="n">
         <v>21</v>
@@ -22761,13 +22761,13 @@
         <v>19</v>
       </c>
       <c r="AC184" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD184" t="n">
         <v>900</v>
       </c>
       <c r="AE184" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AF184" t="n">
         <v>15</v>
@@ -22782,7 +22782,7 @@
         <v>34</v>
       </c>
       <c r="AJ184" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="185">
@@ -22972,10 +22972,10 @@
         <v>2.5</v>
       </c>
       <c r="R186" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="S186" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="T186" t="n">
         <v>6.5</v>
@@ -22984,19 +22984,19 @@
         <v>9.5</v>
       </c>
       <c r="V186" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W186" t="n">
         <v>19</v>
       </c>
       <c r="X186" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y186" t="n">
         <v>34</v>
       </c>
       <c r="Z186" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AA186" t="n">
         <v>6</v>
@@ -23011,7 +23011,7 @@
         <v>800</v>
       </c>
       <c r="AE186" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF186" t="n">
         <v>17</v>
@@ -23070,10 +23070,10 @@
         <v>4.1</v>
       </c>
       <c r="J187" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K187" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="L187" t="n">
         <v>1.36</v>
@@ -23121,7 +23121,7 @@
         <v>7.5</v>
       </c>
       <c r="AA187" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB187" t="n">
         <v>17</v>
@@ -23192,10 +23192,10 @@
         <v>4.75</v>
       </c>
       <c r="J188" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K188" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="L188" t="n">
         <v>1.36</v>
@@ -23246,7 +23246,7 @@
         <v>6.5</v>
       </c>
       <c r="AB188" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC188" t="n">
         <v>67</v>
@@ -23258,10 +23258,10 @@
         <v>12</v>
       </c>
       <c r="AF188" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AG188" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH188" t="n">
         <v>51</v>
@@ -23305,19 +23305,19 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="H189" t="n">
         <v>3</v>
       </c>
       <c r="I189" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="J189" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K189" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="L189" t="n">
         <v>1.3</v>
@@ -23326,10 +23326,10 @@
         <v>3.4</v>
       </c>
       <c r="N189" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="O189" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="P189" t="n">
         <v>1.44</v>
@@ -23338,46 +23338,46 @@
         <v>2.63</v>
       </c>
       <c r="R189" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="S189" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="T189" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="U189" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V189" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W189" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X189" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y189" t="n">
         <v>29</v>
       </c>
       <c r="Z189" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AA189" t="n">
         <v>6</v>
       </c>
       <c r="AB189" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC189" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD189" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AE189" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF189" t="n">
         <v>15</v>
@@ -23386,10 +23386,10 @@
         <v>12</v>
       </c>
       <c r="AH189" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI189" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ189" t="n">
         <v>34</v>
@@ -23427,7 +23427,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="H190" t="n">
         <v>3.5</v>
@@ -23436,10 +23436,10 @@
         <v>5</v>
       </c>
       <c r="J190" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K190" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L190" t="n">
         <v>1.3</v>
@@ -24058,10 +24058,10 @@
         <v>4.5</v>
       </c>
       <c r="N195" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="O195" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="P195" t="n">
         <v>1.3</v>
@@ -24159,7 +24159,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="H196" t="n">
         <v>3.1</v>
@@ -24174,22 +24174,22 @@
         <v>11</v>
       </c>
       <c r="L196" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M196" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N196" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="O196" t="n">
-        <v>1.98</v>
+        <v>2.03</v>
       </c>
       <c r="P196" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q196" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R196" t="n">
         <v>1.62</v>
@@ -24198,7 +24198,7 @@
         <v>2.2</v>
       </c>
       <c r="T196" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="U196" t="n">
         <v>15</v>
@@ -24213,7 +24213,7 @@
         <v>21</v>
       </c>
       <c r="Y196" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z196" t="n">
         <v>11</v>
@@ -24243,7 +24243,7 @@
         <v>26</v>
       </c>
       <c r="AI196" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ196" t="n">
         <v>26</v>
@@ -24525,37 +24525,37 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="H199" t="n">
-        <v>4.65</v>
+        <v>4.75</v>
       </c>
       <c r="I199" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="J199" t="n">
         <v>1.03</v>
       </c>
       <c r="K199" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="L199" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="M199" t="n">
-        <v>4.65</v>
+        <v>4.7</v>
       </c>
       <c r="N199" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="O199" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="P199" t="n">
         <v>1.27</v>
       </c>
       <c r="Q199" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="R199" t="n">
         <v>1.72</v>
@@ -24564,7 +24564,7 @@
         <v>2</v>
       </c>
       <c r="T199" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="U199" t="n">
         <v>7.5</v>
@@ -24573,7 +24573,7 @@
         <v>8.25</v>
       </c>
       <c r="W199" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="X199" t="n">
         <v>10.25</v>
@@ -24582,13 +24582,13 @@
         <v>21</v>
       </c>
       <c r="Z199" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AA199" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AB199" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AC199" t="n">
         <v>60</v>
@@ -24912,10 +24912,10 @@
         <v>3</v>
       </c>
       <c r="N202" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O202" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="P202" t="n">
         <v>1.5</v>
@@ -25028,16 +25028,16 @@
         <v>13</v>
       </c>
       <c r="L203" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M203" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N203" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="O203" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="P203" t="n">
         <v>1.33</v>
@@ -25260,10 +25260,10 @@
         <v>2.12</v>
       </c>
       <c r="H205" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I205" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
@@ -25271,7 +25271,7 @@
         <v>1.42</v>
       </c>
       <c r="M205" t="n">
-        <v>2.47</v>
+        <v>2.45</v>
       </c>
       <c r="N205" t="n">
         <v>2.22</v>
@@ -25280,43 +25280,43 @@
         <v>1.52</v>
       </c>
       <c r="P205" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="Q205" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="R205" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="S205" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="T205" t="n">
-        <v>6.1</v>
+        <v>5.9</v>
       </c>
       <c r="U205" t="n">
+        <v>9</v>
+      </c>
+      <c r="V205" t="n">
         <v>9.25</v>
       </c>
-      <c r="V205" t="n">
-        <v>9</v>
-      </c>
       <c r="W205" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="X205" t="n">
         <v>20</v>
       </c>
       <c r="Y205" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Z205" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="AA205" t="n">
-        <v>5.9</v>
+        <v>6.1</v>
       </c>
       <c r="AB205" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AC205" t="n">
         <v>100</v>
@@ -25325,10 +25325,10 @@
         <v>1000</v>
       </c>
       <c r="AE205" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AF205" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AG205" t="n">
         <v>12.5</v>
@@ -25337,7 +25337,7 @@
         <v>50</v>
       </c>
       <c r="AI205" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AJ205" t="n">
         <v>50</v>
@@ -25375,13 +25375,13 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="H206" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="I206" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
@@ -25392,31 +25392,31 @@
         <v>3.25</v>
       </c>
       <c r="N206" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="O206" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="P206" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="Q206" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="R206" t="n">
-        <v>2.47</v>
+        <v>2.45</v>
       </c>
       <c r="S206" t="n">
         <v>1.42</v>
       </c>
       <c r="T206" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="U206" t="n">
         <v>5.1</v>
       </c>
       <c r="V206" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="W206" t="n">
         <v>6.5</v>
@@ -25425,16 +25425,16 @@
         <v>12.5</v>
       </c>
       <c r="Y206" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="Z206" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AA206" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AB206" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AC206" t="n">
         <v>250</v>
@@ -25443,10 +25443,10 @@
         <v>101</v>
       </c>
       <c r="AE206" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AF206" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AG206" t="n">
         <v>40</v>
@@ -25458,7 +25458,7 @@
         <v>200</v>
       </c>
       <c r="AJ206" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
     </row>
     <row r="207">
@@ -25519,7 +25519,7 @@
         <v>1.3</v>
       </c>
       <c r="Q207" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="R207" t="n">
         <v>2.37</v>
@@ -25733,19 +25733,19 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="H209" t="n">
         <v>3.7</v>
       </c>
       <c r="I209" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="J209" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K209" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L209" t="n">
         <v>1.25</v>
@@ -25754,10 +25754,10 @@
         <v>3.75</v>
       </c>
       <c r="N209" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="O209" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="P209" t="n">
         <v>1.36</v>
@@ -25790,7 +25790,7 @@
         <v>26</v>
       </c>
       <c r="Z209" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA209" t="n">
         <v>7</v>
@@ -25802,7 +25802,7 @@
         <v>51</v>
       </c>
       <c r="AD209" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AE209" t="n">
         <v>15</v>
@@ -25811,7 +25811,7 @@
         <v>29</v>
       </c>
       <c r="AG209" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH209" t="n">
         <v>51</v>
@@ -25855,19 +25855,19 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="H210" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I210" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="J210" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K210" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L210" t="n">
         <v>1.3</v>
@@ -25894,7 +25894,7 @@
         <v>1.83</v>
       </c>
       <c r="T210" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="U210" t="n">
         <v>23</v>
@@ -25930,10 +25930,10 @@
         <v>7</v>
       </c>
       <c r="AF210" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AG210" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AH210" t="n">
         <v>15</v>
@@ -26468,91 +26468,91 @@
         <v>1.7</v>
       </c>
       <c r="H215" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I215" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="J215" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K215" t="n">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="L215" t="n">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="M215" t="n">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="N215" t="n">
-        <v>1.87</v>
+        <v>1.78</v>
       </c>
       <c r="O215" t="n">
-        <v>1.83</v>
+        <v>1.93</v>
       </c>
       <c r="P215" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="Q215" t="n">
-        <v>2.62</v>
+        <v>2.67</v>
       </c>
       <c r="R215" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="S215" t="n">
-        <v>1.93</v>
+        <v>2.05</v>
       </c>
       <c r="T215" t="n">
-        <v>6.9</v>
+        <v>7.4</v>
       </c>
       <c r="U215" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="V215" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="W215" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="X215" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Y215" t="n">
+        <v>22</v>
+      </c>
+      <c r="Z215" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AA215" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB215" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC215" t="n">
+        <v>55</v>
+      </c>
+      <c r="AD215" t="n">
+        <v>400</v>
+      </c>
+      <c r="AE215" t="n">
         <v>14</v>
       </c>
-      <c r="X215" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y215" t="n">
-        <v>24</v>
-      </c>
-      <c r="Z215" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AA215" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AB215" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AC215" t="n">
-        <v>70</v>
-      </c>
-      <c r="AD215" t="n">
-        <v>500</v>
-      </c>
-      <c r="AE215" t="n">
-        <v>13</v>
-      </c>
       <c r="AF215" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AG215" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AH215" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AI215" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AJ215" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="216">

--- a/Jogos_da_Semana_FlashScore_2025-04-06.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-06.xlsx
@@ -653,19 +653,19 @@
         <v>3.6</v>
       </c>
       <c r="I2" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="J2" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L2" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="M2" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="N2" t="n">
         <v>1.53</v>
@@ -674,10 +674,10 @@
         <v>2.5</v>
       </c>
       <c r="P2" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="Q2" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="R2" t="n">
         <v>1.44</v>
@@ -695,7 +695,7 @@
         <v>13</v>
       </c>
       <c r="W2" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="X2" t="n">
         <v>23</v>
@@ -704,7 +704,7 @@
         <v>26</v>
       </c>
       <c r="Z2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA2" t="n">
         <v>8</v>
@@ -784,31 +784,31 @@
         <v>11</v>
       </c>
       <c r="L3" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M3" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="N3" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="O3" t="n">
+        <v>2</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S3" t="n">
         <v>2.1</v>
       </c>
-      <c r="P3" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>3</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S3" t="n">
-        <v>2.05</v>
-      </c>
       <c r="T3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="U3" t="n">
         <v>26</v>
@@ -835,10 +835,10 @@
         <v>15</v>
       </c>
       <c r="AC3" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD3" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AE3" t="n">
         <v>9</v>
@@ -891,13 +891,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="H4" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="I4" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="J4" t="n">
         <v>1.02</v>
@@ -906,10 +906,10 @@
         <v>19</v>
       </c>
       <c r="L4" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="M4" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="N4" t="n">
         <v>1.44</v>
@@ -918,10 +918,10 @@
         <v>2.75</v>
       </c>
       <c r="P4" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="R4" t="n">
         <v>1.67</v>
@@ -933,7 +933,7 @@
         <v>11</v>
       </c>
       <c r="U4" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="V4" t="n">
         <v>9.5</v>
@@ -942,10 +942,10 @@
         <v>11</v>
       </c>
       <c r="X4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Z4" t="n">
         <v>21</v>
@@ -975,7 +975,7 @@
         <v>81</v>
       </c>
       <c r="AI4" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AJ4" t="n">
         <v>41</v>
@@ -1156,10 +1156,10 @@
         <v>5</v>
       </c>
       <c r="N6" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="O6" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="P6" t="n">
         <v>1.29</v>
@@ -1168,10 +1168,10 @@
         <v>3.5</v>
       </c>
       <c r="R6" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S6" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="T6" t="n">
         <v>9</v>
@@ -1186,7 +1186,7 @@
         <v>12</v>
       </c>
       <c r="X6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y6" t="n">
         <v>21</v>
@@ -1266,10 +1266,10 @@
         <v>2.8</v>
       </c>
       <c r="J7" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L7" t="n">
         <v>1.29</v>
@@ -1278,10 +1278,10 @@
         <v>3.75</v>
       </c>
       <c r="N7" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="O7" t="n">
-        <v>1.95</v>
+        <v>1.99</v>
       </c>
       <c r="P7" t="n">
         <v>1.4</v>
@@ -1867,7 +1867,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="H12" t="n">
         <v>3</v>
@@ -1989,13 +1989,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="H13" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I13" t="n">
-        <v>5.75</v>
+        <v>5</v>
       </c>
       <c r="J13" t="n">
         <v>1.1</v>
@@ -2016,10 +2016,10 @@
         <v>1.57</v>
       </c>
       <c r="P13" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="R13" t="n">
         <v>2.1</v>
@@ -2031,13 +2031,13 @@
         <v>5.5</v>
       </c>
       <c r="U13" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="V13" t="n">
         <v>9</v>
       </c>
       <c r="W13" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X13" t="n">
         <v>17</v>
@@ -2049,7 +2049,7 @@
         <v>7</v>
       </c>
       <c r="AA13" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB13" t="n">
         <v>19</v>
@@ -2064,16 +2064,16 @@
         <v>11</v>
       </c>
       <c r="AF13" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG13" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH13" t="n">
         <v>51</v>
       </c>
       <c r="AI13" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AJ13" t="n">
         <v>51</v>
@@ -2120,10 +2120,10 @@
         <v>5</v>
       </c>
       <c r="J14" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K14" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L14" t="n">
         <v>1.25</v>
@@ -2132,10 +2132,10 @@
         <v>4</v>
       </c>
       <c r="N14" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="O14" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="P14" t="n">
         <v>1.36</v>
@@ -2376,10 +2376,10 @@
         <v>2.75</v>
       </c>
       <c r="N16" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="O16" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="P16" t="n">
         <v>1.5</v>
@@ -2864,10 +2864,10 @@
         <v>2.5</v>
       </c>
       <c r="N20" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="O20" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="P20" t="n">
         <v>1.57</v>
@@ -3087,10 +3087,10 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="H22" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I22" t="n">
         <v>8.5</v>
@@ -3129,7 +3129,7 @@
         <v>5.5</v>
       </c>
       <c r="U22" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="V22" t="n">
         <v>9</v>
@@ -3153,7 +3153,7 @@
         <v>23</v>
       </c>
       <c r="AC22" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AD22" t="n">
         <v>501</v>
@@ -3165,7 +3165,7 @@
         <v>41</v>
       </c>
       <c r="AG22" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AH22" t="n">
         <v>101</v>
@@ -5533,7 +5533,7 @@
         <v>3.25</v>
       </c>
       <c r="I42" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="J42" t="n">
         <v>1.1</v>
@@ -5783,7 +5783,7 @@
         <v>1.08</v>
       </c>
       <c r="K44" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="L44" t="n">
         <v>1.44</v>
@@ -6262,7 +6262,7 @@
         <v>4.75</v>
       </c>
       <c r="H48" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I48" t="n">
         <v>1.67</v>
@@ -6292,10 +6292,10 @@
         <v>3.4</v>
       </c>
       <c r="R48" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S48" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="T48" t="n">
         <v>17</v>
@@ -6334,7 +6334,7 @@
         <v>9</v>
       </c>
       <c r="AF48" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AG48" t="n">
         <v>8.5</v>
@@ -6625,13 +6625,13 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>2.35</v>
+        <v>2.45</v>
       </c>
       <c r="H51" t="n">
         <v>3.4</v>
       </c>
       <c r="I51" t="n">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="J51" t="n">
         <v>1.04</v>
@@ -6676,7 +6676,7 @@
         <v>23</v>
       </c>
       <c r="X51" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y51" t="n">
         <v>23</v>
@@ -6697,10 +6697,10 @@
         <v>126</v>
       </c>
       <c r="AE51" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF51" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG51" t="n">
         <v>11</v>
@@ -8667,13 +8667,13 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="H68" t="n">
         <v>4.75</v>
       </c>
       <c r="I68" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="J68" t="n">
         <v>1.05</v>
@@ -8709,7 +8709,7 @@
         <v>6</v>
       </c>
       <c r="U68" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="V68" t="n">
         <v>9</v>
@@ -8727,7 +8727,7 @@
         <v>11</v>
       </c>
       <c r="AA68" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB68" t="n">
         <v>26</v>
@@ -8739,7 +8739,7 @@
         <v>101</v>
       </c>
       <c r="AE68" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF68" t="n">
         <v>41</v>
@@ -9054,10 +9054,10 @@
         <v>3.4</v>
       </c>
       <c r="N71" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="O71" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="P71" t="n">
         <v>1.44</v>
@@ -9066,19 +9066,19 @@
         <v>2.63</v>
       </c>
       <c r="R71" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="S71" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="T71" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="U71" t="n">
         <v>13</v>
       </c>
       <c r="V71" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W71" t="n">
         <v>26</v>
@@ -9087,7 +9087,7 @@
         <v>21</v>
       </c>
       <c r="Y71" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z71" t="n">
         <v>9.5</v>
@@ -9096,13 +9096,13 @@
         <v>6</v>
       </c>
       <c r="AB71" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC71" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD71" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AE71" t="n">
         <v>8.5</v>
@@ -9277,19 +9277,19 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H73" t="n">
         <v>3.25</v>
       </c>
       <c r="I73" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="J73" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K73" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L73" t="n">
         <v>1.29</v>
@@ -9310,7 +9310,7 @@
         <v>2.75</v>
       </c>
       <c r="R73" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="S73" t="n">
         <v>2</v>
@@ -9328,7 +9328,7 @@
         <v>17</v>
       </c>
       <c r="X73" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y73" t="n">
         <v>26</v>
@@ -9352,7 +9352,7 @@
         <v>12</v>
       </c>
       <c r="AF73" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG73" t="n">
         <v>13</v>
@@ -9361,10 +9361,10 @@
         <v>41</v>
       </c>
       <c r="AI73" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ73" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="74">
@@ -9494,7 +9494,7 @@
         <v>3.25</v>
       </c>
       <c r="R75" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="S75" t="n">
         <v>2.1</v>
@@ -9970,10 +9970,10 @@
         <v>3.5</v>
       </c>
       <c r="N79" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="O79" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="P79" t="n">
         <v>1.4</v>
@@ -10214,10 +10214,10 @@
       <c r="P81" t="inlineStr"/>
       <c r="Q81" t="inlineStr"/>
       <c r="R81" t="n">
-        <v>2.85</v>
+        <v>3.05</v>
       </c>
       <c r="S81" t="n">
-        <v>1.39</v>
+        <v>1.35</v>
       </c>
       <c r="T81" t="n">
         <v>32</v>
@@ -10335,7 +10335,7 @@
         <v>3.6</v>
       </c>
       <c r="S82" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="T82" t="n">
         <v>4.15</v>
@@ -10421,13 +10421,13 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.83</v>
+        <v>1.93</v>
       </c>
       <c r="H83" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I83" t="n">
-        <v>4.4</v>
+        <v>3.9</v>
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
@@ -10447,34 +10447,34 @@
         <v>1.47</v>
       </c>
       <c r="Q83" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="R83" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="S83" t="n">
         <v>1.75</v>
       </c>
       <c r="T83" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="U83" t="n">
-        <v>7.9</v>
+        <v>8.75</v>
       </c>
       <c r="V83" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="W83" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="X83" t="n">
         <v>16</v>
       </c>
       <c r="Y83" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Z83" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AA83" t="n">
         <v>6.2</v>
@@ -10489,22 +10489,22 @@
         <v>800</v>
       </c>
       <c r="AE83" t="n">
-        <v>10.75</v>
+        <v>9.5</v>
       </c>
       <c r="AF83" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AG83" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH83" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="AI83" t="n">
         <v>45</v>
       </c>
       <c r="AJ83" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="84">
@@ -10661,13 +10661,13 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="H85" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I85" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="J85" t="n">
         <v>1.03</v>
@@ -10703,13 +10703,13 @@
         <v>9</v>
       </c>
       <c r="U85" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="V85" t="n">
         <v>8.5</v>
       </c>
       <c r="W85" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X85" t="n">
         <v>12</v>
@@ -10745,10 +10745,10 @@
         <v>51</v>
       </c>
       <c r="AI85" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ85" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="86">
@@ -11874,22 +11874,22 @@
         <v>4.75</v>
       </c>
       <c r="J95" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K95" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L95" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M95" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N95" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="O95" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="P95" t="n">
         <v>1.4</v>
@@ -12112,7 +12112,7 @@
         <v>3.9</v>
       </c>
       <c r="H97" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I97" t="n">
         <v>1.85</v>
@@ -12127,7 +12127,7 @@
         <v>1.32</v>
       </c>
       <c r="M97" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="N97" t="n">
         <v>1.93</v>
@@ -12148,10 +12148,10 @@
         <v>1.93</v>
       </c>
       <c r="T97" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="U97" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="V97" t="n">
         <v>13.5</v>
@@ -12163,13 +12163,13 @@
         <v>40</v>
       </c>
       <c r="Y97" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="Z97" t="n">
         <v>7</v>
       </c>
       <c r="AA97" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AB97" t="n">
         <v>14.5</v>
@@ -12597,7 +12597,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>4.7</v>
+        <v>4.65</v>
       </c>
       <c r="H101" t="n">
         <v>3.35</v>
@@ -12612,7 +12612,7 @@
         <v>6</v>
       </c>
       <c r="L101" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="M101" t="n">
         <v>2.57</v>
@@ -12895,7 +12895,7 @@
         <v>45</v>
       </c>
       <c r="Y103" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="Z103" t="n">
         <v>6.1</v>
@@ -12916,7 +12916,7 @@
         <v>5.6</v>
       </c>
       <c r="AF103" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="AG103" t="n">
         <v>8.75</v>
@@ -13207,7 +13207,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>2.62</v>
+        <v>2.65</v>
       </c>
       <c r="H106" t="n">
         <v>3.1</v>
@@ -13707,7 +13707,7 @@
         <v>1.07</v>
       </c>
       <c r="K110" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L110" t="n">
         <v>1.33</v>
@@ -14070,10 +14070,10 @@
         <v>3.25</v>
       </c>
       <c r="J113" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K113" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L113" t="n">
         <v>1.36</v>
@@ -14082,10 +14082,10 @@
         <v>3</v>
       </c>
       <c r="N113" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="O113" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="P113" t="n">
         <v>1.5</v>
@@ -14192,10 +14192,10 @@
         <v>5</v>
       </c>
       <c r="J114" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K114" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L114" t="n">
         <v>1.25</v>
@@ -14204,10 +14204,10 @@
         <v>3.75</v>
       </c>
       <c r="N114" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="O114" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="P114" t="n">
         <v>1.36</v>
@@ -14427,19 +14427,19 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="H116" t="n">
         <v>3.5</v>
       </c>
       <c r="I116" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="J116" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K116" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L116" t="n">
         <v>1.36</v>
@@ -14469,7 +14469,7 @@
         <v>7.5</v>
       </c>
       <c r="U116" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V116" t="n">
         <v>10</v>
@@ -14499,7 +14499,7 @@
         <v>351</v>
       </c>
       <c r="AE116" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AF116" t="n">
         <v>13</v>
@@ -14671,13 +14671,13 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="H118" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="I118" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
@@ -14685,72 +14685,72 @@
         <v>1.19</v>
       </c>
       <c r="M118" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="N118" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="O118" t="n">
-        <v>2.24</v>
+        <v>2.05</v>
       </c>
       <c r="P118" t="inlineStr"/>
       <c r="Q118" t="inlineStr"/>
       <c r="R118" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="S118" t="n">
-        <v>2.33</v>
+        <v>2.31</v>
       </c>
       <c r="T118" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="U118" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="V118" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="W118" t="n">
         <v>15</v>
       </c>
       <c r="X118" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y118" t="n">
         <v>17</v>
       </c>
       <c r="Z118" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA118" t="n">
-        <v>5.8</v>
+        <v>6.1</v>
       </c>
       <c r="AB118" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AC118" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AD118" t="n">
-        <v>101</v>
+        <v>175</v>
       </c>
       <c r="AE118" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AF118" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AG118" t="n">
-        <v>9.199999999999999</v>
+        <v>9.5</v>
       </c>
       <c r="AH118" t="n">
         <v>35</v>
       </c>
       <c r="AI118" t="n">
+        <v>20</v>
+      </c>
+      <c r="AJ118" t="n">
         <v>21</v>
-      </c>
-      <c r="AJ118" t="n">
-        <v>23</v>
       </c>
     </row>
     <row r="119">
@@ -14806,10 +14806,10 @@
         <v>3.25</v>
       </c>
       <c r="N119" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="O119" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="P119" t="n">
         <v>1.44</v>
@@ -15029,13 +15029,13 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>2.62</v>
+        <v>2.72</v>
       </c>
       <c r="H121" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I121" t="n">
-        <v>2.45</v>
+        <v>2.37</v>
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
@@ -15043,7 +15043,7 @@
         <v>1.2</v>
       </c>
       <c r="M121" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="N121" t="n">
         <v>1.6</v>
@@ -15060,16 +15060,16 @@
         <v>2.27</v>
       </c>
       <c r="T121" t="n">
-        <v>10.75</v>
+        <v>12</v>
       </c>
       <c r="U121" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="V121" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="W121" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="X121" t="n">
         <v>20</v>
@@ -15081,7 +15081,7 @@
         <v>13</v>
       </c>
       <c r="AA121" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AB121" t="n">
         <v>11.25</v>
@@ -15090,25 +15090,25 @@
         <v>40</v>
       </c>
       <c r="AD121" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AE121" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF121" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AG121" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AH121" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI121" t="n">
         <v>18</v>
       </c>
       <c r="AJ121" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="122">
@@ -15867,19 +15867,19 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="H128" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="I128" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="J128" t="n">
         <v>1.04</v>
       </c>
       <c r="K128" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L128" t="n">
         <v>1.22</v>
@@ -15906,16 +15906,16 @@
         <v>2</v>
       </c>
       <c r="T128" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="U128" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="V128" t="n">
         <v>8.5</v>
       </c>
       <c r="W128" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X128" t="n">
         <v>13</v>
@@ -15927,22 +15927,22 @@
         <v>12</v>
       </c>
       <c r="AA128" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB128" t="n">
         <v>15</v>
       </c>
       <c r="AC128" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD128" t="n">
         <v>201</v>
       </c>
       <c r="AE128" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF128" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG128" t="n">
         <v>15</v>
@@ -15951,7 +15951,7 @@
         <v>51</v>
       </c>
       <c r="AI128" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ128" t="n">
         <v>41</v>
@@ -16486,22 +16486,22 @@
         <v>5</v>
       </c>
       <c r="J133" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K133" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L133" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M133" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N133" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="O133" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="P133" t="n">
         <v>1.36</v>
@@ -16510,16 +16510,16 @@
         <v>3</v>
       </c>
       <c r="R133" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="S133" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="T133" t="n">
         <v>7.5</v>
       </c>
       <c r="U133" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="V133" t="n">
         <v>8.5</v>
@@ -16534,7 +16534,7 @@
         <v>23</v>
       </c>
       <c r="Z133" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA133" t="n">
         <v>7</v>
@@ -16543,7 +16543,7 @@
         <v>15</v>
       </c>
       <c r="AC133" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD133" t="n">
         <v>201</v>
@@ -16730,10 +16730,10 @@
         <v>5.25</v>
       </c>
       <c r="J135" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K135" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L135" t="n">
         <v>1.2</v>
@@ -17087,13 +17087,13 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H138" t="n">
         <v>3.9</v>
       </c>
       <c r="I138" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J138" t="n">
         <v>1.03</v>
@@ -17135,10 +17135,10 @@
         <v>8.5</v>
       </c>
       <c r="W138" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X138" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y138" t="n">
         <v>21</v>
@@ -17209,10 +17209,10 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="H139" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I139" t="n">
         <v>5.25</v>
@@ -17269,7 +17269,7 @@
         <v>15</v>
       </c>
       <c r="AA139" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB139" t="n">
         <v>15</v>
@@ -17678,7 +17678,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -17840,10 +17840,10 @@
         <v>3.4</v>
       </c>
       <c r="N144" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="O144" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="P144" t="n">
         <v>1.44</v>
@@ -18069,25 +18069,25 @@
         <v>3.4</v>
       </c>
       <c r="I146" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="J146" t="n">
         <v>1.06</v>
       </c>
       <c r="K146" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="L146" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M146" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="N146" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="O146" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="P146" t="n">
         <v>1.44</v>
@@ -18096,13 +18096,13 @@
         <v>2.63</v>
       </c>
       <c r="R146" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="S146" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T146" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="U146" t="n">
         <v>8.5</v>
@@ -18120,22 +18120,22 @@
         <v>29</v>
       </c>
       <c r="Z146" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AA146" t="n">
         <v>6.5</v>
       </c>
       <c r="AB146" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC146" t="n">
         <v>51</v>
       </c>
       <c r="AD146" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AE146" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF146" t="n">
         <v>19</v>
@@ -18185,19 +18185,19 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="H147" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I147" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J147" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K147" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L147" t="n">
         <v>1.4</v>
@@ -18206,10 +18206,10 @@
         <v>2.75</v>
       </c>
       <c r="N147" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="O147" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="P147" t="n">
         <v>1.5</v>
@@ -18224,10 +18224,10 @@
         <v>1.73</v>
       </c>
       <c r="T147" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="U147" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="V147" t="n">
         <v>9</v>
@@ -18248,19 +18248,19 @@
         <v>6.5</v>
       </c>
       <c r="AB147" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC147" t="n">
         <v>67</v>
       </c>
       <c r="AD147" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="AE147" t="n">
         <v>9</v>
       </c>
       <c r="AF147" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG147" t="n">
         <v>13</v>
@@ -18322,16 +18322,16 @@
         <v>11</v>
       </c>
       <c r="L148" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M148" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N148" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="O148" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="P148" t="n">
         <v>1.4</v>
@@ -18816,10 +18816,10 @@
         <v>3.75</v>
       </c>
       <c r="N152" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="O152" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="P152" t="n">
         <v>1.4</v>
@@ -18923,7 +18923,7 @@
         <v>3.25</v>
       </c>
       <c r="I153" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="J153" t="n">
         <v>1.06</v>
@@ -18938,10 +18938,10 @@
         <v>3.4</v>
       </c>
       <c r="N153" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="O153" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="P153" t="n">
         <v>1.44</v>
@@ -18950,13 +18950,13 @@
         <v>2.63</v>
       </c>
       <c r="R153" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S153" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="T153" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="U153" t="n">
         <v>13</v>
@@ -18974,7 +18974,7 @@
         <v>34</v>
       </c>
       <c r="Z153" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA153" t="n">
         <v>6.5</v>
@@ -18989,7 +18989,7 @@
         <v>600</v>
       </c>
       <c r="AE153" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AF153" t="n">
         <v>12</v>
@@ -19039,13 +19039,13 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="H154" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="I154" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="J154" t="n">
         <v>1.03</v>
@@ -19060,10 +19060,10 @@
         <v>4.5</v>
       </c>
       <c r="N154" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="O154" t="n">
-        <v>2.38</v>
+        <v>2.35</v>
       </c>
       <c r="P154" t="n">
         <v>1.29</v>
@@ -19072,13 +19072,13 @@
         <v>3.5</v>
       </c>
       <c r="R154" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S154" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="T154" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="U154" t="n">
         <v>29</v>
@@ -19090,13 +19090,13 @@
         <v>51</v>
       </c>
       <c r="X154" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Y154" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Z154" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA154" t="n">
         <v>8.5</v>
@@ -19111,10 +19111,10 @@
         <v>151</v>
       </c>
       <c r="AE154" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AF154" t="n">
         <v>9</v>
-      </c>
-      <c r="AF154" t="n">
-        <v>8.5</v>
       </c>
       <c r="AG154" t="n">
         <v>8.5</v>
@@ -19200,22 +19200,22 @@
         <v>1.62</v>
       </c>
       <c r="T155" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="U155" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="V155" t="n">
         <v>41</v>
       </c>
       <c r="W155" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="X155" t="n">
+        <v>126</v>
+      </c>
+      <c r="Y155" t="n">
         <v>101</v>
-      </c>
-      <c r="Y155" t="n">
-        <v>81</v>
       </c>
       <c r="Z155" t="n">
         <v>19</v>
@@ -19233,13 +19233,13 @@
         <v>501</v>
       </c>
       <c r="AE155" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF155" t="n">
         <v>6.5</v>
       </c>
       <c r="AG155" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH155" t="n">
         <v>6.5</v>
@@ -19408,10 +19408,10 @@
         <v>2.32</v>
       </c>
       <c r="H157" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I157" t="n">
-        <v>2.77</v>
+        <v>2.8</v>
       </c>
       <c r="J157" t="n">
         <v>1.05</v>
@@ -19423,7 +19423,7 @@
         <v>1.26</v>
       </c>
       <c r="M157" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="N157" t="n">
         <v>1.78</v>
@@ -19444,10 +19444,10 @@
         <v>2.15</v>
       </c>
       <c r="T157" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="U157" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="V157" t="n">
         <v>9</v>
@@ -19456,10 +19456,10 @@
         <v>25</v>
       </c>
       <c r="X157" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="Y157" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Z157" t="n">
         <v>7.6</v>
@@ -19477,22 +19477,22 @@
         <v>350</v>
       </c>
       <c r="AE157" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AF157" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG157" t="n">
         <v>10.25</v>
-      </c>
-      <c r="AF157" t="n">
-        <v>16</v>
-      </c>
-      <c r="AG157" t="n">
-        <v>10</v>
       </c>
       <c r="AH157" t="n">
         <v>35</v>
       </c>
       <c r="AI157" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AJ157" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="158">
@@ -19527,42 +19527,42 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="H158" t="n">
         <v>7.1</v>
       </c>
       <c r="I158" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="M158" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="N158" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="O158" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="P158" t="n">
         <v>1.19</v>
       </c>
       <c r="Q158" t="n">
-        <v>4.15</v>
+        <v>4.2</v>
       </c>
       <c r="R158" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="S158" t="n">
         <v>1.75</v>
       </c>
       <c r="T158" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="U158" t="n">
         <v>7.8</v>
@@ -19577,31 +19577,31 @@
         <v>10.5</v>
       </c>
       <c r="Y158" t="n">
+        <v>28</v>
+      </c>
+      <c r="Z158" t="n">
         <v>29</v>
       </c>
-      <c r="Z158" t="n">
-        <v>28</v>
-      </c>
       <c r="AA158" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AB158" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AC158" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AD158" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="AE158" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF158" t="n">
+        <v>175</v>
+      </c>
+      <c r="AG158" t="n">
         <v>55</v>
-      </c>
-      <c r="AF158" t="n">
-        <v>150</v>
-      </c>
-      <c r="AG158" t="n">
-        <v>50</v>
       </c>
       <c r="AH158" t="n">
         <v>700</v>
@@ -19610,7 +19610,7 @@
         <v>200</v>
       </c>
       <c r="AJ158" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
     </row>
     <row r="159">
@@ -19648,7 +19648,7 @@
         <v>3.35</v>
       </c>
       <c r="H159" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I159" t="n">
         <v>2.05</v>
@@ -19717,7 +19717,7 @@
         <v>900</v>
       </c>
       <c r="AE159" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AF159" t="n">
         <v>9</v>
@@ -19767,13 +19767,13 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>1.98</v>
+        <v>1.85</v>
       </c>
       <c r="H160" t="n">
         <v>3.4</v>
       </c>
       <c r="I160" t="n">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="J160" t="n">
         <v>1.06</v>
@@ -19782,22 +19782,22 @@
         <v>8</v>
       </c>
       <c r="L160" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="M160" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="N160" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="O160" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="P160" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="Q160" t="n">
-        <v>2.85</v>
+        <v>2.82</v>
       </c>
       <c r="R160" t="n">
         <v>1.7</v>
@@ -19806,55 +19806,55 @@
         <v>2.05</v>
       </c>
       <c r="T160" t="n">
-        <v>7.3</v>
+        <v>7.6</v>
       </c>
       <c r="U160" t="n">
         <v>10.25</v>
       </c>
       <c r="V160" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="W160" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="X160" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="Y160" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Z160" t="n">
         <v>8</v>
       </c>
       <c r="AA160" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AB160" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AC160" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AD160" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AE160" t="n">
-        <v>11.75</v>
+        <v>11.25</v>
       </c>
       <c r="AF160" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AG160" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AH160" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="AI160" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="AJ160" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
     <row r="161">
@@ -20011,7 +20011,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="H162" t="n">
         <v>4.05</v>
@@ -20023,31 +20023,31 @@
         <v>1.06</v>
       </c>
       <c r="K162" t="n">
-        <v>7.3</v>
+        <v>7.1</v>
       </c>
       <c r="L162" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="M162" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="N162" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="O162" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="P162" t="n">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
       <c r="Q162" t="n">
-        <v>2.62</v>
+        <v>2.8</v>
       </c>
       <c r="R162" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S162" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="T162" t="n">
         <v>15.5</v>
@@ -20059,22 +20059,22 @@
         <v>22</v>
       </c>
       <c r="W162" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="X162" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="Y162" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="Z162" t="n">
-        <v>7.3</v>
+        <v>7.1</v>
       </c>
       <c r="AA162" t="n">
         <v>8</v>
       </c>
       <c r="AB162" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AC162" t="n">
         <v>120</v>
@@ -20083,22 +20083,22 @@
         <v>800</v>
       </c>
       <c r="AE162" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AF162" t="n">
         <v>6</v>
       </c>
-      <c r="AF162" t="n">
-        <v>6.2</v>
-      </c>
       <c r="AG162" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AH162" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AI162" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AJ162" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="163">
@@ -20255,13 +20255,13 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>5.8</v>
+        <v>6.1</v>
       </c>
       <c r="H164" t="n">
-        <v>4.15</v>
+        <v>4.2</v>
       </c>
       <c r="I164" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="J164" t="n">
         <v>1.05</v>
@@ -20282,28 +20282,28 @@
         <v>2</v>
       </c>
       <c r="P164" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="Q164" t="n">
-        <v>2.85</v>
+        <v>2.9</v>
       </c>
       <c r="R164" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="S164" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="T164" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="U164" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="V164" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="W164" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="X164" t="n">
         <v>60</v>
@@ -20330,19 +20330,19 @@
         <v>7</v>
       </c>
       <c r="AF164" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AG164" t="n">
         <v>8</v>
       </c>
       <c r="AH164" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AI164" t="n">
         <v>11.75</v>
       </c>
       <c r="AJ164" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="165">
@@ -20520,10 +20520,10 @@
         <v>3</v>
       </c>
       <c r="N166" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O166" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="P166" t="n">
         <v>1.5</v>
@@ -20636,16 +20636,16 @@
         <v>9</v>
       </c>
       <c r="L167" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="M167" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N167" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="O167" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="P167" t="n">
         <v>1.5</v>
@@ -20743,13 +20743,13 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="H168" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I168" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="J168" t="n">
         <v>1.05</v>
@@ -20770,10 +20770,10 @@
         <v>1.93</v>
       </c>
       <c r="P168" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="Q168" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="R168" t="n">
         <v>1.83</v>
@@ -20785,7 +20785,7 @@
         <v>7</v>
       </c>
       <c r="U168" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="V168" t="n">
         <v>8.5</v>
@@ -20821,7 +20821,7 @@
         <v>26</v>
       </c>
       <c r="AG168" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH168" t="n">
         <v>51</v>
@@ -21118,10 +21118,10 @@
         <v>3.1</v>
       </c>
       <c r="J171" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="K171" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="L171" t="n">
         <v>1.53</v>
@@ -21490,16 +21490,16 @@
         <v>9</v>
       </c>
       <c r="L174" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="M174" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N174" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="O174" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="P174" t="n">
         <v>1.5</v>
@@ -21603,19 +21603,19 @@
         <v>3.1</v>
       </c>
       <c r="I175" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J175" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K175" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="L175" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="M175" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="N175" t="n">
         <v>2.35</v>
@@ -21624,10 +21624,10 @@
         <v>1.57</v>
       </c>
       <c r="P175" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Q175" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="R175" t="n">
         <v>2</v>
@@ -21636,7 +21636,7 @@
         <v>1.73</v>
       </c>
       <c r="T175" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="U175" t="n">
         <v>9.5</v>
@@ -21654,7 +21654,7 @@
         <v>34</v>
       </c>
       <c r="Z175" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AA175" t="n">
         <v>6</v>
@@ -21728,10 +21728,10 @@
         <v>5.75</v>
       </c>
       <c r="J176" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K176" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="L176" t="n">
         <v>1.44</v>
@@ -21963,19 +21963,19 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="H178" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I178" t="n">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="J178" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K178" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L178" t="n">
         <v>1.3</v>
@@ -21996,10 +21996,10 @@
         <v>2.63</v>
       </c>
       <c r="R178" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="S178" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="T178" t="n">
         <v>6.5</v>
@@ -22020,10 +22020,10 @@
         <v>29</v>
       </c>
       <c r="Z178" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AA178" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB178" t="n">
         <v>17</v>
@@ -22032,7 +22032,7 @@
         <v>51</v>
       </c>
       <c r="AD178" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="AE178" t="n">
         <v>13</v>
@@ -22041,7 +22041,7 @@
         <v>26</v>
       </c>
       <c r="AG178" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH178" t="n">
         <v>51</v>
@@ -22050,7 +22050,7 @@
         <v>41</v>
       </c>
       <c r="AJ178" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="179">
@@ -22573,7 +22573,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="H183" t="n">
         <v>3.1</v>
@@ -22582,10 +22582,10 @@
         <v>5.5</v>
       </c>
       <c r="J183" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K183" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="L183" t="n">
         <v>1.4</v>
@@ -22615,7 +22615,7 @@
         <v>5.5</v>
       </c>
       <c r="U183" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="V183" t="n">
         <v>9.5</v>
@@ -22630,7 +22630,7 @@
         <v>41</v>
       </c>
       <c r="Z183" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AA183" t="n">
         <v>6.5</v>
@@ -22648,13 +22648,13 @@
         <v>12</v>
       </c>
       <c r="AF183" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG183" t="n">
         <v>21</v>
       </c>
       <c r="AH183" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AI183" t="n">
         <v>51</v>
@@ -22886,7 +22886,7 @@
         <v>51</v>
       </c>
       <c r="AD185" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="AE185" t="n">
         <v>11</v>
@@ -23427,7 +23427,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="H190" t="n">
         <v>3.5</v>
@@ -23451,7 +23451,7 @@
         <v>2.05</v>
       </c>
       <c r="O190" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="P190" t="n">
         <v>1.44</v>
@@ -23505,7 +23505,7 @@
         <v>23</v>
       </c>
       <c r="AG190" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH190" t="n">
         <v>51</v>
@@ -23555,7 +23555,7 @@
         <v>3.9</v>
       </c>
       <c r="I191" t="n">
-        <v>1.85</v>
+        <v>1.77</v>
       </c>
       <c r="J191" t="n">
         <v>1.03</v>
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="H192" t="n">
         <v>3.4</v>
@@ -23793,13 +23793,13 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="H193" t="n">
         <v>3.4</v>
       </c>
       <c r="I193" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="J193" t="n">
         <v>1.06</v>
@@ -23808,10 +23808,10 @@
         <v>10</v>
       </c>
       <c r="L193" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M193" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N193" t="n">
         <v>2.1</v>
@@ -23835,7 +23835,7 @@
         <v>6.5</v>
       </c>
       <c r="U193" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="V193" t="n">
         <v>9</v>
@@ -23850,7 +23850,7 @@
         <v>29</v>
       </c>
       <c r="Z193" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AA193" t="n">
         <v>6.5</v>
@@ -23948,7 +23948,7 @@
         <v>3.25</v>
       </c>
       <c r="R194" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="S194" t="n">
         <v>2.25</v>
@@ -24070,7 +24070,7 @@
         <v>3.4</v>
       </c>
       <c r="R195" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="S195" t="n">
         <v>2.25</v>
@@ -24192,7 +24192,7 @@
         <v>3</v>
       </c>
       <c r="R196" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="S196" t="n">
         <v>2.2</v>
@@ -25135,13 +25135,13 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="H204" t="n">
         <v>5</v>
       </c>
       <c r="I204" t="n">
-        <v>6.5</v>
+        <v>5.75</v>
       </c>
       <c r="J204" t="n">
         <v>1.02</v>
@@ -25174,10 +25174,10 @@
         <v>2.1</v>
       </c>
       <c r="T204" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="U204" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="V204" t="n">
         <v>8.5</v>
@@ -25207,13 +25207,13 @@
         <v>151</v>
       </c>
       <c r="AE204" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF204" t="n">
         <v>34</v>
       </c>
       <c r="AG204" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH204" t="n">
         <v>67</v>
@@ -25260,30 +25260,30 @@
         <v>2.12</v>
       </c>
       <c r="H205" t="n">
-        <v>3.1</v>
+        <v>2.95</v>
       </c>
       <c r="I205" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="M205" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="N205" t="n">
-        <v>2.22</v>
+        <v>2.27</v>
       </c>
       <c r="O205" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="P205" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Q205" t="n">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="R205" t="n">
         <v>1.98</v>
@@ -25292,7 +25292,7 @@
         <v>1.65</v>
       </c>
       <c r="T205" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="U205" t="n">
         <v>9</v>
@@ -25301,22 +25301,22 @@
         <v>9.25</v>
       </c>
       <c r="W205" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="X205" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Y205" t="n">
         <v>40</v>
       </c>
       <c r="Z205" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="AA205" t="n">
-        <v>6.1</v>
+        <v>5.9</v>
       </c>
       <c r="AB205" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AC205" t="n">
         <v>100</v>
@@ -25325,19 +25325,19 @@
         <v>1000</v>
       </c>
       <c r="AE205" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AF205" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="AG205" t="n">
         <v>12.5</v>
       </c>
       <c r="AH205" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AI205" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AJ205" t="n">
         <v>50</v>
@@ -25375,13 +25375,13 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>1.24</v>
+        <v>1.21</v>
       </c>
       <c r="H206" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="I206" t="n">
-        <v>11.25</v>
+        <v>13</v>
       </c>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
@@ -25398,67 +25398,67 @@
         <v>1.87</v>
       </c>
       <c r="P206" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="Q206" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="R206" t="n">
-        <v>2.45</v>
+        <v>2.6</v>
       </c>
       <c r="S206" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="T206" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="U206" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="V206" t="n">
-        <v>9.75</v>
+        <v>10.25</v>
       </c>
       <c r="W206" t="n">
-        <v>6.5</v>
+        <v>6.2</v>
       </c>
       <c r="X206" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Y206" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="Z206" t="n">
         <v>10.5</v>
       </c>
       <c r="AA206" t="n">
-        <v>11</v>
+        <v>11.75</v>
       </c>
       <c r="AB206" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AC206" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AD206" t="n">
         <v>101</v>
       </c>
       <c r="AE206" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AF206" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AG206" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AH206" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="AI206" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AJ206" t="n">
-        <v>175</v>
+        <v>250</v>
       </c>
     </row>
     <row r="207">
@@ -25632,10 +25632,10 @@
         <v>2.38</v>
       </c>
       <c r="N208" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="O208" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="P208" t="n">
         <v>1.62</v>
@@ -25861,7 +25861,7 @@
         <v>3.1</v>
       </c>
       <c r="I210" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="J210" t="n">
         <v>1.07</v>
@@ -25876,16 +25876,16 @@
         <v>3.4</v>
       </c>
       <c r="N210" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="O210" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="P210" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Q210" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="R210" t="n">
         <v>1.83</v>
@@ -25915,7 +25915,7 @@
         <v>9</v>
       </c>
       <c r="AA210" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB210" t="n">
         <v>15</v>
@@ -25989,13 +25989,13 @@
         <v>1.06</v>
       </c>
       <c r="K211" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="L211" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M211" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="N211" t="n">
         <v>2.05</v>
@@ -26242,10 +26242,10 @@
         <v>5.5</v>
       </c>
       <c r="N213" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="O213" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="P213" t="n">
         <v>1.29</v>
@@ -26465,19 +26465,19 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="H215" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="I215" t="n">
-        <v>5</v>
+        <v>5.4</v>
       </c>
       <c r="J215" t="n">
         <v>1.06</v>
       </c>
       <c r="K215" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="L215" t="n">
         <v>1.26</v>
@@ -26498,22 +26498,22 @@
         <v>2.67</v>
       </c>
       <c r="R215" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="S215" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T215" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="U215" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="V215" t="n">
         <v>7.7</v>
       </c>
       <c r="W215" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="X215" t="n">
         <v>12.5</v>
@@ -26522,37 +26522,37 @@
         <v>22</v>
       </c>
       <c r="Z215" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AA215" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="AB215" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AC215" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AD215" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="AE215" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AF215" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AG215" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="AH215" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AI215" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ215" t="n">
         <v>50</v>
-      </c>
-      <c r="AJ215" t="n">
-        <v>45</v>
       </c>
     </row>
     <row r="216">

--- a/Jogos_da_Semana_FlashScore_2025-04-06.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-06.xlsx
@@ -1156,10 +1156,10 @@
         <v>5</v>
       </c>
       <c r="N6" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="O6" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="P6" t="n">
         <v>1.29</v>
@@ -1379,13 +1379,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="H8" t="n">
         <v>3.6</v>
       </c>
       <c r="I8" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="J8" t="n">
         <v>1.05</v>
@@ -1394,16 +1394,16 @@
         <v>11</v>
       </c>
       <c r="L8" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M8" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N8" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="O8" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="P8" t="n">
         <v>1.4</v>
@@ -1412,10 +1412,10 @@
         <v>2.75</v>
       </c>
       <c r="R8" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S8" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T8" t="n">
         <v>10</v>
@@ -1424,7 +1424,7 @@
         <v>17</v>
       </c>
       <c r="V8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W8" t="n">
         <v>34</v>
@@ -1448,7 +1448,7 @@
         <v>51</v>
       </c>
       <c r="AD8" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AE8" t="n">
         <v>8</v>
@@ -2608,10 +2608,10 @@
         <v>1.91</v>
       </c>
       <c r="J18" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="K18" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="L18" t="n">
         <v>1.57</v>
@@ -2656,7 +2656,7 @@
         <v>51</v>
       </c>
       <c r="Z18" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AA18" t="n">
         <v>6</v>
@@ -2677,10 +2677,10 @@
         <v>7.5</v>
       </c>
       <c r="AG18" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH18" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI18" t="n">
         <v>21</v>
@@ -2864,10 +2864,10 @@
         <v>2.5</v>
       </c>
       <c r="N20" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="O20" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="P20" t="n">
         <v>1.57</v>
@@ -2900,16 +2900,16 @@
         <v>41</v>
       </c>
       <c r="Z20" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AA20" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB20" t="n">
         <v>19</v>
       </c>
       <c r="AC20" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AD20" t="n">
         <v>101</v>
@@ -2980,16 +2980,16 @@
         <v>7</v>
       </c>
       <c r="L21" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="M21" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="N21" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="O21" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P21" t="n">
         <v>1.57</v>
@@ -4938,10 +4938,10 @@
         <v>3</v>
       </c>
       <c r="N37" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O37" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="P37" t="n">
         <v>1.5</v>
@@ -5173,7 +5173,7 @@
         <v>1.07</v>
       </c>
       <c r="K39" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="L39" t="n">
         <v>1.4</v>
@@ -5188,10 +5188,10 @@
         <v>1.67</v>
       </c>
       <c r="P39" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="R39" t="n">
         <v>2</v>
@@ -5233,7 +5233,7 @@
         <v>401</v>
       </c>
       <c r="AE39" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AF39" t="n">
         <v>8</v>
@@ -5248,7 +5248,7 @@
         <v>17</v>
       </c>
       <c r="AJ39" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40">
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H42" t="n">
         <v>3.25</v>
@@ -5575,7 +5575,7 @@
         <v>9.5</v>
       </c>
       <c r="W42" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="X42" t="n">
         <v>21</v>
@@ -5792,10 +5792,10 @@
         <v>2.63</v>
       </c>
       <c r="N44" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="O44" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="P44" t="n">
         <v>1.53</v>
@@ -5893,13 +5893,13 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H45" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I45" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J45" t="n">
         <v>1.11</v>
@@ -5935,7 +5935,7 @@
         <v>5.5</v>
       </c>
       <c r="U45" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="V45" t="n">
         <v>10</v>
@@ -5965,10 +5965,10 @@
         <v>1250</v>
       </c>
       <c r="AE45" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AF45" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG45" t="n">
         <v>13</v>
@@ -5977,10 +5977,10 @@
         <v>41</v>
       </c>
       <c r="AI45" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ45" t="n">
         <v>41</v>
-      </c>
-      <c r="AJ45" t="n">
-        <v>51</v>
       </c>
     </row>
     <row r="46">
@@ -7719,7 +7719,7 @@
         <v>1.08</v>
       </c>
       <c r="K60" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="L60" t="n">
         <v>1.4</v>
@@ -7728,10 +7728,10 @@
         <v>2.75</v>
       </c>
       <c r="N60" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="O60" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="P60" t="n">
         <v>1.5</v>
@@ -10421,33 +10421,33 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.93</v>
+        <v>1.83</v>
       </c>
       <c r="H83" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I83" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="M83" t="n">
-        <v>2.67</v>
+        <v>2.75</v>
       </c>
       <c r="N83" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="O83" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="P83" t="n">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="Q83" t="n">
-        <v>2.35</v>
+        <v>2.52</v>
       </c>
       <c r="R83" t="n">
         <v>1.85</v>
@@ -10456,49 +10456,49 @@
         <v>1.75</v>
       </c>
       <c r="T83" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="U83" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="V83" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="W83" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="X83" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Y83" t="n">
         <v>30</v>
       </c>
       <c r="Z83" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA83" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="AB83" t="n">
         <v>16</v>
       </c>
       <c r="AC83" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AD83" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="AE83" t="n">
-        <v>9.5</v>
+        <v>10.75</v>
       </c>
       <c r="AF83" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AG83" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AH83" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AI83" t="n">
         <v>45</v>
@@ -10548,13 +10548,13 @@
         <v>2.7</v>
       </c>
       <c r="J84" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="K84" t="n">
         <v>10</v>
       </c>
       <c r="L84" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="M84" t="n">
         <v>3.4</v>
@@ -10670,22 +10670,22 @@
         <v>5</v>
       </c>
       <c r="J85" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K85" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L85" t="n">
-        <v>1.18</v>
+        <v>1.13</v>
       </c>
       <c r="M85" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N85" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="O85" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="P85" t="n">
         <v>1.3</v>
@@ -10783,31 +10783,31 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="H86" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="I86" t="n">
         <v>8.5</v>
       </c>
       <c r="J86" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="K86" t="n">
         <v>19</v>
       </c>
       <c r="L86" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="M86" t="n">
         <v>6</v>
       </c>
       <c r="N86" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="O86" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="P86" t="n">
         <v>1.25</v>
@@ -10831,7 +10831,7 @@
         <v>9</v>
       </c>
       <c r="W86" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="X86" t="n">
         <v>11</v>
@@ -10840,13 +10840,13 @@
         <v>21</v>
       </c>
       <c r="Z86" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA86" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB86" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC86" t="n">
         <v>51</v>
@@ -10905,13 +10905,13 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="H87" t="n">
         <v>5.2</v>
       </c>
       <c r="I87" t="n">
-        <v>6.8</v>
+        <v>7.1</v>
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
@@ -10919,13 +10919,13 @@
         <v>1.09</v>
       </c>
       <c r="M87" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="N87" t="n">
         <v>1.31</v>
       </c>
       <c r="O87" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="P87" t="n">
         <v>1.19</v>
@@ -10934,10 +10934,10 @@
         <v>4.15</v>
       </c>
       <c r="R87" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="S87" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="T87" t="n">
         <v>13</v>
@@ -10958,34 +10958,34 @@
         <v>17</v>
       </c>
       <c r="Z87" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AA87" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AB87" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AC87" t="n">
         <v>40</v>
       </c>
       <c r="AD87" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AE87" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AF87" t="n">
+        <v>65</v>
+      </c>
+      <c r="AG87" t="n">
+        <v>23</v>
+      </c>
+      <c r="AH87" t="n">
+        <v>175</v>
+      </c>
+      <c r="AI87" t="n">
         <v>60</v>
-      </c>
-      <c r="AG87" t="n">
-        <v>22</v>
-      </c>
-      <c r="AH87" t="n">
-        <v>150</v>
-      </c>
-      <c r="AI87" t="n">
-        <v>55</v>
       </c>
       <c r="AJ87" t="n">
         <v>40</v>
@@ -11386,10 +11386,10 @@
         <v>5.5</v>
       </c>
       <c r="J91" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K91" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L91" t="n">
         <v>1.2</v>
@@ -11743,19 +11743,19 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="H94" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I94" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="J94" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K94" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L94" t="n">
         <v>1.29</v>
@@ -11785,13 +11785,13 @@
         <v>8.5</v>
       </c>
       <c r="U94" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V94" t="n">
         <v>10</v>
       </c>
       <c r="W94" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="X94" t="n">
         <v>21</v>
@@ -11800,10 +11800,10 @@
         <v>29</v>
       </c>
       <c r="Z94" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA94" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB94" t="n">
         <v>13</v>
@@ -11824,7 +11824,7 @@
         <v>10</v>
       </c>
       <c r="AH94" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI94" t="n">
         <v>21</v>
@@ -12597,7 +12597,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>4.65</v>
+        <v>4.7</v>
       </c>
       <c r="H101" t="n">
         <v>3.35</v>
@@ -12612,7 +12612,7 @@
         <v>6</v>
       </c>
       <c r="L101" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="M101" t="n">
         <v>2.57</v>
@@ -13207,7 +13207,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>2.65</v>
+        <v>2.62</v>
       </c>
       <c r="H106" t="n">
         <v>3.1</v>
@@ -13219,19 +13219,19 @@
         <v>1.09</v>
       </c>
       <c r="K106" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="L106" t="n">
         <v>1.42</v>
       </c>
       <c r="M106" t="n">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
       <c r="N106" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="O106" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="P106" t="n">
         <v>1.52</v>
@@ -13246,7 +13246,7 @@
         <v>1.78</v>
       </c>
       <c r="T106" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="U106" t="n">
         <v>12</v>
@@ -13258,28 +13258,28 @@
         <v>30</v>
       </c>
       <c r="X106" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Y106" t="n">
         <v>40</v>
       </c>
       <c r="Z106" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AA106" t="n">
         <v>6</v>
       </c>
       <c r="AB106" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AC106" t="n">
         <v>90</v>
       </c>
       <c r="AD106" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="AE106" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="AF106" t="n">
         <v>11.75</v>
@@ -13291,10 +13291,10 @@
         <v>28</v>
       </c>
       <c r="AI106" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AJ106" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="107">
@@ -13460,10 +13460,10 @@
         <v>2.7</v>
       </c>
       <c r="J108" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K108" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="L108" t="n">
         <v>1.5</v>
@@ -13472,10 +13472,10 @@
         <v>2.5</v>
       </c>
       <c r="N108" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="O108" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="P108" t="n">
         <v>1.57</v>
@@ -13582,22 +13582,22 @@
         <v>2.63</v>
       </c>
       <c r="J109" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K109" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L109" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M109" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N109" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="O109" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="P109" t="n">
         <v>1.44</v>
@@ -13960,10 +13960,10 @@
         <v>3</v>
       </c>
       <c r="N112" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="O112" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="P112" t="n">
         <v>1.44</v>
@@ -14064,10 +14064,10 @@
         <v>2.35</v>
       </c>
       <c r="H113" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I113" t="n">
         <v>3.1</v>
-      </c>
-      <c r="I113" t="n">
-        <v>3.25</v>
       </c>
       <c r="J113" t="n">
         <v>1.07</v>
@@ -14109,7 +14109,7 @@
         <v>9.5</v>
       </c>
       <c r="W113" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X113" t="n">
         <v>21</v>
@@ -14118,7 +14118,7 @@
         <v>34</v>
       </c>
       <c r="Z113" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AA113" t="n">
         <v>6</v>
@@ -14145,7 +14145,7 @@
         <v>34</v>
       </c>
       <c r="AI113" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ113" t="n">
         <v>41</v>
@@ -14314,13 +14314,13 @@
         <v>3</v>
       </c>
       <c r="J115" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="K115" t="n">
         <v>9</v>
       </c>
       <c r="L115" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="M115" t="n">
         <v>2.75</v>
@@ -14427,22 +14427,22 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="H116" t="n">
         <v>3.5</v>
       </c>
       <c r="I116" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="J116" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="K116" t="n">
         <v>9</v>
       </c>
       <c r="L116" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M116" t="n">
         <v>3</v>
@@ -14505,7 +14505,7 @@
         <v>13</v>
       </c>
       <c r="AG116" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH116" t="n">
         <v>29</v>
@@ -14558,13 +14558,13 @@
         <v>2.55</v>
       </c>
       <c r="J117" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="K117" t="n">
         <v>11</v>
       </c>
       <c r="L117" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M117" t="n">
         <v>3.5</v>
@@ -14682,7 +14682,7 @@
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="M118" t="n">
         <v>4.3</v>
@@ -14794,10 +14794,10 @@
         <v>5.5</v>
       </c>
       <c r="J119" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K119" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="L119" t="n">
         <v>1.33</v>
@@ -14827,13 +14827,13 @@
         <v>6</v>
       </c>
       <c r="U119" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="V119" t="n">
         <v>8.5</v>
       </c>
       <c r="W119" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X119" t="n">
         <v>15</v>
@@ -15174,7 +15174,7 @@
         <v>1.98</v>
       </c>
       <c r="T122" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="U122" t="n">
         <v>9.5</v>
@@ -15192,7 +15192,7 @@
         <v>25</v>
       </c>
       <c r="Z122" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AA122" t="n">
         <v>6.8</v>
@@ -15219,7 +15219,7 @@
         <v>50</v>
       </c>
       <c r="AI122" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AJ122" t="n">
         <v>35</v>
@@ -16355,19 +16355,19 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="H132" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="I132" t="n">
-        <v>8.5</v>
+        <v>15</v>
       </c>
       <c r="J132" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K132" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L132" t="n">
         <v>1.25</v>
@@ -16388,10 +16388,10 @@
         <v>3.25</v>
       </c>
       <c r="R132" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="S132" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T132" t="n">
         <v>6</v>
@@ -16400,7 +16400,7 @@
         <v>5.5</v>
       </c>
       <c r="V132" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W132" t="n">
         <v>7</v>
@@ -16412,37 +16412,37 @@
         <v>41</v>
       </c>
       <c r="Z132" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AA132" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB132" t="n">
         <v>34</v>
       </c>
       <c r="AC132" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AD132" t="n">
         <v>900</v>
       </c>
       <c r="AE132" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AF132" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG132" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AH132" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AI132" t="n">
         <v>81</v>
       </c>
       <c r="AJ132" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
     </row>
     <row r="133">
@@ -16486,22 +16486,22 @@
         <v>5</v>
       </c>
       <c r="J133" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K133" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L133" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M133" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N133" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="O133" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="P133" t="n">
         <v>1.36</v>
@@ -16510,16 +16510,16 @@
         <v>3</v>
       </c>
       <c r="R133" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="S133" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="T133" t="n">
         <v>7.5</v>
       </c>
       <c r="U133" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="V133" t="n">
         <v>8.5</v>
@@ -16534,7 +16534,7 @@
         <v>23</v>
       </c>
       <c r="Z133" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA133" t="n">
         <v>7</v>
@@ -16543,7 +16543,7 @@
         <v>15</v>
       </c>
       <c r="AC133" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD133" t="n">
         <v>201</v>
@@ -16599,7 +16599,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="H134" t="n">
         <v>3.8</v>
@@ -16620,10 +16620,10 @@
         <v>3.5</v>
       </c>
       <c r="N134" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="O134" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="P134" t="n">
         <v>1.4</v>
@@ -16659,7 +16659,7 @@
         <v>12</v>
       </c>
       <c r="AA134" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB134" t="n">
         <v>15</v>
@@ -16668,13 +16668,13 @@
         <v>51</v>
       </c>
       <c r="AD134" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AE134" t="n">
         <v>8.5</v>
       </c>
       <c r="AF134" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG134" t="n">
         <v>9.5</v>
@@ -16686,7 +16686,7 @@
         <v>19</v>
       </c>
       <c r="AJ134" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="135">
@@ -16977,7 +16977,7 @@
         <v>1.04</v>
       </c>
       <c r="K137" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L137" t="n">
         <v>1.25</v>
@@ -17102,16 +17102,16 @@
         <v>15</v>
       </c>
       <c r="L138" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="M138" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N138" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="O138" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="P138" t="n">
         <v>1.3</v>
@@ -17236,7 +17236,7 @@
         <v>2.35</v>
       </c>
       <c r="P139" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="Q139" t="n">
         <v>3.5</v>
@@ -17352,13 +17352,13 @@
         <v>3.5</v>
       </c>
       <c r="N140" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="O140" t="n">
         <v>1.85</v>
       </c>
       <c r="P140" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="Q140" t="n">
         <v>2.75</v>
@@ -17474,13 +17474,13 @@
         <v>3.5</v>
       </c>
       <c r="N141" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="O141" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="P141" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="Q141" t="n">
         <v>2.75</v>
@@ -18194,13 +18194,13 @@
         <v>3.6</v>
       </c>
       <c r="J147" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="K147" t="n">
         <v>8</v>
       </c>
       <c r="L147" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="M147" t="n">
         <v>2.75</v>
@@ -18221,7 +18221,7 @@
         <v>2</v>
       </c>
       <c r="S147" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="T147" t="n">
         <v>6</v>
@@ -18254,7 +18254,7 @@
         <v>67</v>
       </c>
       <c r="AD147" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="AE147" t="n">
         <v>9</v>
@@ -18316,13 +18316,13 @@
         <v>3.5</v>
       </c>
       <c r="J148" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="K148" t="n">
         <v>11</v>
       </c>
       <c r="L148" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M148" t="n">
         <v>3.75</v>
@@ -18340,7 +18340,7 @@
         <v>2.75</v>
       </c>
       <c r="R148" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="S148" t="n">
         <v>2</v>
@@ -18438,13 +18438,13 @@
         <v>3.4</v>
       </c>
       <c r="J149" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="K149" t="n">
         <v>11</v>
       </c>
       <c r="L149" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="M149" t="n">
         <v>3.4</v>
@@ -18462,10 +18462,10 @@
         <v>2.75</v>
       </c>
       <c r="R149" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S149" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T149" t="n">
         <v>7</v>
@@ -19060,7 +19060,7 @@
         <v>4.5</v>
       </c>
       <c r="N154" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="O154" t="n">
         <v>2.35</v>
@@ -19298,16 +19298,16 @@
         <v>11</v>
       </c>
       <c r="L156" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M156" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N156" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="O156" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="P156" t="n">
         <v>1.36</v>
@@ -19408,10 +19408,10 @@
         <v>2.32</v>
       </c>
       <c r="H157" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I157" t="n">
-        <v>2.8</v>
+        <v>2.77</v>
       </c>
       <c r="J157" t="n">
         <v>1.05</v>
@@ -19456,7 +19456,7 @@
         <v>25</v>
       </c>
       <c r="X157" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="Y157" t="n">
         <v>24</v>
@@ -19468,7 +19468,7 @@
         <v>6.4</v>
       </c>
       <c r="AB157" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AC157" t="n">
         <v>50</v>
@@ -20133,13 +20133,13 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>2.92</v>
+        <v>2.87</v>
       </c>
       <c r="H163" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="I163" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="J163" t="n">
         <v>1.05</v>
@@ -20151,7 +20151,7 @@
         <v>1.24</v>
       </c>
       <c r="M163" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="N163" t="n">
         <v>1.72</v>
@@ -20172,22 +20172,22 @@
         <v>2.18</v>
       </c>
       <c r="T163" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="U163" t="n">
         <v>16</v>
       </c>
       <c r="V163" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="W163" t="n">
         <v>35</v>
       </c>
       <c r="X163" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y163" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Z163" t="n">
         <v>8</v>
@@ -20205,22 +20205,22 @@
         <v>350</v>
       </c>
       <c r="AE163" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AF163" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AG163" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AH163" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI163" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AJ163" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="164">
@@ -20392,10 +20392,10 @@
         <v>7.5</v>
       </c>
       <c r="L165" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="M165" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="N165" t="n">
         <v>2.35</v>
@@ -20404,16 +20404,16 @@
         <v>1.57</v>
       </c>
       <c r="P165" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Q165" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="R165" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="S165" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="T165" t="n">
         <v>7.5</v>
@@ -20455,7 +20455,7 @@
         <v>12</v>
       </c>
       <c r="AG165" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH165" t="n">
         <v>26</v>
@@ -20508,13 +20508,13 @@
         <v>3.7</v>
       </c>
       <c r="J166" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="K166" t="n">
         <v>9</v>
       </c>
       <c r="L166" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M166" t="n">
         <v>3</v>
@@ -20630,22 +20630,22 @@
         <v>2.7</v>
       </c>
       <c r="J167" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="K167" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L167" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="M167" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N167" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="O167" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="P167" t="n">
         <v>1.5</v>
@@ -20752,16 +20752,16 @@
         <v>5</v>
       </c>
       <c r="J168" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="K168" t="n">
         <v>11</v>
       </c>
       <c r="L168" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="M168" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N168" t="n">
         <v>1.88</v>
@@ -20874,13 +20874,13 @@
         <v>4</v>
       </c>
       <c r="J169" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="K169" t="n">
         <v>9</v>
       </c>
       <c r="L169" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M169" t="n">
         <v>3</v>
@@ -20996,16 +20996,16 @@
         <v>4</v>
       </c>
       <c r="J170" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="K170" t="n">
         <v>8</v>
       </c>
       <c r="L170" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="M170" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="N170" t="n">
         <v>2.35</v>
@@ -21145,7 +21145,7 @@
         <v>2.2</v>
       </c>
       <c r="S171" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="T171" t="n">
         <v>6</v>
@@ -21264,7 +21264,7 @@
         <v>3.25</v>
       </c>
       <c r="R172" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="S172" t="n">
         <v>2.2</v>
@@ -21386,10 +21386,10 @@
         <v>2.05</v>
       </c>
       <c r="R173" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="S173" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="T173" t="n">
         <v>5</v>
@@ -21490,16 +21490,16 @@
         <v>9</v>
       </c>
       <c r="L174" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="M174" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N174" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="O174" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="P174" t="n">
         <v>1.5</v>
@@ -21508,10 +21508,10 @@
         <v>2.5</v>
       </c>
       <c r="R174" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="S174" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="T174" t="n">
         <v>7</v>
@@ -21972,10 +21972,10 @@
         <v>5.25</v>
       </c>
       <c r="J178" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="K178" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L178" t="n">
         <v>1.3</v>
@@ -21984,10 +21984,10 @@
         <v>3.4</v>
       </c>
       <c r="N178" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="O178" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="P178" t="n">
         <v>1.44</v>
@@ -23305,7 +23305,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H189" t="n">
         <v>3</v>
@@ -23314,22 +23314,22 @@
         <v>3.1</v>
       </c>
       <c r="J189" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="K189" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="L189" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="M189" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="N189" t="n">
-        <v>2.03</v>
+        <v>2.15</v>
       </c>
       <c r="O189" t="n">
-        <v>1.78</v>
+        <v>1.67</v>
       </c>
       <c r="P189" t="n">
         <v>1.44</v>
@@ -23338,13 +23338,13 @@
         <v>2.63</v>
       </c>
       <c r="R189" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S189" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="T189" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="U189" t="n">
         <v>11</v>
@@ -23362,7 +23362,7 @@
         <v>29</v>
       </c>
       <c r="Z189" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA189" t="n">
         <v>6</v>
@@ -23374,10 +23374,10 @@
         <v>51</v>
       </c>
       <c r="AD189" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AE189" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AF189" t="n">
         <v>15</v>
@@ -23392,7 +23392,7 @@
         <v>26</v>
       </c>
       <c r="AJ189" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="190">
@@ -23427,7 +23427,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="H190" t="n">
         <v>3.5</v>
@@ -23436,22 +23436,22 @@
         <v>5</v>
       </c>
       <c r="J190" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K190" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L190" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M190" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="N190" t="n">
         <v>2.05</v>
       </c>
       <c r="O190" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="P190" t="n">
         <v>1.44</v>
@@ -23505,7 +23505,7 @@
         <v>23</v>
       </c>
       <c r="AG190" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH190" t="n">
         <v>51</v>
@@ -23555,7 +23555,7 @@
         <v>3.9</v>
       </c>
       <c r="I191" t="n">
-        <v>1.77</v>
+        <v>1.85</v>
       </c>
       <c r="J191" t="n">
         <v>1.03</v>
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="H192" t="n">
         <v>3.4</v>
@@ -23692,10 +23692,10 @@
         <v>3.4</v>
       </c>
       <c r="N192" t="n">
-        <v>2.03</v>
+        <v>1.97</v>
       </c>
       <c r="O192" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="P192" t="n">
         <v>1.44</v>
@@ -23793,7 +23793,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="H193" t="n">
         <v>3.4</v>
@@ -23948,7 +23948,7 @@
         <v>3.25</v>
       </c>
       <c r="R194" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="S194" t="n">
         <v>2.25</v>
@@ -24070,7 +24070,7 @@
         <v>3.4</v>
       </c>
       <c r="R195" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="S195" t="n">
         <v>2.25</v>
@@ -24192,7 +24192,7 @@
         <v>3</v>
       </c>
       <c r="R196" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="S196" t="n">
         <v>2.2</v>
@@ -24891,13 +24891,13 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H202" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I202" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="J202" t="n">
         <v>1.07</v>
@@ -24936,7 +24936,7 @@
         <v>9.5</v>
       </c>
       <c r="V202" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W202" t="n">
         <v>19</v>
@@ -25733,10 +25733,10 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="H209" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I209" t="n">
         <v>5.75</v>
@@ -25793,7 +25793,7 @@
         <v>10</v>
       </c>
       <c r="AA209" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB209" t="n">
         <v>17</v>
@@ -25811,7 +25811,7 @@
         <v>29</v>
       </c>
       <c r="AG209" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH209" t="n">
         <v>51</v>
@@ -25861,7 +25861,7 @@
         <v>3.1</v>
       </c>
       <c r="I210" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="J210" t="n">
         <v>1.07</v>
@@ -26242,10 +26242,10 @@
         <v>5.5</v>
       </c>
       <c r="N213" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="O213" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="P213" t="n">
         <v>1.29</v>
@@ -26343,19 +26343,19 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="H214" t="n">
         <v>4.75</v>
       </c>
       <c r="I214" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="J214" t="n">
         <v>1.03</v>
       </c>
       <c r="K214" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L214" t="n">
         <v>1.17</v>
@@ -26403,19 +26403,19 @@
         <v>15</v>
       </c>
       <c r="AA214" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB214" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC214" t="n">
         <v>51</v>
       </c>
       <c r="AD214" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AE214" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF214" t="n">
         <v>41</v>

--- a/Jogos_da_Semana_FlashScore_2025-04-06.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-06.xlsx
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H2" t="n">
         <v>3.7</v>
@@ -668,10 +668,10 @@
         <v>5.5</v>
       </c>
       <c r="N2" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="O2" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="P2" t="n">
         <v>1.25</v>
@@ -686,7 +686,7 @@
         <v>2.63</v>
       </c>
       <c r="T2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="U2" t="n">
         <v>21</v>
@@ -707,7 +707,7 @@
         <v>19</v>
       </c>
       <c r="AA2" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB2" t="n">
         <v>12</v>
@@ -719,7 +719,7 @@
         <v>101</v>
       </c>
       <c r="AE2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF2" t="n">
         <v>15</v>
@@ -769,19 +769,19 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="H3" t="n">
         <v>3.5</v>
       </c>
       <c r="I3" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="J3" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K3" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L3" t="n">
         <v>1.22</v>
@@ -790,25 +790,25 @@
         <v>4.33</v>
       </c>
       <c r="N3" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="O3" t="n">
+        <v>2</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>3</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S3" t="n">
         <v>2.1</v>
       </c>
-      <c r="P3" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S3" t="n">
-        <v>2.2</v>
-      </c>
       <c r="T3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="U3" t="n">
         <v>26</v>
@@ -826,25 +826,25 @@
         <v>41</v>
       </c>
       <c r="Z3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA3" t="n">
         <v>7.5</v>
       </c>
       <c r="AB3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC3" t="n">
         <v>41</v>
       </c>
       <c r="AD3" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AE3" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF3" t="n">
         <v>10</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>11</v>
       </c>
       <c r="AG3" t="n">
         <v>9.5</v>
@@ -856,7 +856,7 @@
         <v>15</v>
       </c>
       <c r="AJ3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4">
@@ -891,19 +891,19 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="H4" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="I4" t="n">
-        <v>6.25</v>
+        <v>6</v>
       </c>
       <c r="J4" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L4" t="n">
         <v>1.14</v>
@@ -939,7 +939,7 @@
         <v>9.5</v>
       </c>
       <c r="W4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X4" t="n">
         <v>12</v>
@@ -948,7 +948,7 @@
         <v>23</v>
       </c>
       <c r="Z4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA4" t="n">
         <v>11</v>
@@ -1013,13 +1013,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="H5" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I5" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="J5" t="n">
         <v>1.04</v>
@@ -1040,10 +1040,10 @@
         <v>2.2</v>
       </c>
       <c r="P5" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q5" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="R5" t="n">
         <v>1.57</v>
@@ -1070,7 +1070,7 @@
         <v>29</v>
       </c>
       <c r="Z5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA5" t="n">
         <v>7.5</v>
@@ -1094,7 +1094,7 @@
         <v>10</v>
       </c>
       <c r="AH5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI5" t="n">
         <v>17</v>
@@ -1257,13 +1257,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="H7" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="I7" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="J7" t="n">
         <v>1.05</v>
@@ -1272,37 +1272,37 @@
         <v>11</v>
       </c>
       <c r="L7" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M7" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N7" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="O7" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="P7" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R7" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S7" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="T7" t="n">
         <v>9.5</v>
       </c>
       <c r="U7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V7" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W7" t="n">
         <v>23</v>
@@ -1314,10 +1314,10 @@
         <v>26</v>
       </c>
       <c r="Z7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA7" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB7" t="n">
         <v>12</v>
@@ -1329,7 +1329,7 @@
         <v>151</v>
       </c>
       <c r="AE7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF7" t="n">
         <v>15</v>
@@ -1379,7 +1379,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="H8" t="n">
         <v>3.6</v>
@@ -1424,7 +1424,7 @@
         <v>17</v>
       </c>
       <c r="V8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="W8" t="n">
         <v>34</v>
@@ -1626,7 +1626,7 @@
         <v>1.75</v>
       </c>
       <c r="H10" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I10" t="n">
         <v>4.5</v>
@@ -1644,10 +1644,10 @@
         <v>4</v>
       </c>
       <c r="N10" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="O10" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="P10" t="n">
         <v>1.36</v>
@@ -1656,10 +1656,10 @@
         <v>3</v>
       </c>
       <c r="R10" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S10" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T10" t="n">
         <v>7.5</v>
@@ -1683,7 +1683,7 @@
         <v>12</v>
       </c>
       <c r="AA10" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB10" t="n">
         <v>15</v>
@@ -1748,7 +1748,7 @@
         <v>2.35</v>
       </c>
       <c r="H11" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="I11" t="n">
         <v>3.4</v>
@@ -1793,7 +1793,7 @@
         <v>10</v>
       </c>
       <c r="W11" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="X11" t="n">
         <v>21</v>
@@ -1867,67 +1867,67 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="H12" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I12" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J12" t="n">
         <v>1.08</v>
       </c>
       <c r="K12" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="L12" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="M12" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="N12" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="O12" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="P12" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="R12" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S12" t="n">
         <v>1.95</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.8</v>
       </c>
       <c r="T12" t="n">
         <v>7.5</v>
       </c>
       <c r="U12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V12" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W12" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="X12" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y12" t="n">
         <v>34</v>
       </c>
       <c r="Z12" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AA12" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AB12" t="n">
         <v>15</v>
@@ -1936,25 +1936,25 @@
         <v>51</v>
       </c>
       <c r="AD12" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="AE12" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF12" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG12" t="n">
         <v>12</v>
       </c>
       <c r="AH12" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI12" t="n">
         <v>26</v>
       </c>
       <c r="AJ12" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13">
@@ -1989,10 +1989,10 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="H13" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I13" t="n">
         <v>5</v>
@@ -2010,22 +2010,22 @@
         <v>2.63</v>
       </c>
       <c r="N13" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="O13" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P13" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="R13" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S13" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="T13" t="n">
         <v>5.5</v>
@@ -2034,19 +2034,19 @@
         <v>7.5</v>
       </c>
       <c r="V13" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W13" t="n">
         <v>15</v>
       </c>
       <c r="X13" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y13" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z13" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AA13" t="n">
         <v>6</v>
@@ -2055,19 +2055,19 @@
         <v>19</v>
       </c>
       <c r="AC13" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD13" t="n">
         <v>501</v>
       </c>
       <c r="AE13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF13" t="n">
         <v>23</v>
       </c>
       <c r="AG13" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH13" t="n">
         <v>51</v>
@@ -2111,10 +2111,10 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="H14" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="I14" t="n">
         <v>5</v>
@@ -2132,25 +2132,25 @@
         <v>4</v>
       </c>
       <c r="N14" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="O14" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>3</v>
+      </c>
+      <c r="R14" t="n">
         <v>1.8</v>
       </c>
-      <c r="O14" t="n">
-        <v>2</v>
-      </c>
-      <c r="P14" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.75</v>
-      </c>
       <c r="S14" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T14" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="U14" t="n">
         <v>8.5</v>
@@ -2168,22 +2168,22 @@
         <v>23</v>
       </c>
       <c r="Z14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA14" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB14" t="n">
         <v>15</v>
       </c>
       <c r="AC14" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD14" t="n">
         <v>201</v>
       </c>
       <c r="AE14" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF14" t="n">
         <v>26</v>
@@ -2275,7 +2275,7 @@
         <v>7.5</v>
       </c>
       <c r="U15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V15" t="n">
         <v>10</v>
@@ -2355,94 +2355,94 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="H16" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="I16" t="n">
-        <v>2.15</v>
+        <v>2.35</v>
       </c>
       <c r="J16" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="K16" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="L16" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M16" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="N16" t="n">
+        <v>2</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="P16" t="n">
         <v>1.44</v>
       </c>
-      <c r="M16" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="N16" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="P16" t="n">
-        <v>1.5</v>
-      </c>
       <c r="Q16" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="R16" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S16" t="n">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="T16" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U16" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="V16" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="W16" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="X16" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y16" t="n">
         <v>34</v>
       </c>
-      <c r="Y16" t="n">
-        <v>41</v>
-      </c>
       <c r="Z16" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>251</v>
+      </c>
+      <c r="AE16" t="n">
         <v>7.5</v>
       </c>
-      <c r="AA16" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>67</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>401</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>6.5</v>
-      </c>
       <c r="AF16" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AG16" t="n">
         <v>9.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI16" t="n">
         <v>19</v>
       </c>
       <c r="AJ16" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17">
@@ -2599,19 +2599,19 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="H18" t="n">
         <v>3</v>
       </c>
       <c r="I18" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="J18" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="K18" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="L18" t="n">
         <v>1.62</v>
@@ -2620,10 +2620,10 @@
         <v>2.3</v>
       </c>
       <c r="N18" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="O18" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P18" t="n">
         <v>1.62</v>
@@ -2632,19 +2632,19 @@
         <v>2.2</v>
       </c>
       <c r="R18" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="S18" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="T18" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="U18" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="V18" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="W18" t="n">
         <v>51</v>
@@ -2662,10 +2662,10 @@
         <v>6</v>
       </c>
       <c r="AB18" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC18" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AD18" t="n">
         <v>501</v>
@@ -2674,13 +2674,13 @@
         <v>5</v>
       </c>
       <c r="AF18" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AG18" t="n">
         <v>10</v>
       </c>
       <c r="AH18" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI18" t="n">
         <v>21</v>
@@ -2721,13 +2721,13 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="H19" t="n">
         <v>3.4</v>
       </c>
       <c r="I19" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="J19" t="n">
         <v>1.05</v>
@@ -2742,10 +2742,10 @@
         <v>3.75</v>
       </c>
       <c r="N19" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="O19" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="P19" t="n">
         <v>1.4</v>
@@ -2760,19 +2760,19 @@
         <v>2.05</v>
       </c>
       <c r="T19" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U19" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V19" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W19" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="X19" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y19" t="n">
         <v>26</v>
@@ -2793,16 +2793,16 @@
         <v>151</v>
       </c>
       <c r="AE19" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF19" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG19" t="n">
         <v>11</v>
       </c>
       <c r="AH19" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI19" t="n">
         <v>23</v>
@@ -2843,19 +2843,19 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="H20" t="n">
         <v>3.2</v>
       </c>
       <c r="I20" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="J20" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K20" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="L20" t="n">
         <v>1.5</v>
@@ -2882,16 +2882,16 @@
         <v>1.67</v>
       </c>
       <c r="T20" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="U20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W20" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="X20" t="n">
         <v>23</v>
@@ -2900,7 +2900,7 @@
         <v>41</v>
       </c>
       <c r="Z20" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AA20" t="n">
         <v>6</v>
@@ -2909,7 +2909,7 @@
         <v>19</v>
       </c>
       <c r="AC20" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD20" t="n">
         <v>101</v>
@@ -3087,10 +3087,10 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="H22" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I22" t="n">
         <v>8.5</v>
@@ -3129,7 +3129,7 @@
         <v>5.5</v>
       </c>
       <c r="U22" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="V22" t="n">
         <v>9</v>
@@ -3147,13 +3147,13 @@
         <v>8</v>
       </c>
       <c r="AA22" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB22" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC22" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AD22" t="n">
         <v>501</v>
@@ -3165,7 +3165,7 @@
         <v>41</v>
       </c>
       <c r="AG22" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AH22" t="n">
         <v>101</v>
@@ -3209,19 +3209,19 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="H23" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="I23" t="n">
-        <v>5.75</v>
+        <v>6.25</v>
       </c>
       <c r="J23" t="n">
         <v>1.07</v>
       </c>
       <c r="K23" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="L23" t="n">
         <v>1.36</v>
@@ -3230,10 +3230,10 @@
         <v>3</v>
       </c>
       <c r="N23" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="O23" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="P23" t="n">
         <v>1.44</v>
@@ -3242,22 +3242,22 @@
         <v>2.63</v>
       </c>
       <c r="R23" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S23" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="T23" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="U23" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="V23" t="n">
         <v>8.5</v>
       </c>
       <c r="W23" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X23" t="n">
         <v>15</v>
@@ -3266,13 +3266,13 @@
         <v>34</v>
       </c>
       <c r="Z23" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA23" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB23" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC23" t="n">
         <v>67</v>
@@ -3281,10 +3281,10 @@
         <v>501</v>
       </c>
       <c r="AE23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF23" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG23" t="n">
         <v>19</v>
@@ -3293,7 +3293,7 @@
         <v>67</v>
       </c>
       <c r="AI23" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AJ23" t="n">
         <v>51</v>
@@ -3453,25 +3453,25 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="H25" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="I25" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J25" t="n">
         <v>1.17</v>
       </c>
       <c r="K25" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="L25" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="M25" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="N25" t="n">
         <v>3.4</v>
@@ -3480,10 +3480,10 @@
         <v>1.33</v>
       </c>
       <c r="P25" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="R25" t="n">
         <v>2.63</v>
@@ -3495,22 +3495,22 @@
         <v>4.75</v>
       </c>
       <c r="U25" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="V25" t="n">
         <v>11</v>
       </c>
       <c r="W25" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="X25" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y25" t="n">
         <v>51</v>
       </c>
       <c r="Z25" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AA25" t="n">
         <v>6</v>
@@ -3525,13 +3525,13 @@
         <v>101</v>
       </c>
       <c r="AE25" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AF25" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG25" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH25" t="n">
         <v>51</v>
@@ -3697,13 +3697,13 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H27" t="n">
         <v>3</v>
       </c>
       <c r="I27" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="J27" t="n">
         <v>1.17</v>
@@ -3739,7 +3739,7 @@
         <v>4.75</v>
       </c>
       <c r="U27" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="V27" t="n">
         <v>11</v>
@@ -3760,7 +3760,7 @@
         <v>6.5</v>
       </c>
       <c r="AB27" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC27" t="n">
         <v>126</v>
@@ -3781,7 +3781,7 @@
         <v>51</v>
       </c>
       <c r="AI27" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AJ27" t="n">
         <v>67</v>
@@ -4105,7 +4105,7 @@
         <v>4.75</v>
       </c>
       <c r="U30" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="V30" t="n">
         <v>11</v>
@@ -4307,13 +4307,13 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="H32" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="I32" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="J32" t="n">
         <v>1.02</v>
@@ -4358,7 +4358,7 @@
         <v>81</v>
       </c>
       <c r="X32" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="Y32" t="n">
         <v>41</v>
@@ -4367,10 +4367,10 @@
         <v>19</v>
       </c>
       <c r="AA32" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB32" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC32" t="n">
         <v>51</v>
@@ -4379,16 +4379,16 @@
         <v>201</v>
       </c>
       <c r="AE32" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF32" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AG32" t="n">
         <v>8.5</v>
       </c>
       <c r="AH32" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI32" t="n">
         <v>11</v>
@@ -4551,13 +4551,13 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="H34" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="I34" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="J34" t="n">
         <v>1.02</v>
@@ -4566,37 +4566,37 @@
         <v>19</v>
       </c>
       <c r="L34" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="M34" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="N34" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="O34" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="P34" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="Q34" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="R34" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S34" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="T34" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="U34" t="n">
+        <v>8</v>
+      </c>
+      <c r="V34" t="n">
         <v>8.5</v>
-      </c>
-      <c r="V34" t="n">
-        <v>9</v>
       </c>
       <c r="W34" t="n">
         <v>11</v>
@@ -4608,10 +4608,10 @@
         <v>21</v>
       </c>
       <c r="Z34" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA34" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB34" t="n">
         <v>15</v>
@@ -4620,10 +4620,10 @@
         <v>41</v>
       </c>
       <c r="AD34" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AE34" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF34" t="n">
         <v>41</v>
@@ -4632,7 +4632,7 @@
         <v>21</v>
       </c>
       <c r="AH34" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AI34" t="n">
         <v>41</v>
@@ -4694,10 +4694,10 @@
         <v>2.63</v>
       </c>
       <c r="N35" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="O35" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P35" t="n">
         <v>1.53</v>
@@ -4795,13 +4795,13 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H36" t="n">
         <v>3.3</v>
       </c>
       <c r="I36" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="J36" t="n">
         <v>1.08</v>
@@ -4816,10 +4816,10 @@
         <v>3</v>
       </c>
       <c r="N36" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="O36" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="P36" t="n">
         <v>1.5</v>
@@ -4846,7 +4846,7 @@
         <v>17</v>
       </c>
       <c r="X36" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y36" t="n">
         <v>34</v>
@@ -4867,13 +4867,13 @@
         <v>401</v>
       </c>
       <c r="AE36" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF36" t="n">
         <v>19</v>
       </c>
       <c r="AG36" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH36" t="n">
         <v>41</v>
@@ -4932,16 +4932,16 @@
         <v>8</v>
       </c>
       <c r="L37" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="M37" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="N37" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O37" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="P37" t="n">
         <v>1.5</v>
@@ -5039,19 +5039,19 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="H38" t="n">
         <v>3.1</v>
       </c>
       <c r="I38" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="J38" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K38" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L38" t="n">
         <v>1.44</v>
@@ -5066,28 +5066,28 @@
         <v>1.57</v>
       </c>
       <c r="P38" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="R38" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S38" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T38" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="U38" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V38" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W38" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X38" t="n">
         <v>21</v>
@@ -5111,10 +5111,10 @@
         <v>401</v>
       </c>
       <c r="AE38" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AF38" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG38" t="n">
         <v>12</v>
@@ -5161,19 +5161,19 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="H39" t="n">
         <v>3.5</v>
       </c>
       <c r="I39" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="J39" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K39" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L39" t="n">
         <v>1.4</v>
@@ -5182,10 +5182,10 @@
         <v>3</v>
       </c>
       <c r="N39" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="O39" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="P39" t="n">
         <v>1.5</v>
@@ -5200,25 +5200,25 @@
         <v>1.75</v>
       </c>
       <c r="T39" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="U39" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="V39" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="W39" t="n">
         <v>41</v>
       </c>
       <c r="X39" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Y39" t="n">
         <v>41</v>
       </c>
       <c r="Z39" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA39" t="n">
         <v>6.5</v>
@@ -5230,19 +5230,19 @@
         <v>67</v>
       </c>
       <c r="AD39" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="AE39" t="n">
         <v>6</v>
       </c>
       <c r="AF39" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AG39" t="n">
         <v>9</v>
       </c>
       <c r="AH39" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI39" t="n">
         <v>17</v>
@@ -5405,13 +5405,13 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H41" t="n">
         <v>3.2</v>
       </c>
       <c r="I41" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="J41" t="n">
         <v>1.08</v>
@@ -5447,10 +5447,10 @@
         <v>6.5</v>
       </c>
       <c r="U41" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="V41" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W41" t="n">
         <v>19</v>
@@ -5477,7 +5477,7 @@
         <v>351</v>
       </c>
       <c r="AE41" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF41" t="n">
         <v>17</v>
@@ -5771,19 +5771,19 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="H44" t="n">
         <v>3.1</v>
       </c>
       <c r="I44" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="J44" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K44" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L44" t="n">
         <v>1.44</v>
@@ -5813,16 +5813,16 @@
         <v>6.5</v>
       </c>
       <c r="U44" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V44" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W44" t="n">
         <v>23</v>
       </c>
       <c r="X44" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y44" t="n">
         <v>41</v>
@@ -5843,16 +5843,16 @@
         <v>351</v>
       </c>
       <c r="AE44" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AF44" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG44" t="n">
         <v>12</v>
       </c>
       <c r="AH44" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI44" t="n">
         <v>29</v>
@@ -5893,13 +5893,13 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="H45" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I45" t="n">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="J45" t="n">
         <v>1.1</v>
@@ -5914,10 +5914,10 @@
         <v>2.5</v>
       </c>
       <c r="N45" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="O45" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="P45" t="n">
         <v>1.57</v>
@@ -5926,22 +5926,22 @@
         <v>2.25</v>
       </c>
       <c r="R45" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S45" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="T45" t="n">
         <v>5.5</v>
       </c>
       <c r="U45" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="V45" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W45" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="X45" t="n">
         <v>21</v>
@@ -5965,22 +5965,22 @@
         <v>1250</v>
       </c>
       <c r="AE45" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AF45" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AG45" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH45" t="n">
         <v>41</v>
       </c>
       <c r="AI45" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ45" t="n">
         <v>41</v>
-      </c>
-      <c r="AJ45" t="n">
-        <v>51</v>
       </c>
     </row>
     <row r="46">
@@ -6259,19 +6259,19 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="H48" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I48" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="J48" t="n">
         <v>1.02</v>
       </c>
       <c r="K48" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L48" t="n">
         <v>1.13</v>
@@ -6292,16 +6292,16 @@
         <v>3.75</v>
       </c>
       <c r="R48" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S48" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="T48" t="n">
         <v>19</v>
       </c>
       <c r="U48" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="V48" t="n">
         <v>15</v>
@@ -6316,13 +6316,13 @@
         <v>29</v>
       </c>
       <c r="Z48" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA48" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AB48" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC48" t="n">
         <v>34</v>
@@ -6334,7 +6334,7 @@
         <v>11</v>
       </c>
       <c r="AF48" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG48" t="n">
         <v>8.5</v>
@@ -6381,19 +6381,19 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="H49" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I49" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="J49" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K49" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L49" t="n">
         <v>1.2</v>
@@ -6402,10 +6402,10 @@
         <v>4.33</v>
       </c>
       <c r="N49" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="O49" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="P49" t="n">
         <v>1.33</v>
@@ -6429,10 +6429,10 @@
         <v>9.5</v>
       </c>
       <c r="W49" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X49" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y49" t="n">
         <v>23</v>
@@ -6453,16 +6453,16 @@
         <v>126</v>
       </c>
       <c r="AE49" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF49" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG49" t="n">
         <v>11</v>
       </c>
       <c r="AH49" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI49" t="n">
         <v>21</v>
@@ -6506,16 +6506,16 @@
         <v>1.25</v>
       </c>
       <c r="H50" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="I50" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J50" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K50" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L50" t="n">
         <v>1.14</v>
@@ -6524,10 +6524,10 @@
         <v>5.5</v>
       </c>
       <c r="N50" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="O50" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="P50" t="n">
         <v>1.25</v>
@@ -6542,7 +6542,7 @@
         <v>1.8</v>
       </c>
       <c r="T50" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="U50" t="n">
         <v>7</v>
@@ -6569,7 +6569,7 @@
         <v>21</v>
       </c>
       <c r="AC50" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD50" t="n">
         <v>301</v>
@@ -6625,13 +6625,13 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="H51" t="n">
         <v>3.4</v>
       </c>
       <c r="I51" t="n">
-        <v>2.5</v>
+        <v>2.35</v>
       </c>
       <c r="J51" t="n">
         <v>1.04</v>
@@ -6640,16 +6640,16 @@
         <v>13</v>
       </c>
       <c r="L51" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M51" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N51" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="O51" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="P51" t="n">
         <v>1.33</v>
@@ -6664,16 +6664,16 @@
         <v>2.25</v>
       </c>
       <c r="T51" t="n">
+        <v>12</v>
+      </c>
+      <c r="U51" t="n">
+        <v>17</v>
+      </c>
+      <c r="V51" t="n">
         <v>11</v>
       </c>
-      <c r="U51" t="n">
-        <v>15</v>
-      </c>
-      <c r="V51" t="n">
-        <v>10</v>
-      </c>
       <c r="W51" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="X51" t="n">
         <v>21</v>
@@ -6694,7 +6694,7 @@
         <v>41</v>
       </c>
       <c r="AD51" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AE51" t="n">
         <v>10</v>
@@ -6703,13 +6703,13 @@
         <v>13</v>
       </c>
       <c r="AG51" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH51" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI51" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ51" t="n">
         <v>23</v>
@@ -6747,13 +6747,13 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="H52" t="n">
         <v>3.9</v>
       </c>
       <c r="I52" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="J52" t="n">
         <v>1.02</v>
@@ -6768,16 +6768,16 @@
         <v>5.5</v>
       </c>
       <c r="N52" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="O52" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="P52" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="Q52" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="R52" t="n">
         <v>1.5</v>
@@ -6834,7 +6834,7 @@
         <v>26</v>
       </c>
       <c r="AJ52" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="53">
@@ -6869,19 +6869,19 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="H53" t="n">
         <v>3.4</v>
       </c>
       <c r="I53" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="J53" t="n">
         <v>1.03</v>
       </c>
       <c r="K53" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L53" t="n">
         <v>1.17</v>
@@ -6908,16 +6908,16 @@
         <v>2.5</v>
       </c>
       <c r="T53" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="U53" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="V53" t="n">
         <v>11</v>
       </c>
       <c r="W53" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="X53" t="n">
         <v>21</v>
@@ -6926,7 +6926,7 @@
         <v>23</v>
       </c>
       <c r="Z53" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA53" t="n">
         <v>7</v>
@@ -6935,7 +6935,7 @@
         <v>11</v>
       </c>
       <c r="AC53" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AD53" t="n">
         <v>101</v>
@@ -6944,7 +6944,7 @@
         <v>12</v>
       </c>
       <c r="AF53" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG53" t="n">
         <v>9.5</v>
@@ -6991,13 +6991,13 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="H54" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I54" t="n">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="J54" t="n">
         <v>1.05</v>
@@ -7006,16 +7006,16 @@
         <v>11</v>
       </c>
       <c r="L54" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M54" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N54" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="O54" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="P54" t="n">
         <v>1.4</v>
@@ -7030,28 +7030,28 @@
         <v>1.95</v>
       </c>
       <c r="T54" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="U54" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="V54" t="n">
         <v>8.5</v>
       </c>
       <c r="W54" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X54" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y54" t="n">
         <v>26</v>
       </c>
       <c r="Z54" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA54" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB54" t="n">
         <v>15</v>
@@ -7060,22 +7060,22 @@
         <v>51</v>
       </c>
       <c r="AD54" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AE54" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AF54" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AG54" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AH54" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI54" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ54" t="n">
         <v>41</v>
@@ -7116,22 +7116,22 @@
         <v>1.67</v>
       </c>
       <c r="H55" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I55" t="n">
-        <v>6.25</v>
+        <v>6</v>
       </c>
       <c r="J55" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="K55" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="L55" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="M55" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="N55" t="n">
         <v>2.7</v>
@@ -7152,13 +7152,13 @@
         <v>1.44</v>
       </c>
       <c r="T55" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="U55" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="V55" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W55" t="n">
         <v>12</v>
@@ -7170,7 +7170,7 @@
         <v>41</v>
       </c>
       <c r="Z55" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AA55" t="n">
         <v>7</v>
@@ -7179,7 +7179,7 @@
         <v>26</v>
       </c>
       <c r="AC55" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AD55" t="n">
         <v>101</v>
@@ -7200,7 +7200,7 @@
         <v>51</v>
       </c>
       <c r="AJ55" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
     </row>
     <row r="56">
@@ -7357,13 +7357,13 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="H57" t="n">
         <v>3.1</v>
       </c>
       <c r="I57" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="J57" t="n">
         <v>1.08</v>
@@ -7432,7 +7432,7 @@
         <v>7.5</v>
       </c>
       <c r="AF57" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG57" t="n">
         <v>11</v>
@@ -7601,19 +7601,19 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="H59" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I59" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="J59" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K59" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L59" t="n">
         <v>1.33</v>
@@ -7640,22 +7640,22 @@
         <v>1.91</v>
       </c>
       <c r="T59" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="U59" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V59" t="n">
         <v>10</v>
       </c>
       <c r="W59" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="X59" t="n">
         <v>21</v>
       </c>
       <c r="Y59" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z59" t="n">
         <v>9</v>
@@ -7679,13 +7679,13 @@
         <v>13</v>
       </c>
       <c r="AG59" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH59" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI59" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ59" t="n">
         <v>34</v>
@@ -7723,43 +7723,43 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="H60" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="I60" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J60" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="K60" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="L60" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M60" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N60" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="O60" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="P60" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q60" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R60" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S60" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="T60" t="n">
         <v>6</v>
@@ -7771,7 +7771,7 @@
         <v>9</v>
       </c>
       <c r="W60" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="X60" t="n">
         <v>13</v>
@@ -7780,13 +7780,13 @@
         <v>34</v>
       </c>
       <c r="Z60" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA60" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB60" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC60" t="n">
         <v>81</v>
@@ -7795,22 +7795,22 @@
         <v>101</v>
       </c>
       <c r="AE60" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF60" t="n">
         <v>41</v>
       </c>
       <c r="AG60" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AH60" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AI60" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AJ60" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
     </row>
     <row r="61">
@@ -7851,7 +7851,7 @@
         <v>3.6</v>
       </c>
       <c r="I61" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="J61" t="n">
         <v>1.05</v>
@@ -7860,16 +7860,16 @@
         <v>11</v>
       </c>
       <c r="L61" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M61" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N61" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="O61" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="P61" t="n">
         <v>1.4</v>
@@ -7878,13 +7878,13 @@
         <v>2.75</v>
       </c>
       <c r="R61" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="S61" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="T61" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="U61" t="n">
         <v>17</v>
@@ -7908,16 +7908,16 @@
         <v>7</v>
       </c>
       <c r="AB61" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC61" t="n">
         <v>51</v>
       </c>
       <c r="AD61" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AE61" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AF61" t="n">
         <v>10</v>
@@ -7967,13 +7967,13 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="H62" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="I62" t="n">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="J62" t="n">
         <v>1.04</v>
@@ -8000,25 +8000,25 @@
         <v>3.25</v>
       </c>
       <c r="R62" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S62" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="T62" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="U62" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="V62" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W62" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="X62" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y62" t="n">
         <v>23</v>
@@ -8027,34 +8027,34 @@
         <v>13</v>
       </c>
       <c r="AA62" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB62" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC62" t="n">
         <v>41</v>
       </c>
       <c r="AD62" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AE62" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF62" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG62" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH62" t="n">
         <v>41</v>
       </c>
       <c r="AI62" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ62" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="63">
@@ -8089,7 +8089,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="H63" t="n">
         <v>3.1</v>
@@ -8098,22 +8098,22 @@
         <v>2.55</v>
       </c>
       <c r="J63" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K63" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L63" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M63" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="N63" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="O63" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="P63" t="n">
         <v>1.44</v>
@@ -8128,7 +8128,7 @@
         <v>1.91</v>
       </c>
       <c r="T63" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="U63" t="n">
         <v>13</v>
@@ -8140,19 +8140,19 @@
         <v>26</v>
       </c>
       <c r="X63" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y63" t="n">
         <v>34</v>
       </c>
       <c r="Z63" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AA63" t="n">
         <v>6</v>
       </c>
       <c r="AB63" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC63" t="n">
         <v>51</v>
@@ -8176,7 +8176,7 @@
         <v>21</v>
       </c>
       <c r="AJ63" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="64">
@@ -8333,13 +8333,13 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="H65" t="n">
         <v>3.1</v>
       </c>
       <c r="I65" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J65" t="n">
         <v>1.06</v>
@@ -8366,16 +8366,16 @@
         <v>2.75</v>
       </c>
       <c r="R65" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="S65" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T65" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="U65" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V65" t="n">
         <v>9.5</v>
@@ -8387,10 +8387,10 @@
         <v>19</v>
       </c>
       <c r="Y65" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z65" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA65" t="n">
         <v>6</v>
@@ -8405,10 +8405,10 @@
         <v>201</v>
       </c>
       <c r="AE65" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF65" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG65" t="n">
         <v>12</v>
@@ -8417,7 +8417,7 @@
         <v>34</v>
       </c>
       <c r="AI65" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ65" t="n">
         <v>34</v>
@@ -8648,10 +8648,10 @@
         <v>5</v>
       </c>
       <c r="J68" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K68" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="L68" t="n">
         <v>1.36</v>
@@ -8660,10 +8660,10 @@
         <v>3</v>
       </c>
       <c r="N68" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="O68" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="P68" t="n">
         <v>1.44</v>
@@ -8770,10 +8770,10 @@
         <v>2.3</v>
       </c>
       <c r="J69" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K69" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L69" t="n">
         <v>1.2</v>
@@ -8782,10 +8782,10 @@
         <v>4.33</v>
       </c>
       <c r="N69" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="O69" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="P69" t="n">
         <v>1.33</v>
@@ -8883,13 +8883,13 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="H70" t="n">
         <v>3.3</v>
       </c>
       <c r="I70" t="n">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="J70" t="n">
         <v>1.04</v>
@@ -8922,10 +8922,10 @@
         <v>2.25</v>
       </c>
       <c r="T70" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="U70" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="V70" t="n">
         <v>11</v>
@@ -8961,13 +8961,13 @@
         <v>13</v>
       </c>
       <c r="AG70" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH70" t="n">
         <v>23</v>
       </c>
       <c r="AI70" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ70" t="n">
         <v>23</v>
@@ -9477,87 +9477,87 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.83</v>
+        <v>1.93</v>
       </c>
       <c r="H75" t="n">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="I75" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="M75" t="n">
-        <v>2.82</v>
+        <v>2.75</v>
       </c>
       <c r="N75" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="O75" t="n">
         <v>1.65</v>
       </c>
       <c r="P75" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="Q75" t="n">
-        <v>2.52</v>
+        <v>2.47</v>
       </c>
       <c r="R75" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="S75" t="n">
-        <v>1.78</v>
+        <v>1.85</v>
       </c>
       <c r="T75" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="U75" t="n">
-        <v>8.25</v>
+        <v>9</v>
       </c>
       <c r="V75" t="n">
         <v>8.25</v>
       </c>
       <c r="W75" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="X75" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="Y75" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Z75" t="n">
-        <v>8.5</v>
+        <v>7.7</v>
       </c>
       <c r="AA75" t="n">
-        <v>6.4</v>
+        <v>5.7</v>
       </c>
       <c r="AB75" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AC75" t="n">
+        <v>65</v>
+      </c>
+      <c r="AD75" t="n">
+        <v>500</v>
+      </c>
+      <c r="AE75" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AF75" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG75" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH75" t="n">
         <v>80</v>
       </c>
-      <c r="AD75" t="n">
-        <v>700</v>
-      </c>
-      <c r="AE75" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF75" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG75" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH75" t="n">
-        <v>70</v>
-      </c>
       <c r="AI75" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ75" t="n">
         <v>45</v>
@@ -9595,25 +9595,25 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="H76" t="n">
         <v>3.25</v>
       </c>
       <c r="I76" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="J76" t="n">
         <v>1.06</v>
       </c>
       <c r="K76" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="L76" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M76" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="N76" t="n">
         <v>2.05</v>
@@ -9634,7 +9634,7 @@
         <v>1.91</v>
       </c>
       <c r="T76" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U76" t="n">
         <v>12</v>
@@ -9643,7 +9643,7 @@
         <v>10</v>
       </c>
       <c r="W76" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="X76" t="n">
         <v>21</v>
@@ -9667,19 +9667,19 @@
         <v>251</v>
       </c>
       <c r="AE76" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF76" t="n">
         <v>13</v>
       </c>
       <c r="AG76" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH76" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI76" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ76" t="n">
         <v>34</v>
@@ -9717,13 +9717,13 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="H77" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I77" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J77" t="n">
         <v>1.03</v>
@@ -9738,10 +9738,10 @@
         <v>4.5</v>
       </c>
       <c r="N77" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="O77" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="P77" t="n">
         <v>1.3</v>
@@ -9756,16 +9756,16 @@
         <v>2.1</v>
       </c>
       <c r="T77" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="U77" t="n">
         <v>9</v>
-      </c>
-      <c r="U77" t="n">
-        <v>8.5</v>
       </c>
       <c r="V77" t="n">
         <v>8.5</v>
       </c>
       <c r="W77" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X77" t="n">
         <v>12</v>
@@ -9792,19 +9792,19 @@
         <v>17</v>
       </c>
       <c r="AF77" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG77" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH77" t="n">
         <v>51</v>
       </c>
       <c r="AI77" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ77" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="78">
@@ -9854,10 +9854,10 @@
         <v>19</v>
       </c>
       <c r="L78" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="M78" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="N78" t="n">
         <v>1.48</v>
@@ -9972,52 +9972,52 @@
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="M79" t="n">
         <v>6</v>
       </c>
       <c r="N79" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="O79" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="P79" t="n">
         <v>1.2</v>
       </c>
       <c r="Q79" t="n">
-        <v>4.05</v>
+        <v>4</v>
       </c>
       <c r="R79" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="S79" t="n">
-        <v>2.42</v>
+        <v>2.37</v>
       </c>
       <c r="T79" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="U79" t="n">
-        <v>10.25</v>
+        <v>9.75</v>
       </c>
       <c r="V79" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="W79" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="X79" t="n">
         <v>10</v>
       </c>
       <c r="Y79" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="Z79" t="n">
         <v>29</v>
       </c>
       <c r="AA79" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AB79" t="n">
         <v>15</v>
@@ -10029,7 +10029,7 @@
         <v>200</v>
       </c>
       <c r="AE79" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AF79" t="n">
         <v>60</v>
@@ -10038,7 +10038,7 @@
         <v>22</v>
       </c>
       <c r="AH79" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AI79" t="n">
         <v>60</v>
@@ -10079,13 +10079,13 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="H80" t="n">
         <v>4.05</v>
       </c>
       <c r="I80" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
@@ -10105,7 +10105,7 @@
         <v>1.2</v>
       </c>
       <c r="Q80" t="n">
-        <v>4.1</v>
+        <v>4.05</v>
       </c>
       <c r="R80" t="n">
         <v>1.32</v>
@@ -10114,19 +10114,19 @@
         <v>3.1</v>
       </c>
       <c r="T80" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="U80" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V80" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="W80" t="n">
         <v>40</v>
       </c>
       <c r="X80" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="Y80" t="n">
         <v>18.5</v>
@@ -10147,19 +10147,19 @@
         <v>100</v>
       </c>
       <c r="AE80" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AF80" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AG80" t="n">
         <v>9.75</v>
       </c>
       <c r="AH80" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI80" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AJ80" t="n">
         <v>15.5</v>
@@ -10319,10 +10319,10 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="H82" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="I82" t="n">
         <v>2.47</v>
@@ -10330,30 +10330,30 @@
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
-        <v>1.26</v>
+        <v>1.23</v>
       </c>
       <c r="M82" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="N82" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="O82" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="P82" t="inlineStr"/>
       <c r="Q82" t="inlineStr"/>
       <c r="R82" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="S82" t="n">
-        <v>2.05</v>
+        <v>2.12</v>
       </c>
       <c r="T82" t="n">
         <v>9.75</v>
       </c>
       <c r="U82" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="V82" t="n">
         <v>9.75</v>
@@ -10365,40 +10365,40 @@
         <v>21</v>
       </c>
       <c r="Y82" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Z82" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AA82" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AB82" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AC82" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AD82" t="n">
         <v>300</v>
       </c>
       <c r="AE82" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AF82" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AG82" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AH82" t="n">
         <v>27</v>
       </c>
       <c r="AI82" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="AJ82" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="83">
@@ -10555,19 +10555,19 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="H84" t="n">
         <v>3.1</v>
       </c>
       <c r="I84" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="J84" t="n">
         <v>1.07</v>
       </c>
       <c r="K84" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="L84" t="n">
         <v>1.36</v>
@@ -10594,16 +10594,16 @@
         <v>1.83</v>
       </c>
       <c r="T84" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="U84" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="V84" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="W84" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="X84" t="n">
         <v>29</v>
@@ -10630,19 +10630,19 @@
         <v>7</v>
       </c>
       <c r="AF84" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AG84" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AH84" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI84" t="n">
         <v>19</v>
       </c>
       <c r="AJ84" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="85">
@@ -10698,10 +10698,10 @@
         <v>3</v>
       </c>
       <c r="N85" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O85" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="P85" t="n">
         <v>1.5</v>
@@ -10799,31 +10799,31 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="H86" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I86" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="J86" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K86" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L86" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M86" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N86" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="O86" t="n">
-        <v>1.85</v>
+        <v>1.98</v>
       </c>
       <c r="P86" t="n">
         <v>1.4</v>
@@ -10832,13 +10832,13 @@
         <v>2.75</v>
       </c>
       <c r="R86" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="S86" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T86" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="U86" t="n">
         <v>13</v>
@@ -10853,10 +10853,10 @@
         <v>21</v>
       </c>
       <c r="Y86" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z86" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA86" t="n">
         <v>6.5</v>
@@ -10868,10 +10868,10 @@
         <v>41</v>
       </c>
       <c r="AD86" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AE86" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF86" t="n">
         <v>13</v>
@@ -10921,13 +10921,13 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="H87" t="n">
         <v>3.6</v>
       </c>
       <c r="I87" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J87" t="n">
         <v>1.05</v>
@@ -10936,16 +10936,16 @@
         <v>11</v>
       </c>
       <c r="L87" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M87" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N87" t="n">
-        <v>2.03</v>
+        <v>1.98</v>
       </c>
       <c r="O87" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="P87" t="n">
         <v>1.4</v>
@@ -10954,16 +10954,16 @@
         <v>2.75</v>
       </c>
       <c r="R87" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="S87" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="T87" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="U87" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="V87" t="n">
         <v>8.5</v>
@@ -10975,7 +10975,7 @@
         <v>15</v>
       </c>
       <c r="Y87" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z87" t="n">
         <v>10</v>
@@ -10984,22 +10984,22 @@
         <v>7</v>
       </c>
       <c r="AB87" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC87" t="n">
         <v>51</v>
       </c>
       <c r="AD87" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AE87" t="n">
         <v>13</v>
       </c>
       <c r="AF87" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG87" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH87" t="n">
         <v>51</v>
@@ -11165,10 +11165,10 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="H89" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I89" t="n">
         <v>1.85</v>
@@ -11177,7 +11177,7 @@
         <v>1.06</v>
       </c>
       <c r="K89" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="L89" t="n">
         <v>1.3</v>
@@ -11186,7 +11186,7 @@
         <v>3.2</v>
       </c>
       <c r="N89" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="O89" t="n">
         <v>1.82</v>
@@ -11201,13 +11201,13 @@
         <v>1.75</v>
       </c>
       <c r="S89" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="T89" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="U89" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V89" t="n">
         <v>13</v>
@@ -11216,16 +11216,16 @@
         <v>65</v>
       </c>
       <c r="X89" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Y89" t="n">
         <v>40</v>
       </c>
       <c r="Z89" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="AA89" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AB89" t="n">
         <v>14</v>
@@ -11237,22 +11237,22 @@
         <v>500</v>
       </c>
       <c r="AE89" t="n">
-        <v>7</v>
+        <v>7.3</v>
       </c>
       <c r="AF89" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="AG89" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AH89" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AI89" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AJ89" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="90">
@@ -11293,7 +11293,7 @@
         <v>3.15</v>
       </c>
       <c r="I90" t="n">
-        <v>4.65</v>
+        <v>4.7</v>
       </c>
       <c r="J90" t="n">
         <v>1.12</v>
@@ -11305,10 +11305,10 @@
         <v>1.57</v>
       </c>
       <c r="M90" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="N90" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="O90" t="n">
         <v>1.42</v>
@@ -11317,16 +11317,16 @@
         <v>1.62</v>
       </c>
       <c r="Q90" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="R90" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="S90" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="T90" t="n">
-        <v>4.7</v>
+        <v>4.65</v>
       </c>
       <c r="U90" t="n">
         <v>6.6</v>
@@ -11341,7 +11341,7 @@
         <v>19.5</v>
       </c>
       <c r="Y90" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="Z90" t="n">
         <v>5.3</v>
@@ -11359,7 +11359,7 @@
         <v>101</v>
       </c>
       <c r="AE90" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AF90" t="n">
         <v>24</v>
@@ -11531,67 +11531,67 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="H92" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I92" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="J92" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K92" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="L92" t="n">
         <v>1.37</v>
       </c>
       <c r="M92" t="n">
-        <v>2.87</v>
+        <v>2.85</v>
       </c>
       <c r="N92" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="O92" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="P92" t="n">
         <v>1.47</v>
       </c>
       <c r="Q92" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="R92" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="S92" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="T92" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="U92" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="V92" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="W92" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="X92" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Y92" t="n">
         <v>32</v>
       </c>
       <c r="Z92" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AA92" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AB92" t="n">
         <v>16.5</v>
@@ -11615,10 +11615,10 @@
         <v>55</v>
       </c>
       <c r="AI92" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AJ92" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="93">
@@ -11656,40 +11656,40 @@
         <v>4.5</v>
       </c>
       <c r="H93" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="I93" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="J93" t="n">
         <v>1.1</v>
       </c>
       <c r="K93" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="L93" t="n">
         <v>1.47</v>
       </c>
       <c r="M93" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="N93" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="O93" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="P93" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="Q93" t="n">
         <v>2.32</v>
       </c>
       <c r="R93" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="S93" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="T93" t="n">
         <v>9.5</v>
@@ -11707,10 +11707,10 @@
         <v>60</v>
       </c>
       <c r="Y93" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="Z93" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AA93" t="n">
         <v>6.8</v>
@@ -11728,7 +11728,7 @@
         <v>5.2</v>
       </c>
       <c r="AF93" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AG93" t="n">
         <v>9</v>
@@ -11740,7 +11740,7 @@
         <v>17</v>
       </c>
       <c r="AJ93" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="94">
@@ -11778,10 +11778,10 @@
         <v>1.23</v>
       </c>
       <c r="H94" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="I94" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="J94" t="n">
         <v>1.05</v>
@@ -11790,16 +11790,16 @@
         <v>7.8</v>
       </c>
       <c r="L94" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="M94" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="N94" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="O94" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="P94" t="n">
         <v>1.38</v>
@@ -11808,28 +11808,28 @@
         <v>2.82</v>
       </c>
       <c r="R94" t="n">
-        <v>2.65</v>
+        <v>2.6</v>
       </c>
       <c r="S94" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="T94" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="U94" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="V94" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="W94" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="X94" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Y94" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="Z94" t="n">
         <v>7.8</v>
@@ -11853,7 +11853,7 @@
         <v>90</v>
       </c>
       <c r="AG94" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AH94" t="n">
         <v>500</v>
@@ -11897,13 +11897,13 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="H95" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I95" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="J95" t="n">
         <v>1.09</v>
@@ -11936,31 +11936,31 @@
         <v>1.65</v>
       </c>
       <c r="T95" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="U95" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="V95" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="W95" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="X95" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="Y95" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="Z95" t="n">
         <v>6.1</v>
       </c>
       <c r="AA95" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AB95" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AC95" t="n">
         <v>120</v>
@@ -11969,19 +11969,19 @@
         <v>1000</v>
       </c>
       <c r="AE95" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="AF95" t="n">
-        <v>7.5</v>
+        <v>7.9</v>
       </c>
       <c r="AG95" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AH95" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="AI95" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AJ95" t="n">
         <v>37</v>
@@ -12153,82 +12153,82 @@
         <v>1.08</v>
       </c>
       <c r="K97" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="L97" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="M97" t="n">
-        <v>2.72</v>
+        <v>2.85</v>
       </c>
       <c r="N97" t="n">
-        <v>2.18</v>
+        <v>2.1</v>
       </c>
       <c r="O97" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="P97" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="Q97" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="R97" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S97" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="T97" t="n">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="U97" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="V97" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="W97" t="n">
         <v>13.5</v>
       </c>
       <c r="X97" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Y97" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Z97" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AA97" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AB97" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AC97" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AD97" t="n">
         <v>900</v>
       </c>
       <c r="AE97" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AF97" t="n">
         <v>22</v>
       </c>
       <c r="AG97" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AH97" t="n">
         <v>70</v>
       </c>
       <c r="AI97" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AJ97" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="98">
@@ -12281,19 +12281,19 @@
         <v>1.44</v>
       </c>
       <c r="M98" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="N98" t="n">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="O98" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="P98" t="n">
         <v>1.52</v>
       </c>
       <c r="Q98" t="n">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="R98" t="n">
         <v>1.98</v>
@@ -12302,7 +12302,7 @@
         <v>1.75</v>
       </c>
       <c r="T98" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="U98" t="n">
         <v>12</v>
@@ -12317,7 +12317,7 @@
         <v>26</v>
       </c>
       <c r="Y98" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="Z98" t="n">
         <v>6.1</v>
@@ -12326,7 +12326,7 @@
         <v>6.1</v>
       </c>
       <c r="AB98" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AC98" t="n">
         <v>100</v>
@@ -12335,16 +12335,16 @@
         <v>900</v>
       </c>
       <c r="AE98" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AF98" t="n">
         <v>11.5</v>
       </c>
       <c r="AG98" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AH98" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AI98" t="n">
         <v>24</v>
@@ -13727,86 +13727,86 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="H110" t="n">
-        <v>3.35</v>
+        <v>3.6</v>
       </c>
       <c r="I110" t="n">
-        <v>3.35</v>
+        <v>3.65</v>
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="M110" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="N110" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="O110" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="P110" t="inlineStr"/>
       <c r="Q110" t="inlineStr"/>
       <c r="R110" t="n">
-        <v>1.57</v>
+        <v>1.61</v>
       </c>
       <c r="S110" t="n">
-        <v>2.31</v>
+        <v>2.24</v>
       </c>
       <c r="T110" t="n">
         <v>7.3</v>
       </c>
       <c r="U110" t="n">
-        <v>8.75</v>
+        <v>8</v>
       </c>
       <c r="V110" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="W110" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="X110" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y110" t="n">
         <v>17.5</v>
       </c>
       <c r="Z110" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AA110" t="n">
-        <v>6</v>
+        <v>6.3</v>
       </c>
       <c r="AB110" t="n">
-        <v>10.25</v>
+        <v>11</v>
       </c>
       <c r="AC110" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AD110" t="n">
         <v>200</v>
       </c>
       <c r="AE110" t="n">
-        <v>10.75</v>
+        <v>11.25</v>
       </c>
       <c r="AF110" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="AG110" t="n">
-        <v>9.75</v>
+        <v>10.5</v>
       </c>
       <c r="AH110" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AI110" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AJ110" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="111">
@@ -13978,16 +13978,16 @@
         <v>26</v>
       </c>
       <c r="L112" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="M112" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N112" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="O112" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P112" t="n">
         <v>1.18</v>
@@ -14205,12 +14205,12 @@
         <v>3.5</v>
       </c>
       <c r="I114" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="M114" t="n">
         <v>3.2</v>
@@ -14224,34 +14224,34 @@
       <c r="P114" t="inlineStr"/>
       <c r="Q114" t="inlineStr"/>
       <c r="R114" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="S114" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="T114" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="U114" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="V114" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="W114" t="n">
         <v>16.5</v>
       </c>
       <c r="X114" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="Y114" t="n">
         <v>25</v>
       </c>
       <c r="Z114" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AA114" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AB114" t="n">
         <v>14</v>
@@ -14275,7 +14275,7 @@
         <v>50</v>
       </c>
       <c r="AI114" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AJ114" t="n">
         <v>35</v>
@@ -14313,31 +14313,31 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="H115" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="I115" t="n">
-        <v>5.5</v>
+        <v>4.33</v>
       </c>
       <c r="J115" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K115" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L115" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="M115" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="N115" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="O115" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="P115" t="n">
         <v>1.33</v>
@@ -14361,10 +14361,10 @@
         <v>8.5</v>
       </c>
       <c r="W115" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X115" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y115" t="n">
         <v>23</v>
@@ -14373,34 +14373,34 @@
         <v>13</v>
       </c>
       <c r="AA115" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB115" t="n">
         <v>15</v>
       </c>
       <c r="AC115" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD115" t="n">
         <v>201</v>
       </c>
       <c r="AE115" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AF115" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AG115" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH115" t="n">
         <v>51</v>
       </c>
       <c r="AI115" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ115" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="116">
@@ -14435,13 +14435,13 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="H116" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="I116" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="J116" t="n">
         <v>1.05</v>
@@ -14474,19 +14474,19 @@
         <v>2</v>
       </c>
       <c r="T116" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="U116" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="V116" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="W116" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="X116" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Y116" t="n">
         <v>34</v>
@@ -14495,13 +14495,13 @@
         <v>10</v>
       </c>
       <c r="AA116" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB116" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC116" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD116" t="n">
         <v>201</v>
@@ -14557,37 +14557,37 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="H117" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I117" t="n">
         <v>3.5</v>
       </c>
-      <c r="I117" t="n">
-        <v>3.8</v>
-      </c>
       <c r="J117" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K117" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L117" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="M117" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="N117" t="n">
-        <v>1.88</v>
+        <v>2.03</v>
       </c>
       <c r="O117" t="n">
-        <v>1.98</v>
+        <v>1.83</v>
       </c>
       <c r="P117" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="Q117" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="R117" t="n">
         <v>1.75</v>
@@ -14596,46 +14596,46 @@
         <v>2</v>
       </c>
       <c r="T117" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="U117" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="V117" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W117" t="n">
+        <v>19</v>
+      </c>
+      <c r="X117" t="n">
         <v>17</v>
       </c>
-      <c r="X117" t="n">
-        <v>15</v>
-      </c>
       <c r="Y117" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Z117" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA117" t="n">
         <v>6.5</v>
       </c>
       <c r="AB117" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC117" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD117" t="n">
         <v>201</v>
       </c>
       <c r="AE117" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF117" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG117" t="n">
         <v>12</v>
-      </c>
-      <c r="AF117" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG117" t="n">
-        <v>13</v>
       </c>
       <c r="AH117" t="n">
         <v>41</v>
@@ -14816,16 +14816,16 @@
         <v>15</v>
       </c>
       <c r="L119" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="M119" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="N119" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="O119" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="P119" t="n">
         <v>1.33</v>
@@ -15045,19 +15045,19 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="H121" t="n">
         <v>3.6</v>
       </c>
       <c r="I121" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="J121" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K121" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L121" t="n">
         <v>1.14</v>
@@ -15167,13 +15167,13 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="H122" t="n">
         <v>3.2</v>
       </c>
       <c r="I122" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="J122" t="n">
         <v>1.1</v>
@@ -15188,10 +15188,10 @@
         <v>2.5</v>
       </c>
       <c r="N122" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="O122" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P122" t="n">
         <v>1.57</v>
@@ -15212,10 +15212,10 @@
         <v>13</v>
       </c>
       <c r="V122" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="W122" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="X122" t="n">
         <v>29</v>
@@ -15242,7 +15242,7 @@
         <v>6.5</v>
       </c>
       <c r="AF122" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG122" t="n">
         <v>10</v>
@@ -15411,13 +15411,13 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="H124" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="I124" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J124" t="n">
         <v>1.04</v>
@@ -15453,13 +15453,13 @@
         <v>6</v>
       </c>
       <c r="U124" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="V124" t="n">
         <v>10</v>
       </c>
       <c r="W124" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X124" t="n">
         <v>13</v>
@@ -15477,13 +15477,13 @@
         <v>34</v>
       </c>
       <c r="AC124" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AD124" t="n">
         <v>900</v>
       </c>
       <c r="AE124" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF124" t="n">
         <v>51</v>
@@ -15492,13 +15492,13 @@
         <v>34</v>
       </c>
       <c r="AH124" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AI124" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AJ124" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
     </row>
     <row r="125">
@@ -15545,7 +15545,7 @@
         <v>1.04</v>
       </c>
       <c r="K125" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L125" t="n">
         <v>1.22</v>
@@ -15560,10 +15560,10 @@
         <v>2.05</v>
       </c>
       <c r="P125" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q125" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R125" t="n">
         <v>1.73</v>
@@ -15655,13 +15655,13 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="H126" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I126" t="n">
-        <v>2.35</v>
+        <v>2.2</v>
       </c>
       <c r="J126" t="n">
         <v>1.04</v>
@@ -15676,16 +15676,16 @@
         <v>3.5</v>
       </c>
       <c r="N126" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="O126" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="P126" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q126" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R126" t="n">
         <v>1.73</v>
@@ -15694,19 +15694,19 @@
         <v>2</v>
       </c>
       <c r="T126" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="U126" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="V126" t="n">
         <v>10</v>
       </c>
       <c r="W126" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="X126" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y126" t="n">
         <v>29</v>
@@ -15724,25 +15724,25 @@
         <v>51</v>
       </c>
       <c r="AD126" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AE126" t="n">
         <v>8.5</v>
       </c>
       <c r="AF126" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG126" t="n">
         <v>9.5</v>
       </c>
       <c r="AH126" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI126" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ126" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="127">
@@ -15777,13 +15777,13 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>1.57</v>
+        <v>1.7</v>
       </c>
       <c r="H127" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="I127" t="n">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="J127" t="n">
         <v>1.04</v>
@@ -15798,10 +15798,10 @@
         <v>4.33</v>
       </c>
       <c r="N127" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="O127" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="P127" t="n">
         <v>1.33</v>
@@ -15810,58 +15810,58 @@
         <v>3.25</v>
       </c>
       <c r="R127" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="S127" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T127" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U127" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="V127" t="n">
         <v>8.5</v>
       </c>
       <c r="W127" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X127" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y127" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Z127" t="n">
         <v>13</v>
       </c>
       <c r="AA127" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB127" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC127" t="n">
         <v>41</v>
       </c>
       <c r="AD127" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AE127" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF127" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG127" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH127" t="n">
         <v>51</v>
       </c>
       <c r="AI127" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ127" t="n">
         <v>41</v>
@@ -15899,19 +15899,19 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H128" t="n">
         <v>3.2</v>
       </c>
       <c r="I128" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="J128" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K128" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L128" t="n">
         <v>1.36</v>
@@ -15941,7 +15941,7 @@
         <v>6.5</v>
       </c>
       <c r="U128" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="V128" t="n">
         <v>9</v>
@@ -15968,16 +15968,16 @@
         <v>51</v>
       </c>
       <c r="AD128" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AE128" t="n">
         <v>10</v>
       </c>
       <c r="AF128" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG128" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH128" t="n">
         <v>41</v>
@@ -16021,13 +16021,13 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H129" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I129" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="J129" t="n">
         <v>1.04</v>
@@ -16036,79 +16036,79 @@
         <v>13</v>
       </c>
       <c r="L129" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M129" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N129" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="O129" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="P129" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q129" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R129" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S129" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="T129" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="U129" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="V129" t="n">
         <v>11</v>
       </c>
       <c r="W129" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="X129" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y129" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z129" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA129" t="n">
         <v>6.5</v>
       </c>
       <c r="AB129" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC129" t="n">
         <v>41</v>
       </c>
       <c r="AD129" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AE129" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF129" t="n">
         <v>12</v>
       </c>
       <c r="AG129" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AH129" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI129" t="n">
         <v>17</v>
       </c>
       <c r="AJ129" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="130">
@@ -16143,37 +16143,37 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="H130" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="I130" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J130" t="n">
         <v>1.03</v>
       </c>
       <c r="K130" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L130" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="M130" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N130" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="O130" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="P130" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="Q130" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="R130" t="n">
         <v>1.62</v>
@@ -16182,7 +16182,7 @@
         <v>2.2</v>
       </c>
       <c r="T130" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="U130" t="n">
         <v>9</v>
@@ -16200,10 +16200,10 @@
         <v>21</v>
       </c>
       <c r="Z130" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA130" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB130" t="n">
         <v>13</v>
@@ -16218,7 +16218,7 @@
         <v>17</v>
       </c>
       <c r="AF130" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG130" t="n">
         <v>15</v>
@@ -16265,7 +16265,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="H131" t="n">
         <v>3.9</v>
@@ -16408,10 +16408,10 @@
         <v>3.4</v>
       </c>
       <c r="N132" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="O132" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="P132" t="n">
         <v>1.4</v>
@@ -16524,16 +16524,16 @@
         <v>10</v>
       </c>
       <c r="L133" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M133" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N133" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="O133" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="P133" t="n">
         <v>1.44</v>
@@ -16631,13 +16631,13 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="H134" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I134" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J134" t="n">
         <v>1.1</v>
@@ -16652,10 +16652,10 @@
         <v>2.5</v>
       </c>
       <c r="N134" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="O134" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="P134" t="n">
         <v>1.57</v>
@@ -16673,10 +16673,10 @@
         <v>6</v>
       </c>
       <c r="U134" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="V134" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W134" t="n">
         <v>21</v>
@@ -16706,7 +16706,7 @@
         <v>8</v>
       </c>
       <c r="AF134" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG134" t="n">
         <v>13</v>
@@ -16753,31 +16753,31 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H135" t="n">
         <v>3.1</v>
       </c>
       <c r="I135" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="J135" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K135" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L135" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="M135" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N135" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="O135" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="P135" t="n">
         <v>1.5</v>
@@ -16786,22 +16786,22 @@
         <v>2.5</v>
       </c>
       <c r="R135" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S135" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T135" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="U135" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="V135" t="n">
         <v>9</v>
       </c>
       <c r="W135" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="X135" t="n">
         <v>19</v>
@@ -16819,16 +16819,16 @@
         <v>17</v>
       </c>
       <c r="AC135" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD135" t="n">
         <v>401</v>
       </c>
       <c r="AE135" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AF135" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG135" t="n">
         <v>15</v>
@@ -16837,7 +16837,7 @@
         <v>41</v>
       </c>
       <c r="AI135" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ135" t="n">
         <v>41</v>
@@ -16875,31 +16875,31 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>2.88</v>
+        <v>3.2</v>
       </c>
       <c r="H136" t="n">
         <v>3.25</v>
       </c>
       <c r="I136" t="n">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="J136" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K136" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L136" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M136" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N136" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="O136" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="P136" t="n">
         <v>1.4</v>
@@ -16914,19 +16914,19 @@
         <v>2</v>
       </c>
       <c r="T136" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="U136" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="V136" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W136" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="X136" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y136" t="n">
         <v>34</v>
@@ -16941,25 +16941,25 @@
         <v>13</v>
       </c>
       <c r="AC136" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD136" t="n">
         <v>201</v>
       </c>
       <c r="AE136" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AF136" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG136" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH136" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI136" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ136" t="n">
         <v>29</v>
@@ -17241,19 +17241,19 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="H139" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I139" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J139" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K139" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="L139" t="n">
         <v>1.4</v>
@@ -17262,10 +17262,10 @@
         <v>2.75</v>
       </c>
       <c r="N139" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="O139" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="P139" t="n">
         <v>1.5</v>
@@ -17277,7 +17277,7 @@
         <v>2</v>
       </c>
       <c r="S139" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="T139" t="n">
         <v>6</v>
@@ -17286,7 +17286,7 @@
         <v>8.5</v>
       </c>
       <c r="V139" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W139" t="n">
         <v>17</v>
@@ -17298,7 +17298,7 @@
         <v>34</v>
       </c>
       <c r="Z139" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AA139" t="n">
         <v>6.5</v>
@@ -17310,13 +17310,13 @@
         <v>67</v>
       </c>
       <c r="AD139" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AE139" t="n">
         <v>9</v>
       </c>
       <c r="AF139" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AG139" t="n">
         <v>13</v>
@@ -17363,31 +17363,31 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="H140" t="n">
         <v>3.5</v>
       </c>
       <c r="I140" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="J140" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K140" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L140" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="M140" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="N140" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="O140" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="P140" t="n">
         <v>1.4</v>
@@ -17396,22 +17396,22 @@
         <v>2.75</v>
       </c>
       <c r="R140" t="n">
-        <v>1.77</v>
+        <v>1.73</v>
       </c>
       <c r="S140" t="n">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="T140" t="n">
         <v>7.5</v>
       </c>
       <c r="U140" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="V140" t="n">
         <v>8.5</v>
       </c>
       <c r="W140" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="X140" t="n">
         <v>15</v>
@@ -17432,13 +17432,13 @@
         <v>51</v>
       </c>
       <c r="AD140" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AE140" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF140" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG140" t="n">
         <v>13</v>
@@ -17450,7 +17450,7 @@
         <v>29</v>
       </c>
       <c r="AJ140" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="141">
@@ -17518,10 +17518,10 @@
         <v>2.75</v>
       </c>
       <c r="R141" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S141" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T141" t="n">
         <v>7</v>
@@ -17607,7 +17607,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="H142" t="n">
         <v>3.9</v>
@@ -17622,16 +17622,16 @@
         <v>10</v>
       </c>
       <c r="L142" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M142" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N142" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="O142" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="P142" t="n">
         <v>1.44</v>
@@ -17643,7 +17643,7 @@
         <v>2.25</v>
       </c>
       <c r="S142" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="T142" t="n">
         <v>5.5</v>
@@ -17729,19 +17729,19 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>2.2</v>
+        <v>2.35</v>
       </c>
       <c r="H143" t="n">
         <v>3</v>
       </c>
       <c r="I143" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="J143" t="n">
         <v>1.08</v>
       </c>
       <c r="K143" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="L143" t="n">
         <v>1.4</v>
@@ -17771,13 +17771,13 @@
         <v>7</v>
       </c>
       <c r="U143" t="n">
+        <v>11</v>
+      </c>
+      <c r="V143" t="n">
         <v>10</v>
       </c>
-      <c r="V143" t="n">
-        <v>9.5</v>
-      </c>
       <c r="W143" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="X143" t="n">
         <v>21</v>
@@ -17801,13 +17801,13 @@
         <v>351</v>
       </c>
       <c r="AE143" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF143" t="n">
         <v>15</v>
       </c>
       <c r="AG143" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH143" t="n">
         <v>34</v>
@@ -17851,46 +17851,46 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="H144" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I144" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="J144" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K144" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L144" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M144" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N144" t="n">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="O144" t="n">
-        <v>1.98</v>
+        <v>1.85</v>
       </c>
       <c r="P144" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="Q144" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="R144" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="S144" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T144" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="U144" t="n">
         <v>15</v>
@@ -17908,7 +17908,7 @@
         <v>29</v>
       </c>
       <c r="Z144" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA144" t="n">
         <v>6.5</v>
@@ -17923,22 +17923,22 @@
         <v>151</v>
       </c>
       <c r="AE144" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF144" t="n">
         <v>12</v>
       </c>
       <c r="AG144" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH144" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI144" t="n">
         <v>19</v>
       </c>
       <c r="AJ144" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="145">
@@ -17973,13 +17973,13 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="H145" t="n">
         <v>3.25</v>
       </c>
       <c r="I145" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="J145" t="n">
         <v>1.06</v>
@@ -18006,13 +18006,13 @@
         <v>2.63</v>
       </c>
       <c r="R145" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S145" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="T145" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U145" t="n">
         <v>13</v>
@@ -18021,7 +18021,7 @@
         <v>11</v>
       </c>
       <c r="W145" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="X145" t="n">
         <v>23</v>
@@ -18030,7 +18030,7 @@
         <v>34</v>
       </c>
       <c r="Z145" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA145" t="n">
         <v>6.5</v>
@@ -18095,19 +18095,19 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="H146" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I146" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="J146" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="K146" t="n">
-        <v>10.5</v>
+        <v>17</v>
       </c>
       <c r="L146" t="n">
         <v>1.17</v>
@@ -18116,10 +18116,10 @@
         <v>4.5</v>
       </c>
       <c r="N146" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="O146" t="n">
-        <v>2.35</v>
+        <v>2.38</v>
       </c>
       <c r="P146" t="n">
         <v>1.29</v>
@@ -18137,7 +18137,7 @@
         <v>19</v>
       </c>
       <c r="U146" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="V146" t="n">
         <v>17</v>
@@ -18149,13 +18149,13 @@
         <v>41</v>
       </c>
       <c r="Y146" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z146" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA146" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB146" t="n">
         <v>15</v>
@@ -18167,7 +18167,7 @@
         <v>151</v>
       </c>
       <c r="AE146" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF146" t="n">
         <v>9</v>
@@ -18217,37 +18217,37 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H147" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="I147" t="n">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
       <c r="J147" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K147" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="L147" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="M147" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="N147" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="O147" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="P147" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="Q147" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="R147" t="n">
         <v>2.2</v>
@@ -18256,28 +18256,28 @@
         <v>1.62</v>
       </c>
       <c r="T147" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="U147" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="V147" t="n">
         <v>41</v>
       </c>
       <c r="W147" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="X147" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="Y147" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="Z147" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AA147" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB147" t="n">
         <v>29</v>
@@ -18289,22 +18289,22 @@
         <v>501</v>
       </c>
       <c r="AE147" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AF147" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AG147" t="n">
         <v>10</v>
       </c>
       <c r="AH147" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AI147" t="n">
         <v>11</v>
       </c>
       <c r="AJ147" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="148">
@@ -18339,13 +18339,13 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="H148" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I148" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J148" t="n">
         <v>1.05</v>
@@ -18354,28 +18354,28 @@
         <v>11</v>
       </c>
       <c r="L148" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M148" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N148" t="n">
-        <v>1.93</v>
+        <v>1.83</v>
       </c>
       <c r="O148" t="n">
-        <v>1.93</v>
+        <v>2.03</v>
       </c>
       <c r="P148" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q148" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R148" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="S148" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="T148" t="n">
         <v>7</v>
@@ -18396,10 +18396,10 @@
         <v>26</v>
       </c>
       <c r="Z148" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA148" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB148" t="n">
         <v>17</v>
@@ -18411,7 +18411,7 @@
         <v>301</v>
       </c>
       <c r="AE148" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF148" t="n">
         <v>26</v>
@@ -18704,10 +18704,10 @@
         <v>3.35</v>
       </c>
       <c r="H151" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="I151" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="J151" t="n">
         <v>1.09</v>
@@ -18719,7 +18719,7 @@
         <v>1.4</v>
       </c>
       <c r="M151" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="N151" t="n">
         <v>2.18</v>
@@ -18731,43 +18731,43 @@
         <v>1.5</v>
       </c>
       <c r="Q151" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="R151" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="S151" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="T151" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="U151" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="V151" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="W151" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="X151" t="n">
         <v>35</v>
       </c>
       <c r="Y151" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="Z151" t="n">
         <v>6.3</v>
       </c>
       <c r="AA151" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="AB151" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AC151" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AD151" t="n">
         <v>900</v>
@@ -18782,10 +18782,10 @@
         <v>9</v>
       </c>
       <c r="AH151" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AI151" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AJ151" t="n">
         <v>35</v>
@@ -18826,10 +18826,10 @@
         <v>1.85</v>
       </c>
       <c r="H152" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="I152" t="n">
-        <v>4.2</v>
+        <v>4.15</v>
       </c>
       <c r="J152" t="n">
         <v>1.06</v>
@@ -18838,22 +18838,22 @@
         <v>8</v>
       </c>
       <c r="L152" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="M152" t="n">
         <v>3.5</v>
       </c>
       <c r="N152" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="O152" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="P152" t="n">
         <v>1.4</v>
       </c>
       <c r="Q152" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="R152" t="n">
         <v>1.7</v>
@@ -18862,10 +18862,10 @@
         <v>2.05</v>
       </c>
       <c r="T152" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="U152" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="V152" t="n">
         <v>8.5</v>
@@ -18877,7 +18877,7 @@
         <v>15</v>
       </c>
       <c r="Y152" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Z152" t="n">
         <v>8</v>
@@ -18895,19 +18895,19 @@
         <v>500</v>
       </c>
       <c r="AE152" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AF152" t="n">
         <v>26</v>
       </c>
       <c r="AG152" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AH152" t="n">
         <v>75</v>
       </c>
       <c r="AI152" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ152" t="n">
         <v>45</v>
@@ -18945,88 +18945,88 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>2.7</v>
+        <v>2.85</v>
       </c>
       <c r="H153" t="n">
         <v>3.5</v>
       </c>
       <c r="I153" t="n">
-        <v>2.4</v>
+        <v>2.32</v>
       </c>
       <c r="J153" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K153" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="L153" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="M153" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="N153" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="O153" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="P153" t="n">
         <v>1.4</v>
       </c>
       <c r="Q153" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="R153" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="S153" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="T153" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="U153" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="V153" t="n">
+        <v>11</v>
+      </c>
+      <c r="W153" t="n">
+        <v>35</v>
+      </c>
+      <c r="X153" t="n">
+        <v>25</v>
+      </c>
+      <c r="Y153" t="n">
+        <v>35</v>
+      </c>
+      <c r="Z153" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA153" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB153" t="n">
         <v>15</v>
       </c>
-      <c r="V153" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="W153" t="n">
-        <v>32</v>
-      </c>
-      <c r="X153" t="n">
-        <v>23</v>
-      </c>
-      <c r="Y153" t="n">
-        <v>32</v>
-      </c>
-      <c r="Z153" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AA153" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AB153" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AC153" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AD153" t="n">
         <v>500</v>
       </c>
       <c r="AE153" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AF153" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AG153" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AH153" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AI153" t="n">
         <v>20</v>
@@ -19067,70 +19067,70 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>6.6</v>
+        <v>7.2</v>
       </c>
       <c r="H154" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="I154" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="J154" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K154" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="L154" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="M154" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="N154" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="O154" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="P154" t="n">
         <v>1.39</v>
       </c>
       <c r="Q154" t="n">
-        <v>2.77</v>
+        <v>2.8</v>
       </c>
       <c r="R154" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="S154" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="T154" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="U154" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="V154" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="W154" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="X154" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="Y154" t="n">
         <v>90</v>
       </c>
       <c r="Z154" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="AA154" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AB154" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AC154" t="n">
         <v>120</v>
@@ -19142,13 +19142,13 @@
         <v>5.7</v>
       </c>
       <c r="AF154" t="n">
-        <v>6.1</v>
+        <v>5.9</v>
       </c>
       <c r="AG154" t="n">
         <v>8.5</v>
       </c>
       <c r="AH154" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AI154" t="n">
         <v>13</v>
@@ -19189,13 +19189,13 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>2.72</v>
+        <v>2.85</v>
       </c>
       <c r="H155" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="I155" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="J155" t="n">
         <v>1.05</v>
@@ -19222,40 +19222,40 @@
         <v>2.9</v>
       </c>
       <c r="R155" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S155" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="T155" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="U155" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="V155" t="n">
         <v>10.25</v>
       </c>
-      <c r="U155" t="n">
-        <v>15</v>
-      </c>
-      <c r="V155" t="n">
-        <v>10</v>
-      </c>
       <c r="W155" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="X155" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y155" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Z155" t="n">
         <v>8</v>
       </c>
       <c r="AA155" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AB155" t="n">
         <v>12.5</v>
       </c>
       <c r="AC155" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AD155" t="n">
         <v>300</v>
@@ -19264,19 +19264,19 @@
         <v>9.5</v>
       </c>
       <c r="AF155" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG155" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AH155" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AI155" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AJ155" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="156">
@@ -19314,7 +19314,7 @@
         <v>5.6</v>
       </c>
       <c r="H156" t="n">
-        <v>4</v>
+        <v>4.05</v>
       </c>
       <c r="I156" t="n">
         <v>1.53</v>
@@ -19323,34 +19323,34 @@
         <v>1.05</v>
       </c>
       <c r="K156" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="L156" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="M156" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="N156" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="O156" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="P156" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="Q156" t="n">
-        <v>2.85</v>
+        <v>2.9</v>
       </c>
       <c r="R156" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="S156" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="T156" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="U156" t="n">
         <v>35</v>
@@ -19365,16 +19365,16 @@
         <v>55</v>
       </c>
       <c r="Y156" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="Z156" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AA156" t="n">
         <v>7.8</v>
       </c>
       <c r="AB156" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AC156" t="n">
         <v>75</v>
@@ -19383,7 +19383,7 @@
         <v>600</v>
       </c>
       <c r="AE156" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="AF156" t="n">
         <v>7.3</v>
@@ -19433,31 +19433,31 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="H157" t="n">
         <v>3.1</v>
       </c>
       <c r="I157" t="n">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="J157" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K157" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="L157" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="M157" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="N157" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="O157" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="P157" t="n">
         <v>1.53</v>
@@ -19466,31 +19466,31 @@
         <v>2.38</v>
       </c>
       <c r="R157" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="S157" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="T157" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="U157" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="V157" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W157" t="n">
+        <v>34</v>
+      </c>
+      <c r="X157" t="n">
         <v>29</v>
-      </c>
-      <c r="X157" t="n">
-        <v>26</v>
       </c>
       <c r="Y157" t="n">
         <v>41</v>
       </c>
       <c r="Z157" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AA157" t="n">
         <v>6</v>
@@ -19499,25 +19499,25 @@
         <v>17</v>
       </c>
       <c r="AC157" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD157" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="AE157" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AF157" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG157" t="n">
         <v>10</v>
       </c>
       <c r="AH157" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AI157" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ157" t="n">
         <v>34</v>
@@ -19555,10 +19555,10 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H158" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I158" t="n">
         <v>3.7</v>
@@ -19588,10 +19588,10 @@
         <v>2.5</v>
       </c>
       <c r="R158" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="S158" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="T158" t="n">
         <v>6.5</v>
@@ -19600,7 +19600,7 @@
         <v>9</v>
       </c>
       <c r="V158" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W158" t="n">
         <v>19</v>
@@ -19612,7 +19612,7 @@
         <v>34</v>
       </c>
       <c r="Z158" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AA158" t="n">
         <v>6</v>
@@ -19624,10 +19624,10 @@
         <v>51</v>
       </c>
       <c r="AD158" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AE158" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF158" t="n">
         <v>17</v>
@@ -19921,19 +19921,19 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="H161" t="n">
         <v>3.5</v>
       </c>
       <c r="I161" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="J161" t="n">
         <v>1.07</v>
       </c>
       <c r="K161" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L161" t="n">
         <v>1.36</v>
@@ -19942,10 +19942,10 @@
         <v>3</v>
       </c>
       <c r="N161" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O161" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="P161" t="n">
         <v>1.5</v>
@@ -19981,7 +19981,7 @@
         <v>8.5</v>
       </c>
       <c r="AA161" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB161" t="n">
         <v>19</v>
@@ -19993,19 +19993,19 @@
         <v>1000</v>
       </c>
       <c r="AE161" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF161" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG161" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH161" t="n">
         <v>41</v>
       </c>
       <c r="AI161" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ161" t="n">
         <v>41</v>
@@ -20046,49 +20046,49 @@
         <v>1.95</v>
       </c>
       <c r="H162" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I162" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="J162" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K162" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L162" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="M162" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="N162" t="n">
-        <v>2.35</v>
+        <v>2.2</v>
       </c>
       <c r="O162" t="n">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="P162" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Q162" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="R162" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S162" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="T162" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="U162" t="n">
         <v>8.5</v>
       </c>
       <c r="V162" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W162" t="n">
         <v>17</v>
@@ -20100,7 +20100,7 @@
         <v>34</v>
       </c>
       <c r="Z162" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AA162" t="n">
         <v>6.5</v>
@@ -20112,13 +20112,13 @@
         <v>67</v>
       </c>
       <c r="AD162" t="n">
-        <v>800</v>
+        <v>1250</v>
       </c>
       <c r="AE162" t="n">
         <v>9</v>
       </c>
       <c r="AF162" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG162" t="n">
         <v>13</v>
@@ -20165,13 +20165,13 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>2.63</v>
+        <v>2.88</v>
       </c>
       <c r="H163" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I163" t="n">
-        <v>2.8</v>
+        <v>2.55</v>
       </c>
       <c r="J163" t="n">
         <v>1.1</v>
@@ -20180,16 +20180,16 @@
         <v>7</v>
       </c>
       <c r="L163" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M163" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="N163" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="O163" t="n">
         <v>1.5</v>
-      </c>
-      <c r="M163" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="N163" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="O163" t="n">
-        <v>1.48</v>
       </c>
       <c r="P163" t="n">
         <v>1.57</v>
@@ -20204,16 +20204,16 @@
         <v>1.67</v>
       </c>
       <c r="T163" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="U163" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="V163" t="n">
         <v>11</v>
       </c>
       <c r="W163" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="X163" t="n">
         <v>26</v>
@@ -20222,7 +20222,7 @@
         <v>41</v>
       </c>
       <c r="Z163" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AA163" t="n">
         <v>6</v>
@@ -20234,22 +20234,22 @@
         <v>67</v>
       </c>
       <c r="AD163" t="n">
-        <v>101</v>
+        <v>1000</v>
       </c>
       <c r="AE163" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AF163" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG163" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH163" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI163" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AJ163" t="n">
         <v>41</v>
@@ -20287,31 +20287,31 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="H164" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I164" t="n">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="J164" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K164" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L164" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M164" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N164" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="O164" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="P164" t="n">
         <v>1.33</v>
@@ -20320,25 +20320,25 @@
         <v>3.25</v>
       </c>
       <c r="R164" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S164" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="T164" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="U164" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="V164" t="n">
         <v>8.5</v>
       </c>
       <c r="W164" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X164" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y164" t="n">
         <v>23</v>
@@ -20359,13 +20359,13 @@
         <v>151</v>
       </c>
       <c r="AE164" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF164" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG164" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH164" t="n">
         <v>41</v>
@@ -20409,13 +20409,13 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="H165" t="n">
         <v>2.7</v>
       </c>
       <c r="I165" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J165" t="n">
         <v>1.17</v>
@@ -20451,13 +20451,13 @@
         <v>5</v>
       </c>
       <c r="U165" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="V165" t="n">
         <v>12</v>
       </c>
       <c r="W165" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="X165" t="n">
         <v>29</v>
@@ -20531,13 +20531,13 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="H166" t="n">
         <v>3.1</v>
       </c>
       <c r="I166" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="J166" t="n">
         <v>1.08</v>
@@ -20573,19 +20573,19 @@
         <v>7.5</v>
       </c>
       <c r="U166" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V166" t="n">
         <v>11</v>
       </c>
       <c r="W166" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="X166" t="n">
         <v>23</v>
       </c>
       <c r="Y166" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z166" t="n">
         <v>8</v>
@@ -20609,7 +20609,7 @@
         <v>12</v>
       </c>
       <c r="AG166" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH166" t="n">
         <v>26</v>
@@ -20665,7 +20665,7 @@
         <v>1.08</v>
       </c>
       <c r="K167" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="L167" t="n">
         <v>1.44</v>
@@ -20775,13 +20775,13 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="H168" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I168" t="n">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="J168" t="n">
         <v>1.08</v>
@@ -20796,10 +20796,10 @@
         <v>2.63</v>
       </c>
       <c r="N168" t="n">
-        <v>2.38</v>
+        <v>2.35</v>
       </c>
       <c r="O168" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P168" t="n">
         <v>1.53</v>
@@ -20823,7 +20823,7 @@
         <v>9.5</v>
       </c>
       <c r="W168" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X168" t="n">
         <v>17</v>
@@ -20835,7 +20835,7 @@
         <v>7</v>
       </c>
       <c r="AA168" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB168" t="n">
         <v>26</v>
@@ -21454,7 +21454,7 @@
         <v>41</v>
       </c>
       <c r="AD173" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AE173" t="n">
         <v>17</v>
@@ -21507,46 +21507,46 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H174" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="I174" t="n">
         <v>3.6</v>
       </c>
       <c r="J174" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K174" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="L174" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="M174" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="N174" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="O174" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="P174" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Q174" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="R174" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="S174" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="T174" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="U174" t="n">
         <v>9.5</v>
@@ -21558,16 +21558,16 @@
         <v>19</v>
       </c>
       <c r="X174" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y174" t="n">
         <v>34</v>
       </c>
       <c r="Z174" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AA174" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AB174" t="n">
         <v>15</v>
@@ -21579,13 +21579,13 @@
         <v>800</v>
       </c>
       <c r="AE174" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AF174" t="n">
         <v>17</v>
       </c>
       <c r="AG174" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH174" t="n">
         <v>41</v>
@@ -21629,13 +21629,13 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="H175" t="n">
         <v>3.1</v>
       </c>
       <c r="I175" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="J175" t="n">
         <v>1.1</v>
@@ -21644,10 +21644,10 @@
         <v>6.5</v>
       </c>
       <c r="L175" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="M175" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="N175" t="n">
         <v>2.35</v>
@@ -21656,10 +21656,10 @@
         <v>1.57</v>
       </c>
       <c r="P175" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Q175" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="R175" t="n">
         <v>2.25</v>
@@ -21671,7 +21671,7 @@
         <v>5.5</v>
       </c>
       <c r="U175" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="V175" t="n">
         <v>9.5</v>
@@ -21686,7 +21686,7 @@
         <v>41</v>
       </c>
       <c r="Z175" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AA175" t="n">
         <v>6.5</v>
@@ -21704,13 +21704,13 @@
         <v>12</v>
       </c>
       <c r="AF175" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG175" t="n">
         <v>21</v>
       </c>
       <c r="AH175" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI175" t="n">
         <v>51</v>
@@ -21751,19 +21751,19 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="H176" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="I176" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="J176" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="K176" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="L176" t="n">
         <v>1.53</v>
@@ -21784,19 +21784,19 @@
         <v>2.2</v>
       </c>
       <c r="R176" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S176" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="T176" t="n">
         <v>6</v>
       </c>
       <c r="U176" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="V176" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W176" t="n">
         <v>21</v>
@@ -21808,13 +21808,13 @@
         <v>41</v>
       </c>
       <c r="Z176" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AA176" t="n">
         <v>6</v>
       </c>
       <c r="AB176" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC176" t="n">
         <v>81</v>
@@ -21823,16 +21823,16 @@
         <v>900</v>
       </c>
       <c r="AE176" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AF176" t="n">
         <v>15</v>
       </c>
       <c r="AG176" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH176" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI176" t="n">
         <v>34</v>
@@ -21873,37 +21873,37 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="H177" t="n">
         <v>2.9</v>
       </c>
       <c r="I177" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J177" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K177" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="L177" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M177" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N177" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="O177" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="P177" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Q177" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="R177" t="n">
         <v>1.91</v>
@@ -21936,13 +21936,13 @@
         <v>6</v>
       </c>
       <c r="AB177" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC177" t="n">
         <v>51</v>
       </c>
       <c r="AD177" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="AE177" t="n">
         <v>11</v>
@@ -22123,7 +22123,7 @@
         <v>3</v>
       </c>
       <c r="I179" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="J179" t="n">
         <v>1.08</v>
@@ -22159,7 +22159,7 @@
         <v>6.5</v>
       </c>
       <c r="U179" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="V179" t="n">
         <v>9.5</v>
@@ -22308,7 +22308,7 @@
         <v>67</v>
       </c>
       <c r="AD180" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="AE180" t="n">
         <v>12</v>
@@ -22486,28 +22486,28 @@
         <v>1.73</v>
       </c>
       <c r="H182" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I182" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="J182" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K182" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L182" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M182" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N182" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="O182" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="P182" t="n">
         <v>1.44</v>
@@ -22516,13 +22516,13 @@
         <v>2.63</v>
       </c>
       <c r="R182" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S182" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="T182" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="U182" t="n">
         <v>7.5</v>
@@ -22537,28 +22537,28 @@
         <v>15</v>
       </c>
       <c r="Y182" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z182" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA182" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB182" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC182" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD182" t="n">
-        <v>351</v>
+        <v>451</v>
       </c>
       <c r="AE182" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF182" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG182" t="n">
         <v>17</v>
@@ -22570,7 +22570,7 @@
         <v>41</v>
       </c>
       <c r="AJ182" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="183">
@@ -22608,10 +22608,10 @@
         <v>3.4</v>
       </c>
       <c r="H183" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I183" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="J183" t="n">
         <v>1.04</v>
@@ -22620,28 +22620,28 @@
         <v>13</v>
       </c>
       <c r="L183" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M183" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N183" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="O183" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="P183" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Q183" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="R183" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S183" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="T183" t="n">
         <v>12</v>
@@ -22665,7 +22665,7 @@
         <v>13</v>
       </c>
       <c r="AA183" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB183" t="n">
         <v>13</v>
@@ -22677,16 +22677,16 @@
         <v>151</v>
       </c>
       <c r="AE183" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF183" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG183" t="n">
         <v>8.5</v>
       </c>
       <c r="AH183" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI183" t="n">
         <v>15</v>
@@ -22727,46 +22727,46 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="H184" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="I184" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J184" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="K184" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L184" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="M184" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="N184" t="n">
-        <v>2.03</v>
+        <v>2.2</v>
       </c>
       <c r="O184" t="n">
-        <v>1.83</v>
+        <v>1.65</v>
       </c>
       <c r="P184" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="Q184" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="R184" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S184" t="n">
         <v>1.8</v>
       </c>
-      <c r="S184" t="n">
-        <v>1.95</v>
-      </c>
       <c r="T184" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="U184" t="n">
         <v>11</v>
@@ -22775,19 +22775,19 @@
         <v>9.5</v>
       </c>
       <c r="W184" t="n">
+        <v>23</v>
+      </c>
+      <c r="X184" t="n">
         <v>21</v>
       </c>
-      <c r="X184" t="n">
-        <v>19</v>
-      </c>
       <c r="Y184" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z184" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AA184" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB184" t="n">
         <v>15</v>
@@ -22796,10 +22796,10 @@
         <v>51</v>
       </c>
       <c r="AD184" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="AE184" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AF184" t="n">
         <v>15</v>
@@ -22849,19 +22849,19 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="H185" t="n">
         <v>3.4</v>
       </c>
       <c r="I185" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="J185" t="n">
         <v>1.07</v>
       </c>
       <c r="K185" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L185" t="n">
         <v>1.36</v>
@@ -22876,10 +22876,10 @@
         <v>1.67</v>
       </c>
       <c r="P185" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="Q185" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="R185" t="n">
         <v>1.95</v>
@@ -22891,7 +22891,7 @@
         <v>6.5</v>
       </c>
       <c r="U185" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="V185" t="n">
         <v>9</v>
@@ -22921,7 +22921,7 @@
         <v>351</v>
       </c>
       <c r="AE185" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AF185" t="n">
         <v>19</v>
@@ -23013,7 +23013,7 @@
         <v>11</v>
       </c>
       <c r="U186" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="V186" t="n">
         <v>10</v>
@@ -23055,10 +23055,10 @@
         <v>26</v>
       </c>
       <c r="AI186" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ186" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="187">
@@ -23230,13 +23230,13 @@
         <v>11</v>
       </c>
       <c r="L188" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M188" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N188" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="O188" t="n">
         <v>2</v>
@@ -23337,49 +23337,49 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="H189" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="I189" t="n">
         <v>3.15</v>
       </c>
       <c r="J189" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K189" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="L189" t="n">
-        <v>1.18</v>
+        <v>1.16</v>
       </c>
       <c r="M189" t="n">
-        <v>4.25</v>
+        <v>4.55</v>
       </c>
       <c r="N189" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="O189" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="P189" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="Q189" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="R189" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="S189" t="n">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="T189" t="n">
         <v>11.25</v>
       </c>
       <c r="U189" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="V189" t="n">
         <v>8.75</v>
@@ -23391,40 +23391,40 @@
         <v>14.5</v>
       </c>
       <c r="Y189" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="Z189" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AA189" t="n">
-        <v>7.2</v>
+        <v>7.5</v>
       </c>
       <c r="AB189" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AC189" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AD189" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AE189" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF189" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AG189" t="n">
         <v>11</v>
       </c>
       <c r="AH189" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AI189" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AJ189" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="190">
@@ -23459,10 +23459,10 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="H190" t="n">
-        <v>4.45</v>
+        <v>4.5</v>
       </c>
       <c r="I190" t="n">
         <v>1.5</v>
@@ -23477,28 +23477,28 @@
         <v>1.15</v>
       </c>
       <c r="M190" t="n">
-        <v>4.8</v>
+        <v>4.75</v>
       </c>
       <c r="N190" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="O190" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="P190" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="Q190" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="R190" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="S190" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="T190" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U190" t="n">
         <v>37</v>
@@ -23525,13 +23525,13 @@
         <v>14.5</v>
       </c>
       <c r="AC190" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AD190" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AE190" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AF190" t="n">
         <v>9</v>
@@ -23546,7 +23546,7 @@
         <v>10.75</v>
       </c>
       <c r="AJ190" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="191">
@@ -23581,91 +23581,91 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>1.42</v>
+        <v>1.35</v>
       </c>
       <c r="H191" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="I191" t="n">
-        <v>6.4</v>
+        <v>7.6</v>
       </c>
       <c r="J191" t="n">
         <v>1.03</v>
       </c>
       <c r="K191" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="L191" t="n">
-        <v>1.16</v>
+        <v>1.14</v>
       </c>
       <c r="M191" t="n">
-        <v>4.5</v>
+        <v>4.9</v>
       </c>
       <c r="N191" t="n">
-        <v>1.52</v>
+        <v>1.45</v>
       </c>
       <c r="O191" t="n">
-        <v>2.37</v>
+        <v>2.57</v>
       </c>
       <c r="P191" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="Q191" t="n">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="R191" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="S191" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="T191" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="U191" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="V191" t="n">
         <v>8.25</v>
       </c>
       <c r="W191" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X191" t="n">
         <v>10.25</v>
-      </c>
-      <c r="X191" t="n">
-        <v>10.5</v>
       </c>
       <c r="Y191" t="n">
         <v>20</v>
       </c>
       <c r="Z191" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AA191" t="n">
-        <v>9.25</v>
+        <v>10</v>
       </c>
       <c r="AB191" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AC191" t="n">
         <v>55</v>
       </c>
       <c r="AD191" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AE191" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="AF191" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="AG191" t="n">
-        <v>19.5</v>
+        <v>23</v>
       </c>
       <c r="AH191" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="AI191" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AJ191" t="n">
         <v>50</v>
@@ -23703,31 +23703,31 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>8.25</v>
+        <v>7.9</v>
       </c>
       <c r="H192" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="I192" t="n">
         <v>1.3</v>
       </c>
       <c r="J192" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K192" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="L192" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="M192" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="N192" t="n">
         <v>1.42</v>
       </c>
       <c r="O192" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="P192" t="n">
         <v>1.25</v>
@@ -23739,7 +23739,7 @@
         <v>1.75</v>
       </c>
       <c r="S192" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="T192" t="n">
         <v>27</v>
@@ -23751,22 +23751,22 @@
         <v>25</v>
       </c>
       <c r="W192" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="X192" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="Y192" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="Z192" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AA192" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AB192" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AC192" t="n">
         <v>70</v>
@@ -23781,7 +23781,7 @@
         <v>7.7</v>
       </c>
       <c r="AG192" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AH192" t="n">
         <v>8.75</v>
@@ -23825,49 +23825,49 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="H193" t="n">
         <v>3.35</v>
       </c>
       <c r="I193" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="J193" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K193" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="L193" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="M193" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="N193" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="O193" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="P193" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="Q193" t="n">
-        <v>2.67</v>
+        <v>2.77</v>
       </c>
       <c r="R193" t="n">
         <v>1.65</v>
       </c>
       <c r="S193" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="T193" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="U193" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="V193" t="n">
         <v>8.5</v>
@@ -23876,43 +23876,43 @@
         <v>21</v>
       </c>
       <c r="X193" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="Y193" t="n">
         <v>24</v>
       </c>
       <c r="Z193" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="AA193" t="n">
         <v>6.5</v>
       </c>
       <c r="AB193" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC193" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AD193" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="AE193" t="n">
-        <v>10.25</v>
+        <v>10.75</v>
       </c>
       <c r="AF193" t="n">
         <v>17.5</v>
       </c>
       <c r="AG193" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AH193" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AI193" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AJ193" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="194">
@@ -23947,13 +23947,13 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="H194" t="n">
         <v>3.1</v>
       </c>
       <c r="I194" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="J194" t="n">
         <v>1.08</v>
@@ -23962,10 +23962,10 @@
         <v>8</v>
       </c>
       <c r="L194" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="M194" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="N194" t="n">
         <v>2.35</v>
@@ -23974,28 +23974,28 @@
         <v>1.57</v>
       </c>
       <c r="P194" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Q194" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="R194" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="S194" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="T194" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="U194" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V194" t="n">
         <v>10</v>
       </c>
       <c r="W194" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="X194" t="n">
         <v>21</v>
@@ -24004,19 +24004,19 @@
         <v>34</v>
       </c>
       <c r="Z194" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AA194" t="n">
         <v>6</v>
       </c>
       <c r="AB194" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC194" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD194" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AE194" t="n">
         <v>8.5</v>
@@ -24031,7 +24031,7 @@
         <v>34</v>
       </c>
       <c r="AI194" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ194" t="n">
         <v>41</v>
@@ -24069,49 +24069,49 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="H195" t="n">
         <v>3.6</v>
       </c>
       <c r="I195" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="J195" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K195" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L195" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="M195" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="N195" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="O195" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="P195" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q195" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="R195" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S195" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="T195" t="n">
         <v>15</v>
       </c>
       <c r="U195" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="V195" t="n">
         <v>13</v>
@@ -24123,22 +24123,22 @@
         <v>29</v>
       </c>
       <c r="Y195" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z195" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA195" t="n">
         <v>7</v>
       </c>
       <c r="AB195" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC195" t="n">
         <v>41</v>
       </c>
       <c r="AD195" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AE195" t="n">
         <v>9.5</v>
@@ -24191,31 +24191,31 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="H196" t="n">
         <v>5</v>
       </c>
       <c r="I196" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="J196" t="n">
         <v>1.02</v>
       </c>
       <c r="K196" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L196" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="M196" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="N196" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="O196" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="P196" t="n">
         <v>1.25</v>
@@ -24263,13 +24263,13 @@
         <v>151</v>
       </c>
       <c r="AE196" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF196" t="n">
         <v>34</v>
       </c>
       <c r="AG196" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH196" t="n">
         <v>67</v>
@@ -24313,18 +24313,18 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="H197" t="n">
         <v>3</v>
       </c>
       <c r="I197" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="M197" t="n">
         <v>2.4</v>
@@ -24342,37 +24342,37 @@
         <v>2.18</v>
       </c>
       <c r="R197" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S197" t="n">
         <v>1.65</v>
       </c>
       <c r="T197" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="U197" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="V197" t="n">
         <v>9</v>
       </c>
       <c r="W197" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="X197" t="n">
         <v>19.5</v>
       </c>
       <c r="Y197" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Z197" t="n">
         <v>6.8</v>
       </c>
       <c r="AA197" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AB197" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AC197" t="n">
         <v>110</v>
@@ -24381,10 +24381,10 @@
         <v>1000</v>
       </c>
       <c r="AE197" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF197" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AG197" t="n">
         <v>13.5</v>
@@ -24437,7 +24437,7 @@
         <v>5.4</v>
       </c>
       <c r="I198" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
@@ -24454,28 +24454,28 @@
         <v>1.88</v>
       </c>
       <c r="P198" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="Q198" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="R198" t="n">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="S198" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="T198" t="n">
         <v>5.7</v>
       </c>
       <c r="U198" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="V198" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="W198" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="X198" t="n">
         <v>13</v>
@@ -24487,7 +24487,7 @@
         <v>10.75</v>
       </c>
       <c r="AA198" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AB198" t="n">
         <v>40</v>
@@ -24499,16 +24499,16 @@
         <v>101</v>
       </c>
       <c r="AE198" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AF198" t="n">
         <v>100</v>
       </c>
       <c r="AG198" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AH198" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AI198" t="n">
         <v>250</v>
@@ -24549,21 +24549,21 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="H199" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="I199" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="M199" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N199" t="n">
         <v>1.65</v>
@@ -24572,10 +24572,10 @@
         <v>1.98</v>
       </c>
       <c r="P199" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="Q199" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="R199" t="n">
         <v>2.37</v>
@@ -24593,7 +24593,7 @@
         <v>9.75</v>
       </c>
       <c r="W199" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="X199" t="n">
         <v>12</v>
@@ -24605,31 +24605,31 @@
         <v>11.5</v>
       </c>
       <c r="AA199" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AB199" t="n">
         <v>32</v>
       </c>
       <c r="AC199" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AD199" t="n">
         <v>800</v>
       </c>
       <c r="AE199" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AF199" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="AG199" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AH199" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="AI199" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AJ199" t="n">
         <v>175</v>
@@ -24688,10 +24688,10 @@
         <v>2.38</v>
       </c>
       <c r="N200" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="O200" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="P200" t="n">
         <v>1.62</v>
@@ -24911,13 +24911,13 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="H202" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I202" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="J202" t="n">
         <v>1.06</v>
@@ -24983,13 +24983,13 @@
         <v>251</v>
       </c>
       <c r="AE202" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AF202" t="n">
         <v>9</v>
       </c>
       <c r="AG202" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AH202" t="n">
         <v>15</v>
@@ -25054,10 +25054,10 @@
         <v>3.4</v>
       </c>
       <c r="N203" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="O203" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="P203" t="n">
         <v>1.44</v>
@@ -25155,13 +25155,13 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H204" t="n">
         <v>3.6</v>
       </c>
       <c r="I204" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J204" t="n">
         <v>1.04</v>
@@ -25277,19 +25277,19 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H205" t="n">
         <v>3.6</v>
       </c>
       <c r="I205" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="J205" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K205" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L205" t="n">
         <v>1.14</v>
@@ -25298,25 +25298,25 @@
         <v>5.5</v>
       </c>
       <c r="N205" t="n">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="O205" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="P205" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="Q205" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="R205" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="S205" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="T205" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="U205" t="n">
         <v>13</v>
@@ -25331,28 +25331,28 @@
         <v>15</v>
       </c>
       <c r="Y205" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Z205" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA205" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB205" t="n">
         <v>11</v>
       </c>
       <c r="AC205" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AD205" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AE205" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF205" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG205" t="n">
         <v>12</v>
@@ -25361,7 +25361,7 @@
         <v>34</v>
       </c>
       <c r="AI205" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ205" t="n">
         <v>23</v>
@@ -25399,13 +25399,13 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="H206" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="I206" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="J206" t="n">
         <v>1.03</v>
@@ -25420,10 +25420,10 @@
         <v>5</v>
       </c>
       <c r="N206" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="O206" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="P206" t="n">
         <v>1.29</v>
@@ -25432,10 +25432,10 @@
         <v>3.5</v>
       </c>
       <c r="R206" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S206" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T206" t="n">
         <v>8.5</v>
@@ -25447,46 +25447,46 @@
         <v>8.5</v>
       </c>
       <c r="W206" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="X206" t="n">
         <v>11</v>
       </c>
       <c r="Y206" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Z206" t="n">
         <v>15</v>
       </c>
       <c r="AA206" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB206" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC206" t="n">
         <v>51</v>
       </c>
       <c r="AD206" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AE206" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF206" t="n">
         <v>41</v>
       </c>
       <c r="AG206" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AH206" t="n">
         <v>81</v>
       </c>
       <c r="AI206" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AJ206" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="207">
@@ -25560,7 +25560,7 @@
         <v>2.02</v>
       </c>
       <c r="T207" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="U207" t="n">
         <v>8.5</v>
@@ -25587,13 +25587,13 @@
         <v>13.5</v>
       </c>
       <c r="AC207" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AD207" t="n">
         <v>400</v>
       </c>
       <c r="AE207" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AF207" t="n">
         <v>32</v>

--- a/Jogos_da_Semana_FlashScore_2025-04-06.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-06.xlsx
@@ -650,43 +650,43 @@
         <v>3.1</v>
       </c>
       <c r="H2" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I2" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="J2" t="n">
         <v>1.03</v>
       </c>
       <c r="K2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L2" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="M2" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="N2" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="O2" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="R2" t="n">
         <v>1.5</v>
       </c>
-      <c r="O2" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.44</v>
-      </c>
       <c r="S2" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="T2" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="U2" t="n">
         <v>21</v>
@@ -701,13 +701,13 @@
         <v>23</v>
       </c>
       <c r="Y2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA2" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AB2" t="n">
         <v>12</v>
@@ -716,10 +716,10 @@
         <v>34</v>
       </c>
       <c r="AD2" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AE2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF2" t="n">
         <v>15</v>
@@ -734,7 +734,7 @@
         <v>17</v>
       </c>
       <c r="AJ2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3">
@@ -772,7 +772,7 @@
         <v>4.33</v>
       </c>
       <c r="H3" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I3" t="n">
         <v>1.85</v>
@@ -784,16 +784,16 @@
         <v>11</v>
       </c>
       <c r="L3" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M3" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="N3" t="n">
-        <v>1.8</v>
+        <v>1.87</v>
       </c>
       <c r="O3" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="P3" t="n">
         <v>1.36</v>
@@ -802,10 +802,10 @@
         <v>3</v>
       </c>
       <c r="R3" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S3" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="T3" t="n">
         <v>15</v>
@@ -814,34 +814,34 @@
         <v>26</v>
       </c>
       <c r="V3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="W3" t="n">
         <v>51</v>
       </c>
       <c r="X3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Y3" t="n">
         <v>41</v>
       </c>
       <c r="Z3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA3" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB3" t="n">
         <v>15</v>
       </c>
       <c r="AC3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD3" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AE3" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF3" t="n">
         <v>10</v>
@@ -853,7 +853,7 @@
         <v>17</v>
       </c>
       <c r="AI3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ3" t="n">
         <v>26</v>
@@ -891,13 +891,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="I4" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="J4" t="n">
         <v>1.02</v>
@@ -924,13 +924,13 @@
         <v>3.75</v>
       </c>
       <c r="R4" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S4" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="T4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U4" t="n">
         <v>9</v>
@@ -939,7 +939,7 @@
         <v>9.5</v>
       </c>
       <c r="W4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X4" t="n">
         <v>12</v>
@@ -975,7 +975,7 @@
         <v>81</v>
       </c>
       <c r="AI4" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AJ4" t="n">
         <v>41</v>
@@ -1162,16 +1162,16 @@
         <v>2.3</v>
       </c>
       <c r="P6" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="Q6" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="R6" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S6" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="T6" t="n">
         <v>9</v>
@@ -1195,7 +1195,7 @@
         <v>15</v>
       </c>
       <c r="AA6" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB6" t="n">
         <v>13</v>
@@ -1207,7 +1207,7 @@
         <v>151</v>
       </c>
       <c r="AE6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF6" t="n">
         <v>29</v>
@@ -1257,13 +1257,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="H7" t="n">
         <v>3.4</v>
       </c>
       <c r="I7" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="J7" t="n">
         <v>1.05</v>
@@ -1299,7 +1299,7 @@
         <v>9.5</v>
       </c>
       <c r="U7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V7" t="n">
         <v>9.5</v>
@@ -1344,7 +1344,7 @@
         <v>21</v>
       </c>
       <c r="AJ7" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8">
@@ -1534,10 +1534,10 @@
         <v>3.25</v>
       </c>
       <c r="R9" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S9" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="T9" t="n">
         <v>8.5</v>
@@ -1558,7 +1558,7 @@
         <v>23</v>
       </c>
       <c r="Z9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA9" t="n">
         <v>7</v>
@@ -1582,7 +1582,7 @@
         <v>15</v>
       </c>
       <c r="AH9" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI9" t="n">
         <v>34</v>
@@ -1623,79 +1623,79 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="H10" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="I10" t="n">
         <v>4.5</v>
       </c>
       <c r="J10" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K10" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L10" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M10" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N10" t="n">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="O10" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="P10" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q10" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R10" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="S10" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T10" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="U10" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="V10" t="n">
         <v>8.5</v>
       </c>
       <c r="W10" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X10" t="n">
         <v>13</v>
       </c>
       <c r="Y10" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Z10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA10" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB10" t="n">
         <v>15</v>
       </c>
       <c r="AC10" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD10" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AE10" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF10" t="n">
         <v>23</v>
@@ -1710,7 +1710,7 @@
         <v>34</v>
       </c>
       <c r="AJ10" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11">
@@ -1754,28 +1754,28 @@
         <v>3.4</v>
       </c>
       <c r="J11" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K11" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="L11" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="M11" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N11" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="O11" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="P11" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="R11" t="n">
         <v>1.95</v>
@@ -1814,10 +1814,10 @@
         <v>51</v>
       </c>
       <c r="AD11" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AE11" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF11" t="n">
         <v>15</v>
@@ -2111,10 +2111,10 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="H14" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I14" t="n">
         <v>5</v>
@@ -2153,7 +2153,7 @@
         <v>7.5</v>
       </c>
       <c r="U14" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="V14" t="n">
         <v>8.5</v>
@@ -2180,7 +2180,7 @@
         <v>51</v>
       </c>
       <c r="AD14" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AE14" t="n">
         <v>13</v>
@@ -2233,13 +2233,13 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="H15" t="n">
         <v>3.1</v>
       </c>
       <c r="I15" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J15" t="n">
         <v>1.08</v>
@@ -2308,19 +2308,19 @@
         <v>8.5</v>
       </c>
       <c r="AF15" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH15" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI15" t="n">
         <v>26</v>
       </c>
       <c r="AJ15" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16">
@@ -2355,31 +2355,31 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="H16" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I16" t="n">
-        <v>2.35</v>
+        <v>2.45</v>
       </c>
       <c r="J16" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K16" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L16" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M16" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="N16" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="O16" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="P16" t="n">
         <v>1.44</v>
@@ -2388,34 +2388,34 @@
         <v>2.63</v>
       </c>
       <c r="R16" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="S16" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="T16" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="U16" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="V16" t="n">
         <v>11</v>
       </c>
       <c r="W16" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="X16" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y16" t="n">
         <v>34</v>
       </c>
       <c r="Z16" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AA16" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB16" t="n">
         <v>15</v>
@@ -2424,7 +2424,7 @@
         <v>51</v>
       </c>
       <c r="AD16" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AE16" t="n">
         <v>7.5</v>
@@ -2433,16 +2433,16 @@
         <v>11</v>
       </c>
       <c r="AG16" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH16" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI16" t="n">
         <v>21</v>
       </c>
-      <c r="AI16" t="n">
-        <v>19</v>
-      </c>
       <c r="AJ16" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17">
@@ -2614,10 +2614,10 @@
         <v>6</v>
       </c>
       <c r="L18" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="M18" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="N18" t="n">
         <v>2.75</v>
@@ -2736,16 +2736,16 @@
         <v>11</v>
       </c>
       <c r="L19" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M19" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N19" t="n">
-        <v>1.92</v>
+        <v>1.8</v>
       </c>
       <c r="O19" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="P19" t="n">
         <v>1.4</v>
@@ -2843,19 +2843,19 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="H20" t="n">
         <v>3.2</v>
       </c>
       <c r="I20" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="J20" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K20" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="L20" t="n">
         <v>1.5</v>
@@ -2888,10 +2888,10 @@
         <v>11</v>
       </c>
       <c r="V20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W20" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="X20" t="n">
         <v>23</v>
@@ -2900,7 +2900,7 @@
         <v>41</v>
       </c>
       <c r="Z20" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AA20" t="n">
         <v>6</v>
@@ -2909,10 +2909,10 @@
         <v>19</v>
       </c>
       <c r="AC20" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AD20" t="n">
-        <v>101</v>
+        <v>501</v>
       </c>
       <c r="AE20" t="n">
         <v>7</v>
@@ -2980,16 +2980,16 @@
         <v>7</v>
       </c>
       <c r="L21" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="M21" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="N21" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="O21" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P21" t="n">
         <v>1.57</v>
@@ -3087,52 +3087,52 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="H22" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="I22" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="J22" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K22" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L22" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="M22" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="N22" t="n">
-        <v>2.15</v>
+        <v>2.35</v>
       </c>
       <c r="O22" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="P22" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R22" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="S22" t="n">
         <v>1.44</v>
       </c>
-      <c r="Q22" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="R22" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="S22" t="n">
-        <v>1.53</v>
-      </c>
       <c r="T22" t="n">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="U22" t="n">
         <v>5.5</v>
       </c>
       <c r="V22" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W22" t="n">
         <v>9</v>
@@ -3144,16 +3144,16 @@
         <v>41</v>
       </c>
       <c r="Z22" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA22" t="n">
         <v>8</v>
       </c>
-      <c r="AA22" t="n">
-        <v>8.5</v>
-      </c>
       <c r="AB22" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC22" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AD22" t="n">
         <v>501</v>
@@ -3165,16 +3165,16 @@
         <v>41</v>
       </c>
       <c r="AG22" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AH22" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AI22" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AJ22" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23">
@@ -3218,16 +3218,16 @@
         <v>6.25</v>
       </c>
       <c r="J23" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K23" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="L23" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M23" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N23" t="n">
         <v>2.1</v>
@@ -3334,28 +3334,28 @@
         <v>1.67</v>
       </c>
       <c r="H24" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I24" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K24" t="n">
+        <v>11</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M24" t="n">
         <v>3.5</v>
       </c>
-      <c r="I24" t="n">
-        <v>5.75</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="K24" t="n">
-        <v>9</v>
-      </c>
-      <c r="L24" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="M24" t="n">
-        <v>3</v>
-      </c>
       <c r="N24" t="n">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="O24" t="n">
-        <v>1.67</v>
+        <v>1.85</v>
       </c>
       <c r="P24" t="n">
         <v>1.44</v>
@@ -3364,16 +3364,16 @@
         <v>2.63</v>
       </c>
       <c r="R24" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S24" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="T24" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="U24" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="V24" t="n">
         <v>8.5</v>
@@ -3385,31 +3385,31 @@
         <v>15</v>
       </c>
       <c r="Y24" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z24" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="AA24" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB24" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC24" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD24" t="n">
-        <v>451</v>
+        <v>351</v>
       </c>
       <c r="AE24" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF24" t="n">
         <v>26</v>
       </c>
       <c r="AG24" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH24" t="n">
         <v>51</v>
@@ -3418,7 +3418,7 @@
         <v>41</v>
       </c>
       <c r="AJ24" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25">
@@ -3453,19 +3453,19 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="H25" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="I25" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="J25" t="n">
         <v>1.17</v>
       </c>
       <c r="K25" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="L25" t="n">
         <v>1.73</v>
@@ -3492,16 +3492,16 @@
         <v>1.44</v>
       </c>
       <c r="T25" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="U25" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="V25" t="n">
         <v>11</v>
       </c>
       <c r="W25" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="X25" t="n">
         <v>26</v>
@@ -3516,10 +3516,10 @@
         <v>6</v>
       </c>
       <c r="AB25" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC25" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AD25" t="n">
         <v>101</v>
@@ -3528,16 +3528,16 @@
         <v>7.5</v>
       </c>
       <c r="AF25" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AG25" t="n">
         <v>17</v>
       </c>
       <c r="AH25" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI25" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AJ25" t="n">
         <v>67</v>
@@ -3697,13 +3697,13 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="H27" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I27" t="n">
-        <v>4.1</v>
+        <v>4.75</v>
       </c>
       <c r="J27" t="n">
         <v>1.17</v>
@@ -3718,16 +3718,16 @@
         <v>2</v>
       </c>
       <c r="N27" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="O27" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P27" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="R27" t="n">
         <v>2.75</v>
@@ -3736,19 +3736,19 @@
         <v>1.4</v>
       </c>
       <c r="T27" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="U27" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="V27" t="n">
         <v>11</v>
       </c>
       <c r="W27" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="X27" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y27" t="n">
         <v>51</v>
@@ -3757,25 +3757,25 @@
         <v>5</v>
       </c>
       <c r="AA27" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB27" t="n">
         <v>29</v>
       </c>
       <c r="AC27" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AD27" t="n">
         <v>101</v>
       </c>
       <c r="AE27" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AF27" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG27" t="n">
         <v>19</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>17</v>
       </c>
       <c r="AH27" t="n">
         <v>51</v>
@@ -3840,10 +3840,10 @@
         <v>2.25</v>
       </c>
       <c r="N28" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="O28" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P28" t="n">
         <v>1.62</v>
@@ -3950,10 +3950,10 @@
         <v>4.75</v>
       </c>
       <c r="J29" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="K29" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="L29" t="n">
         <v>1.53</v>
@@ -4063,13 +4063,13 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H30" t="n">
         <v>3</v>
       </c>
       <c r="I30" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="J30" t="n">
         <v>1.17</v>
@@ -4096,10 +4096,10 @@
         <v>2.05</v>
       </c>
       <c r="R30" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="S30" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T30" t="n">
         <v>4.75</v>
@@ -4111,10 +4111,10 @@
         <v>11</v>
       </c>
       <c r="W30" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="X30" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y30" t="n">
         <v>51</v>
@@ -4126,7 +4126,7 @@
         <v>6.5</v>
       </c>
       <c r="AB30" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC30" t="n">
         <v>126</v>
@@ -4147,7 +4147,7 @@
         <v>51</v>
       </c>
       <c r="AI30" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AJ30" t="n">
         <v>67</v>
@@ -4185,31 +4185,31 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="H31" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="I31" t="n">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="J31" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K31" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L31" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M31" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N31" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="O31" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="P31" t="n">
         <v>1.33</v>
@@ -4233,19 +4233,19 @@
         <v>8.5</v>
       </c>
       <c r="W31" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="X31" t="n">
         <v>12</v>
       </c>
       <c r="Y31" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z31" t="n">
         <v>13</v>
       </c>
       <c r="AA31" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB31" t="n">
         <v>21</v>
@@ -4254,7 +4254,7 @@
         <v>67</v>
       </c>
       <c r="AD31" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AE31" t="n">
         <v>17</v>
@@ -4313,7 +4313,7 @@
         <v>5</v>
       </c>
       <c r="I32" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="J32" t="n">
         <v>1.02</v>
@@ -4358,7 +4358,7 @@
         <v>81</v>
       </c>
       <c r="X32" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="Y32" t="n">
         <v>41</v>
@@ -4367,7 +4367,7 @@
         <v>19</v>
       </c>
       <c r="AA32" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB32" t="n">
         <v>19</v>
@@ -4382,7 +4382,7 @@
         <v>9</v>
       </c>
       <c r="AF32" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AG32" t="n">
         <v>8.5</v>
@@ -4429,13 +4429,13 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="H33" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I33" t="n">
         <v>3.6</v>
-      </c>
-      <c r="I33" t="n">
-        <v>3.8</v>
       </c>
       <c r="J33" t="n">
         <v>1.03</v>
@@ -4456,10 +4456,10 @@
         <v>2.3</v>
       </c>
       <c r="P33" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="Q33" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="R33" t="n">
         <v>1.53</v>
@@ -4471,16 +4471,16 @@
         <v>10</v>
       </c>
       <c r="U33" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V33" t="n">
         <v>9</v>
       </c>
       <c r="W33" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="X33" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y33" t="n">
         <v>21</v>
@@ -4492,7 +4492,7 @@
         <v>7</v>
       </c>
       <c r="AB33" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC33" t="n">
         <v>34</v>
@@ -4551,46 +4551,46 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.42</v>
+        <v>1.48</v>
       </c>
       <c r="H34" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I34" t="n">
+        <v>6</v>
+      </c>
+      <c r="J34" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K34" t="n">
+        <v>15</v>
+      </c>
+      <c r="L34" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="M34" t="n">
         <v>4.5</v>
       </c>
-      <c r="I34" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="J34" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="K34" t="n">
-        <v>19</v>
-      </c>
-      <c r="L34" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="M34" t="n">
-        <v>5.5</v>
-      </c>
       <c r="N34" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="O34" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="P34" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="Q34" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="R34" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="S34" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T34" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="U34" t="n">
         <v>8</v>
@@ -4608,10 +4608,10 @@
         <v>21</v>
       </c>
       <c r="Z34" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA34" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB34" t="n">
         <v>15</v>
@@ -4623,13 +4623,13 @@
         <v>151</v>
       </c>
       <c r="AE34" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF34" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG34" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH34" t="n">
         <v>67</v>
@@ -4676,85 +4676,85 @@
         <v>1.95</v>
       </c>
       <c r="H35" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="I35" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="J35" t="n">
-        <v>1.1</v>
+        <v>1.14</v>
       </c>
       <c r="K35" t="n">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="L35" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="M35" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="N35" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P35" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R35" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S35" t="n">
         <v>1.5</v>
       </c>
-      <c r="M35" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="N35" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="O35" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P35" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="R35" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S35" t="n">
-        <v>1.67</v>
-      </c>
       <c r="T35" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="U35" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="V35" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W35" t="n">
         <v>17</v>
       </c>
       <c r="X35" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y35" t="n">
         <v>41</v>
       </c>
       <c r="Z35" t="n">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="AA35" t="n">
         <v>6.5</v>
       </c>
       <c r="AB35" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AC35" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AD35" t="n">
         <v>501</v>
       </c>
       <c r="AE35" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF35" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG35" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH35" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI35" t="n">
         <v>41</v>
@@ -4795,13 +4795,13 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="H36" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I36" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="J36" t="n">
         <v>1.08</v>
@@ -4816,10 +4816,10 @@
         <v>3</v>
       </c>
       <c r="N36" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="O36" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="P36" t="n">
         <v>1.5</v>
@@ -4834,16 +4834,16 @@
         <v>1.75</v>
       </c>
       <c r="T36" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="U36" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="V36" t="n">
         <v>9</v>
       </c>
       <c r="W36" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X36" t="n">
         <v>17</v>
@@ -4861,25 +4861,25 @@
         <v>17</v>
       </c>
       <c r="AC36" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD36" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="AE36" t="n">
         <v>10</v>
       </c>
       <c r="AF36" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG36" t="n">
         <v>15</v>
       </c>
       <c r="AH36" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI36" t="n">
         <v>41</v>
-      </c>
-      <c r="AI36" t="n">
-        <v>34</v>
       </c>
       <c r="AJ36" t="n">
         <v>41</v>
@@ -4917,13 +4917,13 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="H37" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I37" t="n">
-        <v>5.25</v>
+        <v>5.75</v>
       </c>
       <c r="J37" t="n">
         <v>1.08</v>
@@ -4938,10 +4938,10 @@
         <v>3</v>
       </c>
       <c r="N37" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O37" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="P37" t="n">
         <v>1.5</v>
@@ -4950,22 +4950,22 @@
         <v>2.5</v>
       </c>
       <c r="R37" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S37" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="T37" t="n">
         <v>6</v>
       </c>
       <c r="U37" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="V37" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W37" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X37" t="n">
         <v>15</v>
@@ -4974,28 +4974,28 @@
         <v>34</v>
       </c>
       <c r="Z37" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AA37" t="n">
         <v>6.5</v>
       </c>
       <c r="AB37" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC37" t="n">
         <v>67</v>
       </c>
       <c r="AD37" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AE37" t="n">
         <v>12</v>
       </c>
       <c r="AF37" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AG37" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH37" t="n">
         <v>51</v>
@@ -5161,13 +5161,13 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="H39" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="I39" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="J39" t="n">
         <v>1.08</v>
@@ -5194,10 +5194,10 @@
         <v>2.5</v>
       </c>
       <c r="R39" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S39" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T39" t="n">
         <v>9.5</v>
@@ -5218,34 +5218,34 @@
         <v>41</v>
       </c>
       <c r="Z39" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AA39" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>351</v>
+      </c>
+      <c r="AE39" t="n">
         <v>6.5</v>
       </c>
-      <c r="AB39" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC39" t="n">
-        <v>67</v>
-      </c>
-      <c r="AD39" t="n">
-        <v>451</v>
-      </c>
-      <c r="AE39" t="n">
-        <v>6</v>
-      </c>
       <c r="AF39" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AG39" t="n">
         <v>9</v>
       </c>
       <c r="AH39" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI39" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ39" t="n">
         <v>34</v>
@@ -5283,19 +5283,19 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="H40" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I40" t="n">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="J40" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K40" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L40" t="n">
         <v>1.4</v>
@@ -5304,16 +5304,16 @@
         <v>3</v>
       </c>
       <c r="N40" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O40" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="P40" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="R40" t="n">
         <v>2</v>
@@ -5322,22 +5322,22 @@
         <v>1.75</v>
       </c>
       <c r="T40" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="U40" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="V40" t="n">
         <v>15</v>
       </c>
       <c r="W40" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="X40" t="n">
         <v>41</v>
       </c>
       <c r="Y40" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="Z40" t="n">
         <v>8</v>
@@ -5346,28 +5346,28 @@
         <v>6.5</v>
       </c>
       <c r="AB40" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC40" t="n">
         <v>67</v>
       </c>
       <c r="AD40" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="AE40" t="n">
         <v>6</v>
       </c>
       <c r="AF40" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AG40" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AH40" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI40" t="n">
         <v>15</v>
-      </c>
-      <c r="AI40" t="n">
-        <v>17</v>
       </c>
       <c r="AJ40" t="n">
         <v>34</v>
@@ -5426,10 +5426,10 @@
         <v>3</v>
       </c>
       <c r="N41" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="O41" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="P41" t="n">
         <v>1.5</v>
@@ -5893,37 +5893,37 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2.1</v>
+        <v>2.38</v>
       </c>
       <c r="H45" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="I45" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="J45" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K45" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="L45" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="M45" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="N45" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="O45" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="P45" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R45" t="n">
         <v>2.2</v>
@@ -5932,25 +5932,25 @@
         <v>1.62</v>
       </c>
       <c r="T45" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="U45" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="V45" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W45" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="X45" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y45" t="n">
         <v>41</v>
       </c>
       <c r="Z45" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AA45" t="n">
         <v>6.5</v>
@@ -5965,16 +5965,16 @@
         <v>1250</v>
       </c>
       <c r="AE45" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AF45" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG45" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH45" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI45" t="n">
         <v>34</v>
@@ -6021,7 +6021,7 @@
         <v>2.63</v>
       </c>
       <c r="I46" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="J46" t="n">
         <v>1.1</v>
@@ -6072,7 +6072,7 @@
         <v>41</v>
       </c>
       <c r="Z46" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AA46" t="n">
         <v>5</v>
@@ -6084,7 +6084,7 @@
         <v>51</v>
       </c>
       <c r="AD46" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AE46" t="n">
         <v>8.5</v>
@@ -6093,13 +6093,13 @@
         <v>13</v>
       </c>
       <c r="AG46" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH46" t="n">
         <v>29</v>
       </c>
       <c r="AI46" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ46" t="n">
         <v>41</v>
@@ -6149,19 +6149,19 @@
         <v>1.07</v>
       </c>
       <c r="K47" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L47" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="M47" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N47" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O47" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="P47" t="n">
         <v>1.44</v>
@@ -6381,13 +6381,13 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2.25</v>
+        <v>2.8</v>
       </c>
       <c r="H49" t="n">
         <v>3.5</v>
       </c>
       <c r="I49" t="n">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="J49" t="n">
         <v>1.03</v>
@@ -6396,79 +6396,79 @@
         <v>15</v>
       </c>
       <c r="L49" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="M49" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="N49" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="O49" t="n">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="P49" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q49" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="R49" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S49" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="T49" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="U49" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="V49" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="W49" t="n">
+        <v>29</v>
+      </c>
+      <c r="X49" t="n">
         <v>21</v>
-      </c>
-      <c r="X49" t="n">
-        <v>17</v>
       </c>
       <c r="Y49" t="n">
         <v>23</v>
       </c>
       <c r="Z49" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>34</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>101</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF49" t="n">
         <v>13</v>
       </c>
-      <c r="AA49" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AB49" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC49" t="n">
-        <v>41</v>
-      </c>
-      <c r="AD49" t="n">
-        <v>126</v>
-      </c>
-      <c r="AE49" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF49" t="n">
+      <c r="AG49" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI49" t="n">
         <v>17</v>
       </c>
-      <c r="AG49" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH49" t="n">
-        <v>34</v>
-      </c>
-      <c r="AI49" t="n">
+      <c r="AJ49" t="n">
         <v>21</v>
-      </c>
-      <c r="AJ49" t="n">
-        <v>26</v>
       </c>
     </row>
     <row r="50">
@@ -6506,91 +6506,91 @@
         <v>1.25</v>
       </c>
       <c r="H50" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="I50" t="n">
+        <v>12</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K50" t="n">
+        <v>15</v>
+      </c>
+      <c r="L50" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="N50" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="O50" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="P50" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="R50" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S50" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="T50" t="n">
+        <v>7</v>
+      </c>
+      <c r="U50" t="n">
         <v>6</v>
       </c>
-      <c r="I50" t="n">
-        <v>11</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="K50" t="n">
-        <v>19</v>
-      </c>
-      <c r="L50" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="M50" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="N50" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="O50" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="P50" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="R50" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="S50" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="T50" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="U50" t="n">
-        <v>7</v>
-      </c>
       <c r="V50" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W50" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X50" t="n">
         <v>11</v>
       </c>
       <c r="Y50" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z50" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AA50" t="n">
         <v>11</v>
       </c>
       <c r="AB50" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC50" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD50" t="n">
-        <v>301</v>
+        <v>451</v>
       </c>
       <c r="AE50" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AF50" t="n">
         <v>51</v>
       </c>
       <c r="AG50" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AH50" t="n">
         <v>151</v>
       </c>
       <c r="AI50" t="n">
+        <v>81</v>
+      </c>
+      <c r="AJ50" t="n">
         <v>67</v>
-      </c>
-      <c r="AJ50" t="n">
-        <v>51</v>
       </c>
     </row>
     <row r="51">
@@ -6625,13 +6625,13 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="H51" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I51" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="J51" t="n">
         <v>1.04</v>
@@ -6673,7 +6673,7 @@
         <v>11</v>
       </c>
       <c r="W51" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="X51" t="n">
         <v>21</v>
@@ -6706,7 +6706,7 @@
         <v>9.5</v>
       </c>
       <c r="AH51" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI51" t="n">
         <v>17</v>
@@ -6747,31 +6747,31 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="H52" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="I52" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="J52" t="n">
         <v>1.02</v>
       </c>
       <c r="K52" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L52" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="M52" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="N52" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="O52" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="P52" t="n">
         <v>1.25</v>
@@ -6795,19 +6795,19 @@
         <v>8.5</v>
       </c>
       <c r="W52" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X52" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y52" t="n">
         <v>19</v>
       </c>
       <c r="Z52" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA52" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB52" t="n">
         <v>12</v>
@@ -6819,19 +6819,19 @@
         <v>101</v>
       </c>
       <c r="AE52" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF52" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AG52" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH52" t="n">
         <v>41</v>
       </c>
       <c r="AI52" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ52" t="n">
         <v>29</v>
@@ -6869,19 +6869,19 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="H53" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I53" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="J53" t="n">
         <v>1.03</v>
       </c>
       <c r="K53" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L53" t="n">
         <v>1.17</v>
@@ -6914,7 +6914,7 @@
         <v>19</v>
       </c>
       <c r="V53" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W53" t="n">
         <v>34</v>
@@ -6923,10 +6923,10 @@
         <v>21</v>
       </c>
       <c r="Y53" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Z53" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA53" t="n">
         <v>7</v>
@@ -6935,25 +6935,25 @@
         <v>11</v>
       </c>
       <c r="AC53" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AD53" t="n">
         <v>101</v>
       </c>
       <c r="AE53" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF53" t="n">
         <v>13</v>
       </c>
       <c r="AG53" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AH53" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI53" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ53" t="n">
         <v>21</v>
@@ -6991,13 +6991,13 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.85</v>
+        <v>1.67</v>
       </c>
       <c r="H54" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="I54" t="n">
-        <v>4.2</v>
+        <v>5.25</v>
       </c>
       <c r="J54" t="n">
         <v>1.05</v>
@@ -7024,25 +7024,25 @@
         <v>2.75</v>
       </c>
       <c r="R54" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="S54" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="T54" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="U54" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="V54" t="n">
         <v>8.5</v>
       </c>
       <c r="W54" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X54" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y54" t="n">
         <v>26</v>
@@ -7051,31 +7051,31 @@
         <v>11</v>
       </c>
       <c r="AA54" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB54" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC54" t="n">
         <v>51</v>
       </c>
       <c r="AD54" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AE54" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF54" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AG54" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AH54" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI54" t="n">
         <v>41</v>
-      </c>
-      <c r="AI54" t="n">
-        <v>34</v>
       </c>
       <c r="AJ54" t="n">
         <v>41</v>
@@ -7235,19 +7235,19 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="H56" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I56" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="J56" t="n">
         <v>1.08</v>
       </c>
       <c r="K56" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="L56" t="n">
         <v>1.4</v>
@@ -7292,13 +7292,13 @@
         <v>41</v>
       </c>
       <c r="Z56" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AA56" t="n">
         <v>6.5</v>
       </c>
       <c r="AB56" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC56" t="n">
         <v>67</v>
@@ -7310,7 +7310,7 @@
         <v>6.5</v>
       </c>
       <c r="AF56" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AG56" t="n">
         <v>9.5</v>
@@ -7357,13 +7357,13 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="H57" t="n">
         <v>3.1</v>
       </c>
       <c r="I57" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="J57" t="n">
         <v>1.08</v>
@@ -7432,7 +7432,7 @@
         <v>7.5</v>
       </c>
       <c r="AF57" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG57" t="n">
         <v>11</v>
@@ -7601,13 +7601,13 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="H59" t="n">
         <v>3.2</v>
       </c>
       <c r="I59" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="J59" t="n">
         <v>1.06</v>
@@ -7673,7 +7673,7 @@
         <v>251</v>
       </c>
       <c r="AE59" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF59" t="n">
         <v>13</v>
@@ -7801,7 +7801,7 @@
         <v>41</v>
       </c>
       <c r="AG60" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AH60" t="n">
         <v>101</v>
@@ -8333,31 +8333,31 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="H65" t="n">
         <v>3.1</v>
       </c>
       <c r="I65" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="J65" t="n">
         <v>1.06</v>
       </c>
       <c r="K65" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="L65" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M65" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N65" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="O65" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="P65" t="n">
         <v>1.4</v>
@@ -8384,10 +8384,10 @@
         <v>21</v>
       </c>
       <c r="X65" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y65" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z65" t="n">
         <v>9.5</v>
@@ -8405,10 +8405,10 @@
         <v>201</v>
       </c>
       <c r="AE65" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF65" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG65" t="n">
         <v>12</v>
@@ -8660,10 +8660,10 @@
         <v>3</v>
       </c>
       <c r="N68" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="O68" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="P68" t="n">
         <v>1.44</v>
@@ -8770,10 +8770,10 @@
         <v>2.3</v>
       </c>
       <c r="J69" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K69" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L69" t="n">
         <v>1.2</v>
@@ -8794,10 +8794,10 @@
         <v>3.25</v>
       </c>
       <c r="R69" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S69" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="T69" t="n">
         <v>12</v>
@@ -8821,13 +8821,13 @@
         <v>13</v>
       </c>
       <c r="AA69" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB69" t="n">
         <v>12</v>
       </c>
       <c r="AC69" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AD69" t="n">
         <v>126</v>
@@ -8916,13 +8916,13 @@
         <v>3.25</v>
       </c>
       <c r="R70" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="S70" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="T70" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="U70" t="n">
         <v>17</v>
@@ -8940,7 +8940,7 @@
         <v>26</v>
       </c>
       <c r="Z70" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA70" t="n">
         <v>6.5</v>
@@ -8952,7 +8952,7 @@
         <v>41</v>
       </c>
       <c r="AD70" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AE70" t="n">
         <v>10</v>
@@ -9005,19 +9005,19 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="H71" t="n">
         <v>3.25</v>
       </c>
       <c r="I71" t="n">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="J71" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K71" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L71" t="n">
         <v>1.29</v>
@@ -9044,19 +9044,19 @@
         <v>2</v>
       </c>
       <c r="T71" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="U71" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="V71" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W71" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X71" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y71" t="n">
         <v>29</v>
@@ -9065,7 +9065,7 @@
         <v>10</v>
       </c>
       <c r="AA71" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB71" t="n">
         <v>13</v>
@@ -9077,22 +9077,22 @@
         <v>201</v>
       </c>
       <c r="AE71" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF71" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG71" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH71" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI71" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ71" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="72">
@@ -9477,27 +9477,27 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="H75" t="n">
-        <v>2.9</v>
+        <v>2.85</v>
       </c>
       <c r="I75" t="n">
-        <v>4.4</v>
+        <v>4.75</v>
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="M75" t="n">
-        <v>2.75</v>
+        <v>2.65</v>
       </c>
       <c r="N75" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="O75" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="P75" t="n">
         <v>1.42</v>
@@ -9506,61 +9506,61 @@
         <v>2.47</v>
       </c>
       <c r="R75" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S75" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T75" t="n">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="U75" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="V75" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="W75" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="X75" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Y75" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Z75" t="n">
-        <v>7.7</v>
+        <v>7.2</v>
       </c>
       <c r="AA75" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="AB75" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AC75" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AD75" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AE75" t="n">
         <v>11.5</v>
       </c>
       <c r="AF75" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG75" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="AH75" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AI75" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AJ75" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="76">
@@ -9595,19 +9595,19 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>2.55</v>
+        <v>2.63</v>
       </c>
       <c r="H76" t="n">
         <v>3.25</v>
       </c>
       <c r="I76" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="J76" t="n">
         <v>1.06</v>
       </c>
       <c r="K76" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="L76" t="n">
         <v>1.3</v>
@@ -9637,7 +9637,7 @@
         <v>8.5</v>
       </c>
       <c r="U76" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V76" t="n">
         <v>10</v>
@@ -9682,7 +9682,7 @@
         <v>21</v>
       </c>
       <c r="AJ76" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="77">
@@ -9717,13 +9717,13 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="H77" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I77" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="J77" t="n">
         <v>1.03</v>
@@ -9750,25 +9750,25 @@
         <v>3.4</v>
       </c>
       <c r="R77" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S77" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="T77" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U77" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="V77" t="n">
         <v>8.5</v>
       </c>
       <c r="W77" t="n">
+        <v>15</v>
+      </c>
+      <c r="X77" t="n">
         <v>13</v>
-      </c>
-      <c r="X77" t="n">
-        <v>12</v>
       </c>
       <c r="Y77" t="n">
         <v>21</v>
@@ -9777,10 +9777,10 @@
         <v>15</v>
       </c>
       <c r="AA77" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB77" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC77" t="n">
         <v>41</v>
@@ -9789,7 +9789,7 @@
         <v>151</v>
       </c>
       <c r="AE77" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF77" t="n">
         <v>26</v>
@@ -9839,19 +9839,19 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="H78" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="I78" t="n">
         <v>8</v>
       </c>
       <c r="J78" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K78" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L78" t="n">
         <v>1.14</v>
@@ -9860,10 +9860,10 @@
         <v>5.5</v>
       </c>
       <c r="N78" t="n">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="O78" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="P78" t="n">
         <v>1.25</v>
@@ -9872,19 +9872,19 @@
         <v>3.75</v>
       </c>
       <c r="R78" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="S78" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="T78" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="U78" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="V78" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W78" t="n">
         <v>9.5</v>
@@ -9893,25 +9893,25 @@
         <v>11</v>
       </c>
       <c r="Y78" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Z78" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA78" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB78" t="n">
         <v>17</v>
       </c>
       <c r="AC78" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD78" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AE78" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AF78" t="n">
         <v>41</v>
@@ -9926,7 +9926,7 @@
         <v>51</v>
       </c>
       <c r="AJ78" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="79">
@@ -10319,10 +10319,10 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>2.6</v>
+        <v>2.65</v>
       </c>
       <c r="H82" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="I82" t="n">
         <v>2.47</v>
@@ -10330,16 +10330,16 @@
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="M82" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="N82" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="O82" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="P82" t="inlineStr"/>
       <c r="Q82" t="inlineStr"/>
@@ -10347,19 +10347,19 @@
         <v>1.57</v>
       </c>
       <c r="S82" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="T82" t="n">
         <v>9.75</v>
       </c>
       <c r="U82" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="V82" t="n">
         <v>9.75</v>
       </c>
       <c r="W82" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="X82" t="n">
         <v>21</v>
@@ -10368,10 +10368,10 @@
         <v>26</v>
       </c>
       <c r="Z82" t="n">
-        <v>11.5</v>
+        <v>10.75</v>
       </c>
       <c r="AA82" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AB82" t="n">
         <v>12</v>
@@ -10380,25 +10380,25 @@
         <v>45</v>
       </c>
       <c r="AD82" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AE82" t="n">
-        <v>10</v>
+        <v>9.25</v>
       </c>
       <c r="AF82" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AG82" t="n">
         <v>9.25</v>
       </c>
       <c r="AH82" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AI82" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AJ82" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="83">
@@ -10433,19 +10433,19 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="H83" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I83" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="J83" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K83" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L83" t="n">
         <v>1.2</v>
@@ -10454,10 +10454,10 @@
         <v>4.33</v>
       </c>
       <c r="N83" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="O83" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="P83" t="n">
         <v>1.33</v>
@@ -10493,7 +10493,7 @@
         <v>13</v>
       </c>
       <c r="AA83" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AB83" t="n">
         <v>17</v>
@@ -10692,16 +10692,16 @@
         <v>9</v>
       </c>
       <c r="L85" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="M85" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N85" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="O85" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="P85" t="n">
         <v>1.5</v>
@@ -10832,10 +10832,10 @@
         <v>2.75</v>
       </c>
       <c r="R86" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S86" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="T86" t="n">
         <v>9.5</v>
@@ -10853,7 +10853,7 @@
         <v>21</v>
       </c>
       <c r="Y86" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z86" t="n">
         <v>11</v>
@@ -10868,7 +10868,7 @@
         <v>41</v>
       </c>
       <c r="AD86" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AE86" t="n">
         <v>9.5</v>
@@ -10927,7 +10927,7 @@
         <v>3.6</v>
       </c>
       <c r="I87" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J87" t="n">
         <v>1.05</v>
@@ -10942,10 +10942,10 @@
         <v>3.5</v>
       </c>
       <c r="N87" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="O87" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="P87" t="n">
         <v>1.4</v>
@@ -10954,22 +10954,22 @@
         <v>2.75</v>
       </c>
       <c r="R87" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="S87" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="T87" t="n">
         <v>7</v>
       </c>
       <c r="U87" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="V87" t="n">
         <v>8.5</v>
       </c>
       <c r="W87" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X87" t="n">
         <v>15</v>
@@ -10978,7 +10978,7 @@
         <v>26</v>
       </c>
       <c r="Z87" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA87" t="n">
         <v>7</v>
@@ -11005,7 +11005,7 @@
         <v>51</v>
       </c>
       <c r="AI87" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ87" t="n">
         <v>41</v>
@@ -11043,94 +11043,94 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.14</v>
+        <v>1.2</v>
       </c>
       <c r="H88" t="n">
-        <v>6.4</v>
+        <v>5.4</v>
       </c>
       <c r="I88" t="n">
-        <v>16</v>
+        <v>12.5</v>
       </c>
       <c r="J88" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K88" t="n">
-        <v>9</v>
+        <v>8.25</v>
       </c>
       <c r="L88" t="n">
-        <v>1.18</v>
+        <v>1.23</v>
       </c>
       <c r="M88" t="n">
-        <v>4.3</v>
+        <v>3.75</v>
       </c>
       <c r="N88" t="n">
-        <v>1.55</v>
+        <v>1.7</v>
       </c>
       <c r="O88" t="n">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="P88" t="n">
-        <v>1.29</v>
+        <v>1.34</v>
       </c>
       <c r="Q88" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="R88" t="n">
-        <v>2.75</v>
+        <v>2.57</v>
       </c>
       <c r="S88" t="n">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="T88" t="n">
-        <v>6.9</v>
+        <v>6.1</v>
       </c>
       <c r="U88" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="V88" t="n">
-        <v>11.5</v>
+        <v>10.25</v>
       </c>
       <c r="W88" t="n">
-        <v>5.7</v>
+        <v>6.2</v>
       </c>
       <c r="X88" t="n">
         <v>12.5</v>
       </c>
       <c r="Y88" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="Z88" t="n">
-        <v>9</v>
+        <v>8.25</v>
       </c>
       <c r="AA88" t="n">
-        <v>15.5</v>
+        <v>12</v>
       </c>
       <c r="AB88" t="n">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="AC88" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AD88" t="n">
         <v>101</v>
       </c>
       <c r="AE88" t="n">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="AF88" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="AG88" t="n">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AH88" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="AI88" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="AJ88" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
     </row>
     <row r="89">
@@ -11165,7 +11165,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="H89" t="n">
         <v>3.25</v>
@@ -11177,13 +11177,13 @@
         <v>1.06</v>
       </c>
       <c r="K89" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="L89" t="n">
         <v>1.3</v>
       </c>
       <c r="M89" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="N89" t="n">
         <v>1.88</v>
@@ -11204,7 +11204,7 @@
         <v>1.98</v>
       </c>
       <c r="T89" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="U89" t="n">
         <v>22</v>
@@ -11216,16 +11216,16 @@
         <v>65</v>
       </c>
       <c r="X89" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Y89" t="n">
         <v>40</v>
       </c>
       <c r="Z89" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="AA89" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AB89" t="n">
         <v>14</v>
@@ -11237,16 +11237,16 @@
         <v>500</v>
       </c>
       <c r="AE89" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="AF89" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AG89" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AH89" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AI89" t="n">
         <v>14.5</v>
@@ -11409,19 +11409,19 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>2.92</v>
+        <v>2.82</v>
       </c>
       <c r="H91" t="n">
         <v>3.05</v>
       </c>
       <c r="I91" t="n">
-        <v>2.32</v>
+        <v>2.4</v>
       </c>
       <c r="J91" t="n">
         <v>1.1</v>
       </c>
       <c r="K91" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="L91" t="n">
         <v>1.5</v>
@@ -11436,7 +11436,7 @@
         <v>1.5</v>
       </c>
       <c r="P91" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="Q91" t="n">
         <v>2.35</v>
@@ -11448,31 +11448,31 @@
         <v>1.65</v>
       </c>
       <c r="T91" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="U91" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="V91" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="W91" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="X91" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Y91" t="n">
         <v>50</v>
       </c>
       <c r="Z91" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="AA91" t="n">
         <v>6.1</v>
       </c>
       <c r="AB91" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AC91" t="n">
         <v>120</v>
@@ -11481,19 +11481,19 @@
         <v>101</v>
       </c>
       <c r="AE91" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="AF91" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AG91" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AH91" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AI91" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AJ91" t="n">
         <v>45</v>
@@ -11531,70 +11531,70 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="H92" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="I92" t="n">
-        <v>3.7</v>
+        <v>4.25</v>
       </c>
       <c r="J92" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K92" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="L92" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="M92" t="n">
-        <v>2.85</v>
+        <v>2.92</v>
       </c>
       <c r="N92" t="n">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="O92" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="P92" t="n">
         <v>1.47</v>
       </c>
       <c r="Q92" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="R92" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="S92" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="T92" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="U92" t="n">
-        <v>8.5</v>
+        <v>7.8</v>
       </c>
       <c r="V92" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="W92" t="n">
-        <v>16.5</v>
+        <v>14</v>
       </c>
       <c r="X92" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y92" t="n">
+        <v>30</v>
+      </c>
+      <c r="Z92" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AA92" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AB92" t="n">
         <v>17</v>
-      </c>
-      <c r="Y92" t="n">
-        <v>32</v>
-      </c>
-      <c r="Z92" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AA92" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AB92" t="n">
-        <v>16.5</v>
       </c>
       <c r="AC92" t="n">
         <v>90</v>
@@ -11603,22 +11603,22 @@
         <v>800</v>
       </c>
       <c r="AE92" t="n">
-        <v>9.75</v>
+        <v>10.75</v>
       </c>
       <c r="AF92" t="n">
-        <v>19.5</v>
+        <v>23</v>
       </c>
       <c r="AG92" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AH92" t="n">
+        <v>70</v>
+      </c>
+      <c r="AI92" t="n">
+        <v>45</v>
+      </c>
+      <c r="AJ92" t="n">
         <v>55</v>
-      </c>
-      <c r="AI92" t="n">
-        <v>37</v>
-      </c>
-      <c r="AJ92" t="n">
-        <v>45</v>
       </c>
     </row>
     <row r="93">
@@ -11653,40 +11653,40 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="H93" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I93" t="n">
         <v>1.75</v>
       </c>
       <c r="J93" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K93" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="L93" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="M93" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="N93" t="n">
-        <v>2.37</v>
+        <v>2.42</v>
       </c>
       <c r="O93" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="P93" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="Q93" t="n">
-        <v>2.32</v>
+        <v>2.27</v>
       </c>
       <c r="R93" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="S93" t="n">
         <v>1.57</v>
@@ -11695,13 +11695,13 @@
         <v>9.5</v>
       </c>
       <c r="U93" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="V93" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="W93" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="X93" t="n">
         <v>60</v>
@@ -11710,10 +11710,10 @@
         <v>80</v>
       </c>
       <c r="Z93" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="AA93" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AB93" t="n">
         <v>22</v>
@@ -11725,7 +11725,7 @@
         <v>101</v>
       </c>
       <c r="AE93" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="AF93" t="n">
         <v>6.8</v>
@@ -11734,10 +11734,10 @@
         <v>9</v>
       </c>
       <c r="AH93" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AI93" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AJ93" t="n">
         <v>45</v>
@@ -11775,37 +11775,37 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="H94" t="n">
-        <v>5</v>
+        <v>4.85</v>
       </c>
       <c r="I94" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="J94" t="n">
         <v>1.05</v>
       </c>
       <c r="K94" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="L94" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="M94" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="N94" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="O94" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="P94" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="Q94" t="n">
-        <v>2.82</v>
+        <v>2.77</v>
       </c>
       <c r="R94" t="n">
         <v>2.6</v>
@@ -11814,31 +11814,31 @@
         <v>1.44</v>
       </c>
       <c r="T94" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="U94" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="V94" t="n">
         <v>9.75</v>
       </c>
       <c r="W94" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="X94" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Y94" t="n">
         <v>45</v>
       </c>
       <c r="Z94" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AA94" t="n">
-        <v>11.25</v>
+        <v>10.75</v>
       </c>
       <c r="AB94" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AC94" t="n">
         <v>250</v>
@@ -11847,19 +11847,19 @@
         <v>101</v>
       </c>
       <c r="AE94" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AF94" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AG94" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AH94" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AI94" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AJ94" t="n">
         <v>200</v>
@@ -11897,19 +11897,19 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>3.8</v>
+        <v>4.05</v>
       </c>
       <c r="H95" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I95" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="J95" t="n">
         <v>1.09</v>
       </c>
       <c r="K95" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="L95" t="n">
         <v>1.44</v>
@@ -11924,7 +11924,7 @@
         <v>1.55</v>
       </c>
       <c r="P95" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="Q95" t="n">
         <v>2.35</v>
@@ -11936,31 +11936,31 @@
         <v>1.65</v>
       </c>
       <c r="T95" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="U95" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="V95" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="W95" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="X95" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="Y95" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="Z95" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="AA95" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AB95" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AC95" t="n">
         <v>120</v>
@@ -11969,19 +11969,19 @@
         <v>1000</v>
       </c>
       <c r="AE95" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="AF95" t="n">
-        <v>7.9</v>
+        <v>7.6</v>
       </c>
       <c r="AG95" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AH95" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI95" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AJ95" t="n">
         <v>37</v>
@@ -12019,19 +12019,19 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="H96" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I96" t="n">
-        <v>3.55</v>
+        <v>3.75</v>
       </c>
       <c r="J96" t="n">
         <v>1.07</v>
       </c>
       <c r="K96" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="L96" t="n">
         <v>1.36</v>
@@ -12049,64 +12049,64 @@
         <v>1.42</v>
       </c>
       <c r="Q96" t="n">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
       <c r="R96" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="S96" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="T96" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="U96" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="V96" t="n">
         <v>8.5</v>
       </c>
-      <c r="V96" t="n">
-        <v>8.75</v>
-      </c>
       <c r="W96" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="X96" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Y96" t="n">
         <v>32</v>
       </c>
       <c r="Z96" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AA96" t="n">
         <v>6.7</v>
       </c>
-      <c r="AA96" t="n">
-        <v>6.6</v>
-      </c>
       <c r="AB96" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AC96" t="n">
         <v>90</v>
       </c>
       <c r="AD96" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="AE96" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AF96" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AG96" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AH96" t="n">
+        <v>55</v>
+      </c>
+      <c r="AI96" t="n">
+        <v>40</v>
+      </c>
+      <c r="AJ96" t="n">
         <v>50</v>
-      </c>
-      <c r="AI96" t="n">
-        <v>37</v>
-      </c>
-      <c r="AJ96" t="n">
-        <v>45</v>
       </c>
     </row>
     <row r="97">
@@ -12141,55 +12141,55 @@
         </is>
       </c>
       <c r="G97" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="H97" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="I97" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="J97" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="K97" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="L97" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M97" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="N97" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="O97" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="P97" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="R97" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S97" t="n">
         <v>1.75</v>
       </c>
-      <c r="H97" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I97" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="K97" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="L97" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="M97" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="N97" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="O97" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="P97" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="Q97" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R97" t="n">
-        <v>2</v>
-      </c>
-      <c r="S97" t="n">
-        <v>1.72</v>
-      </c>
       <c r="T97" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="U97" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="V97" t="n">
         <v>8.5</v>
       </c>
       <c r="W97" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="X97" t="n">
         <v>15.5</v>
@@ -12198,7 +12198,7 @@
         <v>32</v>
       </c>
       <c r="Z97" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AA97" t="n">
         <v>6.8</v>
@@ -12216,13 +12216,13 @@
         <v>10.25</v>
       </c>
       <c r="AF97" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG97" t="n">
         <v>14.5</v>
       </c>
       <c r="AH97" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AI97" t="n">
         <v>45</v>
@@ -12263,19 +12263,19 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>2.62</v>
+        <v>2.72</v>
       </c>
       <c r="H98" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I98" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="J98" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="K98" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="L98" t="n">
         <v>1.44</v>
@@ -12290,46 +12290,46 @@
         <v>1.55</v>
       </c>
       <c r="P98" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="Q98" t="n">
         <v>2.35</v>
       </c>
       <c r="R98" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="S98" t="n">
         <v>1.75</v>
       </c>
       <c r="T98" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="U98" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="V98" t="n">
         <v>10.5</v>
       </c>
       <c r="W98" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="X98" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Y98" t="n">
         <v>45</v>
       </c>
       <c r="Z98" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="AA98" t="n">
-        <v>6.1</v>
+        <v>5.9</v>
       </c>
       <c r="AB98" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AC98" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AD98" t="n">
         <v>900</v>
@@ -12341,7 +12341,7 @@
         <v>11.5</v>
       </c>
       <c r="AG98" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AH98" t="n">
         <v>27</v>
@@ -13741,7 +13741,7 @@
         <v>1.21</v>
       </c>
       <c r="M110" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="N110" t="n">
         <v>1.62</v>
@@ -13752,10 +13752,10 @@
       <c r="P110" t="inlineStr"/>
       <c r="Q110" t="inlineStr"/>
       <c r="R110" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="S110" t="n">
-        <v>2.24</v>
+        <v>2.25</v>
       </c>
       <c r="T110" t="n">
         <v>7.3</v>
@@ -13963,37 +13963,37 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1.2</v>
+        <v>1.14</v>
       </c>
       <c r="H112" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="I112" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="J112" t="n">
         <v>1.01</v>
       </c>
       <c r="K112" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L112" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="M112" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N112" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="O112" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P112" t="n">
-        <v>1.18</v>
+        <v>1.14</v>
       </c>
       <c r="Q112" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="R112" t="n">
         <v>1.75</v>
@@ -14002,13 +14002,13 @@
         <v>2</v>
       </c>
       <c r="T112" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="U112" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="V112" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W112" t="n">
         <v>8.5</v>
@@ -14017,40 +14017,40 @@
         <v>10</v>
       </c>
       <c r="Y112" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Z112" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AA112" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AB112" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC112" t="n">
         <v>51</v>
       </c>
       <c r="AD112" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AE112" t="n">
+        <v>51</v>
+      </c>
+      <c r="AF112" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG112" t="n">
         <v>41</v>
       </c>
-      <c r="AF112" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG112" t="n">
-        <v>34</v>
-      </c>
       <c r="AH112" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AI112" t="n">
+        <v>81</v>
+      </c>
+      <c r="AJ112" t="n">
         <v>67</v>
-      </c>
-      <c r="AJ112" t="n">
-        <v>51</v>
       </c>
     </row>
     <row r="113">
@@ -14205,7 +14205,7 @@
         <v>3.5</v>
       </c>
       <c r="I114" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
@@ -14230,13 +14230,13 @@
         <v>1.93</v>
       </c>
       <c r="T114" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="U114" t="n">
         <v>9.25</v>
       </c>
       <c r="V114" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="W114" t="n">
         <v>16.5</v>
@@ -14248,10 +14248,10 @@
         <v>25</v>
       </c>
       <c r="Z114" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AA114" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AB114" t="n">
         <v>14</v>
@@ -14263,7 +14263,7 @@
         <v>450</v>
       </c>
       <c r="AE114" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AF114" t="n">
         <v>20</v>
@@ -14275,10 +14275,10 @@
         <v>50</v>
       </c>
       <c r="AI114" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AJ114" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="115">
@@ -14313,46 +14313,46 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="H115" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I115" t="n">
         <v>4.33</v>
       </c>
       <c r="J115" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K115" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L115" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M115" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N115" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="O115" t="n">
-        <v>2.08</v>
+        <v>2.03</v>
       </c>
       <c r="P115" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Q115" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="R115" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S115" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T115" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="U115" t="n">
         <v>8.5</v>
@@ -14370,19 +14370,19 @@
         <v>23</v>
       </c>
       <c r="Z115" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA115" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB115" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC115" t="n">
         <v>51</v>
       </c>
       <c r="AD115" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AE115" t="n">
         <v>13</v>
@@ -14400,7 +14400,7 @@
         <v>34</v>
       </c>
       <c r="AJ115" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="116">
@@ -14444,10 +14444,10 @@
         <v>2.1</v>
       </c>
       <c r="J116" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K116" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L116" t="n">
         <v>1.29</v>
@@ -14456,10 +14456,10 @@
         <v>3.5</v>
       </c>
       <c r="N116" t="n">
-        <v>1.98</v>
+        <v>2.03</v>
       </c>
       <c r="O116" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="P116" t="n">
         <v>1.4</v>
@@ -14578,10 +14578,10 @@
         <v>3.4</v>
       </c>
       <c r="N117" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="O117" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="P117" t="n">
         <v>1.4</v>
@@ -14679,13 +14679,13 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="H118" t="n">
         <v>3.5</v>
       </c>
       <c r="I118" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="J118" t="n">
         <v>1.04</v>
@@ -14721,7 +14721,7 @@
         <v>12</v>
       </c>
       <c r="U118" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="V118" t="n">
         <v>12</v>
@@ -14754,7 +14754,7 @@
         <v>9.5</v>
       </c>
       <c r="AF118" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG118" t="n">
         <v>9</v>
@@ -14763,7 +14763,7 @@
         <v>21</v>
       </c>
       <c r="AI118" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ118" t="n">
         <v>23</v>
@@ -14804,7 +14804,7 @@
         <v>2.25</v>
       </c>
       <c r="H119" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I119" t="n">
         <v>3</v>
@@ -14828,25 +14828,25 @@
         <v>2.25</v>
       </c>
       <c r="P119" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q119" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="R119" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S119" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="T119" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="U119" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V119" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W119" t="n">
         <v>21</v>
@@ -14855,25 +14855,25 @@
         <v>17</v>
       </c>
       <c r="Y119" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Z119" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA119" t="n">
         <v>7</v>
       </c>
       <c r="AB119" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC119" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AD119" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AE119" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF119" t="n">
         <v>17</v>
@@ -15045,13 +15045,13 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="H121" t="n">
         <v>3.6</v>
       </c>
       <c r="I121" t="n">
-        <v>2.63</v>
+        <v>2.8</v>
       </c>
       <c r="J121" t="n">
         <v>1.02</v>
@@ -15090,7 +15090,7 @@
         <v>15</v>
       </c>
       <c r="V121" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W121" t="n">
         <v>23</v>
@@ -15414,7 +15414,7 @@
         <v>1.2</v>
       </c>
       <c r="H124" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="I124" t="n">
         <v>13</v>
@@ -15423,7 +15423,7 @@
         <v>1.04</v>
       </c>
       <c r="K124" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L124" t="n">
         <v>1.22</v>
@@ -15432,10 +15432,10 @@
         <v>4</v>
       </c>
       <c r="N124" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="O124" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="P124" t="n">
         <v>1.33</v>
@@ -15450,10 +15450,10 @@
         <v>1.44</v>
       </c>
       <c r="T124" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="U124" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="V124" t="n">
         <v>10</v>
@@ -15468,7 +15468,7 @@
         <v>41</v>
       </c>
       <c r="Z124" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA124" t="n">
         <v>12</v>
@@ -15533,19 +15533,19 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="H125" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I125" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J125" t="n">
         <v>1.04</v>
       </c>
       <c r="K125" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L125" t="n">
         <v>1.22</v>
@@ -15554,10 +15554,10 @@
         <v>4</v>
       </c>
       <c r="N125" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="O125" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="P125" t="n">
         <v>1.33</v>
@@ -15593,7 +15593,7 @@
         <v>12</v>
       </c>
       <c r="AA125" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB125" t="n">
         <v>15</v>
@@ -15611,7 +15611,7 @@
         <v>26</v>
       </c>
       <c r="AG125" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH125" t="n">
         <v>51</v>
@@ -15655,19 +15655,19 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="H126" t="n">
         <v>3.9</v>
       </c>
       <c r="I126" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="J126" t="n">
         <v>1.04</v>
       </c>
       <c r="K126" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L126" t="n">
         <v>1.29</v>
@@ -15676,16 +15676,16 @@
         <v>3.5</v>
       </c>
       <c r="N126" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="O126" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="P126" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="Q126" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="R126" t="n">
         <v>1.73</v>
@@ -15700,10 +15700,10 @@
         <v>15</v>
       </c>
       <c r="V126" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W126" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="X126" t="n">
         <v>23</v>
@@ -15724,19 +15724,19 @@
         <v>51</v>
       </c>
       <c r="AD126" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AE126" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AF126" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG126" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AH126" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI126" t="n">
         <v>17</v>
@@ -15777,13 +15777,13 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="H127" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="I127" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J127" t="n">
         <v>1.04</v>
@@ -15798,10 +15798,10 @@
         <v>4.33</v>
       </c>
       <c r="N127" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="O127" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="P127" t="n">
         <v>1.33</v>
@@ -15819,7 +15819,7 @@
         <v>8.5</v>
       </c>
       <c r="U127" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="V127" t="n">
         <v>8.5</v>
@@ -15837,10 +15837,10 @@
         <v>13</v>
       </c>
       <c r="AA127" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB127" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC127" t="n">
         <v>41</v>
@@ -15849,19 +15849,19 @@
         <v>151</v>
       </c>
       <c r="AE127" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF127" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG127" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH127" t="n">
         <v>51</v>
       </c>
       <c r="AI127" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ127" t="n">
         <v>41</v>
@@ -15899,19 +15899,19 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="H128" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I128" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="J128" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K128" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L128" t="n">
         <v>1.36</v>
@@ -15920,16 +15920,16 @@
         <v>3</v>
       </c>
       <c r="N128" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O128" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="P128" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="Q128" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="R128" t="n">
         <v>1.95</v>
@@ -15941,19 +15941,19 @@
         <v>6.5</v>
       </c>
       <c r="U128" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="V128" t="n">
         <v>9</v>
       </c>
       <c r="W128" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="X128" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y128" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z128" t="n">
         <v>8</v>
@@ -15974,10 +15974,10 @@
         <v>10</v>
       </c>
       <c r="AF128" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG128" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH128" t="n">
         <v>41</v>
@@ -16036,31 +16036,31 @@
         <v>13</v>
       </c>
       <c r="L129" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="M129" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="N129" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="O129" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="P129" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Q129" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="R129" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="S129" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="T129" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="U129" t="n">
         <v>17</v>
@@ -16075,25 +16075,25 @@
         <v>23</v>
       </c>
       <c r="Y129" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z129" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA129" t="n">
         <v>6.5</v>
       </c>
       <c r="AB129" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC129" t="n">
         <v>41</v>
       </c>
       <c r="AD129" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AE129" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AF129" t="n">
         <v>12</v>
@@ -16108,7 +16108,7 @@
         <v>17</v>
       </c>
       <c r="AJ129" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="130">
@@ -16146,7 +16146,7 @@
         <v>1.62</v>
       </c>
       <c r="H130" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I130" t="n">
         <v>5</v>
@@ -16155,37 +16155,37 @@
         <v>1.03</v>
       </c>
       <c r="K130" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L130" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="M130" t="n">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="N130" t="n">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="O130" t="n">
-        <v>2.35</v>
+        <v>2.2</v>
       </c>
       <c r="P130" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="Q130" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="R130" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S130" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="T130" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="U130" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="V130" t="n">
         <v>8.5</v>
@@ -16200,13 +16200,13 @@
         <v>21</v>
       </c>
       <c r="Z130" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA130" t="n">
         <v>8</v>
       </c>
       <c r="AB130" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC130" t="n">
         <v>41</v>
@@ -16230,7 +16230,7 @@
         <v>34</v>
       </c>
       <c r="AJ130" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="131">
@@ -16265,49 +16265,49 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="H131" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="I131" t="n">
         <v>4.75</v>
       </c>
       <c r="J131" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K131" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L131" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="M131" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N131" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="O131" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="P131" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q131" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="R131" t="n">
         <v>1.53</v>
       </c>
-      <c r="O131" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="P131" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="Q131" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="R131" t="n">
-        <v>1.57</v>
-      </c>
       <c r="S131" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="T131" t="n">
+        <v>11</v>
+      </c>
+      <c r="U131" t="n">
         <v>10</v>
-      </c>
-      <c r="U131" t="n">
-        <v>9.5</v>
       </c>
       <c r="V131" t="n">
         <v>8.5</v>
@@ -16316,16 +16316,16 @@
         <v>13</v>
       </c>
       <c r="X131" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y131" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Z131" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA131" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AB131" t="n">
         <v>13</v>
@@ -16337,7 +16337,7 @@
         <v>126</v>
       </c>
       <c r="AE131" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF131" t="n">
         <v>29</v>
@@ -16387,13 +16387,13 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="H132" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I132" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="J132" t="n">
         <v>1.06</v>
@@ -16420,13 +16420,13 @@
         <v>2.75</v>
       </c>
       <c r="R132" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="S132" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="T132" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="U132" t="n">
         <v>10</v>
@@ -16441,16 +16441,16 @@
         <v>17</v>
       </c>
       <c r="Y132" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z132" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA132" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB132" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC132" t="n">
         <v>51</v>
@@ -16462,10 +16462,10 @@
         <v>11</v>
       </c>
       <c r="AF132" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AG132" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH132" t="n">
         <v>41</v>
@@ -16509,37 +16509,37 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="H133" t="n">
         <v>3.4</v>
       </c>
       <c r="I133" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="J133" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K133" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L133" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="M133" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="N133" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="O133" t="n">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="P133" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q133" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R133" t="n">
         <v>1.83</v>
@@ -16560,28 +16560,28 @@
         <v>41</v>
       </c>
       <c r="X133" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Y133" t="n">
         <v>41</v>
       </c>
       <c r="Z133" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA133" t="n">
         <v>6.5</v>
       </c>
       <c r="AB133" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC133" t="n">
         <v>51</v>
       </c>
       <c r="AD133" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AE133" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AF133" t="n">
         <v>9</v>
@@ -16631,13 +16631,13 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H134" t="n">
         <v>3.1</v>
       </c>
       <c r="I134" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J134" t="n">
         <v>1.1</v>
@@ -16673,7 +16673,7 @@
         <v>6</v>
       </c>
       <c r="U134" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="V134" t="n">
         <v>10</v>
@@ -16688,7 +16688,7 @@
         <v>41</v>
       </c>
       <c r="Z134" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AA134" t="n">
         <v>6</v>
@@ -16697,7 +16697,7 @@
         <v>19</v>
       </c>
       <c r="AC134" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD134" t="n">
         <v>501</v>
@@ -16706,7 +16706,7 @@
         <v>8</v>
       </c>
       <c r="AF134" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG134" t="n">
         <v>13</v>
@@ -16756,16 +16756,16 @@
         <v>2.05</v>
       </c>
       <c r="H135" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I135" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="J135" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K135" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L135" t="n">
         <v>1.36</v>
@@ -16774,16 +16774,16 @@
         <v>3</v>
       </c>
       <c r="N135" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O135" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="P135" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Q135" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="R135" t="n">
         <v>1.95</v>
@@ -16801,37 +16801,37 @@
         <v>9</v>
       </c>
       <c r="W135" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="X135" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y135" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z135" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AA135" t="n">
         <v>6</v>
       </c>
       <c r="AB135" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC135" t="n">
         <v>51</v>
       </c>
       <c r="AD135" t="n">
-        <v>401</v>
+        <v>301</v>
       </c>
       <c r="AE135" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF135" t="n">
         <v>19</v>
       </c>
       <c r="AG135" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH135" t="n">
         <v>41</v>
@@ -16875,13 +16875,13 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H136" t="n">
         <v>3.25</v>
       </c>
       <c r="I136" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="J136" t="n">
         <v>1.06</v>
@@ -16917,10 +16917,10 @@
         <v>10</v>
       </c>
       <c r="U136" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="V136" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="W136" t="n">
         <v>34</v>
@@ -16953,7 +16953,7 @@
         <v>11</v>
       </c>
       <c r="AG136" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AH136" t="n">
         <v>21</v>
@@ -16997,19 +16997,19 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H137" t="n">
         <v>3.3</v>
       </c>
       <c r="I137" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J137" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K137" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L137" t="n">
         <v>1.29</v>
@@ -17036,7 +17036,7 @@
         <v>2</v>
       </c>
       <c r="T137" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="U137" t="n">
         <v>11</v>
@@ -17048,13 +17048,13 @@
         <v>21</v>
       </c>
       <c r="X137" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y137" t="n">
         <v>26</v>
       </c>
       <c r="Z137" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA137" t="n">
         <v>6.5</v>
@@ -17072,16 +17072,16 @@
         <v>10</v>
       </c>
       <c r="AF137" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG137" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH137" t="n">
         <v>34</v>
       </c>
       <c r="AI137" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ137" t="n">
         <v>34</v>
@@ -17134,16 +17134,16 @@
         <v>11</v>
       </c>
       <c r="L138" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M138" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N138" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="O138" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="P138" t="n">
         <v>1.4</v>
@@ -17363,13 +17363,13 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="H140" t="n">
         <v>3.5</v>
       </c>
       <c r="I140" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="J140" t="n">
         <v>1.04</v>
@@ -17378,10 +17378,10 @@
         <v>13</v>
       </c>
       <c r="L140" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M140" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N140" t="n">
         <v>1.8</v>
@@ -17390,25 +17390,25 @@
         <v>2</v>
       </c>
       <c r="P140" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q140" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R140" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="S140" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T140" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="U140" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="V140" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W140" t="n">
         <v>17</v>
@@ -17417,37 +17417,37 @@
         <v>15</v>
       </c>
       <c r="Y140" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z140" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA140" t="n">
         <v>7</v>
       </c>
       <c r="AB140" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC140" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD140" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AE140" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF140" t="n">
         <v>19</v>
       </c>
       <c r="AG140" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH140" t="n">
         <v>41</v>
       </c>
       <c r="AI140" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ140" t="n">
         <v>34</v>
@@ -17506,10 +17506,10 @@
         <v>3.4</v>
       </c>
       <c r="N141" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="O141" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="P141" t="n">
         <v>1.4</v>
@@ -17607,19 +17607,19 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>1.48</v>
+        <v>1.57</v>
       </c>
       <c r="H142" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="I142" t="n">
-        <v>6.25</v>
+        <v>5.25</v>
       </c>
       <c r="J142" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K142" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L142" t="n">
         <v>1.33</v>
@@ -17628,10 +17628,10 @@
         <v>3.25</v>
       </c>
       <c r="N142" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="O142" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="P142" t="n">
         <v>1.44</v>
@@ -17640,22 +17640,22 @@
         <v>2.63</v>
       </c>
       <c r="R142" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="S142" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="T142" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="U142" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V142" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W142" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X142" t="n">
         <v>15</v>
@@ -17664,34 +17664,34 @@
         <v>34</v>
       </c>
       <c r="Z142" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AA142" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB142" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC142" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AD142" t="n">
         <v>351</v>
       </c>
       <c r="AE142" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF142" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AG142" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH142" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AI142" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AJ142" t="n">
         <v>51</v>
@@ -17732,40 +17732,40 @@
         <v>2.35</v>
       </c>
       <c r="H143" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I143" t="n">
         <v>3.1</v>
       </c>
       <c r="J143" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K143" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="L143" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="M143" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="N143" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="O143" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="P143" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Q143" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="R143" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="S143" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="T143" t="n">
         <v>7</v>
@@ -17786,13 +17786,13 @@
         <v>34</v>
       </c>
       <c r="Z143" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AA143" t="n">
         <v>6</v>
       </c>
       <c r="AB143" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC143" t="n">
         <v>51</v>
@@ -17801,7 +17801,7 @@
         <v>351</v>
       </c>
       <c r="AE143" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AF143" t="n">
         <v>15</v>
@@ -17851,7 +17851,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="H144" t="n">
         <v>3.25</v>
@@ -17860,10 +17860,10 @@
         <v>2.35</v>
       </c>
       <c r="J144" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="K144" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="L144" t="n">
         <v>1.29</v>
@@ -17890,7 +17890,7 @@
         <v>2</v>
       </c>
       <c r="T144" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="U144" t="n">
         <v>15</v>
@@ -17973,49 +17973,49 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="H145" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="I145" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="J145" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K145" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="L145" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="M145" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="N145" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="O145" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="P145" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q145" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R145" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S145" t="n">
         <v>2</v>
       </c>
-      <c r="O145" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="P145" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Q145" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="R145" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S145" t="n">
-        <v>1.91</v>
-      </c>
       <c r="T145" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="U145" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="V145" t="n">
         <v>11</v>
@@ -18027,37 +18027,37 @@
         <v>23</v>
       </c>
       <c r="Y145" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z145" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA145" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB145" t="n">
         <v>15</v>
       </c>
       <c r="AC145" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD145" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="AE145" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AF145" t="n">
         <v>12</v>
       </c>
       <c r="AG145" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH145" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI145" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ145" t="n">
         <v>29</v>
@@ -18095,25 +18095,25 @@
         </is>
       </c>
       <c r="G146" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="H146" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I146" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="J146" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K146" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="L146" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="M146" t="n">
         <v>5</v>
-      </c>
-      <c r="H146" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="I146" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="J146" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="K146" t="n">
-        <v>17</v>
-      </c>
-      <c r="L146" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="M146" t="n">
-        <v>4.5</v>
       </c>
       <c r="N146" t="n">
         <v>1.53</v>
@@ -18134,13 +18134,13 @@
         <v>2.1</v>
       </c>
       <c r="T146" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="U146" t="n">
         <v>34</v>
       </c>
       <c r="V146" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="W146" t="n">
         <v>51</v>
@@ -18170,13 +18170,13 @@
         <v>9.5</v>
       </c>
       <c r="AF146" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AG146" t="n">
         <v>9</v>
       </c>
-      <c r="AG146" t="n">
-        <v>8.5</v>
-      </c>
       <c r="AH146" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI146" t="n">
         <v>12</v>
@@ -18217,13 +18217,13 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H147" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="I147" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="J147" t="n">
         <v>1.03</v>
@@ -18250,10 +18250,10 @@
         <v>3.75</v>
       </c>
       <c r="R147" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S147" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="T147" t="n">
         <v>34</v>
@@ -18265,13 +18265,13 @@
         <v>41</v>
       </c>
       <c r="W147" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="X147" t="n">
+        <v>126</v>
+      </c>
+      <c r="Y147" t="n">
         <v>101</v>
-      </c>
-      <c r="Y147" t="n">
-        <v>81</v>
       </c>
       <c r="Z147" t="n">
         <v>15</v>
@@ -18298,13 +18298,13 @@
         <v>10</v>
       </c>
       <c r="AH147" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI147" t="n">
         <v>11</v>
       </c>
       <c r="AJ147" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="148">
@@ -18342,16 +18342,16 @@
         <v>1.62</v>
       </c>
       <c r="H148" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I148" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J148" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K148" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L148" t="n">
         <v>1.25</v>
@@ -18360,28 +18360,28 @@
         <v>4</v>
       </c>
       <c r="N148" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="O148" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="P148" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q148" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R148" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="S148" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="T148" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="U148" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="V148" t="n">
         <v>8.5</v>
@@ -18393,10 +18393,10 @@
         <v>13</v>
       </c>
       <c r="Y148" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z148" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA148" t="n">
         <v>8</v>
@@ -18408,7 +18408,7 @@
         <v>51</v>
       </c>
       <c r="AD148" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AE148" t="n">
         <v>13</v>
@@ -18701,13 +18701,13 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="H151" t="n">
         <v>3.15</v>
       </c>
       <c r="I151" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="J151" t="n">
         <v>1.09</v>
@@ -18746,16 +18746,16 @@
         <v>17</v>
       </c>
       <c r="V151" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="W151" t="n">
         <v>50</v>
       </c>
       <c r="X151" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Y151" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="Z151" t="n">
         <v>6.3</v>
@@ -18773,10 +18773,10 @@
         <v>900</v>
       </c>
       <c r="AE151" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AF151" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AG151" t="n">
         <v>9</v>
@@ -18785,7 +18785,7 @@
         <v>19</v>
       </c>
       <c r="AI151" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AJ151" t="n">
         <v>35</v>
@@ -18823,94 +18823,94 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="H152" t="n">
         <v>3.45</v>
       </c>
       <c r="I152" t="n">
-        <v>4.15</v>
+        <v>4.25</v>
       </c>
       <c r="J152" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K152" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="L152" t="n">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="M152" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="N152" t="n">
-        <v>1.82</v>
+        <v>1.91</v>
       </c>
       <c r="O152" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="P152" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="Q152" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="R152" t="n">
-        <v>1.7</v>
+        <v>1.78</v>
       </c>
       <c r="S152" t="n">
-        <v>2.05</v>
+        <v>1.93</v>
       </c>
       <c r="T152" t="n">
-        <v>7.4</v>
+        <v>6.9</v>
       </c>
       <c r="U152" t="n">
-        <v>10</v>
+        <v>9.25</v>
       </c>
       <c r="V152" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="W152" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="X152" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Y152" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Z152" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="AA152" t="n">
         <v>7</v>
       </c>
       <c r="AB152" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="AC152" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="AD152" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="AE152" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AF152" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AG152" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH152" t="n">
         <v>75</v>
       </c>
       <c r="AI152" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ152" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="153">
@@ -19311,55 +19311,55 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="H156" t="n">
-        <v>4.05</v>
+        <v>4.1</v>
       </c>
       <c r="I156" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="J156" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K156" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="L156" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="M156" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="N156" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="O156" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="P156" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="Q156" t="n">
-        <v>2.9</v>
+        <v>2.95</v>
       </c>
       <c r="R156" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="S156" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="T156" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="U156" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="V156" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="W156" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="X156" t="n">
         <v>55</v>
@@ -19368,25 +19368,25 @@
         <v>50</v>
       </c>
       <c r="Z156" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AA156" t="n">
         <v>8</v>
       </c>
-      <c r="AA156" t="n">
-        <v>7.8</v>
-      </c>
       <c r="AB156" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AC156" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AD156" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AE156" t="n">
-        <v>7.1</v>
+        <v>7.4</v>
       </c>
       <c r="AF156" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AG156" t="n">
         <v>8</v>
@@ -19395,10 +19395,10 @@
         <v>10.75</v>
       </c>
       <c r="AI156" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AJ156" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="157">
@@ -20165,7 +20165,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="H163" t="n">
         <v>3.1</v>
@@ -20180,10 +20180,10 @@
         <v>7</v>
       </c>
       <c r="L163" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="M163" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="N163" t="n">
         <v>2.5</v>
@@ -20192,19 +20192,19 @@
         <v>1.5</v>
       </c>
       <c r="P163" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="Q163" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="R163" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S163" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="T163" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="U163" t="n">
         <v>13</v>
@@ -20228,7 +20228,7 @@
         <v>6</v>
       </c>
       <c r="AB163" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC163" t="n">
         <v>67</v>
@@ -20237,7 +20237,7 @@
         <v>1000</v>
       </c>
       <c r="AE163" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AF163" t="n">
         <v>11</v>
@@ -20287,13 +20287,13 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H164" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I164" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="J164" t="n">
         <v>1.03</v>
@@ -20302,16 +20302,16 @@
         <v>15</v>
       </c>
       <c r="L164" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="M164" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="N164" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="O164" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="P164" t="n">
         <v>1.33</v>
@@ -20320,13 +20320,13 @@
         <v>3.25</v>
       </c>
       <c r="R164" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S164" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="T164" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U164" t="n">
         <v>9.5</v>
@@ -20341,7 +20341,7 @@
         <v>13</v>
       </c>
       <c r="Y164" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Z164" t="n">
         <v>13</v>
@@ -20371,7 +20371,7 @@
         <v>41</v>
       </c>
       <c r="AI164" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ164" t="n">
         <v>34</v>
@@ -20531,13 +20531,13 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="H166" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I166" t="n">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="J166" t="n">
         <v>1.08</v>
@@ -20546,16 +20546,16 @@
         <v>8</v>
       </c>
       <c r="L166" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="M166" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N166" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="O166" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="P166" t="n">
         <v>1.5</v>
@@ -20570,7 +20570,7 @@
         <v>1.8</v>
       </c>
       <c r="T166" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="U166" t="n">
         <v>13</v>
@@ -20582,10 +20582,10 @@
         <v>29</v>
       </c>
       <c r="X166" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y166" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Z166" t="n">
         <v>8</v>
@@ -20594,7 +20594,7 @@
         <v>6</v>
       </c>
       <c r="AB166" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC166" t="n">
         <v>51</v>
@@ -20606,16 +20606,16 @@
         <v>7.5</v>
       </c>
       <c r="AF166" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG166" t="n">
         <v>10</v>
       </c>
       <c r="AH166" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI166" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ166" t="n">
         <v>34</v>
@@ -20796,10 +20796,10 @@
         <v>2.63</v>
       </c>
       <c r="N168" t="n">
-        <v>2.35</v>
+        <v>2.38</v>
       </c>
       <c r="O168" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="P168" t="n">
         <v>1.53</v>
@@ -20897,13 +20897,13 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="H169" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I169" t="n">
-        <v>5.75</v>
+        <v>5.25</v>
       </c>
       <c r="J169" t="n">
         <v>1.07</v>
@@ -20930,10 +20930,10 @@
         <v>2.63</v>
       </c>
       <c r="R169" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S169" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="T169" t="n">
         <v>6</v>
@@ -20945,7 +20945,7 @@
         <v>9</v>
       </c>
       <c r="W169" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X169" t="n">
         <v>15</v>
@@ -20960,7 +20960,7 @@
         <v>7</v>
       </c>
       <c r="AB169" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC169" t="n">
         <v>67</v>
@@ -21144,43 +21144,43 @@
         <v>2.5</v>
       </c>
       <c r="H171" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="I171" t="n">
         <v>2.9</v>
       </c>
       <c r="J171" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="K171" t="n">
+        <v>7</v>
+      </c>
+      <c r="L171" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M171" t="n">
+        <v>3</v>
+      </c>
+      <c r="N171" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="O171" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="P171" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q171" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R171" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S171" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="T171" t="n">
         <v>8</v>
-      </c>
-      <c r="L171" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="M171" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="N171" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="O171" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="P171" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Q171" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="R171" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S171" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="T171" t="n">
-        <v>8.5</v>
       </c>
       <c r="U171" t="n">
         <v>12</v>
@@ -21192,19 +21192,19 @@
         <v>23</v>
       </c>
       <c r="X171" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y171" t="n">
         <v>34</v>
       </c>
       <c r="Z171" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AA171" t="n">
         <v>5.5</v>
       </c>
       <c r="AB171" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC171" t="n">
         <v>51</v>
@@ -21213,7 +21213,7 @@
         <v>151</v>
       </c>
       <c r="AE171" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AF171" t="n">
         <v>15</v>
@@ -21228,7 +21228,7 @@
         <v>26</v>
       </c>
       <c r="AJ171" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="172">
@@ -21263,13 +21263,13 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="H172" t="n">
         <v>2.88</v>
       </c>
       <c r="I172" t="n">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="J172" t="n">
         <v>1.1</v>
@@ -21311,10 +21311,10 @@
         <v>11</v>
       </c>
       <c r="W172" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="X172" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y172" t="n">
         <v>41</v>
@@ -21335,7 +21335,7 @@
         <v>800</v>
       </c>
       <c r="AE172" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AF172" t="n">
         <v>13</v>
@@ -21385,46 +21385,46 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="H173" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I173" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="J173" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K173" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="L173" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="M173" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="N173" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="O173" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="P173" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="Q173" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="R173" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S173" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="T173" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="U173" t="n">
         <v>8</v>
@@ -21436,34 +21436,34 @@
         <v>12</v>
       </c>
       <c r="X173" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y173" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z173" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AA173" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB173" t="n">
         <v>15</v>
       </c>
       <c r="AC173" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD173" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AE173" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF173" t="n">
         <v>29</v>
       </c>
       <c r="AG173" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH173" t="n">
         <v>51</v>
@@ -21507,13 +21507,13 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="H174" t="n">
         <v>2.75</v>
       </c>
       <c r="I174" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="J174" t="n">
         <v>1.1</v>
@@ -21549,7 +21549,7 @@
         <v>6.5</v>
       </c>
       <c r="U174" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="V174" t="n">
         <v>10</v>
@@ -21567,22 +21567,22 @@
         <v>6.5</v>
       </c>
       <c r="AA174" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AB174" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC174" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD174" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="AE174" t="n">
         <v>9.5</v>
       </c>
       <c r="AF174" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG174" t="n">
         <v>15</v>
@@ -21629,13 +21629,13 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="H175" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I175" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="J175" t="n">
         <v>1.1</v>
@@ -21650,10 +21650,10 @@
         <v>2.63</v>
       </c>
       <c r="N175" t="n">
-        <v>2.35</v>
+        <v>2.38</v>
       </c>
       <c r="O175" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="P175" t="n">
         <v>1.53</v>
@@ -21751,13 +21751,13 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="H176" t="n">
         <v>2.75</v>
       </c>
       <c r="I176" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="J176" t="n">
         <v>1.13</v>
@@ -21766,16 +21766,16 @@
         <v>5.5</v>
       </c>
       <c r="L176" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="M176" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="N176" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="O176" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P176" t="n">
         <v>1.62</v>
@@ -21784,16 +21784,16 @@
         <v>2.2</v>
       </c>
       <c r="R176" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="S176" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="T176" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="U176" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="V176" t="n">
         <v>11</v>
@@ -21829,13 +21829,13 @@
         <v>15</v>
       </c>
       <c r="AG176" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH176" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI176" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ176" t="n">
         <v>51</v>
@@ -21942,7 +21942,7 @@
         <v>51</v>
       </c>
       <c r="AD177" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="AE177" t="n">
         <v>11</v>
@@ -22117,19 +22117,19 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="H179" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I179" t="n">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="J179" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K179" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="L179" t="n">
         <v>1.36</v>
@@ -22138,10 +22138,10 @@
         <v>3</v>
       </c>
       <c r="N179" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="O179" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="P179" t="n">
         <v>1.5</v>
@@ -22159,16 +22159,16 @@
         <v>6.5</v>
       </c>
       <c r="U179" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="V179" t="n">
         <v>9.5</v>
       </c>
       <c r="W179" t="n">
+        <v>15</v>
+      </c>
+      <c r="X179" t="n">
         <v>17</v>
-      </c>
-      <c r="X179" t="n">
-        <v>19</v>
       </c>
       <c r="Y179" t="n">
         <v>34</v>
@@ -22177,7 +22177,7 @@
         <v>7.5</v>
       </c>
       <c r="AA179" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB179" t="n">
         <v>17</v>
@@ -22186,13 +22186,13 @@
         <v>51</v>
       </c>
       <c r="AD179" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="AE179" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF179" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG179" t="n">
         <v>15</v>
@@ -22201,7 +22201,7 @@
         <v>41</v>
       </c>
       <c r="AI179" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ179" t="n">
         <v>41</v>
@@ -22308,7 +22308,7 @@
         <v>67</v>
       </c>
       <c r="AD180" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="AE180" t="n">
         <v>12</v>
@@ -22361,64 +22361,64 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>2.2</v>
+        <v>2.35</v>
       </c>
       <c r="H181" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="I181" t="n">
         <v>3</v>
       </c>
-      <c r="I181" t="n">
-        <v>3.1</v>
-      </c>
       <c r="J181" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K181" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="L181" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="M181" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N181" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="O181" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="P181" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="Q181" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="R181" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="S181" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T181" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="U181" t="n">
         <v>11</v>
       </c>
       <c r="V181" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W181" t="n">
+        <v>23</v>
+      </c>
+      <c r="X181" t="n">
         <v>21</v>
       </c>
-      <c r="X181" t="n">
-        <v>19</v>
-      </c>
       <c r="Y181" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z181" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="AA181" t="n">
         <v>6</v>
@@ -22430,10 +22430,10 @@
         <v>51</v>
       </c>
       <c r="AD181" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AE181" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AF181" t="n">
         <v>15</v>
@@ -22442,10 +22442,10 @@
         <v>12</v>
       </c>
       <c r="AH181" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI181" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ181" t="n">
         <v>41</v>
@@ -22483,19 +22483,19 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="H182" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I182" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J182" t="n">
         <v>1.07</v>
       </c>
       <c r="K182" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="L182" t="n">
         <v>1.36</v>
@@ -22516,10 +22516,10 @@
         <v>2.63</v>
       </c>
       <c r="R182" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S182" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="T182" t="n">
         <v>6</v>
@@ -22561,7 +22561,7 @@
         <v>23</v>
       </c>
       <c r="AG182" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH182" t="n">
         <v>51</v>
@@ -22570,7 +22570,7 @@
         <v>41</v>
       </c>
       <c r="AJ182" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="183">
@@ -22605,49 +22605,49 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="H183" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="I183" t="n">
         <v>2</v>
       </c>
       <c r="J183" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K183" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L183" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="M183" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="N183" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="O183" t="n">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="P183" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="Q183" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="R183" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="S183" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="T183" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="U183" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="V183" t="n">
         <v>12</v>
@@ -22656,43 +22656,43 @@
         <v>41</v>
       </c>
       <c r="X183" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Y183" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z183" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AA183" t="n">
         <v>7</v>
       </c>
       <c r="AB183" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC183" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD183" t="n">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="AE183" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AF183" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AG183" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AH183" t="n">
         <v>19</v>
       </c>
       <c r="AI183" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ183" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="184">
@@ -22727,13 +22727,13 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="H184" t="n">
         <v>3.25</v>
       </c>
       <c r="I184" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J184" t="n">
         <v>1.07</v>
@@ -22769,13 +22769,13 @@
         <v>7</v>
       </c>
       <c r="U184" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V184" t="n">
         <v>9.5</v>
       </c>
       <c r="W184" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X184" t="n">
         <v>21</v>
@@ -22790,7 +22790,7 @@
         <v>6</v>
       </c>
       <c r="AB184" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC184" t="n">
         <v>51</v>
@@ -22805,7 +22805,7 @@
         <v>15</v>
       </c>
       <c r="AG184" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH184" t="n">
         <v>34</v>
@@ -22814,7 +22814,7 @@
         <v>26</v>
       </c>
       <c r="AJ184" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="185">
@@ -23114,10 +23114,10 @@
         <v>4.5</v>
       </c>
       <c r="N187" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="O187" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="P187" t="n">
         <v>1.3</v>
@@ -23215,19 +23215,19 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="H188" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I188" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="J188" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K188" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L188" t="n">
         <v>1.22</v>
@@ -23236,10 +23236,10 @@
         <v>4</v>
       </c>
       <c r="N188" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="O188" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="P188" t="n">
         <v>1.36</v>
@@ -23272,7 +23272,7 @@
         <v>26</v>
       </c>
       <c r="Z188" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA188" t="n">
         <v>6</v>
@@ -23296,7 +23296,7 @@
         <v>10</v>
       </c>
       <c r="AH188" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI188" t="n">
         <v>19</v>
@@ -23337,94 +23337,94 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="H189" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="I189" t="n">
         <v>3.15</v>
       </c>
       <c r="J189" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K189" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="L189" t="n">
-        <v>1.16</v>
+        <v>1.19</v>
       </c>
       <c r="M189" t="n">
-        <v>4.55</v>
+        <v>4.15</v>
       </c>
       <c r="N189" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="O189" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="P189" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="Q189" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="R189" t="n">
         <v>1.5</v>
       </c>
-      <c r="O189" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="P189" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="Q189" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="R189" t="n">
-        <v>1.45</v>
-      </c>
       <c r="S189" t="n">
-        <v>2.57</v>
+        <v>2.42</v>
       </c>
       <c r="T189" t="n">
-        <v>11.25</v>
+        <v>10.5</v>
       </c>
       <c r="U189" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="V189" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="W189" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X189" t="n">
         <v>14.5</v>
       </c>
       <c r="Y189" t="n">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="Z189" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AA189" t="n">
-        <v>7.5</v>
+        <v>7.2</v>
       </c>
       <c r="AB189" t="n">
-        <v>10.75</v>
+        <v>11.25</v>
       </c>
       <c r="AC189" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="AD189" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AE189" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF189" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AG189" t="n">
         <v>11</v>
       </c>
       <c r="AH189" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AI189" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AJ189" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="190">
@@ -23459,52 +23459,52 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="H190" t="n">
-        <v>4.5</v>
+        <v>4.65</v>
       </c>
       <c r="I190" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="J190" t="n">
         <v>1.03</v>
       </c>
       <c r="K190" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="L190" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="M190" t="n">
-        <v>4.75</v>
+        <v>4.85</v>
       </c>
       <c r="N190" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="O190" t="n">
-        <v>2.52</v>
+        <v>2.57</v>
       </c>
       <c r="P190" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="Q190" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="R190" t="n">
         <v>1.6</v>
       </c>
       <c r="S190" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="T190" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="U190" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="V190" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="W190" t="n">
         <v>100</v>
@@ -23516,13 +23516,13 @@
         <v>40</v>
       </c>
       <c r="Z190" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AA190" t="n">
         <v>9.5</v>
       </c>
-      <c r="AA190" t="n">
-        <v>9.25</v>
-      </c>
       <c r="AB190" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AC190" t="n">
         <v>50</v>
@@ -23531,19 +23531,19 @@
         <v>300</v>
       </c>
       <c r="AE190" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AF190" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AG190" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AH190" t="n">
-        <v>11.75</v>
+        <v>11.25</v>
       </c>
       <c r="AI190" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AJ190" t="n">
         <v>19</v>
@@ -23581,13 +23581,13 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="H191" t="n">
-        <v>4.8</v>
+        <v>4.75</v>
       </c>
       <c r="I191" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="J191" t="n">
         <v>1.03</v>
@@ -23599,19 +23599,19 @@
         <v>1.14</v>
       </c>
       <c r="M191" t="n">
-        <v>4.9</v>
+        <v>4.85</v>
       </c>
       <c r="N191" t="n">
         <v>1.45</v>
       </c>
       <c r="O191" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="P191" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="Q191" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="R191" t="n">
         <v>1.65</v>
@@ -23623,13 +23623,13 @@
         <v>9.5</v>
       </c>
       <c r="U191" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="V191" t="n">
         <v>8.25</v>
       </c>
       <c r="W191" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="X191" t="n">
         <v>10.25</v>
@@ -23641,34 +23641,34 @@
         <v>9.5</v>
       </c>
       <c r="AA191" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AB191" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AC191" t="n">
         <v>55</v>
       </c>
       <c r="AD191" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AE191" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AF191" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AG191" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH191" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AI191" t="n">
         <v>70</v>
       </c>
       <c r="AJ191" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="192">
@@ -23703,13 +23703,13 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>7.9</v>
+        <v>8.5</v>
       </c>
       <c r="H192" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="I192" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="J192" t="n">
         <v>1.02</v>
@@ -23721,52 +23721,52 @@
         <v>1.13</v>
       </c>
       <c r="M192" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="N192" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="O192" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="P192" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="Q192" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="R192" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="S192" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="T192" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="U192" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="V192" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="W192" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="X192" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="Y192" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="Z192" t="n">
         <v>10</v>
       </c>
       <c r="AA192" t="n">
-        <v>11.25</v>
+        <v>11.75</v>
       </c>
       <c r="AB192" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AC192" t="n">
         <v>70</v>
@@ -23775,16 +23775,16 @@
         <v>450</v>
       </c>
       <c r="AE192" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AF192" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="AG192" t="n">
         <v>9</v>
       </c>
       <c r="AH192" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AI192" t="n">
         <v>10</v>
@@ -23825,31 +23825,31 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="H193" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="I193" t="n">
-        <v>3.15</v>
+        <v>2.82</v>
       </c>
       <c r="J193" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K193" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="L193" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="M193" t="n">
         <v>3.45</v>
       </c>
       <c r="N193" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="O193" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="P193" t="n">
         <v>1.39</v>
@@ -23858,61 +23858,61 @@
         <v>2.77</v>
       </c>
       <c r="R193" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S193" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="T193" t="n">
-        <v>8.5</v>
+        <v>9.25</v>
       </c>
       <c r="U193" t="n">
-        <v>11.25</v>
+        <v>13.5</v>
       </c>
       <c r="V193" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W193" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="X193" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="Y193" t="n">
         <v>24</v>
       </c>
       <c r="Z193" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="AA193" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="AB193" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AC193" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AD193" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AE193" t="n">
-        <v>10.75</v>
+        <v>9.5</v>
       </c>
       <c r="AF193" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="AG193" t="n">
-        <v>10.75</v>
+        <v>10</v>
       </c>
       <c r="AH193" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AI193" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ193" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="194">
@@ -23956,16 +23956,16 @@
         <v>3.1</v>
       </c>
       <c r="J194" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K194" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L194" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="M194" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="N194" t="n">
         <v>2.35</v>
@@ -23974,16 +23974,16 @@
         <v>1.57</v>
       </c>
       <c r="P194" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Q194" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="R194" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="S194" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="T194" t="n">
         <v>7</v>
@@ -24004,13 +24004,13 @@
         <v>34</v>
       </c>
       <c r="Z194" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AA194" t="n">
         <v>6</v>
       </c>
       <c r="AB194" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC194" t="n">
         <v>51</v>
@@ -24019,7 +24019,7 @@
         <v>351</v>
       </c>
       <c r="AE194" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AF194" t="n">
         <v>15</v>
@@ -24031,7 +24031,7 @@
         <v>34</v>
       </c>
       <c r="AI194" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ194" t="n">
         <v>41</v>
@@ -24069,52 +24069,52 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="H195" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="I195" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="J195" t="n">
         <v>1.03</v>
       </c>
       <c r="K195" t="n">
+        <v>17</v>
+      </c>
+      <c r="L195" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="M195" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="N195" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="O195" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="P195" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="Q195" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="R195" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S195" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="T195" t="n">
+        <v>17</v>
+      </c>
+      <c r="U195" t="n">
+        <v>26</v>
+      </c>
+      <c r="V195" t="n">
         <v>15</v>
-      </c>
-      <c r="L195" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="M195" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="N195" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="O195" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="P195" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="Q195" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="R195" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S195" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="T195" t="n">
-        <v>15</v>
-      </c>
-      <c r="U195" t="n">
-        <v>23</v>
-      </c>
-      <c r="V195" t="n">
-        <v>13</v>
       </c>
       <c r="W195" t="n">
         <v>41</v>
@@ -24123,25 +24123,25 @@
         <v>29</v>
       </c>
       <c r="Y195" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z195" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA195" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AB195" t="n">
         <v>12</v>
       </c>
       <c r="AC195" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AD195" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AE195" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF195" t="n">
         <v>10</v>
@@ -24150,13 +24150,13 @@
         <v>8.5</v>
       </c>
       <c r="AH195" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI195" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ195" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="196">
@@ -24313,13 +24313,13 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="H197" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="I197" t="n">
-        <v>3.85</v>
+        <v>4.25</v>
       </c>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
@@ -24327,13 +24327,13 @@
         <v>1.45</v>
       </c>
       <c r="M197" t="n">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="N197" t="n">
-        <v>2.27</v>
+        <v>2.32</v>
       </c>
       <c r="O197" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="P197" t="n">
         <v>1.53</v>
@@ -24342,37 +24342,37 @@
         <v>2.18</v>
       </c>
       <c r="R197" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="S197" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="T197" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="U197" t="n">
-        <v>8.25</v>
+        <v>7.7</v>
       </c>
       <c r="V197" t="n">
         <v>9</v>
       </c>
       <c r="W197" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="X197" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="Y197" t="n">
         <v>40</v>
       </c>
       <c r="Z197" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AA197" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AB197" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AC197" t="n">
         <v>110</v>
@@ -24381,22 +24381,22 @@
         <v>1000</v>
       </c>
       <c r="AE197" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF197" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AG197" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AH197" t="n">
+        <v>75</v>
+      </c>
+      <c r="AI197" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ197" t="n">
         <v>60</v>
-      </c>
-      <c r="AI197" t="n">
-        <v>45</v>
-      </c>
-      <c r="AJ197" t="n">
-        <v>55</v>
       </c>
     </row>
     <row r="198">
@@ -24549,13 +24549,13 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="H199" t="n">
         <v>5.3</v>
       </c>
       <c r="I199" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
@@ -24575,13 +24575,13 @@
         <v>1.28</v>
       </c>
       <c r="Q199" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="R199" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="S199" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="T199" t="n">
         <v>6.1</v>
@@ -24605,34 +24605,34 @@
         <v>11.5</v>
       </c>
       <c r="AA199" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AB199" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AC199" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AD199" t="n">
         <v>800</v>
       </c>
       <c r="AE199" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AF199" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AG199" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AH199" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AI199" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AJ199" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
     </row>
     <row r="200">
@@ -24804,16 +24804,16 @@
         <v>11</v>
       </c>
       <c r="L201" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M201" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N201" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="O201" t="n">
         <v>1.9</v>
-      </c>
-      <c r="O201" t="n">
-        <v>1.95</v>
       </c>
       <c r="P201" t="n">
         <v>1.36</v>
@@ -24911,13 +24911,13 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="H202" t="n">
         <v>3.1</v>
       </c>
       <c r="I202" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="J202" t="n">
         <v>1.06</v>
@@ -24926,16 +24926,16 @@
         <v>10</v>
       </c>
       <c r="L202" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M202" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N202" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="O202" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="P202" t="n">
         <v>1.4</v>
@@ -24971,7 +24971,7 @@
         <v>9.5</v>
       </c>
       <c r="AA202" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB202" t="n">
         <v>15</v>
@@ -24992,7 +24992,7 @@
         <v>9</v>
       </c>
       <c r="AH202" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI202" t="n">
         <v>15</v>
@@ -25033,7 +25033,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="H203" t="n">
         <v>3.2</v>
@@ -25048,16 +25048,16 @@
         <v>10</v>
       </c>
       <c r="L203" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M203" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="N203" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="O203" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="P203" t="n">
         <v>1.44</v>
@@ -25093,7 +25093,7 @@
         <v>9.5</v>
       </c>
       <c r="AA203" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB203" t="n">
         <v>15</v>
@@ -25117,7 +25117,7 @@
         <v>19</v>
       </c>
       <c r="AI203" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ203" t="n">
         <v>29</v>
@@ -25155,13 +25155,13 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H204" t="n">
         <v>3.6</v>
       </c>
       <c r="I204" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="J204" t="n">
         <v>1.04</v>
@@ -25200,7 +25200,7 @@
         <v>12</v>
       </c>
       <c r="V204" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W204" t="n">
         <v>21</v>
@@ -25218,7 +25218,7 @@
         <v>7</v>
       </c>
       <c r="AB204" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC204" t="n">
         <v>41</v>
@@ -25230,19 +25230,19 @@
         <v>11</v>
       </c>
       <c r="AF204" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG204" t="n">
         <v>11</v>
       </c>
       <c r="AH204" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI204" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ204" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="205">
@@ -25521,13 +25521,13 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="H207" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I207" t="n">
-        <v>5.2</v>
+        <v>4.3</v>
       </c>
       <c r="J207" t="n">
         <v>1.06</v>
@@ -25548,31 +25548,31 @@
         <v>1.93</v>
       </c>
       <c r="P207" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="Q207" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="R207" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="S207" t="n">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="T207" t="n">
-        <v>7.3</v>
+        <v>7.8</v>
       </c>
       <c r="U207" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="V207" t="n">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="W207" t="n">
-        <v>14</v>
+        <v>16.5</v>
       </c>
       <c r="X207" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y207" t="n">
         <v>22</v>
@@ -25581,34 +25581,34 @@
         <v>7.4</v>
       </c>
       <c r="AA207" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AB207" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AC207" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AD207" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="AE207" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF207" t="n">
+        <v>27</v>
+      </c>
+      <c r="AG207" t="n">
         <v>14</v>
       </c>
-      <c r="AF207" t="n">
-        <v>32</v>
-      </c>
-      <c r="AG207" t="n">
-        <v>16</v>
-      </c>
       <c r="AH207" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="AI207" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="AJ207" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="208">
@@ -25642,36 +25642,92 @@
           <t>Portuguesa</t>
         </is>
       </c>
-      <c r="G208" t="inlineStr"/>
-      <c r="H208" t="inlineStr"/>
-      <c r="I208" t="inlineStr"/>
+      <c r="G208" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="H208" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="I208" t="n">
+        <v>6.2</v>
+      </c>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="inlineStr"/>
-      <c r="N208" t="inlineStr"/>
-      <c r="O208" t="inlineStr"/>
-      <c r="P208" t="inlineStr"/>
-      <c r="Q208" t="inlineStr"/>
-      <c r="R208" t="inlineStr"/>
-      <c r="S208" t="inlineStr"/>
-      <c r="T208" t="inlineStr"/>
-      <c r="U208" t="inlineStr"/>
-      <c r="V208" t="inlineStr"/>
-      <c r="W208" t="inlineStr"/>
-      <c r="X208" t="inlineStr"/>
-      <c r="Y208" t="inlineStr"/>
-      <c r="Z208" t="inlineStr"/>
-      <c r="AA208" t="inlineStr"/>
-      <c r="AB208" t="inlineStr"/>
-      <c r="AC208" t="inlineStr"/>
-      <c r="AD208" t="inlineStr"/>
-      <c r="AE208" t="inlineStr"/>
-      <c r="AF208" t="inlineStr"/>
-      <c r="AG208" t="inlineStr"/>
-      <c r="AH208" t="inlineStr"/>
-      <c r="AI208" t="inlineStr"/>
-      <c r="AJ208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="M208" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="N208" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="O208" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="P208" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="Q208" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="R208" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="S208" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T208" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="U208" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="V208" t="n">
+        <v>7</v>
+      </c>
+      <c r="W208" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="X208" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y208" t="n">
+        <v>35</v>
+      </c>
+      <c r="Z208" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AA208" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AB208" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC208" t="n">
+        <v>101</v>
+      </c>
+      <c r="AD208" t="n">
+        <v>101</v>
+      </c>
+      <c r="AE208" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AF208" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG208" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH208" t="n">
+        <v>101</v>
+      </c>
+      <c r="AI208" t="n">
+        <v>80</v>
+      </c>
+      <c r="AJ208" t="n">
+        <v>90</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Jogos_da_Semana_FlashScore_2025-04-06.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-06.xlsx
@@ -647,13 +647,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="H2" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I2" t="n">
-        <v>2.2</v>
+        <v>2.35</v>
       </c>
       <c r="J2" t="n">
         <v>1.03</v>
@@ -662,40 +662,40 @@
         <v>15</v>
       </c>
       <c r="L2" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="M2" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="N2" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="O2" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S2" t="n">
         <v>2.38</v>
       </c>
-      <c r="P2" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S2" t="n">
-        <v>2.5</v>
-      </c>
       <c r="T2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="U2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="V2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="W2" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="X2" t="n">
         <v>23</v>
@@ -704,7 +704,7 @@
         <v>29</v>
       </c>
       <c r="Z2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA2" t="n">
         <v>7.5</v>
@@ -713,13 +713,13 @@
         <v>12</v>
       </c>
       <c r="AC2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AD2" t="n">
         <v>126</v>
       </c>
       <c r="AE2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF2" t="n">
         <v>15</v>
@@ -728,10 +728,10 @@
         <v>10</v>
       </c>
       <c r="AH2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AI2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ2" t="n">
         <v>23</v>
@@ -769,13 +769,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="H3" t="n">
         <v>3.4</v>
       </c>
       <c r="I3" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="J3" t="n">
         <v>1.05</v>
@@ -790,10 +790,10 @@
         <v>4</v>
       </c>
       <c r="N3" t="n">
-        <v>1.87</v>
+        <v>1.8</v>
       </c>
       <c r="O3" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="P3" t="n">
         <v>1.36</v>
@@ -802,25 +802,25 @@
         <v>3</v>
       </c>
       <c r="R3" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S3" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="T3" t="n">
         <v>15</v>
       </c>
       <c r="U3" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="V3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="W3" t="n">
         <v>51</v>
       </c>
       <c r="X3" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Y3" t="n">
         <v>41</v>
@@ -835,22 +835,22 @@
         <v>15</v>
       </c>
       <c r="AC3" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD3" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AE3" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG3" t="n">
         <v>9.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI3" t="n">
         <v>17</v>
@@ -891,79 +891,79 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="H4" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="I4" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="J4" t="n">
         <v>1.02</v>
       </c>
       <c r="K4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L4" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="M4" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="N4" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="O4" t="n">
-        <v>2.63</v>
+        <v>3.2</v>
       </c>
       <c r="P4" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="R4" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="S4" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="T4" t="n">
+        <v>13</v>
+      </c>
+      <c r="U4" t="n">
         <v>10</v>
       </c>
-      <c r="U4" t="n">
-        <v>9</v>
-      </c>
       <c r="V4" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W4" t="n">
         <v>11</v>
       </c>
       <c r="X4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y4" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z4" t="n">
         <v>23</v>
       </c>
-      <c r="Z4" t="n">
-        <v>19</v>
-      </c>
       <c r="AA4" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AB4" t="n">
         <v>19</v>
       </c>
       <c r="AC4" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD4" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AE4" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AF4" t="n">
         <v>41</v>
@@ -1135,13 +1135,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I6" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="J6" t="n">
         <v>1.03</v>
@@ -1150,16 +1150,16 @@
         <v>15</v>
       </c>
       <c r="L6" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="M6" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N6" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="O6" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="P6" t="n">
         <v>1.29</v>
@@ -1174,7 +1174,7 @@
         <v>2.2</v>
       </c>
       <c r="T6" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="U6" t="n">
         <v>9</v>
@@ -1183,7 +1183,7 @@
         <v>8.5</v>
       </c>
       <c r="W6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X6" t="n">
         <v>12</v>
@@ -1192,7 +1192,7 @@
         <v>21</v>
       </c>
       <c r="Z6" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA6" t="n">
         <v>8</v>
@@ -1210,7 +1210,7 @@
         <v>19</v>
       </c>
       <c r="AF6" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG6" t="n">
         <v>17</v>
@@ -1257,13 +1257,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="H7" t="n">
         <v>3.4</v>
       </c>
       <c r="I7" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="J7" t="n">
         <v>1.05</v>
@@ -1296,7 +1296,7 @@
         <v>2.2</v>
       </c>
       <c r="T7" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="U7" t="n">
         <v>13</v>
@@ -1379,10 +1379,10 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="H8" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I8" t="n">
         <v>2.1</v>
@@ -1501,10 +1501,10 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H9" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I9" t="n">
         <v>4.5</v>
@@ -1558,7 +1558,7 @@
         <v>23</v>
       </c>
       <c r="Z9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA9" t="n">
         <v>7</v>
@@ -1644,10 +1644,10 @@
         <v>4.33</v>
       </c>
       <c r="N10" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="O10" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="P10" t="n">
         <v>1.33</v>
@@ -1867,67 +1867,67 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="H12" t="n">
         <v>3</v>
       </c>
       <c r="I12" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J12" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L12" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="M12" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="N12" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="O12" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="P12" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="R12" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S12" t="n">
         <v>1.8</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.95</v>
       </c>
       <c r="T12" t="n">
         <v>7.5</v>
       </c>
       <c r="U12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V12" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W12" t="n">
+        <v>26</v>
+      </c>
+      <c r="X12" t="n">
         <v>23</v>
-      </c>
-      <c r="X12" t="n">
-        <v>21</v>
       </c>
       <c r="Y12" t="n">
         <v>34</v>
       </c>
       <c r="Z12" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AA12" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AB12" t="n">
         <v>15</v>
@@ -1936,25 +1936,25 @@
         <v>51</v>
       </c>
       <c r="AD12" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="AE12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF12" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH12" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI12" t="n">
         <v>26</v>
       </c>
       <c r="AJ12" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13">
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="H13" t="n">
         <v>3</v>
@@ -2004,10 +2004,10 @@
         <v>6.5</v>
       </c>
       <c r="L13" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="M13" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="N13" t="n">
         <v>2.63</v>
@@ -2046,13 +2046,13 @@
         <v>41</v>
       </c>
       <c r="Z13" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AA13" t="n">
         <v>6</v>
       </c>
       <c r="AB13" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC13" t="n">
         <v>81</v>
@@ -2067,7 +2067,7 @@
         <v>23</v>
       </c>
       <c r="AG13" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH13" t="n">
         <v>51</v>
@@ -2254,10 +2254,10 @@
         <v>3</v>
       </c>
       <c r="N15" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="O15" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="P15" t="n">
         <v>1.5</v>
@@ -2355,13 +2355,13 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="H16" t="n">
         <v>3.3</v>
       </c>
       <c r="I16" t="n">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="J16" t="n">
         <v>1.07</v>
@@ -2397,25 +2397,25 @@
         <v>8.5</v>
       </c>
       <c r="U16" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="V16" t="n">
         <v>11</v>
       </c>
       <c r="W16" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="X16" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y16" t="n">
         <v>34</v>
       </c>
       <c r="Z16" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AA16" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB16" t="n">
         <v>15</v>
@@ -2433,16 +2433,16 @@
         <v>11</v>
       </c>
       <c r="AG16" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI16" t="n">
         <v>21</v>
       </c>
       <c r="AJ16" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17">
@@ -2477,13 +2477,13 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="H17" t="n">
         <v>3.2</v>
       </c>
       <c r="I17" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="J17" t="n">
         <v>1.08</v>
@@ -2492,16 +2492,16 @@
         <v>8</v>
       </c>
       <c r="L17" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="M17" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N17" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="O17" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="P17" t="n">
         <v>1.5</v>
@@ -2510,49 +2510,49 @@
         <v>2.5</v>
       </c>
       <c r="R17" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S17" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T17" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="U17" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="V17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="W17" t="n">
+        <v>41</v>
+      </c>
+      <c r="X17" t="n">
         <v>34</v>
-      </c>
-      <c r="X17" t="n">
-        <v>29</v>
       </c>
       <c r="Y17" t="n">
         <v>41</v>
       </c>
       <c r="Z17" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AA17" t="n">
         <v>6</v>
       </c>
       <c r="AB17" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC17" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD17" t="n">
-        <v>351</v>
+        <v>451</v>
       </c>
       <c r="AE17" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AF17" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AG17" t="n">
         <v>9.5</v>
@@ -2599,13 +2599,13 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I18" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="J18" t="n">
         <v>1.13</v>
@@ -2638,7 +2638,7 @@
         <v>1.57</v>
       </c>
       <c r="T18" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U18" t="n">
         <v>19</v>
@@ -2656,7 +2656,7 @@
         <v>51</v>
       </c>
       <c r="Z18" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AA18" t="n">
         <v>6</v>
@@ -2671,7 +2671,7 @@
         <v>501</v>
       </c>
       <c r="AE18" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AF18" t="n">
         <v>8</v>
@@ -2680,7 +2680,7 @@
         <v>10</v>
       </c>
       <c r="AH18" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI18" t="n">
         <v>21</v>
@@ -2742,22 +2742,22 @@
         <v>4</v>
       </c>
       <c r="N19" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="O19" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="P19" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R19" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S19" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="T19" t="n">
         <v>9</v>
@@ -2784,7 +2784,7 @@
         <v>6.5</v>
       </c>
       <c r="AB19" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC19" t="n">
         <v>41</v>
@@ -2793,7 +2793,7 @@
         <v>151</v>
       </c>
       <c r="AE19" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF19" t="n">
         <v>15</v>
@@ -2882,10 +2882,10 @@
         <v>1.67</v>
       </c>
       <c r="T20" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="U20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V20" t="n">
         <v>10</v>
@@ -2900,7 +2900,7 @@
         <v>41</v>
       </c>
       <c r="Z20" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AA20" t="n">
         <v>6</v>
@@ -2909,7 +2909,7 @@
         <v>19</v>
       </c>
       <c r="AC20" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD20" t="n">
         <v>501</v>
@@ -2980,16 +2980,16 @@
         <v>7</v>
       </c>
       <c r="L21" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="M21" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="N21" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="O21" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P21" t="n">
         <v>1.57</v>
@@ -3087,55 +3087,55 @@
         </is>
       </c>
       <c r="G22" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+      <c r="I22" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="K22" t="n">
+        <v>9</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M22" t="n">
+        <v>3</v>
+      </c>
+      <c r="N22" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="P22" t="n">
         <v>1.44</v>
       </c>
-      <c r="H22" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="I22" t="n">
+      <c r="Q22" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R22" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T22" t="n">
+        <v>5</v>
+      </c>
+      <c r="U22" t="n">
+        <v>6</v>
+      </c>
+      <c r="V22" t="n">
+        <v>9</v>
+      </c>
+      <c r="W22" t="n">
         <v>9.5</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="K22" t="n">
-        <v>7</v>
-      </c>
-      <c r="L22" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="M22" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="N22" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="P22" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="R22" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="S22" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T22" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="U22" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="V22" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="W22" t="n">
-        <v>9</v>
       </c>
       <c r="X22" t="n">
         <v>15</v>
@@ -3144,16 +3144,16 @@
         <v>41</v>
       </c>
       <c r="Z22" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AA22" t="n">
         <v>8</v>
       </c>
       <c r="AB22" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AC22" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AD22" t="n">
         <v>501</v>
@@ -3165,16 +3165,16 @@
         <v>41</v>
       </c>
       <c r="AG22" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AH22" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AI22" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AJ22" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23">
@@ -3230,10 +3230,10 @@
         <v>3.25</v>
       </c>
       <c r="N23" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="O23" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="P23" t="n">
         <v>1.44</v>
@@ -3340,22 +3340,22 @@
         <v>5.5</v>
       </c>
       <c r="J24" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K24" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L24" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M24" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N24" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="O24" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="P24" t="n">
         <v>1.44</v>
@@ -3453,13 +3453,13 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H25" t="n">
         <v>2.75</v>
       </c>
       <c r="I25" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="J25" t="n">
         <v>1.17</v>
@@ -3474,16 +3474,16 @@
         <v>2</v>
       </c>
       <c r="N25" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="O25" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P25" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="R25" t="n">
         <v>2.63</v>
@@ -3525,7 +3525,7 @@
         <v>101</v>
       </c>
       <c r="AE25" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AF25" t="n">
         <v>17</v>
@@ -3540,7 +3540,7 @@
         <v>41</v>
       </c>
       <c r="AJ25" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26">
@@ -3575,13 +3575,13 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="H26" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="I26" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="J26" t="n">
         <v>1.18</v>
@@ -3614,31 +3614,31 @@
         <v>1.4</v>
       </c>
       <c r="T26" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="U26" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="V26" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="W26" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="X26" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Y26" t="n">
         <v>51</v>
       </c>
       <c r="Z26" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AA26" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB26" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC26" t="n">
         <v>126</v>
@@ -3647,13 +3647,13 @@
         <v>101</v>
       </c>
       <c r="AE26" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AF26" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AG26" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH26" t="n">
         <v>51</v>
@@ -3662,7 +3662,7 @@
         <v>51</v>
       </c>
       <c r="AJ26" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27">
@@ -3697,19 +3697,19 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="H27" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I27" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J27" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="K27" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="L27" t="n">
         <v>1.73</v>
@@ -3736,10 +3736,10 @@
         <v>1.4</v>
       </c>
       <c r="T27" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="U27" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="V27" t="n">
         <v>11</v>
@@ -3769,22 +3769,22 @@
         <v>101</v>
       </c>
       <c r="AE27" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AF27" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG27" t="n">
         <v>21</v>
       </c>
-      <c r="AG27" t="n">
-        <v>19</v>
-      </c>
       <c r="AH27" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI27" t="n">
         <v>51</v>
       </c>
       <c r="AJ27" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28">
@@ -3941,13 +3941,13 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="H29" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I29" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J29" t="n">
         <v>1.11</v>
@@ -3983,13 +3983,13 @@
         <v>5.5</v>
       </c>
       <c r="U29" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="V29" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W29" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X29" t="n">
         <v>21</v>
@@ -4063,25 +4063,25 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="H30" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I30" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="J30" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="K30" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="L30" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="M30" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="N30" t="n">
         <v>3.4</v>
@@ -4090,10 +4090,10 @@
         <v>1.33</v>
       </c>
       <c r="P30" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="R30" t="n">
         <v>2.75</v>
@@ -4102,16 +4102,16 @@
         <v>1.4</v>
       </c>
       <c r="T30" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="U30" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="V30" t="n">
         <v>11</v>
       </c>
       <c r="W30" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X30" t="n">
         <v>23</v>
@@ -4123,7 +4123,7 @@
         <v>5</v>
       </c>
       <c r="AA30" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB30" t="n">
         <v>29</v>
@@ -4135,13 +4135,13 @@
         <v>101</v>
       </c>
       <c r="AE30" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AF30" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG30" t="n">
         <v>19</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>17</v>
       </c>
       <c r="AH30" t="n">
         <v>51</v>
@@ -4206,25 +4206,25 @@
         <v>3.75</v>
       </c>
       <c r="N31" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="O31" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="P31" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Q31" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="R31" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S31" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="T31" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="U31" t="n">
         <v>6.5</v>
@@ -4233,16 +4233,16 @@
         <v>8.5</v>
       </c>
       <c r="W31" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="X31" t="n">
         <v>12</v>
       </c>
       <c r="Y31" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z31" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA31" t="n">
         <v>9</v>
@@ -4257,7 +4257,7 @@
         <v>351</v>
       </c>
       <c r="AE31" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF31" t="n">
         <v>34</v>
@@ -4313,25 +4313,25 @@
         <v>5</v>
       </c>
       <c r="I32" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="J32" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="K32" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L32" t="n">
-        <v>1.14</v>
+        <v>1.1</v>
       </c>
       <c r="M32" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="N32" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="O32" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="P32" t="n">
         <v>1.25</v>
@@ -4358,7 +4358,7 @@
         <v>81</v>
       </c>
       <c r="X32" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="Y32" t="n">
         <v>41</v>
@@ -4367,7 +4367,7 @@
         <v>19</v>
       </c>
       <c r="AA32" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB32" t="n">
         <v>19</v>
@@ -4382,7 +4382,7 @@
         <v>9</v>
       </c>
       <c r="AF32" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AG32" t="n">
         <v>8.5</v>
@@ -4429,58 +4429,58 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="H33" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="I33" t="n">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="J33" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K33" t="n">
         <v>15</v>
       </c>
       <c r="L33" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="O33" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="P33" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="Q33" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="R33" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="S33" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="T33" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="U33" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W33" t="n">
+        <v>13</v>
+      </c>
+      <c r="X33" t="n">
         <v>12</v>
-      </c>
-      <c r="V33" t="n">
-        <v>9</v>
-      </c>
-      <c r="W33" t="n">
-        <v>19</v>
-      </c>
-      <c r="X33" t="n">
-        <v>15</v>
       </c>
       <c r="Y33" t="n">
         <v>21</v>
@@ -4489,34 +4489,34 @@
         <v>15</v>
       </c>
       <c r="AA33" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB33" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AC33" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>126</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI33" t="n">
         <v>34</v>
       </c>
-      <c r="AD33" t="n">
-        <v>101</v>
-      </c>
-      <c r="AE33" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG33" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH33" t="n">
-        <v>41</v>
-      </c>
-      <c r="AI33" t="n">
-        <v>26</v>
-      </c>
       <c r="AJ33" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34">
@@ -4551,31 +4551,31 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="H34" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I34" t="n">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="J34" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K34" t="n">
         <v>15</v>
       </c>
       <c r="L34" t="n">
-        <v>1.18</v>
+        <v>1.13</v>
       </c>
       <c r="M34" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N34" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="O34" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="P34" t="n">
         <v>1.29</v>
@@ -4584,16 +4584,16 @@
         <v>3.5</v>
       </c>
       <c r="R34" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="S34" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T34" t="n">
+        <v>9</v>
+      </c>
+      <c r="U34" t="n">
         <v>8.5</v>
-      </c>
-      <c r="U34" t="n">
-        <v>8</v>
       </c>
       <c r="V34" t="n">
         <v>8.5</v>
@@ -4602,7 +4602,7 @@
         <v>11</v>
       </c>
       <c r="X34" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y34" t="n">
         <v>21</v>
@@ -4611,7 +4611,7 @@
         <v>15</v>
       </c>
       <c r="AA34" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AB34" t="n">
         <v>15</v>
@@ -4682,16 +4682,16 @@
         <v>4.5</v>
       </c>
       <c r="J35" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="K35" t="n">
         <v>5.5</v>
       </c>
       <c r="L35" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="M35" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="N35" t="n">
         <v>2.88</v>
@@ -4810,16 +4810,16 @@
         <v>8</v>
       </c>
       <c r="L36" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="M36" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N36" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="O36" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="P36" t="n">
         <v>1.5</v>
@@ -4920,7 +4920,7 @@
         <v>1.7</v>
       </c>
       <c r="H37" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I37" t="n">
         <v>5.75</v>
@@ -4932,10 +4932,10 @@
         <v>8</v>
       </c>
       <c r="L37" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="M37" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="N37" t="n">
         <v>2.15</v>
@@ -4944,10 +4944,10 @@
         <v>1.67</v>
       </c>
       <c r="P37" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="R37" t="n">
         <v>2.05</v>
@@ -4962,10 +4962,10 @@
         <v>7</v>
       </c>
       <c r="V37" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W37" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X37" t="n">
         <v>15</v>
@@ -4974,7 +4974,7 @@
         <v>34</v>
       </c>
       <c r="Z37" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AA37" t="n">
         <v>6.5</v>
@@ -4986,7 +4986,7 @@
         <v>67</v>
       </c>
       <c r="AD37" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AE37" t="n">
         <v>12</v>
@@ -4995,7 +4995,7 @@
         <v>26</v>
       </c>
       <c r="AG37" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH37" t="n">
         <v>51</v>
@@ -5042,16 +5042,16 @@
         <v>2.3</v>
       </c>
       <c r="H38" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I38" t="n">
         <v>3.3</v>
       </c>
       <c r="J38" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K38" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L38" t="n">
         <v>1.44</v>
@@ -5060,10 +5060,10 @@
         <v>2.75</v>
       </c>
       <c r="N38" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="O38" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="P38" t="n">
         <v>1.5</v>
@@ -5161,13 +5161,13 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="H39" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I39" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="J39" t="n">
         <v>1.08</v>
@@ -5182,10 +5182,10 @@
         <v>3</v>
       </c>
       <c r="N39" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="O39" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="P39" t="n">
         <v>1.5</v>
@@ -5200,10 +5200,10 @@
         <v>1.8</v>
       </c>
       <c r="T39" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="U39" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="V39" t="n">
         <v>13</v>
@@ -5224,22 +5224,22 @@
         <v>6</v>
       </c>
       <c r="AB39" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC39" t="n">
         <v>51</v>
       </c>
       <c r="AD39" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AE39" t="n">
         <v>6.5</v>
       </c>
       <c r="AF39" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AG39" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AH39" t="n">
         <v>19</v>
@@ -5292,10 +5292,10 @@
         <v>1.75</v>
       </c>
       <c r="J40" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K40" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L40" t="n">
         <v>1.4</v>
@@ -5304,22 +5304,22 @@
         <v>3</v>
       </c>
       <c r="N40" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O40" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="P40" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="R40" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S40" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="T40" t="n">
         <v>11</v>
@@ -5328,7 +5328,7 @@
         <v>23</v>
       </c>
       <c r="V40" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="W40" t="n">
         <v>51</v>
@@ -5361,13 +5361,13 @@
         <v>7.5</v>
       </c>
       <c r="AG40" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AH40" t="n">
         <v>13</v>
       </c>
       <c r="AI40" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ40" t="n">
         <v>34</v>
@@ -5405,13 +5405,13 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H41" t="n">
         <v>3.2</v>
       </c>
       <c r="I41" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J41" t="n">
         <v>1.08</v>
@@ -5444,16 +5444,16 @@
         <v>1.8</v>
       </c>
       <c r="T41" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="U41" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="V41" t="n">
         <v>9.5</v>
       </c>
       <c r="W41" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="X41" t="n">
         <v>19</v>
@@ -5468,7 +5468,7 @@
         <v>6</v>
       </c>
       <c r="AB41" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC41" t="n">
         <v>51</v>
@@ -5489,7 +5489,7 @@
         <v>41</v>
       </c>
       <c r="AI41" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ41" t="n">
         <v>41</v>
@@ -5527,13 +5527,13 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H42" t="n">
         <v>3.25</v>
       </c>
       <c r="I42" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="J42" t="n">
         <v>1.1</v>
@@ -5554,16 +5554,16 @@
         <v>1.5</v>
       </c>
       <c r="P42" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="R42" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S42" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="T42" t="n">
         <v>6</v>
@@ -5593,13 +5593,13 @@
         <v>19</v>
       </c>
       <c r="AC42" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD42" t="n">
         <v>1250</v>
       </c>
       <c r="AE42" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AF42" t="n">
         <v>17</v>
@@ -5771,13 +5771,13 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="H44" t="n">
         <v>3.1</v>
       </c>
       <c r="I44" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="J44" t="n">
         <v>1.1</v>
@@ -5816,7 +5816,7 @@
         <v>11</v>
       </c>
       <c r="V44" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W44" t="n">
         <v>23</v>
@@ -5852,7 +5852,7 @@
         <v>12</v>
       </c>
       <c r="AH44" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI44" t="n">
         <v>29</v>
@@ -6137,13 +6137,13 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="H47" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I47" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="J47" t="n">
         <v>1.07</v>
@@ -6164,22 +6164,22 @@
         <v>1.65</v>
       </c>
       <c r="P47" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="Q47" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="R47" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S47" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="T47" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="U47" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="V47" t="n">
         <v>19</v>
@@ -6194,13 +6194,13 @@
         <v>51</v>
       </c>
       <c r="Z47" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA47" t="n">
         <v>7.5</v>
       </c>
       <c r="AB47" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC47" t="n">
         <v>81</v>
@@ -7006,16 +7006,16 @@
         <v>11</v>
       </c>
       <c r="L54" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M54" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N54" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="O54" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="P54" t="n">
         <v>1.4</v>
@@ -7238,46 +7238,46 @@
         <v>3.4</v>
       </c>
       <c r="H56" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="I56" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="J56" t="n">
         <v>1.08</v>
       </c>
       <c r="K56" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="L56" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="M56" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="N56" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="O56" t="n">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="P56" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="Q56" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="R56" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S56" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="T56" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="U56" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="V56" t="n">
         <v>13</v>
@@ -7292,13 +7292,13 @@
         <v>41</v>
       </c>
       <c r="Z56" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AA56" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB56" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC56" t="n">
         <v>67</v>
@@ -7307,22 +7307,22 @@
         <v>301</v>
       </c>
       <c r="AE56" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AF56" t="n">
         <v>9.5</v>
       </c>
       <c r="AG56" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH56" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI56" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ56" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="57">
@@ -7357,19 +7357,19 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="H57" t="n">
         <v>3.1</v>
       </c>
       <c r="I57" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="J57" t="n">
         <v>1.08</v>
       </c>
       <c r="K57" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="L57" t="n">
         <v>1.44</v>
@@ -7408,13 +7408,13 @@
         <v>26</v>
       </c>
       <c r="X57" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y57" t="n">
         <v>41</v>
       </c>
       <c r="Z57" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AA57" t="n">
         <v>6</v>
@@ -7423,7 +7423,7 @@
         <v>17</v>
       </c>
       <c r="AC57" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD57" t="n">
         <v>900</v>
@@ -7432,7 +7432,7 @@
         <v>7.5</v>
       </c>
       <c r="AF57" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG57" t="n">
         <v>11</v>
@@ -8089,19 +8089,19 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="H63" t="n">
         <v>3.1</v>
       </c>
       <c r="I63" t="n">
-        <v>2.55</v>
+        <v>2.63</v>
       </c>
       <c r="J63" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K63" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L63" t="n">
         <v>1.33</v>
@@ -8134,19 +8134,19 @@
         <v>13</v>
       </c>
       <c r="V63" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W63" t="n">
         <v>26</v>
       </c>
       <c r="X63" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y63" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z63" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AA63" t="n">
         <v>6</v>
@@ -8167,7 +8167,7 @@
         <v>13</v>
       </c>
       <c r="AG63" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH63" t="n">
         <v>26</v>
@@ -8226,16 +8226,16 @@
         <v>13</v>
       </c>
       <c r="L64" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="M64" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="N64" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="O64" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="P64" t="n">
         <v>1.33</v>
@@ -8333,19 +8333,19 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H65" t="n">
         <v>3.1</v>
       </c>
       <c r="I65" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J65" t="n">
         <v>1.06</v>
       </c>
       <c r="K65" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="L65" t="n">
         <v>1.29</v>
@@ -8378,7 +8378,7 @@
         <v>11</v>
       </c>
       <c r="V65" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W65" t="n">
         <v>21</v>
@@ -8417,7 +8417,7 @@
         <v>34</v>
       </c>
       <c r="AI65" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ65" t="n">
         <v>34</v>
@@ -8517,13 +8517,13 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="H67" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="I67" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J67" t="n">
         <v>1.04</v>
@@ -8532,16 +8532,16 @@
         <v>13</v>
       </c>
       <c r="L67" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="M67" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="N67" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="O67" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="P67" t="n">
         <v>1.33</v>
@@ -8550,10 +8550,10 @@
         <v>3.25</v>
       </c>
       <c r="R67" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="S67" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T67" t="n">
         <v>8</v>
@@ -8574,10 +8574,10 @@
         <v>23</v>
       </c>
       <c r="Z67" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA67" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB67" t="n">
         <v>15</v>
@@ -8586,7 +8586,7 @@
         <v>41</v>
       </c>
       <c r="AD67" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AE67" t="n">
         <v>15</v>
@@ -8601,7 +8601,7 @@
         <v>51</v>
       </c>
       <c r="AI67" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ67" t="n">
         <v>41</v>
@@ -8639,13 +8639,13 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="H68" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="I68" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="J68" t="n">
         <v>1.06</v>
@@ -8654,16 +8654,16 @@
         <v>10</v>
       </c>
       <c r="L68" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M68" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N68" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="O68" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="P68" t="n">
         <v>1.44</v>
@@ -8684,19 +8684,19 @@
         <v>7</v>
       </c>
       <c r="V68" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W68" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X68" t="n">
         <v>15</v>
       </c>
       <c r="Y68" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z68" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AA68" t="n">
         <v>7.5</v>
@@ -8711,16 +8711,16 @@
         <v>1250</v>
       </c>
       <c r="AE68" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AF68" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG68" t="n">
         <v>17</v>
       </c>
       <c r="AH68" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI68" t="n">
         <v>41</v>
@@ -8883,13 +8883,13 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="H70" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I70" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="J70" t="n">
         <v>1.04</v>
@@ -8898,16 +8898,16 @@
         <v>13</v>
       </c>
       <c r="L70" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M70" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N70" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="O70" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="P70" t="n">
         <v>1.33</v>
@@ -8916,13 +8916,13 @@
         <v>3.25</v>
       </c>
       <c r="R70" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S70" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="T70" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="U70" t="n">
         <v>17</v>
@@ -8940,7 +8940,7 @@
         <v>26</v>
       </c>
       <c r="Z70" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA70" t="n">
         <v>6.5</v>
@@ -8952,19 +8952,19 @@
         <v>41</v>
       </c>
       <c r="AD70" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AE70" t="n">
         <v>10</v>
       </c>
       <c r="AF70" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG70" t="n">
         <v>9.5</v>
       </c>
       <c r="AH70" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI70" t="n">
         <v>17</v>
@@ -9014,10 +9014,10 @@
         <v>3.1</v>
       </c>
       <c r="J71" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K71" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L71" t="n">
         <v>1.29</v>
@@ -9026,10 +9026,10 @@
         <v>3.5</v>
       </c>
       <c r="N71" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="O71" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="P71" t="n">
         <v>1.4</v>
@@ -9477,90 +9477,90 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="H75" t="n">
-        <v>2.85</v>
+        <v>2.7</v>
       </c>
       <c r="I75" t="n">
-        <v>4.75</v>
+        <v>4.8</v>
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
-        <v>1.36</v>
+        <v>1.45</v>
       </c>
       <c r="M75" t="n">
-        <v>2.65</v>
+        <v>2.37</v>
       </c>
       <c r="N75" t="n">
-        <v>2.07</v>
+        <v>2.32</v>
       </c>
       <c r="O75" t="n">
-        <v>1.6</v>
+        <v>1.47</v>
       </c>
       <c r="P75" t="n">
-        <v>1.42</v>
+        <v>1.47</v>
       </c>
       <c r="Q75" t="n">
-        <v>2.47</v>
+        <v>2.32</v>
       </c>
       <c r="R75" t="n">
-        <v>1.8</v>
+        <v>1.93</v>
       </c>
       <c r="S75" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="T75" t="n">
-        <v>6.1</v>
+        <v>5.5</v>
       </c>
       <c r="U75" t="n">
         <v>8.5</v>
       </c>
       <c r="V75" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="W75" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="X75" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Y75" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z75" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AA75" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB75" t="n">
         <v>16</v>
       </c>
-      <c r="Y75" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z75" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AA75" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="AB75" t="n">
-        <v>14</v>
-      </c>
       <c r="AC75" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="AD75" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="AE75" t="n">
-        <v>11.5</v>
+        <v>10.25</v>
       </c>
       <c r="AF75" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AG75" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AH75" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AI75" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AJ75" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
     </row>
     <row r="76">
@@ -9723,7 +9723,7 @@
         <v>3.9</v>
       </c>
       <c r="I77" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J77" t="n">
         <v>1.03</v>
@@ -9732,16 +9732,16 @@
         <v>15</v>
       </c>
       <c r="L77" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="M77" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="N77" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="O77" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="P77" t="n">
         <v>1.3</v>
@@ -9765,7 +9765,7 @@
         <v>8.5</v>
       </c>
       <c r="W77" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X77" t="n">
         <v>13</v>
@@ -9839,13 +9839,13 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="H78" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="I78" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="J78" t="n">
         <v>1.03</v>
@@ -9854,40 +9854,40 @@
         <v>17</v>
       </c>
       <c r="L78" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="M78" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="N78" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="O78" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="P78" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="Q78" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="R78" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S78" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="T78" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="U78" t="n">
         <v>7.5</v>
       </c>
       <c r="V78" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W78" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="X78" t="n">
         <v>11</v>
@@ -9902,7 +9902,7 @@
         <v>9.5</v>
       </c>
       <c r="AB78" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC78" t="n">
         <v>51</v>
@@ -9920,7 +9920,7 @@
         <v>23</v>
       </c>
       <c r="AH78" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AI78" t="n">
         <v>51</v>
@@ -9961,33 +9961,33 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="H79" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="I79" t="n">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="M79" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="N79" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="O79" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P79" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="Q79" t="n">
-        <v>4</v>
+        <v>4.15</v>
       </c>
       <c r="R79" t="n">
         <v>1.52</v>
@@ -9996,34 +9996,34 @@
         <v>2.37</v>
       </c>
       <c r="T79" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="U79" t="n">
+        <v>10</v>
+      </c>
+      <c r="V79" t="n">
+        <v>9</v>
+      </c>
+      <c r="W79" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="X79" t="n">
         <v>9.75</v>
-      </c>
-      <c r="V79" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="W79" t="n">
-        <v>11</v>
-      </c>
-      <c r="X79" t="n">
-        <v>10</v>
       </c>
       <c r="Y79" t="n">
         <v>17</v>
       </c>
       <c r="Z79" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AA79" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AB79" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AC79" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AD79" t="n">
         <v>200</v>
@@ -10032,10 +10032,10 @@
         <v>35</v>
       </c>
       <c r="AF79" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AG79" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AH79" t="n">
         <v>175</v>
@@ -10044,7 +10044,7 @@
         <v>60</v>
       </c>
       <c r="AJ79" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="80">
@@ -10079,13 +10079,13 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>2.8</v>
+        <v>2.92</v>
       </c>
       <c r="H80" t="n">
-        <v>4.05</v>
+        <v>3.9</v>
       </c>
       <c r="I80" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
@@ -10102,22 +10102,22 @@
         <v>3.1</v>
       </c>
       <c r="P80" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="Q80" t="n">
-        <v>4.05</v>
+        <v>4</v>
       </c>
       <c r="R80" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="S80" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="T80" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="U80" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="V80" t="n">
         <v>11.5</v>
@@ -10126,7 +10126,7 @@
         <v>40</v>
       </c>
       <c r="X80" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="Y80" t="n">
         <v>18.5</v>
@@ -10135,22 +10135,22 @@
         <v>30</v>
       </c>
       <c r="AA80" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AB80" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AC80" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AD80" t="n">
         <v>100</v>
       </c>
       <c r="AE80" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AF80" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AG80" t="n">
         <v>9.75</v>
@@ -10159,10 +10159,10 @@
         <v>25</v>
       </c>
       <c r="AI80" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AJ80" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="81">
@@ -10300,7 +10300,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -10677,13 +10677,13 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H85" t="n">
         <v>3.2</v>
       </c>
       <c r="I85" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="J85" t="n">
         <v>1.07</v>
@@ -10692,34 +10692,34 @@
         <v>9</v>
       </c>
       <c r="L85" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="M85" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N85" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="O85" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="P85" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Q85" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="R85" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="S85" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="T85" t="n">
         <v>7</v>
       </c>
       <c r="U85" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V85" t="n">
         <v>9.5</v>
@@ -10728,7 +10728,7 @@
         <v>21</v>
       </c>
       <c r="X85" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y85" t="n">
         <v>34</v>
@@ -10746,7 +10746,7 @@
         <v>51</v>
       </c>
       <c r="AD85" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AE85" t="n">
         <v>9</v>
@@ -10761,7 +10761,7 @@
         <v>34</v>
       </c>
       <c r="AI85" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ85" t="n">
         <v>41</v>
@@ -10799,19 +10799,19 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2.6</v>
+        <v>2.88</v>
       </c>
       <c r="H86" t="n">
         <v>3.4</v>
       </c>
       <c r="I86" t="n">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="J86" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K86" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L86" t="n">
         <v>1.25</v>
@@ -10820,34 +10820,34 @@
         <v>3.75</v>
       </c>
       <c r="N86" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="O86" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="P86" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q86" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R86" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S86" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="T86" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="U86" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="V86" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W86" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="X86" t="n">
         <v>21</v>
@@ -10856,7 +10856,7 @@
         <v>29</v>
       </c>
       <c r="Z86" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA86" t="n">
         <v>6.5</v>
@@ -10868,25 +10868,25 @@
         <v>41</v>
       </c>
       <c r="AD86" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AE86" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF86" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG86" t="n">
         <v>9.5</v>
       </c>
-      <c r="AF86" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG86" t="n">
-        <v>10</v>
-      </c>
       <c r="AH86" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI86" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ86" t="n">
         <v>26</v>
-      </c>
-      <c r="AI86" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ86" t="n">
-        <v>29</v>
       </c>
     </row>
     <row r="87">
@@ -11043,55 +11043,55 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="H88" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="I88" t="n">
-        <v>12.5</v>
+        <v>16</v>
       </c>
       <c r="J88" t="n">
         <v>1.04</v>
       </c>
       <c r="K88" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="L88" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="M88" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="N88" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="O88" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="P88" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="Q88" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="R88" t="n">
-        <v>2.57</v>
+        <v>2.65</v>
       </c>
       <c r="S88" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="T88" t="n">
         <v>6.1</v>
       </c>
       <c r="U88" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="V88" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="W88" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="X88" t="n">
         <v>12.5</v>
@@ -11100,13 +11100,13 @@
         <v>45</v>
       </c>
       <c r="Z88" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AA88" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB88" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AC88" t="n">
         <v>250</v>
@@ -11115,22 +11115,22 @@
         <v>101</v>
       </c>
       <c r="AE88" t="n">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="AF88" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="AG88" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="AH88" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AI88" t="n">
+        <v>350</v>
+      </c>
+      <c r="AJ88" t="n">
         <v>250</v>
-      </c>
-      <c r="AJ88" t="n">
-        <v>200</v>
       </c>
     </row>
     <row r="89">
@@ -11165,13 +11165,13 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="H89" t="n">
         <v>3.25</v>
       </c>
       <c r="I89" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="J89" t="n">
         <v>1.06</v>
@@ -11183,7 +11183,7 @@
         <v>1.3</v>
       </c>
       <c r="M89" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="N89" t="n">
         <v>1.88</v>
@@ -11198,58 +11198,58 @@
         <v>2.65</v>
       </c>
       <c r="R89" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="S89" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="T89" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="U89" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="V89" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="W89" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="X89" t="n">
+        <v>35</v>
+      </c>
+      <c r="Y89" t="n">
         <v>37</v>
-      </c>
-      <c r="Y89" t="n">
-        <v>40</v>
       </c>
       <c r="Z89" t="n">
         <v>7.2</v>
       </c>
       <c r="AA89" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AB89" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AC89" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AD89" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AE89" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="AF89" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AG89" t="n">
         <v>8.25</v>
       </c>
       <c r="AH89" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="AI89" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AJ89" t="n">
         <v>25</v>
@@ -11287,13 +11287,13 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="H90" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="I90" t="n">
-        <v>4.7</v>
+        <v>4.35</v>
       </c>
       <c r="J90" t="n">
         <v>1.12</v>
@@ -11320,37 +11320,37 @@
         <v>2.15</v>
       </c>
       <c r="R90" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="S90" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="T90" t="n">
-        <v>4.65</v>
+        <v>4.8</v>
       </c>
       <c r="U90" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="V90" t="n">
         <v>9.5</v>
       </c>
       <c r="W90" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="X90" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="Y90" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="Z90" t="n">
         <v>5.3</v>
       </c>
       <c r="AA90" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AB90" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AC90" t="n">
         <v>200</v>
@@ -11359,22 +11359,22 @@
         <v>101</v>
       </c>
       <c r="AE90" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AF90" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AG90" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AH90" t="n">
+        <v>80</v>
+      </c>
+      <c r="AI90" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ90" t="n">
         <v>90</v>
-      </c>
-      <c r="AI90" t="n">
-        <v>70</v>
-      </c>
-      <c r="AJ90" t="n">
-        <v>100</v>
       </c>
     </row>
     <row r="91">
@@ -11436,7 +11436,7 @@
         <v>1.5</v>
       </c>
       <c r="P91" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="Q91" t="n">
         <v>2.35</v>
@@ -11472,7 +11472,7 @@
         <v>6.1</v>
       </c>
       <c r="AB91" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AC91" t="n">
         <v>120</v>
@@ -11653,19 +11653,19 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="H93" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I93" t="n">
         <v>1.75</v>
       </c>
       <c r="J93" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K93" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="L93" t="n">
         <v>1.5</v>
@@ -11680,28 +11680,28 @@
         <v>1.5</v>
       </c>
       <c r="P93" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="Q93" t="n">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="R93" t="n">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="S93" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="T93" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="U93" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V93" t="n">
         <v>17</v>
       </c>
       <c r="W93" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="X93" t="n">
         <v>60</v>
@@ -11710,13 +11710,13 @@
         <v>80</v>
       </c>
       <c r="Z93" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="AA93" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AB93" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AC93" t="n">
         <v>150</v>
@@ -11734,7 +11734,7 @@
         <v>9</v>
       </c>
       <c r="AH93" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AI93" t="n">
         <v>17.5</v>
@@ -11775,49 +11775,49 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="H94" t="n">
-        <v>4.85</v>
+        <v>5</v>
       </c>
       <c r="I94" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J94" t="n">
         <v>1.05</v>
       </c>
       <c r="K94" t="n">
-        <v>7.6</v>
+        <v>7.9</v>
       </c>
       <c r="L94" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="M94" t="n">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="N94" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="O94" t="n">
-        <v>1.87</v>
+        <v>1.98</v>
       </c>
       <c r="P94" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="Q94" t="n">
-        <v>2.77</v>
+        <v>2.85</v>
       </c>
       <c r="R94" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="S94" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="T94" t="n">
-        <v>5.5</v>
+        <v>5.9</v>
       </c>
       <c r="U94" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="V94" t="n">
         <v>9.75</v>
@@ -11826,16 +11826,16 @@
         <v>6.6</v>
       </c>
       <c r="X94" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y94" t="n">
         <v>45</v>
       </c>
       <c r="Z94" t="n">
-        <v>7.6</v>
+        <v>7.9</v>
       </c>
       <c r="AA94" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AB94" t="n">
         <v>35</v>
@@ -11847,19 +11847,19 @@
         <v>101</v>
       </c>
       <c r="AE94" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AF94" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AG94" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AH94" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="AI94" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AJ94" t="n">
         <v>200</v>
@@ -11897,10 +11897,10 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>4.05</v>
+        <v>3.95</v>
       </c>
       <c r="H95" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I95" t="n">
         <v>1.85</v>
@@ -11909,7 +11909,7 @@
         <v>1.09</v>
       </c>
       <c r="K95" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="L95" t="n">
         <v>1.44</v>
@@ -11918,16 +11918,16 @@
         <v>2.6</v>
       </c>
       <c r="N95" t="n">
-        <v>2.3</v>
+        <v>2.27</v>
       </c>
       <c r="O95" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="P95" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="Q95" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="R95" t="n">
         <v>2.1</v>
@@ -11936,10 +11936,10 @@
         <v>1.65</v>
       </c>
       <c r="T95" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="U95" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V95" t="n">
         <v>14.5</v>
@@ -11948,16 +11948,16 @@
         <v>65</v>
       </c>
       <c r="X95" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="Y95" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="Z95" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AA95" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AB95" t="n">
         <v>19.5</v>
@@ -11975,7 +11975,7 @@
         <v>7.6</v>
       </c>
       <c r="AG95" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AH95" t="n">
         <v>15</v>
@@ -12019,94 +12019,94 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1.85</v>
+        <v>2.02</v>
       </c>
       <c r="H96" t="n">
-        <v>3.4</v>
+        <v>2.95</v>
       </c>
       <c r="I96" t="n">
         <v>3.75</v>
       </c>
       <c r="J96" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="K96" t="n">
-        <v>6.8</v>
+        <v>6.2</v>
       </c>
       <c r="L96" t="n">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="M96" t="n">
-        <v>2.9</v>
+        <v>2.77</v>
       </c>
       <c r="N96" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="O96" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="P96" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="Q96" t="n">
-        <v>2.65</v>
+        <v>2.6</v>
       </c>
       <c r="R96" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="S96" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="T96" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="U96" t="n">
-        <v>8.25</v>
+        <v>9</v>
       </c>
       <c r="V96" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="W96" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="X96" t="n">
-        <v>16</v>
+        <v>18.5</v>
       </c>
       <c r="Y96" t="n">
         <v>32</v>
       </c>
       <c r="Z96" t="n">
-        <v>6.8</v>
+        <v>6.2</v>
       </c>
       <c r="AA96" t="n">
-        <v>6.7</v>
+        <v>5.8</v>
       </c>
       <c r="AB96" t="n">
-        <v>17</v>
+        <v>14.5</v>
       </c>
       <c r="AC96" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AD96" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="AE96" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AF96" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AG96" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH96" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AI96" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AJ96" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="97">
@@ -12141,94 +12141,94 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1.78</v>
+        <v>1.98</v>
       </c>
       <c r="H97" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I97" t="n">
         <v>3.45</v>
       </c>
-      <c r="I97" t="n">
-        <v>4.05</v>
-      </c>
       <c r="J97" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K97" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="L97" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="M97" t="n">
-        <v>2.9</v>
+        <v>2.87</v>
       </c>
       <c r="N97" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="O97" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="P97" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="Q97" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="R97" t="n">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
       <c r="S97" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="T97" t="n">
-        <v>6.1</v>
+        <v>6.6</v>
       </c>
       <c r="U97" t="n">
-        <v>7.7</v>
+        <v>9</v>
       </c>
       <c r="V97" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="W97" t="n">
-        <v>14</v>
+        <v>17.5</v>
       </c>
       <c r="X97" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="Y97" t="n">
         <v>32</v>
       </c>
       <c r="Z97" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AA97" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="AB97" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC97" t="n">
+        <v>90</v>
+      </c>
+      <c r="AD97" t="n">
+        <v>800</v>
+      </c>
+      <c r="AE97" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AF97" t="n">
         <v>18</v>
       </c>
-      <c r="AC97" t="n">
-        <v>100</v>
-      </c>
-      <c r="AD97" t="n">
-        <v>900</v>
-      </c>
-      <c r="AE97" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AF97" t="n">
-        <v>21</v>
-      </c>
       <c r="AG97" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH97" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="AI97" t="n">
+        <v>35</v>
+      </c>
+      <c r="AJ97" t="n">
         <v>45</v>
-      </c>
-      <c r="AJ97" t="n">
-        <v>55</v>
       </c>
     </row>
     <row r="98">
@@ -12272,7 +12272,7 @@
         <v>2.5</v>
       </c>
       <c r="J98" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="K98" t="n">
         <v>6</v>
@@ -12281,13 +12281,13 @@
         <v>1.44</v>
       </c>
       <c r="M98" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="N98" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="O98" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="P98" t="n">
         <v>1.53</v>
@@ -12296,16 +12296,16 @@
         <v>2.35</v>
       </c>
       <c r="R98" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="S98" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="T98" t="n">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="U98" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="V98" t="n">
         <v>10.5</v>
@@ -12314,10 +12314,10 @@
         <v>32</v>
       </c>
       <c r="X98" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Y98" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="Z98" t="n">
         <v>6</v>
@@ -12326,7 +12326,7 @@
         <v>5.9</v>
       </c>
       <c r="AB98" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AC98" t="n">
         <v>90</v>
@@ -13975,7 +13975,7 @@
         <v>1.01</v>
       </c>
       <c r="K112" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="L112" t="n">
         <v>1.06</v>
@@ -13996,10 +13996,10 @@
         <v>5.5</v>
       </c>
       <c r="R112" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S112" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T112" t="n">
         <v>15</v>
@@ -14011,7 +14011,7 @@
         <v>11</v>
       </c>
       <c r="W112" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X112" t="n">
         <v>10</v>
@@ -14020,13 +14020,13 @@
         <v>23</v>
       </c>
       <c r="Z112" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AA112" t="n">
         <v>17</v>
       </c>
       <c r="AB112" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC112" t="n">
         <v>51</v>
@@ -14035,7 +14035,7 @@
         <v>201</v>
       </c>
       <c r="AE112" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AF112" t="n">
         <v>81</v>
@@ -14199,18 +14199,18 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="H114" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I114" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="M114" t="n">
         <v>3.2</v>
@@ -14224,61 +14224,61 @@
       <c r="P114" t="inlineStr"/>
       <c r="Q114" t="inlineStr"/>
       <c r="R114" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="S114" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="T114" t="n">
         <v>7.7</v>
       </c>
       <c r="U114" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="V114" t="n">
         <v>8.25</v>
       </c>
       <c r="W114" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="X114" t="n">
         <v>15</v>
       </c>
       <c r="Y114" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Z114" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AA114" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AB114" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AC114" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AD114" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="AE114" t="n">
-        <v>11.25</v>
+        <v>11.75</v>
       </c>
       <c r="AF114" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG114" t="n">
         <v>12</v>
       </c>
       <c r="AH114" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AI114" t="n">
         <v>32</v>
       </c>
       <c r="AJ114" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="115">
@@ -14325,7 +14325,7 @@
         <v>1.04</v>
       </c>
       <c r="K115" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L115" t="n">
         <v>1.25</v>
@@ -14438,49 +14438,49 @@
         <v>3.6</v>
       </c>
       <c r="H116" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="I116" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="J116" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="K116" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="L116" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="M116" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="N116" t="n">
-        <v>2.03</v>
+        <v>1.8</v>
       </c>
       <c r="O116" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="P116" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q116" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R116" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="S116" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T116" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="U116" t="n">
         <v>19</v>
       </c>
       <c r="V116" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="W116" t="n">
         <v>41</v>
@@ -14492,10 +14492,10 @@
         <v>34</v>
       </c>
       <c r="Z116" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AA116" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AB116" t="n">
         <v>13</v>
@@ -14504,25 +14504,25 @@
         <v>41</v>
       </c>
       <c r="AD116" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AE116" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AF116" t="n">
         <v>10</v>
       </c>
       <c r="AG116" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AH116" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI116" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ116" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="117">
@@ -14557,19 +14557,19 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H117" t="n">
         <v>3.3</v>
       </c>
       <c r="I117" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="J117" t="n">
         <v>1.06</v>
       </c>
       <c r="K117" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="L117" t="n">
         <v>1.3</v>
@@ -14581,19 +14581,19 @@
         <v>2.05</v>
       </c>
       <c r="O117" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="P117" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q117" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R117" t="n">
         <v>1.8</v>
       </c>
-      <c r="P117" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="Q117" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="R117" t="n">
-        <v>1.75</v>
-      </c>
       <c r="S117" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T117" t="n">
         <v>7.5</v>
@@ -14605,16 +14605,16 @@
         <v>9</v>
       </c>
       <c r="W117" t="n">
+        <v>21</v>
+      </c>
+      <c r="X117" t="n">
         <v>19</v>
       </c>
-      <c r="X117" t="n">
-        <v>17</v>
-      </c>
       <c r="Y117" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z117" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA117" t="n">
         <v>6.5</v>
@@ -14626,10 +14626,10 @@
         <v>51</v>
       </c>
       <c r="AD117" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AE117" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AF117" t="n">
         <v>17</v>
@@ -14638,10 +14638,10 @@
         <v>12</v>
       </c>
       <c r="AH117" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI117" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ117" t="n">
         <v>34</v>
@@ -14679,13 +14679,13 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="H118" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I118" t="n">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="J118" t="n">
         <v>1.04</v>
@@ -14694,16 +14694,16 @@
         <v>13</v>
       </c>
       <c r="L118" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="M118" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="N118" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="O118" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="P118" t="n">
         <v>1.33</v>
@@ -14718,19 +14718,19 @@
         <v>2.2</v>
       </c>
       <c r="T118" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="U118" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="V118" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="W118" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="X118" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="Y118" t="n">
         <v>29</v>
@@ -14742,7 +14742,7 @@
         <v>7</v>
       </c>
       <c r="AB118" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC118" t="n">
         <v>41</v>
@@ -14751,22 +14751,22 @@
         <v>151</v>
       </c>
       <c r="AE118" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF118" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AG118" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AH118" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI118" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ118" t="n">
         <v>21</v>
-      </c>
-      <c r="AI118" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ118" t="n">
-        <v>23</v>
       </c>
     </row>
     <row r="119">
@@ -14804,28 +14804,28 @@
         <v>2.25</v>
       </c>
       <c r="H119" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I119" t="n">
         <v>3</v>
       </c>
       <c r="J119" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K119" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L119" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="M119" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="N119" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="O119" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="P119" t="n">
         <v>1.3</v>
@@ -14870,7 +14870,7 @@
         <v>34</v>
       </c>
       <c r="AD119" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AE119" t="n">
         <v>13</v>
@@ -14935,7 +14935,7 @@
         <v>1.04</v>
       </c>
       <c r="K120" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L120" t="n">
         <v>1.25</v>
@@ -14962,10 +14962,10 @@
         <v>2</v>
       </c>
       <c r="T120" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="U120" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="V120" t="n">
         <v>8.5</v>
@@ -14989,7 +14989,7 @@
         <v>15</v>
       </c>
       <c r="AC120" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD120" t="n">
         <v>201</v>
@@ -15045,19 +15045,19 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="H121" t="n">
         <v>3.6</v>
       </c>
       <c r="I121" t="n">
-        <v>2.8</v>
+        <v>2.63</v>
       </c>
       <c r="J121" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K121" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L121" t="n">
         <v>1.14</v>
@@ -15090,10 +15090,10 @@
         <v>15</v>
       </c>
       <c r="V121" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W121" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="X121" t="n">
         <v>17</v>
@@ -15176,10 +15176,10 @@
         <v>2.4</v>
       </c>
       <c r="J122" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K122" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L122" t="n">
         <v>1.5</v>
@@ -15188,10 +15188,10 @@
         <v>2.5</v>
       </c>
       <c r="N122" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="O122" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P122" t="n">
         <v>1.57</v>
@@ -15411,19 +15411,19 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1.2</v>
+        <v>1.29</v>
       </c>
       <c r="H124" t="n">
-        <v>6.25</v>
+        <v>5.5</v>
       </c>
       <c r="I124" t="n">
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="J124" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K124" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L124" t="n">
         <v>1.22</v>
@@ -15444,61 +15444,61 @@
         <v>3.25</v>
       </c>
       <c r="R124" t="n">
-        <v>2.63</v>
+        <v>2.2</v>
       </c>
       <c r="S124" t="n">
-        <v>1.44</v>
+        <v>1.62</v>
       </c>
       <c r="T124" t="n">
         <v>6.5</v>
       </c>
       <c r="U124" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="V124" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="W124" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="X124" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y124" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="Z124" t="n">
         <v>12</v>
       </c>
       <c r="AA124" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB124" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AC124" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="AD124" t="n">
         <v>900</v>
       </c>
       <c r="AE124" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF124" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG124" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AH124" t="n">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="AI124" t="n">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="AJ124" t="n">
-        <v>101</v>
+        <v>67</v>
       </c>
     </row>
     <row r="125">
@@ -15533,19 +15533,19 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="H125" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I125" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J125" t="n">
         <v>1.04</v>
       </c>
       <c r="K125" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L125" t="n">
         <v>1.22</v>
@@ -15581,7 +15581,7 @@
         <v>8.5</v>
       </c>
       <c r="W125" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X125" t="n">
         <v>13</v>
@@ -15605,10 +15605,10 @@
         <v>201</v>
       </c>
       <c r="AE125" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF125" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG125" t="n">
         <v>17</v>
@@ -15655,13 +15655,13 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="H126" t="n">
         <v>3.9</v>
       </c>
       <c r="I126" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="J126" t="n">
         <v>1.04</v>
@@ -15676,7 +15676,7 @@
         <v>3.5</v>
       </c>
       <c r="N126" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="O126" t="n">
         <v>1.95</v>
@@ -15730,13 +15730,13 @@
         <v>8</v>
       </c>
       <c r="AF126" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG126" t="n">
         <v>9</v>
       </c>
       <c r="AH126" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI126" t="n">
         <v>17</v>
@@ -15777,7 +15777,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="H127" t="n">
         <v>3.75</v>
@@ -15831,7 +15831,7 @@
         <v>13</v>
       </c>
       <c r="Y127" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Z127" t="n">
         <v>13</v>
@@ -16021,13 +16021,13 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H129" t="n">
         <v>3.4</v>
       </c>
       <c r="I129" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="J129" t="n">
         <v>1.04</v>
@@ -16048,10 +16048,10 @@
         <v>2.05</v>
       </c>
       <c r="P129" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q129" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R129" t="n">
         <v>1.62</v>
@@ -16066,7 +16066,7 @@
         <v>17</v>
       </c>
       <c r="V129" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W129" t="n">
         <v>34</v>
@@ -16078,7 +16078,7 @@
         <v>29</v>
       </c>
       <c r="Z129" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA129" t="n">
         <v>6.5</v>
@@ -16143,13 +16143,13 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1.62</v>
+        <v>1.55</v>
       </c>
       <c r="H130" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I130" t="n">
-        <v>5</v>
+        <v>5.75</v>
       </c>
       <c r="J130" t="n">
         <v>1.03</v>
@@ -16164,10 +16164,10 @@
         <v>4.33</v>
       </c>
       <c r="N130" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="O130" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="P130" t="n">
         <v>1.3</v>
@@ -16176,22 +16176,22 @@
         <v>3.4</v>
       </c>
       <c r="R130" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="S130" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T130" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="U130" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="V130" t="n">
         <v>8.5</v>
       </c>
       <c r="W130" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X130" t="n">
         <v>12</v>
@@ -16200,7 +16200,7 @@
         <v>21</v>
       </c>
       <c r="Z130" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA130" t="n">
         <v>8</v>
@@ -16212,7 +16212,7 @@
         <v>41</v>
       </c>
       <c r="AD130" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AE130" t="n">
         <v>17</v>
@@ -16221,13 +16221,13 @@
         <v>29</v>
       </c>
       <c r="AG130" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH130" t="n">
         <v>51</v>
       </c>
       <c r="AI130" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ130" t="n">
         <v>41</v>
@@ -16402,16 +16402,16 @@
         <v>10</v>
       </c>
       <c r="L132" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M132" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N132" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="O132" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="P132" t="n">
         <v>1.4</v>
@@ -16509,13 +16509,13 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="H133" t="n">
         <v>3.4</v>
       </c>
       <c r="I133" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="J133" t="n">
         <v>1.05</v>
@@ -16530,10 +16530,10 @@
         <v>3.4</v>
       </c>
       <c r="N133" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="O133" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="P133" t="n">
         <v>1.4</v>
@@ -16542,19 +16542,19 @@
         <v>2.75</v>
       </c>
       <c r="R133" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S133" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="T133" t="n">
         <v>10</v>
       </c>
       <c r="U133" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="V133" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="W133" t="n">
         <v>41</v>
@@ -16563,7 +16563,7 @@
         <v>29</v>
       </c>
       <c r="Y133" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Z133" t="n">
         <v>10</v>
@@ -16584,7 +16584,7 @@
         <v>7.5</v>
       </c>
       <c r="AF133" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AG133" t="n">
         <v>9</v>
@@ -16631,70 +16631,70 @@
         </is>
       </c>
       <c r="G134" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="H134" t="n">
+        <v>3</v>
+      </c>
+      <c r="I134" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J134" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="K134" t="n">
+        <v>6</v>
+      </c>
+      <c r="L134" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="M134" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="N134" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="O134" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P134" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="Q134" t="n">
         <v>2.2</v>
       </c>
-      <c r="H134" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="I134" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="J134" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="K134" t="n">
-        <v>7</v>
-      </c>
-      <c r="L134" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="M134" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="N134" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="O134" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="P134" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="Q134" t="n">
-        <v>2.25</v>
-      </c>
       <c r="R134" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S134" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="T134" t="n">
         <v>6</v>
       </c>
       <c r="U134" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="V134" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W134" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="X134" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="Y134" t="n">
         <v>41</v>
       </c>
       <c r="Z134" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AA134" t="n">
         <v>6</v>
       </c>
       <c r="AB134" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC134" t="n">
         <v>81</v>
@@ -16703,16 +16703,16 @@
         <v>501</v>
       </c>
       <c r="AE134" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF134" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AG134" t="n">
         <v>13</v>
       </c>
       <c r="AH134" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI134" t="n">
         <v>34</v>
@@ -16762,22 +16762,22 @@
         <v>3.9</v>
       </c>
       <c r="J135" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K135" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L135" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M135" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N135" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="O135" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="P135" t="n">
         <v>1.44</v>
@@ -16875,31 +16875,31 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H136" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I136" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="J136" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K136" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L136" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M136" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N136" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="O136" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="P136" t="n">
         <v>1.4</v>
@@ -16917,10 +16917,10 @@
         <v>10</v>
       </c>
       <c r="U136" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="V136" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W136" t="n">
         <v>34</v>
@@ -16932,7 +16932,7 @@
         <v>34</v>
       </c>
       <c r="Z136" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA136" t="n">
         <v>6</v>
@@ -16941,7 +16941,7 @@
         <v>13</v>
       </c>
       <c r="AC136" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD136" t="n">
         <v>201</v>
@@ -16953,7 +16953,7 @@
         <v>11</v>
       </c>
       <c r="AG136" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AH136" t="n">
         <v>21</v>
@@ -16962,7 +16962,7 @@
         <v>19</v>
       </c>
       <c r="AJ136" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="137">
@@ -17247,13 +17247,13 @@
         <v>3.2</v>
       </c>
       <c r="I139" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J139" t="n">
         <v>1.08</v>
       </c>
       <c r="K139" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="L139" t="n">
         <v>1.4</v>
@@ -17280,16 +17280,16 @@
         <v>1.73</v>
       </c>
       <c r="T139" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="U139" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="V139" t="n">
         <v>9.5</v>
       </c>
       <c r="W139" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="X139" t="n">
         <v>19</v>
@@ -17298,7 +17298,7 @@
         <v>34</v>
       </c>
       <c r="Z139" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AA139" t="n">
         <v>6.5</v>
@@ -17313,7 +17313,7 @@
         <v>900</v>
       </c>
       <c r="AE139" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF139" t="n">
         <v>17</v>
@@ -17378,16 +17378,16 @@
         <v>13</v>
       </c>
       <c r="L140" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M140" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N140" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="O140" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="P140" t="n">
         <v>1.36</v>
@@ -17729,13 +17729,13 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="H143" t="n">
         <v>2.9</v>
       </c>
       <c r="I143" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="J143" t="n">
         <v>1.1</v>
@@ -17744,16 +17744,16 @@
         <v>7</v>
       </c>
       <c r="L143" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="M143" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="N143" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="O143" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P143" t="n">
         <v>1.53</v>
@@ -17762,22 +17762,22 @@
         <v>2.38</v>
       </c>
       <c r="R143" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="S143" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="T143" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="U143" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V143" t="n">
         <v>10</v>
       </c>
       <c r="W143" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X143" t="n">
         <v>21</v>
@@ -17792,7 +17792,7 @@
         <v>6</v>
       </c>
       <c r="AB143" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC143" t="n">
         <v>51</v>
@@ -17801,13 +17801,13 @@
         <v>351</v>
       </c>
       <c r="AE143" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AF143" t="n">
         <v>15</v>
       </c>
       <c r="AG143" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH143" t="n">
         <v>34</v>
@@ -17851,13 +17851,13 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="H144" t="n">
         <v>3.25</v>
       </c>
       <c r="I144" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="J144" t="n">
         <v>1.05</v>
@@ -17866,16 +17866,16 @@
         <v>8.5</v>
       </c>
       <c r="L144" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M144" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N144" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="O144" t="n">
         <v>1.95</v>
-      </c>
-      <c r="O144" t="n">
-        <v>1.85</v>
       </c>
       <c r="P144" t="n">
         <v>1.4</v>
@@ -17905,7 +17905,7 @@
         <v>23</v>
       </c>
       <c r="Y144" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z144" t="n">
         <v>10</v>
@@ -17929,16 +17929,16 @@
         <v>12</v>
       </c>
       <c r="AG144" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH144" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI144" t="n">
         <v>19</v>
       </c>
       <c r="AJ144" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="145">
@@ -17973,31 +17973,31 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="H145" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I145" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="J145" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K145" t="n">
+        <v>10</v>
+      </c>
+      <c r="L145" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M145" t="n">
         <v>3.4</v>
       </c>
-      <c r="I145" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="J145" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="K145" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="L145" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="M145" t="n">
-        <v>3.75</v>
-      </c>
       <c r="N145" t="n">
-        <v>1.85</v>
+        <v>1.98</v>
       </c>
       <c r="O145" t="n">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="P145" t="n">
         <v>1.4</v>
@@ -18006,10 +18006,10 @@
         <v>2.75</v>
       </c>
       <c r="R145" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="S145" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="T145" t="n">
         <v>9.5</v>
@@ -18027,28 +18027,28 @@
         <v>23</v>
       </c>
       <c r="Y145" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z145" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA145" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB145" t="n">
         <v>15</v>
       </c>
       <c r="AC145" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD145" t="n">
         <v>450</v>
       </c>
       <c r="AE145" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AF145" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG145" t="n">
         <v>9.5</v>
@@ -18098,16 +18098,16 @@
         <v>5.25</v>
       </c>
       <c r="H146" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I146" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="J146" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K146" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="L146" t="n">
         <v>1.14</v>
@@ -18116,22 +18116,22 @@
         <v>5</v>
       </c>
       <c r="N146" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="O146" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="P146" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="Q146" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="R146" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S146" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="T146" t="n">
         <v>21</v>
@@ -18152,10 +18152,10 @@
         <v>41</v>
       </c>
       <c r="Z146" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA146" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB146" t="n">
         <v>15</v>
@@ -18167,19 +18167,19 @@
         <v>151</v>
       </c>
       <c r="AE146" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF146" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG146" t="n">
         <v>8.5</v>
-      </c>
-      <c r="AG146" t="n">
-        <v>9</v>
       </c>
       <c r="AH146" t="n">
         <v>11</v>
       </c>
       <c r="AI146" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ146" t="n">
         <v>21</v>
@@ -18339,49 +18339,49 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="H148" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="I148" t="n">
         <v>4.75</v>
       </c>
       <c r="J148" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K148" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L148" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M148" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N148" t="n">
-        <v>1.8</v>
+        <v>1.93</v>
       </c>
       <c r="O148" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="P148" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="Q148" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="R148" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="S148" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="T148" t="n">
+        <v>7</v>
+      </c>
+      <c r="U148" t="n">
         <v>7.5</v>
-      </c>
-      <c r="U148" t="n">
-        <v>8</v>
       </c>
       <c r="V148" t="n">
         <v>8.5</v>
@@ -18393,13 +18393,13 @@
         <v>13</v>
       </c>
       <c r="Y148" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Z148" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AA148" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB148" t="n">
         <v>17</v>
@@ -18408,13 +18408,13 @@
         <v>51</v>
       </c>
       <c r="AD148" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AE148" t="n">
         <v>13</v>
       </c>
       <c r="AF148" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG148" t="n">
         <v>15</v>
@@ -18461,37 +18461,37 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>2.32</v>
+        <v>1.95</v>
       </c>
       <c r="H149" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I149" t="n">
-        <v>2.77</v>
+        <v>3.5</v>
       </c>
       <c r="J149" t="n">
         <v>1.05</v>
       </c>
       <c r="K149" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="L149" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="M149" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="N149" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="O149" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="P149" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="Q149" t="n">
-        <v>2.77</v>
+        <v>2.85</v>
       </c>
       <c r="R149" t="n">
         <v>1.62</v>
@@ -18500,28 +18500,28 @@
         <v>2.15</v>
       </c>
       <c r="T149" t="n">
-        <v>9.25</v>
+        <v>8.5</v>
       </c>
       <c r="U149" t="n">
-        <v>13</v>
+        <v>10.5</v>
       </c>
       <c r="V149" t="n">
-        <v>9</v>
+        <v>8.25</v>
       </c>
       <c r="W149" t="n">
-        <v>25</v>
+        <v>18.5</v>
       </c>
       <c r="X149" t="n">
-        <v>17.5</v>
+        <v>14.5</v>
       </c>
       <c r="Y149" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="Z149" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="AA149" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AB149" t="n">
         <v>12.5</v>
@@ -18533,22 +18533,22 @@
         <v>350</v>
       </c>
       <c r="AE149" t="n">
-        <v>9.75</v>
+        <v>11.5</v>
       </c>
       <c r="AF149" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AG149" t="n">
-        <v>10.25</v>
+        <v>12</v>
       </c>
       <c r="AH149" t="n">
+        <v>50</v>
+      </c>
+      <c r="AI149" t="n">
+        <v>30</v>
+      </c>
+      <c r="AJ149" t="n">
         <v>35</v>
-      </c>
-      <c r="AI149" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ149" t="n">
-        <v>29</v>
       </c>
     </row>
     <row r="150">
@@ -18586,87 +18586,87 @@
         <v>1.12</v>
       </c>
       <c r="H150" t="n">
-        <v>7.1</v>
+        <v>6.8</v>
       </c>
       <c r="I150" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="M150" t="n">
-        <v>6.4</v>
+        <v>7.7</v>
       </c>
       <c r="N150" t="n">
-        <v>1.28</v>
+        <v>1.19</v>
       </c>
       <c r="O150" t="n">
-        <v>3.35</v>
+        <v>4.15</v>
       </c>
       <c r="P150" t="n">
-        <v>1.19</v>
+        <v>1.14</v>
       </c>
       <c r="Q150" t="n">
-        <v>4.2</v>
+        <v>4.85</v>
       </c>
       <c r="R150" t="n">
-        <v>1.95</v>
+        <v>1.65</v>
       </c>
       <c r="S150" t="n">
-        <v>1.75</v>
+        <v>2.12</v>
       </c>
       <c r="T150" t="n">
-        <v>12.5</v>
+        <v>17</v>
       </c>
       <c r="U150" t="n">
-        <v>7.8</v>
+        <v>10.25</v>
       </c>
       <c r="V150" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="W150" t="n">
-        <v>7.2</v>
+        <v>9</v>
       </c>
       <c r="X150" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Y150" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="Z150" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="AA150" t="n">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="AB150" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="AC150" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="AD150" t="n">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="AE150" t="n">
+        <v>100</v>
+      </c>
+      <c r="AF150" t="n">
+        <v>300</v>
+      </c>
+      <c r="AG150" t="n">
         <v>60</v>
       </c>
-      <c r="AF150" t="n">
-        <v>175</v>
-      </c>
-      <c r="AG150" t="n">
-        <v>55</v>
-      </c>
       <c r="AH150" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="AI150" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AJ150" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
     </row>
     <row r="151">
@@ -18704,16 +18704,16 @@
         <v>3.4</v>
       </c>
       <c r="H151" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="I151" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="J151" t="n">
         <v>1.09</v>
       </c>
       <c r="K151" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="L151" t="n">
         <v>1.4</v>
@@ -18725,7 +18725,7 @@
         <v>2.18</v>
       </c>
       <c r="O151" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="P151" t="n">
         <v>1.5</v>
@@ -18740,7 +18740,7 @@
         <v>1.78</v>
       </c>
       <c r="T151" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="U151" t="n">
         <v>17</v>
@@ -18752,43 +18752,43 @@
         <v>50</v>
       </c>
       <c r="X151" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="Y151" t="n">
         <v>50</v>
       </c>
       <c r="Z151" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="AA151" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AB151" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AC151" t="n">
         <v>90</v>
       </c>
       <c r="AD151" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="AE151" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AF151" t="n">
         <v>9.25</v>
       </c>
       <c r="AG151" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AH151" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AI151" t="n">
         <v>18.5</v>
       </c>
       <c r="AJ151" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="152">
@@ -18823,49 +18823,49 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="H152" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="I152" t="n">
-        <v>4.25</v>
+        <v>4.3</v>
       </c>
       <c r="J152" t="n">
         <v>1.07</v>
       </c>
       <c r="K152" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="L152" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="M152" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="N152" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="O152" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="P152" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="Q152" t="n">
-        <v>2.7</v>
+        <v>2.67</v>
       </c>
       <c r="R152" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="S152" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="T152" t="n">
-        <v>6.9</v>
+        <v>6.5</v>
       </c>
       <c r="U152" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="V152" t="n">
         <v>8.75</v>
@@ -18874,43 +18874,43 @@
         <v>16.5</v>
       </c>
       <c r="X152" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="Y152" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Z152" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="AA152" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AB152" t="n">
         <v>16</v>
       </c>
       <c r="AC152" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AD152" t="n">
         <v>700</v>
       </c>
       <c r="AE152" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AF152" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AG152" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AH152" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AI152" t="n">
         <v>45</v>
       </c>
       <c r="AJ152" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="153">
@@ -18945,94 +18945,94 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>2.85</v>
+        <v>2.87</v>
       </c>
       <c r="H153" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="I153" t="n">
-        <v>2.32</v>
+        <v>2.45</v>
       </c>
       <c r="J153" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K153" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="L153" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="M153" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="N153" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="O153" t="n">
-        <v>1.87</v>
+        <v>1.82</v>
       </c>
       <c r="P153" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Q153" t="n">
-        <v>2.8</v>
+        <v>2.67</v>
       </c>
       <c r="R153" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="S153" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="T153" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="U153" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="V153" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="W153" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="X153" t="n">
         <v>25</v>
       </c>
       <c r="Y153" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Z153" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AA153" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB153" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AC153" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AD153" t="n">
         <v>500</v>
       </c>
       <c r="AE153" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AF153" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AG153" t="n">
         <v>9.75</v>
       </c>
       <c r="AH153" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AI153" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AJ153" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="154">
@@ -19067,91 +19067,91 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>7.2</v>
+        <v>8</v>
       </c>
       <c r="H154" t="n">
-        <v>4.1</v>
+        <v>4.15</v>
       </c>
       <c r="I154" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="J154" t="n">
         <v>1.06</v>
       </c>
       <c r="K154" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="L154" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="M154" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="N154" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="O154" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="P154" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="Q154" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="R154" t="n">
         <v>2.18</v>
       </c>
       <c r="S154" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="T154" t="n">
-        <v>15.5</v>
+        <v>17.5</v>
       </c>
       <c r="U154" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="V154" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="W154" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="X154" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="Y154" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="Z154" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="AA154" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AB154" t="n">
         <v>23</v>
       </c>
       <c r="AC154" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AD154" t="n">
         <v>800</v>
       </c>
       <c r="AE154" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="AF154" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="AG154" t="n">
         <v>8.5</v>
       </c>
       <c r="AH154" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AI154" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AJ154" t="n">
         <v>35</v>
@@ -19311,10 +19311,10 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="H156" t="n">
-        <v>4.1</v>
+        <v>4.15</v>
       </c>
       <c r="I156" t="n">
         <v>1.5</v>
@@ -19326,46 +19326,46 @@
         <v>8.25</v>
       </c>
       <c r="L156" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="M156" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="N156" t="n">
         <v>1.7</v>
       </c>
       <c r="O156" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="P156" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="Q156" t="n">
-        <v>2.95</v>
+        <v>2.9</v>
       </c>
       <c r="R156" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="S156" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="T156" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="U156" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="V156" t="n">
         <v>18</v>
       </c>
       <c r="W156" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="X156" t="n">
         <v>55</v>
       </c>
       <c r="Y156" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="Z156" t="n">
         <v>8.25</v>
@@ -19374,31 +19374,31 @@
         <v>8</v>
       </c>
       <c r="AB156" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AC156" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AD156" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AE156" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AF156" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="AG156" t="n">
         <v>8</v>
       </c>
       <c r="AH156" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AI156" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AJ156" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="157">
@@ -20287,31 +20287,31 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="H164" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I164" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J164" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="K164" t="n">
+        <v>13</v>
+      </c>
+      <c r="L164" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="M164" t="n">
         <v>4.33</v>
       </c>
-      <c r="J164" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="K164" t="n">
-        <v>15</v>
-      </c>
-      <c r="L164" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="M164" t="n">
-        <v>4.5</v>
-      </c>
       <c r="N164" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="O164" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="P164" t="n">
         <v>1.33</v>
@@ -20371,7 +20371,7 @@
         <v>41</v>
       </c>
       <c r="AI164" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ164" t="n">
         <v>34</v>
@@ -20409,7 +20409,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="H165" t="n">
         <v>2.7</v>
@@ -20451,13 +20451,13 @@
         <v>5</v>
       </c>
       <c r="U165" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="V165" t="n">
         <v>12</v>
       </c>
       <c r="W165" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="X165" t="n">
         <v>29</v>
@@ -20540,10 +20540,10 @@
         <v>2.45</v>
       </c>
       <c r="J166" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K166" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L166" t="n">
         <v>1.36</v>
@@ -20653,10 +20653,10 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H167" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I167" t="n">
         <v>3.4</v>
@@ -20665,7 +20665,7 @@
         <v>1.08</v>
       </c>
       <c r="K167" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="L167" t="n">
         <v>1.44</v>
@@ -20725,10 +20725,10 @@
         <v>351</v>
       </c>
       <c r="AE167" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AF167" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG167" t="n">
         <v>13</v>
@@ -21019,19 +21019,19 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>1.65</v>
+        <v>1.5</v>
       </c>
       <c r="H170" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="I170" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J170" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K170" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="L170" t="n">
         <v>1.3</v>
@@ -21040,16 +21040,16 @@
         <v>3.4</v>
       </c>
       <c r="N170" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="O170" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="P170" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q170" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R170" t="n">
         <v>2</v>
@@ -21061,49 +21061,49 @@
         <v>6.5</v>
       </c>
       <c r="U170" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="V170" t="n">
         <v>9</v>
       </c>
       <c r="W170" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X170" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y170" t="n">
         <v>29</v>
       </c>
       <c r="Z170" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AA170" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB170" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC170" t="n">
         <v>51</v>
       </c>
       <c r="AD170" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="AE170" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF170" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AG170" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH170" t="n">
+        <v>67</v>
+      </c>
+      <c r="AI170" t="n">
         <v>51</v>
-      </c>
-      <c r="AI170" t="n">
-        <v>41</v>
       </c>
       <c r="AJ170" t="n">
         <v>51</v>
@@ -21141,46 +21141,46 @@
         </is>
       </c>
       <c r="G171" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H171" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="I171" t="n">
+        <v>3</v>
+      </c>
+      <c r="J171" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="K171" t="n">
+        <v>6</v>
+      </c>
+      <c r="L171" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M171" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="N171" t="n">
         <v>2.5</v>
       </c>
-      <c r="H171" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="I171" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="J171" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="K171" t="n">
+      <c r="O171" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P171" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="Q171" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R171" t="n">
+        <v>2</v>
+      </c>
+      <c r="S171" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="T171" t="n">
         <v>7</v>
-      </c>
-      <c r="L171" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="M171" t="n">
-        <v>3</v>
-      </c>
-      <c r="N171" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="O171" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="P171" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Q171" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R171" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="S171" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="T171" t="n">
-        <v>8</v>
       </c>
       <c r="U171" t="n">
         <v>12</v>
@@ -21189,16 +21189,16 @@
         <v>11</v>
       </c>
       <c r="W171" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="X171" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y171" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z171" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AA171" t="n">
         <v>5.5</v>
@@ -21213,19 +21213,19 @@
         <v>151</v>
       </c>
       <c r="AE171" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AF171" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG171" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH171" t="n">
         <v>29</v>
       </c>
       <c r="AI171" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ171" t="n">
         <v>41</v>
@@ -21454,7 +21454,7 @@
         <v>51</v>
       </c>
       <c r="AD173" t="n">
-        <v>700</v>
+        <v>450</v>
       </c>
       <c r="AE173" t="n">
         <v>15</v>
@@ -21995,13 +21995,13 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="H178" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="I178" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="J178" t="n">
         <v>1.08</v>
@@ -22016,16 +22016,16 @@
         <v>2.75</v>
       </c>
       <c r="N178" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="O178" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="P178" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Q178" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="R178" t="n">
         <v>2</v>
@@ -22037,13 +22037,13 @@
         <v>6.5</v>
       </c>
       <c r="U178" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="V178" t="n">
         <v>10</v>
       </c>
       <c r="W178" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="X178" t="n">
         <v>21</v>
@@ -22070,13 +22070,13 @@
         <v>9</v>
       </c>
       <c r="AF178" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG178" t="n">
         <v>13</v>
       </c>
       <c r="AH178" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI178" t="n">
         <v>34</v>
@@ -22117,19 +22117,19 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="H179" t="n">
         <v>3.1</v>
       </c>
       <c r="I179" t="n">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="J179" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K179" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="L179" t="n">
         <v>1.36</v>
@@ -22156,16 +22156,16 @@
         <v>1.73</v>
       </c>
       <c r="T179" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="U179" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="V179" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W179" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X179" t="n">
         <v>17</v>
@@ -22183,28 +22183,28 @@
         <v>17</v>
       </c>
       <c r="AC179" t="n">
+        <v>67</v>
+      </c>
+      <c r="AD179" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE179" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF179" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG179" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH179" t="n">
         <v>51</v>
-      </c>
-      <c r="AD179" t="n">
-        <v>900</v>
-      </c>
-      <c r="AE179" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF179" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG179" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH179" t="n">
-        <v>41</v>
       </c>
       <c r="AI179" t="n">
         <v>41</v>
       </c>
       <c r="AJ179" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="180">
@@ -22308,7 +22308,7 @@
         <v>67</v>
       </c>
       <c r="AD180" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="AE180" t="n">
         <v>12</v>
@@ -22361,13 +22361,13 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>2.35</v>
+        <v>2.55</v>
       </c>
       <c r="H181" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="I181" t="n">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="J181" t="n">
         <v>1.08</v>
@@ -22382,40 +22382,40 @@
         <v>2.75</v>
       </c>
       <c r="N181" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="O181" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="P181" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Q181" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="R181" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="S181" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="T181" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="U181" t="n">
+        <v>12</v>
+      </c>
+      <c r="V181" t="n">
         <v>11</v>
       </c>
-      <c r="V181" t="n">
-        <v>10</v>
-      </c>
       <c r="W181" t="n">
+        <v>26</v>
+      </c>
+      <c r="X181" t="n">
         <v>23</v>
       </c>
-      <c r="X181" t="n">
-        <v>21</v>
-      </c>
       <c r="Y181" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z181" t="n">
         <v>7</v>
@@ -22424,28 +22424,28 @@
         <v>6</v>
       </c>
       <c r="AB181" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC181" t="n">
         <v>51</v>
       </c>
       <c r="AD181" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="AE181" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AF181" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG181" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH181" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI181" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ181" t="n">
         <v>41</v>
@@ -22727,13 +22727,13 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="H184" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I184" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="J184" t="n">
         <v>1.07</v>
@@ -22742,16 +22742,16 @@
         <v>9</v>
       </c>
       <c r="L184" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="M184" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N184" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="O184" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="P184" t="n">
         <v>1.5</v>
@@ -22766,10 +22766,10 @@
         <v>1.8</v>
       </c>
       <c r="T184" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="U184" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="V184" t="n">
         <v>9.5</v>
@@ -22778,13 +22778,13 @@
         <v>21</v>
       </c>
       <c r="X184" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y184" t="n">
         <v>34</v>
       </c>
       <c r="Z184" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA184" t="n">
         <v>6</v>
@@ -22799,19 +22799,19 @@
         <v>351</v>
       </c>
       <c r="AE184" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF184" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG184" t="n">
         <v>12</v>
       </c>
       <c r="AH184" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI184" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ184" t="n">
         <v>41</v>
@@ -23093,13 +23093,13 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="H187" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="I187" t="n">
-        <v>3.9</v>
+        <v>3.25</v>
       </c>
       <c r="J187" t="n">
         <v>1.03</v>
@@ -23126,25 +23126,25 @@
         <v>3.4</v>
       </c>
       <c r="R187" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S187" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="T187" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="U187" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="V187" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W187" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="X187" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y187" t="n">
         <v>21</v>
@@ -23153,34 +23153,34 @@
         <v>15</v>
       </c>
       <c r="AA187" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB187" t="n">
         <v>12</v>
       </c>
       <c r="AC187" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AD187" t="n">
         <v>126</v>
       </c>
       <c r="AE187" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF187" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG187" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH187" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI187" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AJ187" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="188">
@@ -23215,13 +23215,13 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>2.8</v>
+        <v>2.63</v>
       </c>
       <c r="H188" t="n">
         <v>3.2</v>
       </c>
       <c r="I188" t="n">
-        <v>2.55</v>
+        <v>2.63</v>
       </c>
       <c r="J188" t="n">
         <v>1.04</v>
@@ -23230,28 +23230,28 @@
         <v>13</v>
       </c>
       <c r="L188" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M188" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N188" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="O188" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="P188" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q188" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R188" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S188" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="T188" t="n">
         <v>11</v>
@@ -23260,13 +23260,13 @@
         <v>15</v>
       </c>
       <c r="V188" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W188" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="X188" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y188" t="n">
         <v>26</v>
@@ -23275,28 +23275,28 @@
         <v>12</v>
       </c>
       <c r="AA188" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB188" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC188" t="n">
         <v>41</v>
       </c>
       <c r="AD188" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AE188" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF188" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG188" t="n">
         <v>10</v>
       </c>
       <c r="AH188" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AI188" t="n">
         <v>19</v>
@@ -24069,13 +24069,13 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="H195" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I195" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="J195" t="n">
         <v>1.03</v>
@@ -24096,16 +24096,16 @@
         <v>2.5</v>
       </c>
       <c r="P195" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="Q195" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="R195" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S195" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="T195" t="n">
         <v>17</v>
@@ -24141,19 +24141,19 @@
         <v>101</v>
       </c>
       <c r="AE195" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF195" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG195" t="n">
         <v>8.5</v>
       </c>
       <c r="AH195" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI195" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ195" t="n">
         <v>19</v>
@@ -24191,13 +24191,13 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="H196" t="n">
         <v>5</v>
       </c>
       <c r="I196" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="J196" t="n">
         <v>1.02</v>
@@ -24206,16 +24206,16 @@
         <v>21</v>
       </c>
       <c r="L196" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="M196" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="N196" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="O196" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="P196" t="n">
         <v>1.25</v>
@@ -24224,16 +24224,16 @@
         <v>3.75</v>
       </c>
       <c r="R196" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S196" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="T196" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="U196" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="V196" t="n">
         <v>8.5</v>
@@ -24248,7 +24248,7 @@
         <v>21</v>
       </c>
       <c r="Z196" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA196" t="n">
         <v>10</v>
@@ -24269,16 +24269,16 @@
         <v>34</v>
       </c>
       <c r="AG196" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH196" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AI196" t="n">
         <v>41</v>
       </c>
       <c r="AJ196" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="197">
@@ -24431,33 +24431,33 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
       <c r="H198" t="n">
-        <v>5.4</v>
+        <v>5.7</v>
       </c>
       <c r="I198" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="M198" t="n">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="N198" t="n">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="O198" t="n">
-        <v>1.88</v>
+        <v>1.98</v>
       </c>
       <c r="P198" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="Q198" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="R198" t="n">
         <v>2.6</v>
@@ -24466,16 +24466,16 @@
         <v>1.38</v>
       </c>
       <c r="T198" t="n">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="U198" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="V198" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="W198" t="n">
-        <v>6.1</v>
+        <v>5.9</v>
       </c>
       <c r="X198" t="n">
         <v>13</v>
@@ -24484,13 +24484,13 @@
         <v>50</v>
       </c>
       <c r="Z198" t="n">
-        <v>10.75</v>
+        <v>11.5</v>
       </c>
       <c r="AA198" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB198" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AC198" t="n">
         <v>300</v>
@@ -24499,19 +24499,19 @@
         <v>101</v>
       </c>
       <c r="AE198" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AF198" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AG198" t="n">
         <v>50</v>
       </c>
       <c r="AH198" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AI198" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AJ198" t="n">
         <v>250</v>
@@ -24549,87 +24549,87 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="H199" t="n">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
       <c r="I199" t="n">
-        <v>14.5</v>
+        <v>18</v>
       </c>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
       <c r="M199" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="N199" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="O199" t="n">
-        <v>1.98</v>
+        <v>2.12</v>
       </c>
       <c r="P199" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="Q199" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="R199" t="n">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="S199" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="T199" t="n">
-        <v>6.1</v>
+        <v>6.6</v>
       </c>
       <c r="U199" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="V199" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="W199" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="X199" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Y199" t="n">
         <v>40</v>
       </c>
       <c r="Z199" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AA199" t="n">
-        <v>11.75</v>
+        <v>12.5</v>
       </c>
       <c r="AB199" t="n">
         <v>35</v>
       </c>
       <c r="AC199" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AD199" t="n">
         <v>800</v>
       </c>
       <c r="AE199" t="n">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="AF199" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="AG199" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AH199" t="n">
         <v>700</v>
       </c>
       <c r="AI199" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AJ199" t="n">
         <v>200</v>
@@ -24688,10 +24688,10 @@
         <v>2.38</v>
       </c>
       <c r="N200" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="O200" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="P200" t="n">
         <v>1.62</v>
@@ -24792,7 +24792,7 @@
         <v>1.6</v>
       </c>
       <c r="H201" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I201" t="n">
         <v>5.5</v>
@@ -24816,10 +24816,10 @@
         <v>1.9</v>
       </c>
       <c r="P201" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="Q201" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="R201" t="n">
         <v>1.83</v>
@@ -24858,7 +24858,7 @@
         <v>51</v>
       </c>
       <c r="AD201" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AE201" t="n">
         <v>15</v>
@@ -24867,7 +24867,7 @@
         <v>29</v>
       </c>
       <c r="AG201" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH201" t="n">
         <v>51</v>
@@ -25054,10 +25054,10 @@
         <v>3.25</v>
       </c>
       <c r="N203" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="O203" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="P203" t="n">
         <v>1.44</v>
@@ -25361,7 +25361,7 @@
         <v>34</v>
       </c>
       <c r="AI205" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ205" t="n">
         <v>23</v>
@@ -25399,13 +25399,13 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="H206" t="n">
         <v>4.5</v>
       </c>
       <c r="I206" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="J206" t="n">
         <v>1.03</v>
@@ -25441,7 +25441,7 @@
         <v>8.5</v>
       </c>
       <c r="U206" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="V206" t="n">
         <v>8.5</v>
@@ -25465,7 +25465,7 @@
         <v>17</v>
       </c>
       <c r="AC206" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD206" t="n">
         <v>201</v>
@@ -25480,7 +25480,7 @@
         <v>21</v>
       </c>
       <c r="AH206" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AI206" t="n">
         <v>41</v>
@@ -25521,94 +25521,94 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="H207" t="n">
-        <v>3.2</v>
+        <v>3.45</v>
       </c>
       <c r="I207" t="n">
-        <v>4.3</v>
+        <v>3.7</v>
       </c>
       <c r="J207" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K207" t="n">
-        <v>7.4</v>
+        <v>7.7</v>
       </c>
       <c r="L207" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="M207" t="n">
         <v>3.45</v>
       </c>
       <c r="N207" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="O207" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="P207" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="Q207" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="R207" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="S207" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T207" t="n">
-        <v>7.8</v>
+        <v>7.5</v>
       </c>
       <c r="U207" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="V207" t="n">
-        <v>7.9</v>
+        <v>8.25</v>
       </c>
       <c r="W207" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="X207" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="Y207" t="n">
+        <v>25</v>
+      </c>
+      <c r="Z207" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AA207" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AB207" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC207" t="n">
+        <v>60</v>
+      </c>
+      <c r="AD207" t="n">
+        <v>450</v>
+      </c>
+      <c r="AE207" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF207" t="n">
         <v>22</v>
       </c>
-      <c r="Z207" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AA207" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AB207" t="n">
+      <c r="AG207" t="n">
         <v>12.5</v>
       </c>
-      <c r="AC207" t="n">
+      <c r="AH207" t="n">
         <v>55</v>
       </c>
-      <c r="AD207" t="n">
-        <v>350</v>
-      </c>
-      <c r="AE207" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF207" t="n">
-        <v>27</v>
-      </c>
-      <c r="AG207" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH207" t="n">
-        <v>80</v>
-      </c>
       <c r="AI207" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="AJ207" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="208">
@@ -25643,39 +25643,39 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="H208" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="I208" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="M208" t="n">
         <v>2.8</v>
       </c>
       <c r="N208" t="n">
-        <v>2.23</v>
+        <v>2.21</v>
       </c>
       <c r="O208" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="P208" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="Q208" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="R208" t="n">
-        <v>2.31</v>
+        <v>2.32</v>
       </c>
       <c r="S208" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="T208" t="n">
         <v>4.1</v>
@@ -25687,7 +25687,7 @@
         <v>7</v>
       </c>
       <c r="W208" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="X208" t="n">
         <v>12</v>
@@ -25696,13 +25696,13 @@
         <v>35</v>
       </c>
       <c r="Z208" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="AA208" t="n">
         <v>5.8</v>
       </c>
       <c r="AB208" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AC208" t="n">
         <v>101</v>
@@ -25711,13 +25711,13 @@
         <v>101</v>
       </c>
       <c r="AE208" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AF208" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AG208" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AH208" t="n">
         <v>101</v>

--- a/Jogos_da_Semana_FlashScore_2025-04-06.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-06.xlsx
@@ -1013,13 +1013,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="H5" t="n">
         <v>3.6</v>
       </c>
       <c r="I5" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="J5" t="n">
         <v>1.04</v>
@@ -1064,7 +1064,7 @@
         <v>41</v>
       </c>
       <c r="X5" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Y5" t="n">
         <v>29</v>
@@ -1091,7 +1091,7 @@
         <v>13</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH5" t="n">
         <v>21</v>
@@ -1272,13 +1272,13 @@
         <v>11</v>
       </c>
       <c r="L7" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M7" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N7" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="O7" t="n">
         <v>2</v>
@@ -1290,19 +1290,19 @@
         <v>3</v>
       </c>
       <c r="R7" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S7" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="T7" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="U7" t="n">
         <v>13</v>
       </c>
       <c r="V7" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W7" t="n">
         <v>23</v>
@@ -1314,13 +1314,13 @@
         <v>26</v>
       </c>
       <c r="Z7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA7" t="n">
         <v>6.5</v>
       </c>
       <c r="AB7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC7" t="n">
         <v>41</v>
@@ -1329,7 +1329,7 @@
         <v>151</v>
       </c>
       <c r="AE7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF7" t="n">
         <v>15</v>
@@ -1344,7 +1344,7 @@
         <v>21</v>
       </c>
       <c r="AJ7" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8">
@@ -1379,10 +1379,10 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="H8" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I8" t="n">
         <v>2.1</v>
@@ -1400,10 +1400,10 @@
         <v>3.75</v>
       </c>
       <c r="N8" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="O8" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="P8" t="n">
         <v>1.4</v>
@@ -1418,16 +1418,16 @@
         <v>2</v>
       </c>
       <c r="T8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="U8" t="n">
         <v>17</v>
       </c>
       <c r="V8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W8" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="X8" t="n">
         <v>26</v>
@@ -1439,13 +1439,13 @@
         <v>11</v>
       </c>
       <c r="AA8" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB8" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC8" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD8" t="n">
         <v>201</v>
@@ -1501,13 +1501,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="H9" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I9" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="J9" t="n">
         <v>1.04</v>
@@ -1534,16 +1534,16 @@
         <v>3.25</v>
       </c>
       <c r="R9" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S9" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="T9" t="n">
         <v>8.5</v>
       </c>
       <c r="U9" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="V9" t="n">
         <v>8.5</v>
@@ -1555,7 +1555,7 @@
         <v>13</v>
       </c>
       <c r="Y9" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Z9" t="n">
         <v>13</v>
@@ -1573,19 +1573,19 @@
         <v>151</v>
       </c>
       <c r="AE9" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF9" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH9" t="n">
         <v>41</v>
       </c>
       <c r="AI9" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ9" t="n">
         <v>34</v>
@@ -1623,7 +1623,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="H10" t="n">
         <v>4</v>
@@ -1632,10 +1632,10 @@
         <v>4.5</v>
       </c>
       <c r="J10" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K10" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L10" t="n">
         <v>1.22</v>
@@ -1656,10 +1656,10 @@
         <v>3.25</v>
       </c>
       <c r="R10" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S10" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="T10" t="n">
         <v>8.5</v>
@@ -1680,7 +1680,7 @@
         <v>21</v>
       </c>
       <c r="Z10" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA10" t="n">
         <v>7.5</v>
@@ -2111,31 +2111,31 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="H14" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="I14" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J14" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K14" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L14" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M14" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N14" t="n">
-        <v>1.87</v>
+        <v>1.73</v>
       </c>
       <c r="O14" t="n">
-        <v>2.03</v>
+        <v>2.1</v>
       </c>
       <c r="P14" t="n">
         <v>1.36</v>
@@ -2159,7 +2159,7 @@
         <v>8.5</v>
       </c>
       <c r="W14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X14" t="n">
         <v>13</v>
@@ -2168,10 +2168,10 @@
         <v>23</v>
       </c>
       <c r="Z14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA14" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB14" t="n">
         <v>15</v>
@@ -2180,16 +2180,16 @@
         <v>51</v>
       </c>
       <c r="AD14" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AE14" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF14" t="n">
         <v>26</v>
       </c>
       <c r="AG14" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH14" t="n">
         <v>51</v>
@@ -2233,13 +2233,13 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="H15" t="n">
         <v>3.1</v>
       </c>
       <c r="I15" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J15" t="n">
         <v>1.08</v>
@@ -2266,10 +2266,10 @@
         <v>2.5</v>
       </c>
       <c r="R15" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="S15" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="T15" t="n">
         <v>7.5</v>
@@ -2290,7 +2290,7 @@
         <v>34</v>
       </c>
       <c r="Z15" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AA15" t="n">
         <v>6</v>
@@ -2302,19 +2302,19 @@
         <v>51</v>
       </c>
       <c r="AD15" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AE15" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AF15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH15" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI15" t="n">
         <v>26</v>
@@ -2677,7 +2677,7 @@
         <v>8</v>
       </c>
       <c r="AG18" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH18" t="n">
         <v>17</v>
@@ -2721,13 +2721,13 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.38</v>
+        <v>2.45</v>
       </c>
       <c r="H19" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I19" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="J19" t="n">
         <v>1.05</v>
@@ -2736,22 +2736,22 @@
         <v>11</v>
       </c>
       <c r="L19" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M19" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N19" t="n">
-        <v>1.88</v>
+        <v>1.92</v>
       </c>
       <c r="O19" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="P19" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="Q19" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="R19" t="n">
         <v>1.67</v>
@@ -2784,7 +2784,7 @@
         <v>6.5</v>
       </c>
       <c r="AB19" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC19" t="n">
         <v>41</v>
@@ -2793,7 +2793,7 @@
         <v>151</v>
       </c>
       <c r="AE19" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF19" t="n">
         <v>15</v>
@@ -2805,7 +2805,7 @@
         <v>29</v>
       </c>
       <c r="AI19" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ19" t="n">
         <v>29</v>
@@ -2852,10 +2852,10 @@
         <v>3</v>
       </c>
       <c r="J20" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K20" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="L20" t="n">
         <v>1.5</v>
@@ -2965,19 +2965,19 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H21" t="n">
         <v>3.2</v>
       </c>
       <c r="I21" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="J21" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K21" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L21" t="n">
         <v>1.44</v>
@@ -2986,28 +2986,28 @@
         <v>2.63</v>
       </c>
       <c r="N21" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="O21" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P21" t="n">
         <v>1.53</v>
       </c>
-      <c r="P21" t="n">
-        <v>1.57</v>
-      </c>
       <c r="Q21" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="R21" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S21" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="T21" t="n">
         <v>6</v>
       </c>
       <c r="U21" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="V21" t="n">
         <v>9.5</v>
@@ -3019,25 +3019,25 @@
         <v>21</v>
       </c>
       <c r="Y21" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Z21" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AA21" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB21" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC21" t="n">
         <v>67</v>
       </c>
       <c r="AD21" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AE21" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AF21" t="n">
         <v>17</v>
@@ -3087,13 +3087,13 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="H22" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I22" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="J22" t="n">
         <v>1.07</v>
@@ -3126,7 +3126,7 @@
         <v>1.53</v>
       </c>
       <c r="T22" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="U22" t="n">
         <v>6</v>
@@ -3153,7 +3153,7 @@
         <v>23</v>
       </c>
       <c r="AC22" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AD22" t="n">
         <v>501</v>
@@ -3162,13 +3162,13 @@
         <v>15</v>
       </c>
       <c r="AF22" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG22" t="n">
         <v>23</v>
       </c>
       <c r="AH22" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AI22" t="n">
         <v>67</v>
@@ -3209,19 +3209,19 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="H23" t="n">
         <v>3.75</v>
       </c>
       <c r="I23" t="n">
-        <v>6.25</v>
+        <v>6</v>
       </c>
       <c r="J23" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K23" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L23" t="n">
         <v>1.33</v>
@@ -3230,10 +3230,10 @@
         <v>3.25</v>
       </c>
       <c r="N23" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="O23" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="P23" t="n">
         <v>1.44</v>
@@ -3242,16 +3242,16 @@
         <v>2.63</v>
       </c>
       <c r="R23" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S23" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="T23" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="U23" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="V23" t="n">
         <v>8.5</v>
@@ -3263,22 +3263,22 @@
         <v>15</v>
       </c>
       <c r="Y23" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z23" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AA23" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB23" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC23" t="n">
         <v>67</v>
       </c>
       <c r="AD23" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AE23" t="n">
         <v>13</v>
@@ -3331,13 +3331,13 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="H24" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I24" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="J24" t="n">
         <v>1.06</v>
@@ -3352,25 +3352,25 @@
         <v>3.4</v>
       </c>
       <c r="N24" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="O24" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="P24" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R24" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="S24" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="T24" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="U24" t="n">
         <v>7.5</v>
@@ -3382,13 +3382,13 @@
         <v>12</v>
       </c>
       <c r="X24" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y24" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z24" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA24" t="n">
         <v>7</v>
@@ -3400,7 +3400,7 @@
         <v>51</v>
       </c>
       <c r="AD24" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AE24" t="n">
         <v>13</v>
@@ -3474,16 +3474,16 @@
         <v>2</v>
       </c>
       <c r="N25" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="O25" t="n">
         <v>1.3</v>
       </c>
       <c r="P25" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="R25" t="n">
         <v>2.63</v>
@@ -3599,13 +3599,13 @@
         <v>3.6</v>
       </c>
       <c r="O26" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P26" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="Q26" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R26" t="n">
         <v>2.75</v>
@@ -3635,10 +3635,10 @@
         <v>4.5</v>
       </c>
       <c r="AA26" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB26" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC26" t="n">
         <v>126</v>
@@ -3662,7 +3662,7 @@
         <v>51</v>
       </c>
       <c r="AJ26" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27">
@@ -3721,7 +3721,7 @@
         <v>3.4</v>
       </c>
       <c r="O27" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P27" t="n">
         <v>1.75</v>
@@ -3819,37 +3819,37 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="H28" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I28" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="J28" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="K28" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="L28" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="M28" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="N28" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="O28" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="P28" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="R28" t="n">
         <v>2.63</v>
@@ -3861,13 +3861,13 @@
         <v>4.75</v>
       </c>
       <c r="U28" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="V28" t="n">
         <v>10</v>
       </c>
       <c r="W28" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X28" t="n">
         <v>21</v>
@@ -3876,7 +3876,7 @@
         <v>41</v>
       </c>
       <c r="Z28" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AA28" t="n">
         <v>7</v>
@@ -3891,16 +3891,16 @@
         <v>101</v>
       </c>
       <c r="AE28" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF28" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG28" t="n">
         <v>19</v>
       </c>
       <c r="AH28" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AI28" t="n">
         <v>51</v>
@@ -4087,7 +4087,7 @@
         <v>3.4</v>
       </c>
       <c r="O30" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P30" t="n">
         <v>1.73</v>
@@ -4307,22 +4307,22 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="H32" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="I32" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="J32" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K32" t="n">
         <v>21</v>
       </c>
       <c r="L32" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="M32" t="n">
         <v>6</v>
@@ -4334,10 +4334,10 @@
         <v>2.7</v>
       </c>
       <c r="P32" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="Q32" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="R32" t="n">
         <v>1.73</v>
@@ -4346,7 +4346,7 @@
         <v>2</v>
       </c>
       <c r="T32" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="U32" t="n">
         <v>41</v>
@@ -4364,7 +4364,7 @@
         <v>41</v>
       </c>
       <c r="Z32" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA32" t="n">
         <v>11</v>
@@ -4379,19 +4379,19 @@
         <v>201</v>
       </c>
       <c r="AE32" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG32" t="n">
         <v>9</v>
       </c>
-      <c r="AF32" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AG32" t="n">
-        <v>8.5</v>
-      </c>
       <c r="AH32" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AI32" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ32" t="n">
         <v>21</v>
@@ -4438,13 +4438,13 @@
         <v>4.75</v>
       </c>
       <c r="J33" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K33" t="n">
         <v>15</v>
       </c>
       <c r="L33" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
@@ -4551,22 +4551,22 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="H34" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I34" t="n">
-        <v>5.75</v>
+        <v>6.25</v>
       </c>
       <c r="J34" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K34" t="n">
         <v>15</v>
       </c>
       <c r="L34" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
@@ -4590,10 +4590,10 @@
         <v>2.1</v>
       </c>
       <c r="T34" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="U34" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="V34" t="n">
         <v>8.5</v>
@@ -4602,7 +4602,7 @@
         <v>11</v>
       </c>
       <c r="X34" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y34" t="n">
         <v>21</v>
@@ -4611,7 +4611,7 @@
         <v>15</v>
       </c>
       <c r="AA34" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB34" t="n">
         <v>15</v>
@@ -4623,7 +4623,7 @@
         <v>151</v>
       </c>
       <c r="AE34" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF34" t="n">
         <v>34</v>
@@ -4682,16 +4682,16 @@
         <v>4.5</v>
       </c>
       <c r="J35" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="K35" t="n">
         <v>5.5</v>
       </c>
       <c r="L35" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="M35" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="N35" t="n">
         <v>2.88</v>
@@ -4712,7 +4712,7 @@
         <v>1.5</v>
       </c>
       <c r="T35" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="U35" t="n">
         <v>7.5</v>
@@ -4816,10 +4816,10 @@
         <v>2.75</v>
       </c>
       <c r="N36" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="O36" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="P36" t="n">
         <v>1.5</v>
@@ -4938,10 +4938,10 @@
         <v>3.2</v>
       </c>
       <c r="N37" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="O37" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="P37" t="n">
         <v>1.44</v>
@@ -5060,10 +5060,10 @@
         <v>2.75</v>
       </c>
       <c r="N38" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="O38" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="P38" t="n">
         <v>1.5</v>
@@ -5072,10 +5072,10 @@
         <v>2.5</v>
       </c>
       <c r="R38" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S38" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T38" t="n">
         <v>6.5</v>
@@ -5111,7 +5111,7 @@
         <v>401</v>
       </c>
       <c r="AE38" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AF38" t="n">
         <v>15</v>
@@ -5286,46 +5286,46 @@
         <v>4.75</v>
       </c>
       <c r="H40" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="I40" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="J40" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K40" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L40" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="M40" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="N40" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="O40" t="n">
-        <v>1.65</v>
+        <v>1.53</v>
       </c>
       <c r="P40" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="R40" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S40" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="T40" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U40" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="V40" t="n">
         <v>17</v>
@@ -5340,7 +5340,7 @@
         <v>51</v>
       </c>
       <c r="Z40" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AA40" t="n">
         <v>6.5</v>
@@ -5352,10 +5352,10 @@
         <v>67</v>
       </c>
       <c r="AD40" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AE40" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AF40" t="n">
         <v>7.5</v>
@@ -5364,7 +5364,7 @@
         <v>9</v>
       </c>
       <c r="AH40" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AI40" t="n">
         <v>17</v>
@@ -5408,46 +5408,46 @@
         <v>2.2</v>
       </c>
       <c r="H41" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I41" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J41" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K41" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L41" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="M41" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N41" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="O41" t="n">
-        <v>1.65</v>
+        <v>1.53</v>
       </c>
       <c r="P41" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="R41" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S41" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T41" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="U41" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="V41" t="n">
         <v>9.5</v>
@@ -5456,28 +5456,28 @@
         <v>21</v>
       </c>
       <c r="X41" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y41" t="n">
         <v>34</v>
       </c>
       <c r="Z41" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AA41" t="n">
         <v>6</v>
       </c>
       <c r="AB41" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC41" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD41" t="n">
-        <v>351</v>
+        <v>451</v>
       </c>
       <c r="AE41" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF41" t="n">
         <v>17</v>
@@ -5489,7 +5489,7 @@
         <v>41</v>
       </c>
       <c r="AI41" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ41" t="n">
         <v>41</v>
@@ -5649,13 +5649,13 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H43" t="n">
         <v>3.1</v>
       </c>
       <c r="I43" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J43" t="n">
         <v>1.07</v>
@@ -5670,10 +5670,10 @@
         <v>3</v>
       </c>
       <c r="N43" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O43" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="P43" t="n">
         <v>1.5</v>
@@ -5730,7 +5730,7 @@
         <v>13</v>
       </c>
       <c r="AH43" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI43" t="n">
         <v>29</v>
@@ -7357,19 +7357,19 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="H57" t="n">
         <v>3.1</v>
       </c>
       <c r="I57" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="J57" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K57" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L57" t="n">
         <v>1.44</v>
@@ -7408,7 +7408,7 @@
         <v>26</v>
       </c>
       <c r="X57" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y57" t="n">
         <v>41</v>
@@ -7432,7 +7432,7 @@
         <v>7.5</v>
       </c>
       <c r="AF57" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG57" t="n">
         <v>11</v>
@@ -7601,19 +7601,19 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="H59" t="n">
         <v>3.2</v>
       </c>
       <c r="I59" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="J59" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K59" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L59" t="n">
         <v>1.33</v>
@@ -7640,19 +7640,19 @@
         <v>1.91</v>
       </c>
       <c r="T59" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="U59" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V59" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W59" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X59" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y59" t="n">
         <v>29</v>
@@ -7676,16 +7676,16 @@
         <v>9</v>
       </c>
       <c r="AF59" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG59" t="n">
         <v>11</v>
       </c>
       <c r="AH59" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI59" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ59" t="n">
         <v>34</v>
@@ -8333,19 +8333,19 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2.15</v>
+        <v>1.9</v>
       </c>
       <c r="H65" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="I65" t="n">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="J65" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K65" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L65" t="n">
         <v>1.29</v>
@@ -8354,10 +8354,10 @@
         <v>3.5</v>
       </c>
       <c r="N65" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="O65" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="P65" t="n">
         <v>1.4</v>
@@ -8366,25 +8366,25 @@
         <v>2.75</v>
       </c>
       <c r="R65" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="S65" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="T65" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="U65" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="V65" t="n">
         <v>9</v>
       </c>
       <c r="W65" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="X65" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y65" t="n">
         <v>26</v>
@@ -8393,34 +8393,34 @@
         <v>9.5</v>
       </c>
       <c r="AA65" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB65" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC65" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD65" t="n">
+        <v>251</v>
+      </c>
+      <c r="AE65" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF65" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG65" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH65" t="n">
         <v>41</v>
       </c>
-      <c r="AD65" t="n">
-        <v>201</v>
-      </c>
-      <c r="AE65" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF65" t="n">
-        <v>17</v>
-      </c>
-      <c r="AG65" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH65" t="n">
+      <c r="AI65" t="n">
         <v>34</v>
       </c>
-      <c r="AI65" t="n">
-        <v>29</v>
-      </c>
       <c r="AJ65" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="66">
@@ -8639,22 +8639,22 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="H68" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I68" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="J68" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="K68" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L68" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M68" t="n">
         <v>3.25</v>
@@ -8681,7 +8681,7 @@
         <v>6</v>
       </c>
       <c r="U68" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="V68" t="n">
         <v>8.5</v>
@@ -8693,13 +8693,13 @@
         <v>15</v>
       </c>
       <c r="Y68" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z68" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AA68" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB68" t="n">
         <v>21</v>
@@ -8717,13 +8717,13 @@
         <v>29</v>
       </c>
       <c r="AG68" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH68" t="n">
         <v>67</v>
       </c>
       <c r="AI68" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AJ68" t="n">
         <v>51</v>
@@ -9026,10 +9026,10 @@
         <v>3.5</v>
       </c>
       <c r="N71" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="O71" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="P71" t="n">
         <v>1.4</v>
@@ -9860,10 +9860,10 @@
         <v>5</v>
       </c>
       <c r="N78" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="O78" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="P78" t="n">
         <v>1.29</v>
@@ -9881,7 +9881,7 @@
         <v>8.5</v>
       </c>
       <c r="U78" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="V78" t="n">
         <v>9</v>
@@ -9896,10 +9896,10 @@
         <v>23</v>
       </c>
       <c r="Z78" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA78" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB78" t="n">
         <v>19</v>
@@ -9908,7 +9908,7 @@
         <v>51</v>
       </c>
       <c r="AD78" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AE78" t="n">
         <v>23</v>
@@ -10079,13 +10079,13 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>2.92</v>
+        <v>2.72</v>
       </c>
       <c r="H80" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I80" t="n">
-        <v>2.07</v>
+        <v>2.22</v>
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
@@ -10093,7 +10093,7 @@
         <v>1.1</v>
       </c>
       <c r="M80" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="N80" t="n">
         <v>1.32</v>
@@ -10105,61 +10105,61 @@
         <v>1.21</v>
       </c>
       <c r="Q80" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="R80" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="S80" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="T80" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U80" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="V80" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="W80" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="X80" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Y80" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z80" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA80" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AB80" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC80" t="n">
+        <v>23</v>
+      </c>
+      <c r="AD80" t="n">
+        <v>90</v>
+      </c>
+      <c r="AE80" t="n">
         <v>18.5</v>
       </c>
-      <c r="Z80" t="n">
-        <v>30</v>
-      </c>
-      <c r="AA80" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AB80" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC80" t="n">
-        <v>24</v>
-      </c>
-      <c r="AD80" t="n">
-        <v>100</v>
-      </c>
-      <c r="AE80" t="n">
-        <v>17</v>
-      </c>
       <c r="AF80" t="n">
-        <v>17</v>
+        <v>19.5</v>
       </c>
       <c r="AG80" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AH80" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AI80" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AJ80" t="n">
         <v>15</v>
@@ -10197,49 +10197,49 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>2.57</v>
+        <v>2.52</v>
       </c>
       <c r="H81" t="n">
         <v>3.5</v>
       </c>
       <c r="I81" t="n">
-        <v>2.47</v>
+        <v>2.52</v>
       </c>
       <c r="J81" t="n">
         <v>1.03</v>
       </c>
       <c r="K81" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="L81" t="n">
         <v>1.16</v>
       </c>
       <c r="M81" t="n">
-        <v>4.65</v>
+        <v>4.55</v>
       </c>
       <c r="N81" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="O81" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="P81" t="n">
         <v>1.28</v>
       </c>
       <c r="Q81" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="R81" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="S81" t="n">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="T81" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="U81" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="V81" t="n">
         <v>9.75</v>
@@ -10248,19 +10248,19 @@
         <v>32</v>
       </c>
       <c r="X81" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="Y81" t="n">
         <v>19</v>
       </c>
       <c r="Z81" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AA81" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="AB81" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AC81" t="n">
         <v>30</v>
@@ -10269,7 +10269,7 @@
         <v>150</v>
       </c>
       <c r="AE81" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AF81" t="n">
         <v>16</v>
@@ -10278,13 +10278,13 @@
         <v>9.5</v>
       </c>
       <c r="AH81" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AI81" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AJ81" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="82">
@@ -10433,13 +10433,13 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="H83" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I83" t="n">
-        <v>5.25</v>
+        <v>5.75</v>
       </c>
       <c r="J83" t="n">
         <v>1.04</v>
@@ -10466,10 +10466,10 @@
         <v>3.25</v>
       </c>
       <c r="R83" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S83" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="T83" t="n">
         <v>7.5</v>
@@ -10481,7 +10481,7 @@
         <v>8.5</v>
       </c>
       <c r="W83" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X83" t="n">
         <v>12</v>
@@ -10493,7 +10493,7 @@
         <v>13</v>
       </c>
       <c r="AA83" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB83" t="n">
         <v>17</v>
@@ -10555,19 +10555,19 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="H84" t="n">
         <v>3.1</v>
       </c>
       <c r="I84" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="J84" t="n">
         <v>1.07</v>
       </c>
       <c r="K84" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L84" t="n">
         <v>1.36</v>
@@ -10576,10 +10576,10 @@
         <v>3</v>
       </c>
       <c r="N84" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="O84" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="P84" t="n">
         <v>1.44</v>
@@ -10594,16 +10594,16 @@
         <v>1.83</v>
       </c>
       <c r="T84" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="U84" t="n">
         <v>17</v>
       </c>
       <c r="V84" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="W84" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="X84" t="n">
         <v>29</v>
@@ -10630,13 +10630,13 @@
         <v>7</v>
       </c>
       <c r="AF84" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG84" t="n">
         <v>9.5</v>
       </c>
-      <c r="AG84" t="n">
-        <v>9</v>
-      </c>
       <c r="AH84" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI84" t="n">
         <v>19</v>
@@ -10921,49 +10921,49 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="H87" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I87" t="n">
         <v>4.5</v>
       </c>
       <c r="J87" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K87" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L87" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M87" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N87" t="n">
-        <v>1.93</v>
+        <v>2.05</v>
       </c>
       <c r="O87" t="n">
-        <v>1.93</v>
+        <v>1.75</v>
       </c>
       <c r="P87" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Q87" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="R87" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S87" t="n">
         <v>1.8</v>
       </c>
-      <c r="S87" t="n">
-        <v>1.95</v>
-      </c>
       <c r="T87" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="U87" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="V87" t="n">
         <v>8.5</v>
@@ -10975,25 +10975,25 @@
         <v>15</v>
       </c>
       <c r="Y87" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z87" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AA87" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB87" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC87" t="n">
         <v>51</v>
       </c>
       <c r="AD87" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AE87" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF87" t="n">
         <v>23</v>
@@ -11005,7 +11005,7 @@
         <v>51</v>
       </c>
       <c r="AI87" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ87" t="n">
         <v>41</v>
@@ -11165,7 +11165,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="H89" t="n">
         <v>3.25</v>
@@ -11186,10 +11186,10 @@
         <v>3.2</v>
       </c>
       <c r="N89" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="O89" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="P89" t="n">
         <v>1.42</v>
@@ -11198,13 +11198,13 @@
         <v>2.65</v>
       </c>
       <c r="R89" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="S89" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T89" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="U89" t="n">
         <v>21</v>
@@ -11213,10 +11213,10 @@
         <v>12.5</v>
       </c>
       <c r="W89" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="X89" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Y89" t="n">
         <v>37</v>
@@ -11228,31 +11228,31 @@
         <v>6.4</v>
       </c>
       <c r="AB89" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AC89" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AD89" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AE89" t="n">
-        <v>7.3</v>
+        <v>7.1</v>
       </c>
       <c r="AF89" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AG89" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AH89" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AI89" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AJ89" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="90">
@@ -11287,31 +11287,31 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="H90" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="I90" t="n">
-        <v>4.35</v>
+        <v>4</v>
       </c>
       <c r="J90" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="K90" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="L90" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="M90" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="N90" t="n">
-        <v>2.67</v>
+        <v>2.72</v>
       </c>
       <c r="O90" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="P90" t="n">
         <v>1.62</v>
@@ -11320,37 +11320,37 @@
         <v>2.15</v>
       </c>
       <c r="R90" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="S90" t="n">
         <v>1.5</v>
       </c>
       <c r="T90" t="n">
-        <v>4.8</v>
+        <v>4.85</v>
       </c>
       <c r="U90" t="n">
-        <v>6.9</v>
+        <v>7.4</v>
       </c>
       <c r="V90" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="W90" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="X90" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Y90" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="Z90" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="AA90" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AB90" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AC90" t="n">
         <v>200</v>
@@ -11359,19 +11359,19 @@
         <v>101</v>
       </c>
       <c r="AE90" t="n">
-        <v>8.5</v>
+        <v>7.9</v>
       </c>
       <c r="AF90" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="AG90" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AH90" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AI90" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ90" t="n">
         <v>90</v>
@@ -11409,19 +11409,19 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>2.82</v>
+        <v>3.2</v>
       </c>
       <c r="H91" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="I91" t="n">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="J91" t="n">
         <v>1.1</v>
       </c>
       <c r="K91" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="L91" t="n">
         <v>1.5</v>
@@ -11439,37 +11439,37 @@
         <v>1.53</v>
       </c>
       <c r="Q91" t="n">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="R91" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="S91" t="n">
         <v>1.65</v>
       </c>
       <c r="T91" t="n">
-        <v>6.9</v>
+        <v>7.5</v>
       </c>
       <c r="U91" t="n">
+        <v>15</v>
+      </c>
+      <c r="V91" t="n">
         <v>12.5</v>
       </c>
-      <c r="V91" t="n">
-        <v>11.25</v>
-      </c>
       <c r="W91" t="n">
+        <v>45</v>
+      </c>
+      <c r="X91" t="n">
         <v>35</v>
       </c>
-      <c r="X91" t="n">
-        <v>30</v>
-      </c>
       <c r="Y91" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="Z91" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="AA91" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="AB91" t="n">
         <v>19</v>
@@ -11481,19 +11481,19 @@
         <v>101</v>
       </c>
       <c r="AE91" t="n">
-        <v>6.2</v>
+        <v>5.8</v>
       </c>
       <c r="AF91" t="n">
-        <v>10.25</v>
+        <v>9</v>
       </c>
       <c r="AG91" t="n">
-        <v>10.25</v>
+        <v>9.5</v>
       </c>
       <c r="AH91" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AI91" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AJ91" t="n">
         <v>45</v>
@@ -12141,94 +12141,94 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1.98</v>
+        <v>2.07</v>
       </c>
       <c r="H97" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I97" t="n">
-        <v>3.45</v>
+        <v>3.2</v>
       </c>
       <c r="J97" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K97" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="L97" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="M97" t="n">
-        <v>2.87</v>
+        <v>2.92</v>
       </c>
       <c r="N97" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="O97" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="P97" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="Q97" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="R97" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="S97" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="T97" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="U97" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="V97" t="n">
         <v>9</v>
       </c>
-      <c r="V97" t="n">
-        <v>8.75</v>
-      </c>
       <c r="W97" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="X97" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Y97" t="n">
         <v>32</v>
       </c>
       <c r="Z97" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AA97" t="n">
         <v>6.4</v>
       </c>
       <c r="AB97" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AC97" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AD97" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="AE97" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AF97" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="AG97" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AH97" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AI97" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AJ97" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="98">
@@ -12263,13 +12263,13 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>2.72</v>
+        <v>3</v>
       </c>
       <c r="H98" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="I98" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="J98" t="n">
         <v>1.09</v>
@@ -12284,7 +12284,7 @@
         <v>2.62</v>
       </c>
       <c r="N98" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="O98" t="n">
         <v>1.57</v>
@@ -12296,37 +12296,37 @@
         <v>2.35</v>
       </c>
       <c r="R98" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="S98" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="T98" t="n">
-        <v>7.3</v>
+        <v>7.9</v>
       </c>
       <c r="U98" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="V98" t="n">
-        <v>10.5</v>
+        <v>11.25</v>
       </c>
       <c r="W98" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="X98" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Y98" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="Z98" t="n">
         <v>6</v>
       </c>
       <c r="AA98" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AB98" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AC98" t="n">
         <v>90</v>
@@ -12335,22 +12335,22 @@
         <v>900</v>
       </c>
       <c r="AE98" t="n">
-        <v>6.9</v>
+        <v>6.4</v>
       </c>
       <c r="AF98" t="n">
-        <v>11.5</v>
+        <v>10.25</v>
       </c>
       <c r="AG98" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH98" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AI98" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AJ98" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="99">
@@ -13975,7 +13975,7 @@
         <v>1.01</v>
       </c>
       <c r="K112" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="L112" t="n">
         <v>1.06</v>
@@ -13984,10 +13984,10 @@
         <v>10</v>
       </c>
       <c r="N112" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="O112" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P112" t="n">
         <v>1.14</v>
@@ -14202,10 +14202,10 @@
         <v>1.93</v>
       </c>
       <c r="H114" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I114" t="n">
         <v>3.4</v>
-      </c>
-      <c r="I114" t="n">
-        <v>3.65</v>
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
@@ -14224,58 +14224,58 @@
       <c r="P114" t="inlineStr"/>
       <c r="Q114" t="inlineStr"/>
       <c r="R114" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="S114" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="T114" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="U114" t="n">
         <v>9.5</v>
       </c>
       <c r="V114" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="W114" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="X114" t="n">
         <v>15</v>
       </c>
       <c r="Y114" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Z114" t="n">
-        <v>10.75</v>
+        <v>11.25</v>
       </c>
       <c r="AA114" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="AB114" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AC114" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AD114" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="AE114" t="n">
-        <v>11.75</v>
+        <v>11</v>
       </c>
       <c r="AF114" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="AG114" t="n">
         <v>12</v>
       </c>
       <c r="AH114" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="AI114" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AJ114" t="n">
         <v>35</v>
@@ -14435,31 +14435,31 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="H116" t="n">
         <v>3.6</v>
       </c>
       <c r="I116" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="J116" t="n">
         <v>1.04</v>
       </c>
       <c r="K116" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L116" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M116" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N116" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="O116" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="P116" t="n">
         <v>1.36</v>
@@ -14477,10 +14477,10 @@
         <v>12</v>
       </c>
       <c r="U116" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="V116" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="W116" t="n">
         <v>41</v>
@@ -14504,10 +14504,10 @@
         <v>41</v>
       </c>
       <c r="AD116" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AE116" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AF116" t="n">
         <v>10</v>
@@ -14569,19 +14569,19 @@
         <v>1.06</v>
       </c>
       <c r="K117" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="L117" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M117" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="N117" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="O117" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="P117" t="n">
         <v>1.44</v>
@@ -14801,13 +14801,13 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H119" t="n">
         <v>3.5</v>
       </c>
       <c r="I119" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J119" t="n">
         <v>1.04</v>
@@ -14828,25 +14828,25 @@
         <v>2.15</v>
       </c>
       <c r="P119" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="Q119" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="R119" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="S119" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="T119" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U119" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V119" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W119" t="n">
         <v>21</v>
@@ -14858,22 +14858,22 @@
         <v>21</v>
       </c>
       <c r="Z119" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA119" t="n">
         <v>7</v>
       </c>
       <c r="AB119" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC119" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AD119" t="n">
         <v>126</v>
       </c>
       <c r="AE119" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF119" t="n">
         <v>17</v>
@@ -14885,7 +14885,7 @@
         <v>34</v>
       </c>
       <c r="AI119" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ119" t="n">
         <v>26</v>
@@ -14935,7 +14935,7 @@
         <v>1.04</v>
       </c>
       <c r="K120" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L120" t="n">
         <v>1.25</v>
@@ -14944,10 +14944,10 @@
         <v>3.75</v>
       </c>
       <c r="N120" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="O120" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="P120" t="n">
         <v>1.36</v>
@@ -14980,7 +14980,7 @@
         <v>23</v>
       </c>
       <c r="Z120" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA120" t="n">
         <v>7</v>
@@ -15045,13 +15045,13 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="H121" t="n">
         <v>3.6</v>
       </c>
       <c r="I121" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="J121" t="n">
         <v>1.03</v>
@@ -15093,7 +15093,7 @@
         <v>10</v>
       </c>
       <c r="W121" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="X121" t="n">
         <v>17</v>
@@ -15167,19 +15167,19 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="H122" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I122" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="J122" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K122" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L122" t="n">
         <v>1.5</v>
@@ -15194,10 +15194,10 @@
         <v>1.5</v>
       </c>
       <c r="P122" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="Q122" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="R122" t="n">
         <v>2.1</v>
@@ -15206,16 +15206,16 @@
         <v>1.67</v>
       </c>
       <c r="T122" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="U122" t="n">
         <v>13</v>
       </c>
       <c r="V122" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W122" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="X122" t="n">
         <v>29</v>
@@ -15227,7 +15227,7 @@
         <v>7</v>
       </c>
       <c r="AA122" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB122" t="n">
         <v>19</v>
@@ -15242,7 +15242,7 @@
         <v>6.5</v>
       </c>
       <c r="AF122" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG122" t="n">
         <v>10</v>
@@ -15411,13 +15411,13 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="H124" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="I124" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="J124" t="n">
         <v>1.03</v>
@@ -15444,28 +15444,28 @@
         <v>3.25</v>
       </c>
       <c r="R124" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="S124" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="T124" t="n">
         <v>6.5</v>
       </c>
       <c r="U124" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="V124" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W124" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X124" t="n">
         <v>12</v>
       </c>
       <c r="Y124" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z124" t="n">
         <v>12</v>
@@ -15474,7 +15474,7 @@
         <v>11</v>
       </c>
       <c r="AB124" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC124" t="n">
         <v>81</v>
@@ -15486,16 +15486,16 @@
         <v>21</v>
       </c>
       <c r="AF124" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG124" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AH124" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AI124" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AJ124" t="n">
         <v>67</v>
@@ -15545,7 +15545,7 @@
         <v>1.04</v>
       </c>
       <c r="K125" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L125" t="n">
         <v>1.22</v>
@@ -15554,10 +15554,10 @@
         <v>4</v>
       </c>
       <c r="N125" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="O125" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="P125" t="n">
         <v>1.33</v>
@@ -15655,19 +15655,19 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="H126" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I126" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="J126" t="n">
         <v>1.04</v>
       </c>
       <c r="K126" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L126" t="n">
         <v>1.29</v>
@@ -15676,7 +15676,7 @@
         <v>3.5</v>
       </c>
       <c r="N126" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="O126" t="n">
         <v>1.95</v>
@@ -15694,19 +15694,19 @@
         <v>2</v>
       </c>
       <c r="T126" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="U126" t="n">
         <v>15</v>
       </c>
       <c r="V126" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W126" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="X126" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y126" t="n">
         <v>29</v>
@@ -15724,22 +15724,22 @@
         <v>51</v>
       </c>
       <c r="AD126" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AE126" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AF126" t="n">
         <v>11</v>
       </c>
       <c r="AG126" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AH126" t="n">
         <v>21</v>
       </c>
       <c r="AI126" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ126" t="n">
         <v>26</v>
@@ -16753,19 +16753,19 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H135" t="n">
         <v>3.2</v>
       </c>
       <c r="I135" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="J135" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K135" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L135" t="n">
         <v>1.33</v>
@@ -16774,10 +16774,10 @@
         <v>3.25</v>
       </c>
       <c r="N135" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="O135" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="P135" t="n">
         <v>1.44</v>
@@ -16786,22 +16786,22 @@
         <v>2.63</v>
       </c>
       <c r="R135" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="S135" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="T135" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="U135" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="V135" t="n">
         <v>9</v>
       </c>
       <c r="W135" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="X135" t="n">
         <v>17</v>
@@ -16810,7 +16810,7 @@
         <v>29</v>
       </c>
       <c r="Z135" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA135" t="n">
         <v>6</v>
@@ -16828,7 +16828,7 @@
         <v>10</v>
       </c>
       <c r="AF135" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AG135" t="n">
         <v>13</v>
@@ -16837,7 +16837,7 @@
         <v>41</v>
       </c>
       <c r="AI135" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ135" t="n">
         <v>41</v>
@@ -16875,13 +16875,13 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H136" t="n">
         <v>3.3</v>
       </c>
       <c r="I136" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="J136" t="n">
         <v>1.05</v>
@@ -16896,10 +16896,10 @@
         <v>3.5</v>
       </c>
       <c r="N136" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="O136" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="P136" t="n">
         <v>1.4</v>
@@ -16917,16 +16917,16 @@
         <v>10</v>
       </c>
       <c r="U136" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="V136" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="W136" t="n">
         <v>34</v>
       </c>
       <c r="X136" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y136" t="n">
         <v>34</v>
@@ -16935,7 +16935,7 @@
         <v>10</v>
       </c>
       <c r="AA136" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB136" t="n">
         <v>13</v>
@@ -16947,13 +16947,13 @@
         <v>201</v>
       </c>
       <c r="AE136" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AF136" t="n">
         <v>11</v>
       </c>
       <c r="AG136" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AH136" t="n">
         <v>21</v>
@@ -17485,13 +17485,13 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="H141" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I141" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="J141" t="n">
         <v>1.05</v>
@@ -17527,7 +17527,7 @@
         <v>7</v>
       </c>
       <c r="U141" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="V141" t="n">
         <v>9</v>
@@ -17560,7 +17560,7 @@
         <v>10</v>
       </c>
       <c r="AF141" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AG141" t="n">
         <v>12</v>
@@ -17572,7 +17572,7 @@
         <v>29</v>
       </c>
       <c r="AJ141" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="142">
@@ -17729,7 +17729,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H143" t="n">
         <v>2.9</v>
@@ -17738,10 +17738,10 @@
         <v>3.25</v>
       </c>
       <c r="J143" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K143" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L143" t="n">
         <v>1.4</v>
@@ -17762,10 +17762,10 @@
         <v>2.38</v>
       </c>
       <c r="R143" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="S143" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="T143" t="n">
         <v>6.5</v>
@@ -17792,7 +17792,7 @@
         <v>6</v>
       </c>
       <c r="AB143" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC143" t="n">
         <v>51</v>
@@ -17973,46 +17973,46 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>2.88</v>
+        <v>2.6</v>
       </c>
       <c r="H145" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I145" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="J145" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K145" t="n">
+        <v>9</v>
+      </c>
+      <c r="L145" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M145" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="N145" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="O145" t="n">
+        <v>2</v>
+      </c>
+      <c r="P145" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Q145" t="n">
+        <v>3</v>
+      </c>
+      <c r="R145" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S145" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="T145" t="n">
         <v>10</v>
-      </c>
-      <c r="L145" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="M145" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="N145" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="O145" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="P145" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="Q145" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="R145" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S145" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="T145" t="n">
-        <v>9.5</v>
       </c>
       <c r="U145" t="n">
         <v>15</v>
@@ -18021,46 +18021,46 @@
         <v>11</v>
       </c>
       <c r="W145" t="n">
+        <v>26</v>
+      </c>
+      <c r="X145" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y145" t="n">
         <v>29</v>
       </c>
-      <c r="X145" t="n">
+      <c r="Z145" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA145" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB145" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC145" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD145" t="n">
+        <v>151</v>
+      </c>
+      <c r="AE145" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AF145" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG145" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH145" t="n">
         <v>23</v>
-      </c>
-      <c r="Y145" t="n">
-        <v>34</v>
-      </c>
-      <c r="Z145" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA145" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AB145" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC145" t="n">
-        <v>51</v>
-      </c>
-      <c r="AD145" t="n">
-        <v>450</v>
-      </c>
-      <c r="AE145" t="n">
-        <v>8</v>
-      </c>
-      <c r="AF145" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG145" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AH145" t="n">
-        <v>21</v>
       </c>
       <c r="AI145" t="n">
         <v>19</v>
       </c>
       <c r="AJ145" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="146">
@@ -18095,13 +18095,13 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="H146" t="n">
-        <v>4.33</v>
+        <v>4.1</v>
       </c>
       <c r="I146" t="n">
-        <v>1.45</v>
+        <v>1.53</v>
       </c>
       <c r="J146" t="n">
         <v>1.02</v>
@@ -18128,34 +18128,34 @@
         <v>3.75</v>
       </c>
       <c r="R146" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S146" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="T146" t="n">
         <v>21</v>
       </c>
       <c r="U146" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="V146" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="W146" t="n">
         <v>51</v>
       </c>
       <c r="X146" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Y146" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Z146" t="n">
         <v>19</v>
       </c>
       <c r="AA146" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB146" t="n">
         <v>15</v>
@@ -18164,22 +18164,22 @@
         <v>41</v>
       </c>
       <c r="AD146" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AE146" t="n">
         <v>10</v>
       </c>
       <c r="AF146" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AG146" t="n">
         <v>9</v>
       </c>
-      <c r="AG146" t="n">
-        <v>8.5</v>
-      </c>
       <c r="AH146" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI146" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ146" t="n">
         <v>21</v>
@@ -18583,27 +18583,27 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>1.12</v>
+        <v>1.17</v>
       </c>
       <c r="H150" t="n">
         <v>6.8</v>
       </c>
       <c r="I150" t="n">
-        <v>16</v>
+        <v>10.5</v>
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="M150" t="n">
-        <v>7.7</v>
+        <v>7.4</v>
       </c>
       <c r="N150" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="O150" t="n">
-        <v>4.15</v>
+        <v>4</v>
       </c>
       <c r="P150" t="n">
         <v>1.14</v>
@@ -18612,37 +18612,37 @@
         <v>4.85</v>
       </c>
       <c r="R150" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="S150" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="T150" t="n">
         <v>17</v>
       </c>
       <c r="U150" t="n">
-        <v>10.25</v>
+        <v>10.75</v>
       </c>
       <c r="V150" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="W150" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="X150" t="n">
         <v>10</v>
       </c>
       <c r="Y150" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z150" t="n">
         <v>40</v>
       </c>
       <c r="AA150" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="AB150" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AC150" t="n">
         <v>60</v>
@@ -18651,22 +18651,22 @@
         <v>250</v>
       </c>
       <c r="AE150" t="n">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="AF150" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="AG150" t="n">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="AH150" t="n">
-        <v>900</v>
+        <v>350</v>
       </c>
       <c r="AI150" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="AJ150" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
     </row>
     <row r="151">
@@ -18682,7 +18682,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -18701,91 +18701,91 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="H151" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="I151" t="n">
-        <v>2.07</v>
+        <v>1.9</v>
       </c>
       <c r="J151" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="K151" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="L151" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="M151" t="n">
-        <v>2.72</v>
+        <v>2.82</v>
       </c>
       <c r="N151" t="n">
-        <v>2.18</v>
+        <v>2.1</v>
       </c>
       <c r="O151" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="P151" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="Q151" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="R151" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="S151" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="T151" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="U151" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="V151" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="W151" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="X151" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Y151" t="n">
         <v>50</v>
       </c>
       <c r="Z151" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="AA151" t="n">
-        <v>6.1</v>
+        <v>6.5</v>
       </c>
       <c r="AB151" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AC151" t="n">
         <v>90</v>
       </c>
       <c r="AD151" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="AE151" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="AF151" t="n">
-        <v>9.25</v>
+        <v>8.25</v>
       </c>
       <c r="AG151" t="n">
         <v>8.75</v>
       </c>
       <c r="AH151" t="n">
-        <v>19.5</v>
+        <v>16</v>
       </c>
       <c r="AI151" t="n">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="AJ151" t="n">
         <v>32</v>
@@ -19189,13 +19189,13 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>2.85</v>
+        <v>3.1</v>
       </c>
       <c r="H155" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="I155" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="J155" t="n">
         <v>1.05</v>
@@ -19213,37 +19213,37 @@
         <v>1.72</v>
       </c>
       <c r="O155" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="P155" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="Q155" t="n">
-        <v>2.9</v>
+        <v>2.95</v>
       </c>
       <c r="R155" t="n">
         <v>1.62</v>
       </c>
       <c r="S155" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="T155" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="U155" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="V155" t="n">
-        <v>10.25</v>
+        <v>10.75</v>
       </c>
       <c r="W155" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="X155" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="Y155" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Z155" t="n">
         <v>8</v>
@@ -19252,28 +19252,28 @@
         <v>6.9</v>
       </c>
       <c r="AB155" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AC155" t="n">
         <v>50</v>
       </c>
       <c r="AD155" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AE155" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF155" t="n">
-        <v>12</v>
+        <v>11.25</v>
       </c>
       <c r="AG155" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AH155" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AI155" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AJ155" t="n">
         <v>23</v>
@@ -19311,94 +19311,94 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>5.7</v>
+        <v>7.4</v>
       </c>
       <c r="H156" t="n">
-        <v>4.15</v>
+        <v>4.6</v>
       </c>
       <c r="I156" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="J156" t="n">
         <v>1.04</v>
       </c>
       <c r="K156" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="L156" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="M156" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="N156" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="O156" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="P156" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="Q156" t="n">
+        <v>3</v>
+      </c>
+      <c r="R156" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S156" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="T156" t="n">
+        <v>20</v>
+      </c>
+      <c r="U156" t="n">
+        <v>50</v>
+      </c>
+      <c r="V156" t="n">
+        <v>22</v>
+      </c>
+      <c r="W156" t="n">
+        <v>175</v>
+      </c>
+      <c r="X156" t="n">
+        <v>80</v>
+      </c>
+      <c r="Y156" t="n">
+        <v>70</v>
+      </c>
+      <c r="Z156" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AA156" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB156" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC156" t="n">
+        <v>90</v>
+      </c>
+      <c r="AD156" t="n">
+        <v>700</v>
+      </c>
+      <c r="AE156" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AF156" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AG156" t="n">
         <v>8.25</v>
       </c>
-      <c r="L156" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="M156" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="N156" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="O156" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="P156" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="Q156" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="R156" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="S156" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="T156" t="n">
-        <v>16</v>
-      </c>
-      <c r="U156" t="n">
-        <v>35</v>
-      </c>
-      <c r="V156" t="n">
-        <v>18</v>
-      </c>
-      <c r="W156" t="n">
-        <v>110</v>
-      </c>
-      <c r="X156" t="n">
-        <v>55</v>
-      </c>
-      <c r="Y156" t="n">
-        <v>55</v>
-      </c>
-      <c r="Z156" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AA156" t="n">
-        <v>8</v>
-      </c>
-      <c r="AB156" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC156" t="n">
-        <v>75</v>
-      </c>
-      <c r="AD156" t="n">
-        <v>600</v>
-      </c>
-      <c r="AE156" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AF156" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="AG156" t="n">
-        <v>8</v>
-      </c>
       <c r="AH156" t="n">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="AI156" t="n">
-        <v>11.75</v>
+        <v>11</v>
       </c>
       <c r="AJ156" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="157">
@@ -20409,19 +20409,19 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="H165" t="n">
         <v>2.7</v>
       </c>
       <c r="I165" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J165" t="n">
         <v>1.17</v>
       </c>
       <c r="K165" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="L165" t="n">
         <v>1.73</v>
@@ -20430,16 +20430,16 @@
         <v>2</v>
       </c>
       <c r="N165" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="O165" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P165" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="Q165" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="R165" t="n">
         <v>2.63</v>
@@ -20451,13 +20451,13 @@
         <v>5</v>
       </c>
       <c r="U165" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="V165" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="W165" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="X165" t="n">
         <v>29</v>
@@ -20481,7 +20481,7 @@
         <v>101</v>
       </c>
       <c r="AE165" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AF165" t="n">
         <v>15</v>
@@ -20531,13 +20531,13 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="H166" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I166" t="n">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="J166" t="n">
         <v>1.07</v>
@@ -20546,16 +20546,16 @@
         <v>9</v>
       </c>
       <c r="L166" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="M166" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N166" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="O166" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="P166" t="n">
         <v>1.5</v>
@@ -20570,7 +20570,7 @@
         <v>1.8</v>
       </c>
       <c r="T166" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="U166" t="n">
         <v>13</v>
@@ -20582,10 +20582,10 @@
         <v>29</v>
       </c>
       <c r="X166" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y166" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z166" t="n">
         <v>8</v>
@@ -20594,7 +20594,7 @@
         <v>6</v>
       </c>
       <c r="AB166" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC166" t="n">
         <v>51</v>
@@ -20606,16 +20606,16 @@
         <v>7.5</v>
       </c>
       <c r="AF166" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG166" t="n">
         <v>10</v>
       </c>
       <c r="AH166" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI166" t="n">
         <v>23</v>
-      </c>
-      <c r="AI166" t="n">
-        <v>21</v>
       </c>
       <c r="AJ166" t="n">
         <v>34</v>
@@ -20665,7 +20665,7 @@
         <v>1.08</v>
       </c>
       <c r="K167" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="L167" t="n">
         <v>1.44</v>
@@ -21141,19 +21141,19 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="H171" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="I171" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="J171" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="K171" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="L171" t="n">
         <v>1.44</v>
@@ -21180,13 +21180,13 @@
         <v>1.73</v>
       </c>
       <c r="T171" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="U171" t="n">
         <v>12</v>
       </c>
       <c r="V171" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W171" t="n">
         <v>26</v>
@@ -21213,13 +21213,13 @@
         <v>151</v>
       </c>
       <c r="AE171" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AF171" t="n">
         <v>13</v>
       </c>
       <c r="AG171" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH171" t="n">
         <v>29</v>
@@ -21263,13 +21263,13 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="H172" t="n">
         <v>2.88</v>
       </c>
       <c r="I172" t="n">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="J172" t="n">
         <v>1.1</v>
@@ -21296,10 +21296,10 @@
         <v>2.25</v>
       </c>
       <c r="R172" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S172" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="T172" t="n">
         <v>6.5</v>
@@ -21311,10 +21311,10 @@
         <v>11</v>
       </c>
       <c r="W172" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="X172" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y172" t="n">
         <v>41</v>
@@ -21335,10 +21335,10 @@
         <v>800</v>
       </c>
       <c r="AE172" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AF172" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG172" t="n">
         <v>12</v>
@@ -21391,13 +21391,13 @@
         <v>3.1</v>
       </c>
       <c r="I173" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J173" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K173" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="L173" t="n">
         <v>1.3</v>
@@ -21433,7 +21433,7 @@
         <v>9</v>
       </c>
       <c r="W173" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X173" t="n">
         <v>15</v>
@@ -21442,7 +21442,7 @@
         <v>29</v>
       </c>
       <c r="Z173" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA173" t="n">
         <v>6.5</v>
@@ -21454,13 +21454,13 @@
         <v>51</v>
       </c>
       <c r="AD173" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="AE173" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF173" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG173" t="n">
         <v>17</v>
@@ -22239,13 +22239,13 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="H180" t="n">
         <v>3</v>
       </c>
       <c r="I180" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J180" t="n">
         <v>1.08</v>
@@ -22260,10 +22260,10 @@
         <v>3</v>
       </c>
       <c r="N180" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="O180" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="P180" t="n">
         <v>1.5</v>
@@ -22302,22 +22302,22 @@
         <v>6.5</v>
       </c>
       <c r="AB180" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC180" t="n">
         <v>67</v>
       </c>
       <c r="AD180" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="AE180" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF180" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG180" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH180" t="n">
         <v>51</v>
@@ -22361,13 +22361,13 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>2.55</v>
+        <v>2.63</v>
       </c>
       <c r="H181" t="n">
         <v>2.8</v>
       </c>
       <c r="I181" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="J181" t="n">
         <v>1.08</v>
@@ -22382,22 +22382,22 @@
         <v>2.75</v>
       </c>
       <c r="N181" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="O181" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="P181" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Q181" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="R181" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="S181" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="T181" t="n">
         <v>7.5</v>
@@ -22424,7 +22424,7 @@
         <v>6</v>
       </c>
       <c r="AB181" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC181" t="n">
         <v>51</v>
@@ -22436,7 +22436,7 @@
         <v>7.5</v>
       </c>
       <c r="AF181" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG181" t="n">
         <v>11</v>
@@ -22445,7 +22445,7 @@
         <v>26</v>
       </c>
       <c r="AI181" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ181" t="n">
         <v>41</v>
@@ -24191,49 +24191,49 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="H196" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="I196" t="n">
         <v>5.5</v>
       </c>
       <c r="J196" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K196" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="L196" t="n">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
       <c r="M196" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="N196" t="n">
-        <v>1.48</v>
+        <v>1.6</v>
       </c>
       <c r="O196" t="n">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="P196" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="Q196" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="R196" t="n">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="S196" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="T196" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="U196" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="V196" t="n">
         <v>8.5</v>
@@ -24248,10 +24248,10 @@
         <v>21</v>
       </c>
       <c r="Z196" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AA196" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB196" t="n">
         <v>17</v>
@@ -24263,7 +24263,7 @@
         <v>151</v>
       </c>
       <c r="AE196" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF196" t="n">
         <v>34</v>
@@ -24272,13 +24272,13 @@
         <v>17</v>
       </c>
       <c r="AH196" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI196" t="n">
         <v>41</v>
       </c>
       <c r="AJ196" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="197">
@@ -24789,13 +24789,13 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="H201" t="n">
         <v>3.6</v>
       </c>
       <c r="I201" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="J201" t="n">
         <v>1.05</v>
@@ -24810,10 +24810,10 @@
         <v>3.5</v>
       </c>
       <c r="N201" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="O201" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="P201" t="n">
         <v>1.4</v>
@@ -24822,13 +24822,13 @@
         <v>2.75</v>
       </c>
       <c r="R201" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="S201" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T201" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="U201" t="n">
         <v>7.5</v>
@@ -24840,13 +24840,13 @@
         <v>12</v>
       </c>
       <c r="X201" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y201" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z201" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA201" t="n">
         <v>7</v>
@@ -24861,13 +24861,13 @@
         <v>301</v>
       </c>
       <c r="AE201" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF201" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG201" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH201" t="n">
         <v>51</v>
@@ -24911,13 +24911,13 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="H202" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I202" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="J202" t="n">
         <v>1.06</v>
@@ -24932,16 +24932,16 @@
         <v>3.4</v>
       </c>
       <c r="N202" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="O202" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="P202" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Q202" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="R202" t="n">
         <v>1.8</v>
@@ -24950,13 +24950,13 @@
         <v>1.91</v>
       </c>
       <c r="T202" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="U202" t="n">
         <v>21</v>
       </c>
       <c r="V202" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="W202" t="n">
         <v>41</v>
@@ -24968,13 +24968,13 @@
         <v>41</v>
       </c>
       <c r="Z202" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AA202" t="n">
         <v>6</v>
       </c>
       <c r="AB202" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC202" t="n">
         <v>51</v>
@@ -24986,7 +24986,7 @@
         <v>7.5</v>
       </c>
       <c r="AF202" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AG202" t="n">
         <v>9</v>
@@ -24995,10 +24995,10 @@
         <v>17</v>
       </c>
       <c r="AI202" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ202" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="203">
@@ -25036,16 +25036,16 @@
         <v>3.25</v>
       </c>
       <c r="H203" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I203" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="J203" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K203" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L203" t="n">
         <v>1.33</v>
@@ -25054,10 +25054,10 @@
         <v>3.25</v>
       </c>
       <c r="N203" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="O203" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="P203" t="n">
         <v>1.44</v>
@@ -25066,13 +25066,13 @@
         <v>2.63</v>
       </c>
       <c r="R203" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S203" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="T203" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="U203" t="n">
         <v>17</v>
@@ -25087,13 +25087,13 @@
         <v>29</v>
       </c>
       <c r="Y203" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z203" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AA203" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB203" t="n">
         <v>15</v>
@@ -25102,19 +25102,19 @@
         <v>51</v>
       </c>
       <c r="AD203" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AE203" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AF203" t="n">
         <v>10</v>
       </c>
       <c r="AG203" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AH203" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI203" t="n">
         <v>19</v>
@@ -25155,13 +25155,13 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="H204" t="n">
         <v>3.6</v>
       </c>
       <c r="I204" t="n">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="J204" t="n">
         <v>1.04</v>
@@ -25194,19 +25194,19 @@
         <v>2.2</v>
       </c>
       <c r="T204" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="U204" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V204" t="n">
         <v>9.5</v>
       </c>
       <c r="W204" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="X204" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y204" t="n">
         <v>23</v>
@@ -25218,7 +25218,7 @@
         <v>7</v>
       </c>
       <c r="AB204" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC204" t="n">
         <v>41</v>
@@ -25233,7 +25233,7 @@
         <v>15</v>
       </c>
       <c r="AG204" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH204" t="n">
         <v>29</v>
@@ -25277,13 +25277,13 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H205" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I205" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="J205" t="n">
         <v>1.02</v>
@@ -25292,16 +25292,16 @@
         <v>19</v>
       </c>
       <c r="L205" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="M205" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="N205" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="O205" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="P205" t="n">
         <v>1.25</v>
@@ -25310,13 +25310,13 @@
         <v>3.75</v>
       </c>
       <c r="R205" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="S205" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="T205" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="U205" t="n">
         <v>13</v>
@@ -25334,13 +25334,13 @@
         <v>19</v>
       </c>
       <c r="Z205" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA205" t="n">
         <v>7.5</v>
       </c>
       <c r="AB205" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC205" t="n">
         <v>29</v>
@@ -25358,10 +25358,10 @@
         <v>12</v>
       </c>
       <c r="AH205" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI205" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ205" t="n">
         <v>23</v>
@@ -25521,94 +25521,94 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="H207" t="n">
-        <v>3.45</v>
+        <v>3.2</v>
       </c>
       <c r="I207" t="n">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="J207" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K207" t="n">
-        <v>7.7</v>
+        <v>7.4</v>
       </c>
       <c r="L207" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="M207" t="n">
         <v>3.45</v>
       </c>
       <c r="N207" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="O207" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="P207" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="Q207" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="R207" t="n">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="S207" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T207" t="n">
-        <v>7.5</v>
+        <v>7.9</v>
       </c>
       <c r="U207" t="n">
-        <v>9</v>
+        <v>9.75</v>
       </c>
       <c r="V207" t="n">
-        <v>8.25</v>
+        <v>7.9</v>
       </c>
       <c r="W207" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="X207" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Y207" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="Z207" t="n">
-        <v>7.7</v>
+        <v>7.4</v>
       </c>
       <c r="AA207" t="n">
-        <v>6.9</v>
+        <v>6.4</v>
       </c>
       <c r="AB207" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AC207" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AD207" t="n">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="AE207" t="n">
         <v>12</v>
       </c>
       <c r="AF207" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AG207" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH207" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AI207" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="AJ207" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="208">
@@ -25646,24 +25646,24 @@
         <v>1.52</v>
       </c>
       <c r="H208" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I208" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="M208" t="n">
-        <v>2.8</v>
+        <v>2.85</v>
       </c>
       <c r="N208" t="n">
-        <v>2.21</v>
+        <v>2.18</v>
       </c>
       <c r="O208" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="P208" t="n">
         <v>1.44</v>
@@ -25672,13 +25672,13 @@
         <v>2.6</v>
       </c>
       <c r="R208" t="n">
-        <v>2.32</v>
+        <v>2.31</v>
       </c>
       <c r="S208" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="T208" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="U208" t="n">
         <v>4.8</v>
@@ -25702,7 +25702,7 @@
         <v>5.8</v>
       </c>
       <c r="AB208" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AC208" t="n">
         <v>101</v>

--- a/Jogos_da_Semana_FlashScore_2025-04-06.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-06.xlsx
@@ -1623,7 +1623,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="H10" t="n">
         <v>4</v>
@@ -1632,16 +1632,16 @@
         <v>4.5</v>
       </c>
       <c r="J10" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K10" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L10" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M10" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="N10" t="n">
         <v>1.67</v>
@@ -1671,7 +1671,7 @@
         <v>8.5</v>
       </c>
       <c r="W10" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X10" t="n">
         <v>13</v>
@@ -2233,13 +2233,13 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="H15" t="n">
         <v>3.1</v>
       </c>
       <c r="I15" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J15" t="n">
         <v>1.08</v>
@@ -2248,10 +2248,10 @@
         <v>8</v>
       </c>
       <c r="L15" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="M15" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N15" t="n">
         <v>2.3</v>
@@ -2272,7 +2272,7 @@
         <v>1.8</v>
       </c>
       <c r="T15" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="U15" t="n">
         <v>11</v>
@@ -2305,16 +2305,16 @@
         <v>351</v>
       </c>
       <c r="AE15" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AF15" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH15" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI15" t="n">
         <v>26</v>
@@ -2721,19 +2721,19 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="H19" t="n">
         <v>3.3</v>
       </c>
       <c r="I19" t="n">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="J19" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K19" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L19" t="n">
         <v>1.29</v>
@@ -2742,10 +2742,10 @@
         <v>3.75</v>
       </c>
       <c r="N19" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="O19" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="P19" t="n">
         <v>1.4</v>
@@ -2754,22 +2754,22 @@
         <v>2.75</v>
       </c>
       <c r="R19" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S19" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="T19" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="U19" t="n">
+        <v>11</v>
+      </c>
+      <c r="V19" t="n">
         <v>9</v>
       </c>
-      <c r="U19" t="n">
-        <v>12</v>
-      </c>
-      <c r="V19" t="n">
-        <v>9.5</v>
-      </c>
       <c r="W19" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X19" t="n">
         <v>19</v>
@@ -2790,22 +2790,22 @@
         <v>41</v>
       </c>
       <c r="AD19" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AE19" t="n">
         <v>10</v>
       </c>
       <c r="AF19" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG19" t="n">
         <v>11</v>
       </c>
       <c r="AH19" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI19" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ19" t="n">
         <v>29</v>
@@ -2843,25 +2843,25 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="H20" t="n">
         <v>3.2</v>
       </c>
       <c r="I20" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="J20" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K20" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="L20" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="M20" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="N20" t="n">
         <v>2.6</v>
@@ -2876,25 +2876,25 @@
         <v>2.25</v>
       </c>
       <c r="R20" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S20" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="T20" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="U20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="V20" t="n">
         <v>10</v>
       </c>
       <c r="W20" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X20" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y20" t="n">
         <v>41</v>
@@ -2903,10 +2903,10 @@
         <v>6.5</v>
       </c>
       <c r="AA20" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB20" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC20" t="n">
         <v>81</v>
@@ -2915,19 +2915,19 @@
         <v>501</v>
       </c>
       <c r="AE20" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AF20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG20" t="n">
         <v>13</v>
       </c>
-      <c r="AG20" t="n">
-        <v>12</v>
-      </c>
       <c r="AH20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI20" t="n">
         <v>34</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>29</v>
       </c>
       <c r="AJ20" t="n">
         <v>41</v>
@@ -2965,79 +2965,79 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="H21" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I21" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J21" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K21" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L21" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="M21" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="N21" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="O21" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="P21" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="R21" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S21" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T21" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="U21" t="n">
         <v>9</v>
       </c>
       <c r="V21" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W21" t="n">
         <v>19</v>
       </c>
       <c r="X21" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y21" t="n">
         <v>34</v>
       </c>
       <c r="Z21" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AA21" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB21" t="n">
         <v>17</v>
       </c>
       <c r="AC21" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD21" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="AE21" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF21" t="n">
         <v>17</v>
@@ -3102,28 +3102,28 @@
         <v>9</v>
       </c>
       <c r="L22" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="M22" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N22" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="O22" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="P22" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="R22" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="S22" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="T22" t="n">
         <v>5.5</v>
@@ -3141,13 +3141,13 @@
         <v>15</v>
       </c>
       <c r="Y22" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Z22" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AA22" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB22" t="n">
         <v>23</v>
@@ -3209,46 +3209,46 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="H23" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="I23" t="n">
         <v>6</v>
       </c>
       <c r="J23" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="K23" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L23" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M23" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="N23" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="O23" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R23" t="n">
+        <v>2</v>
+      </c>
+      <c r="S23" t="n">
         <v>1.75</v>
       </c>
-      <c r="P23" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="R23" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="S23" t="n">
-        <v>1.7</v>
-      </c>
       <c r="T23" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="U23" t="n">
         <v>7</v>
@@ -3260,16 +3260,16 @@
         <v>11</v>
       </c>
       <c r="X23" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y23" t="n">
         <v>29</v>
       </c>
       <c r="Z23" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AA23" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB23" t="n">
         <v>19</v>
@@ -3278,7 +3278,7 @@
         <v>67</v>
       </c>
       <c r="AD23" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="AE23" t="n">
         <v>13</v>
@@ -3293,7 +3293,7 @@
         <v>67</v>
       </c>
       <c r="AI23" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AJ23" t="n">
         <v>51</v>
@@ -3352,10 +3352,10 @@
         <v>3.4</v>
       </c>
       <c r="N24" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="O24" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="P24" t="n">
         <v>1.4</v>
@@ -3474,16 +3474,16 @@
         <v>2</v>
       </c>
       <c r="N25" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="O25" t="n">
         <v>1.3</v>
       </c>
       <c r="P25" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="R25" t="n">
         <v>2.63</v>
@@ -3575,19 +3575,19 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H26" t="n">
         <v>2.75</v>
       </c>
       <c r="I26" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J26" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="K26" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="L26" t="n">
         <v>1.8</v>
@@ -3599,7 +3599,7 @@
         <v>3.6</v>
       </c>
       <c r="O26" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P26" t="n">
         <v>1.83</v>
@@ -3608,13 +3608,13 @@
         <v>1.98</v>
       </c>
       <c r="R26" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="S26" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T26" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="U26" t="n">
         <v>7.5</v>
@@ -3623,7 +3623,7 @@
         <v>11</v>
       </c>
       <c r="W26" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="X26" t="n">
         <v>26</v>
@@ -3632,16 +3632,16 @@
         <v>51</v>
       </c>
       <c r="Z26" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AA26" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB26" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC26" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AD26" t="n">
         <v>101</v>
@@ -3653,7 +3653,7 @@
         <v>21</v>
       </c>
       <c r="AG26" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH26" t="n">
         <v>51</v>
@@ -3662,7 +3662,7 @@
         <v>51</v>
       </c>
       <c r="AJ26" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27">
@@ -3721,7 +3721,7 @@
         <v>3.4</v>
       </c>
       <c r="O27" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P27" t="n">
         <v>1.75</v>
@@ -3843,7 +3843,7 @@
         <v>3.1</v>
       </c>
       <c r="O28" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P28" t="n">
         <v>1.67</v>
@@ -3950,10 +3950,10 @@
         <v>5</v>
       </c>
       <c r="J29" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="K29" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="L29" t="n">
         <v>1.53</v>
@@ -4078,22 +4078,22 @@
         <v>5.5</v>
       </c>
       <c r="L30" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="M30" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="N30" t="n">
         <v>3.4</v>
       </c>
       <c r="O30" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P30" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="R30" t="n">
         <v>2.75</v>
@@ -4429,13 +4429,13 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="H33" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I33" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J33" t="n">
         <v>1.03</v>
@@ -4462,10 +4462,10 @@
         <v>3.5</v>
       </c>
       <c r="R33" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="S33" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="T33" t="n">
         <v>9.5</v>
@@ -4489,7 +4489,7 @@
         <v>15</v>
       </c>
       <c r="AA33" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB33" t="n">
         <v>13</v>
@@ -4501,13 +4501,13 @@
         <v>126</v>
       </c>
       <c r="AE33" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG33" t="n">
         <v>17</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>26</v>
-      </c>
-      <c r="AG33" t="n">
-        <v>15</v>
       </c>
       <c r="AH33" t="n">
         <v>51</v>
@@ -4551,19 +4551,19 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="H34" t="n">
         <v>4.2</v>
       </c>
       <c r="I34" t="n">
-        <v>6.25</v>
+        <v>5.75</v>
       </c>
       <c r="J34" t="n">
         <v>1.03</v>
       </c>
       <c r="K34" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L34" t="n">
         <v>1.17</v>
@@ -4590,16 +4590,16 @@
         <v>2.1</v>
       </c>
       <c r="T34" t="n">
+        <v>9</v>
+      </c>
+      <c r="U34" t="n">
         <v>8.5</v>
-      </c>
-      <c r="U34" t="n">
-        <v>8</v>
       </c>
       <c r="V34" t="n">
         <v>8.5</v>
       </c>
       <c r="W34" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X34" t="n">
         <v>11</v>
@@ -4623,7 +4623,7 @@
         <v>151</v>
       </c>
       <c r="AE34" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF34" t="n">
         <v>34</v>
@@ -4632,7 +4632,7 @@
         <v>19</v>
       </c>
       <c r="AH34" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AI34" t="n">
         <v>41</v>
@@ -4673,13 +4673,13 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="H35" t="n">
         <v>3.1</v>
       </c>
       <c r="I35" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J35" t="n">
         <v>1.14</v>
@@ -4706,13 +4706,13 @@
         <v>2.1</v>
       </c>
       <c r="R35" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="S35" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="T35" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="U35" t="n">
         <v>7.5</v>
@@ -4745,10 +4745,10 @@
         <v>501</v>
       </c>
       <c r="AE35" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AF35" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG35" t="n">
         <v>17</v>
@@ -4795,19 +4795,19 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="H36" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I36" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J36" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K36" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L36" t="n">
         <v>1.44</v>
@@ -4816,28 +4816,28 @@
         <v>2.75</v>
       </c>
       <c r="N36" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="O36" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="P36" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="R36" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S36" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="T36" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="U36" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="V36" t="n">
         <v>9</v>
@@ -4852,19 +4852,19 @@
         <v>34</v>
       </c>
       <c r="Z36" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AA36" t="n">
         <v>6.5</v>
       </c>
       <c r="AB36" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AC36" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD36" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AE36" t="n">
         <v>10</v>
@@ -4873,7 +4873,7 @@
         <v>21</v>
       </c>
       <c r="AG36" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH36" t="n">
         <v>51</v>
@@ -4882,7 +4882,7 @@
         <v>41</v>
       </c>
       <c r="AJ36" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37">
@@ -4917,13 +4917,13 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="H37" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I37" t="n">
-        <v>5.75</v>
+        <v>6.5</v>
       </c>
       <c r="J37" t="n">
         <v>1.08</v>
@@ -4932,40 +4932,40 @@
         <v>8</v>
       </c>
       <c r="L37" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="M37" t="n">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="N37" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="O37" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="P37" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="R37" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="S37" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="T37" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="U37" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="V37" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W37" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="X37" t="n">
         <v>15</v>
@@ -4974,34 +4974,34 @@
         <v>34</v>
       </c>
       <c r="Z37" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AA37" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB37" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC37" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD37" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AE37" t="n">
         <v>12</v>
       </c>
       <c r="AF37" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG37" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AH37" t="n">
+        <v>67</v>
+      </c>
+      <c r="AI37" t="n">
         <v>51</v>
-      </c>
-      <c r="AI37" t="n">
-        <v>41</v>
       </c>
       <c r="AJ37" t="n">
         <v>51</v>
@@ -5039,43 +5039,43 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="H38" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I38" t="n">
         <v>3.3</v>
       </c>
       <c r="J38" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="K38" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="L38" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="M38" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="N38" t="n">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="O38" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P38" t="n">
         <v>1.57</v>
       </c>
-      <c r="P38" t="n">
-        <v>1.5</v>
-      </c>
       <c r="Q38" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="R38" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S38" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="T38" t="n">
         <v>6.5</v>
@@ -5084,19 +5084,19 @@
         <v>10</v>
       </c>
       <c r="V38" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W38" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="X38" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y38" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z38" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AA38" t="n">
         <v>6</v>
@@ -5105,10 +5105,10 @@
         <v>17</v>
       </c>
       <c r="AC38" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD38" t="n">
-        <v>401</v>
+        <v>501</v>
       </c>
       <c r="AE38" t="n">
         <v>8</v>
@@ -5164,43 +5164,43 @@
         <v>3.6</v>
       </c>
       <c r="H39" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I39" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="J39" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="K39" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="L39" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="M39" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="N39" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="O39" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="P39" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="R39" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S39" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="T39" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="U39" t="n">
         <v>17</v>
@@ -5218,7 +5218,7 @@
         <v>41</v>
       </c>
       <c r="Z39" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AA39" t="n">
         <v>6</v>
@@ -5227,28 +5227,28 @@
         <v>17</v>
       </c>
       <c r="AC39" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD39" t="n">
-        <v>401</v>
+        <v>501</v>
       </c>
       <c r="AE39" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AF39" t="n">
         <v>9.5</v>
       </c>
       <c r="AG39" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH39" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI39" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ39" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40">
@@ -5283,10 +5283,10 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="H40" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I40" t="n">
         <v>1.83</v>
@@ -5304,28 +5304,28 @@
         <v>2.63</v>
       </c>
       <c r="N40" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="O40" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P40" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="R40" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S40" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="T40" t="n">
         <v>10</v>
       </c>
       <c r="U40" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="V40" t="n">
         <v>17</v>
@@ -5340,16 +5340,16 @@
         <v>51</v>
       </c>
       <c r="Z40" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AA40" t="n">
         <v>6.5</v>
       </c>
       <c r="AB40" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC40" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD40" t="n">
         <v>501</v>
@@ -5367,10 +5367,10 @@
         <v>15</v>
       </c>
       <c r="AI40" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ40" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41">
@@ -5405,37 +5405,37 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H41" t="n">
         <v>3.1</v>
       </c>
       <c r="I41" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J41" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K41" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L41" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="M41" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N41" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="O41" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="P41" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="R41" t="n">
         <v>2</v>
@@ -5462,7 +5462,7 @@
         <v>34</v>
       </c>
       <c r="Z41" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AA41" t="n">
         <v>6</v>
@@ -5471,13 +5471,13 @@
         <v>17</v>
       </c>
       <c r="AC41" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD41" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="AE41" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF41" t="n">
         <v>17</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H43" t="n">
         <v>3.1</v>
       </c>
       <c r="I43" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="J43" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K43" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L43" t="n">
         <v>1.36</v>
@@ -5691,7 +5691,7 @@
         <v>7</v>
       </c>
       <c r="U43" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V43" t="n">
         <v>9.5</v>
@@ -5700,7 +5700,7 @@
         <v>21</v>
       </c>
       <c r="X43" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y43" t="n">
         <v>34</v>
@@ -5721,13 +5721,13 @@
         <v>301</v>
       </c>
       <c r="AE43" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF43" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG43" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH43" t="n">
         <v>34</v>
@@ -7113,13 +7113,13 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="H55" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I55" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J55" t="n">
         <v>1.11</v>
@@ -7128,16 +7128,16 @@
         <v>6.5</v>
       </c>
       <c r="L55" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="M55" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="N55" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="O55" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="P55" t="n">
         <v>1.5</v>
@@ -7146,22 +7146,22 @@
         <v>2.5</v>
       </c>
       <c r="R55" t="n">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="S55" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="T55" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="U55" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="V55" t="n">
         <v>9.5</v>
       </c>
       <c r="W55" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="X55" t="n">
         <v>19</v>
@@ -7173,34 +7173,34 @@
         <v>6</v>
       </c>
       <c r="AA55" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB55" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AC55" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AD55" t="n">
         <v>101</v>
       </c>
       <c r="AE55" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AF55" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AG55" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH55" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AI55" t="n">
         <v>51</v>
       </c>
       <c r="AJ55" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
     </row>
     <row r="56">
@@ -7262,16 +7262,16 @@
         <v>1.53</v>
       </c>
       <c r="P56" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="Q56" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="R56" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S56" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="T56" t="n">
         <v>8</v>
@@ -7292,10 +7292,10 @@
         <v>41</v>
       </c>
       <c r="Z56" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AA56" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB56" t="n">
         <v>19</v>
@@ -7307,13 +7307,13 @@
         <v>301</v>
       </c>
       <c r="AE56" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AF56" t="n">
         <v>9.5</v>
       </c>
       <c r="AG56" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH56" t="n">
         <v>21</v>
@@ -7322,7 +7322,7 @@
         <v>21</v>
       </c>
       <c r="AJ56" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="57">
@@ -7357,19 +7357,19 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="H57" t="n">
         <v>3.1</v>
       </c>
       <c r="I57" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="J57" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K57" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L57" t="n">
         <v>1.44</v>
@@ -7408,7 +7408,7 @@
         <v>26</v>
       </c>
       <c r="X57" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y57" t="n">
         <v>41</v>
@@ -7432,7 +7432,7 @@
         <v>7.5</v>
       </c>
       <c r="AF57" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG57" t="n">
         <v>11</v>
@@ -7601,19 +7601,19 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="H59" t="n">
         <v>3.2</v>
       </c>
       <c r="I59" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="J59" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K59" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L59" t="n">
         <v>1.33</v>
@@ -7640,19 +7640,19 @@
         <v>1.91</v>
       </c>
       <c r="T59" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="U59" t="n">
         <v>11</v>
       </c>
       <c r="V59" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W59" t="n">
+        <v>23</v>
+      </c>
+      <c r="X59" t="n">
         <v>21</v>
-      </c>
-      <c r="X59" t="n">
-        <v>19</v>
       </c>
       <c r="Y59" t="n">
         <v>29</v>
@@ -7682,10 +7682,10 @@
         <v>11</v>
       </c>
       <c r="AH59" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI59" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ59" t="n">
         <v>34</v>
@@ -7723,13 +7723,13 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="H60" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="I60" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="J60" t="n">
         <v>1.04</v>
@@ -7756,22 +7756,22 @@
         <v>3</v>
       </c>
       <c r="R60" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="S60" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="T60" t="n">
         <v>6</v>
       </c>
       <c r="U60" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="V60" t="n">
         <v>9</v>
       </c>
       <c r="W60" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X60" t="n">
         <v>13</v>
@@ -7783,19 +7783,19 @@
         <v>11</v>
       </c>
       <c r="AA60" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB60" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC60" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AD60" t="n">
         <v>101</v>
       </c>
       <c r="AE60" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF60" t="n">
         <v>41</v>
@@ -7804,7 +7804,7 @@
         <v>26</v>
       </c>
       <c r="AH60" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AI60" t="n">
         <v>67</v>
@@ -8517,37 +8517,37 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.7</v>
+        <v>1.83</v>
       </c>
       <c r="H67" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I67" t="n">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="J67" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K67" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L67" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M67" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N67" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="O67" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="P67" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Q67" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="R67" t="n">
         <v>1.73</v>
@@ -8559,28 +8559,28 @@
         <v>8</v>
       </c>
       <c r="U67" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="V67" t="n">
         <v>8.5</v>
       </c>
       <c r="W67" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X67" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y67" t="n">
         <v>23</v>
       </c>
       <c r="Z67" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA67" t="n">
         <v>7</v>
       </c>
       <c r="AB67" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC67" t="n">
         <v>41</v>
@@ -8589,22 +8589,22 @@
         <v>201</v>
       </c>
       <c r="AE67" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF67" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AG67" t="n">
         <v>15</v>
       </c>
       <c r="AH67" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI67" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ67" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="68">
@@ -8639,16 +8639,16 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="H68" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I68" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="J68" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="K68" t="n">
         <v>11</v>
@@ -8657,13 +8657,13 @@
         <v>1.3</v>
       </c>
       <c r="M68" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="N68" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="O68" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="P68" t="n">
         <v>1.44</v>
@@ -8687,16 +8687,16 @@
         <v>8.5</v>
       </c>
       <c r="W68" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X68" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y68" t="n">
         <v>34</v>
       </c>
       <c r="Z68" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AA68" t="n">
         <v>8</v>
@@ -10197,31 +10197,31 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>2.52</v>
+        <v>2.37</v>
       </c>
       <c r="H81" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="I81" t="n">
-        <v>2.52</v>
+        <v>2.67</v>
       </c>
       <c r="J81" t="n">
         <v>1.03</v>
       </c>
       <c r="K81" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="L81" t="n">
         <v>1.16</v>
       </c>
       <c r="M81" t="n">
-        <v>4.55</v>
+        <v>4.6</v>
       </c>
       <c r="N81" t="n">
         <v>1.5</v>
       </c>
       <c r="O81" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="P81" t="n">
         <v>1.28</v>
@@ -10236,55 +10236,55 @@
         <v>2.65</v>
       </c>
       <c r="T81" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="U81" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="V81" t="n">
-        <v>9.75</v>
+        <v>9.25</v>
       </c>
       <c r="W81" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="X81" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="Y81" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="Z81" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AA81" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="AB81" t="n">
         <v>10.5</v>
       </c>
       <c r="AC81" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AD81" t="n">
         <v>150</v>
       </c>
       <c r="AE81" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AF81" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AG81" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH81" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AI81" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AJ81" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82">
@@ -13963,25 +13963,25 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="H112" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="I112" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J112" t="n">
         <v>1.01</v>
       </c>
       <c r="K112" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="L112" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="M112" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N112" t="n">
         <v>1.22</v>
@@ -14005,16 +14005,16 @@
         <v>15</v>
       </c>
       <c r="U112" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="V112" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W112" t="n">
         <v>8</v>
       </c>
       <c r="X112" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y112" t="n">
         <v>23</v>
@@ -14023,7 +14023,7 @@
         <v>34</v>
       </c>
       <c r="AA112" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB112" t="n">
         <v>26</v>
@@ -14050,7 +14050,7 @@
         <v>81</v>
       </c>
       <c r="AJ112" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
     </row>
     <row r="113">
@@ -14199,27 +14199,27 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="H114" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="I114" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="M114" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="N114" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="O114" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="P114" t="inlineStr"/>
       <c r="Q114" t="inlineStr"/>
@@ -14233,25 +14233,25 @@
         <v>7.8</v>
       </c>
       <c r="U114" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="V114" t="n">
         <v>8.5</v>
       </c>
       <c r="W114" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="X114" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Y114" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Z114" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AA114" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AB114" t="n">
         <v>14.5</v>
@@ -14263,19 +14263,19 @@
         <v>450</v>
       </c>
       <c r="AE114" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AF114" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AG114" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH114" t="n">
         <v>45</v>
       </c>
       <c r="AI114" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AJ114" t="n">
         <v>35</v>
@@ -15167,13 +15167,13 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="H122" t="n">
         <v>3.1</v>
       </c>
       <c r="I122" t="n">
-        <v>2.5</v>
+        <v>2.35</v>
       </c>
       <c r="J122" t="n">
         <v>1.1</v>
@@ -15194,10 +15194,10 @@
         <v>1.5</v>
       </c>
       <c r="P122" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="Q122" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="R122" t="n">
         <v>2.1</v>
@@ -15209,7 +15209,7 @@
         <v>7.5</v>
       </c>
       <c r="U122" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="V122" t="n">
         <v>12</v>
@@ -15239,7 +15239,7 @@
         <v>1250</v>
       </c>
       <c r="AE122" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AF122" t="n">
         <v>10</v>
@@ -15248,7 +15248,7 @@
         <v>10</v>
       </c>
       <c r="AH122" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI122" t="n">
         <v>23</v>
@@ -15298,22 +15298,22 @@
         <v>3.4</v>
       </c>
       <c r="J123" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K123" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L123" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="M123" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="N123" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="O123" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P123" t="n">
         <v>1.57</v>
@@ -15358,7 +15358,7 @@
         <v>81</v>
       </c>
       <c r="AD123" t="n">
-        <v>101</v>
+        <v>1250</v>
       </c>
       <c r="AE123" t="n">
         <v>8</v>
@@ -15411,52 +15411,52 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="H124" t="n">
-        <v>5.75</v>
+        <v>6.25</v>
       </c>
       <c r="I124" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J124" t="n">
         <v>1.03</v>
       </c>
       <c r="K124" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L124" t="n">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="M124" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="N124" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="O124" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="P124" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q124" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="R124" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="S124" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="T124" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="U124" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="V124" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W124" t="n">
         <v>7</v>
@@ -15468,10 +15468,10 @@
         <v>34</v>
       </c>
       <c r="Z124" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA124" t="n">
         <v>12</v>
-      </c>
-      <c r="AA124" t="n">
-        <v>11</v>
       </c>
       <c r="AB124" t="n">
         <v>29</v>
@@ -15483,7 +15483,7 @@
         <v>900</v>
       </c>
       <c r="AE124" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF124" t="n">
         <v>51</v>
@@ -15533,13 +15533,13 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="H125" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="I125" t="n">
-        <v>5.25</v>
+        <v>6</v>
       </c>
       <c r="J125" t="n">
         <v>1.04</v>
@@ -15566,25 +15566,25 @@
         <v>3.25</v>
       </c>
       <c r="R125" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="S125" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="T125" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="U125" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="V125" t="n">
         <v>8.5</v>
       </c>
       <c r="W125" t="n">
+        <v>11</v>
+      </c>
+      <c r="X125" t="n">
         <v>12</v>
-      </c>
-      <c r="X125" t="n">
-        <v>13</v>
       </c>
       <c r="Y125" t="n">
         <v>23</v>
@@ -15596,13 +15596,13 @@
         <v>7.5</v>
       </c>
       <c r="AB125" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC125" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD125" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AE125" t="n">
         <v>17</v>
@@ -15611,10 +15611,10 @@
         <v>29</v>
       </c>
       <c r="AG125" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH125" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI125" t="n">
         <v>41</v>
@@ -15655,19 +15655,19 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="H126" t="n">
         <v>3.8</v>
       </c>
       <c r="I126" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="J126" t="n">
         <v>1.04</v>
       </c>
       <c r="K126" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L126" t="n">
         <v>1.29</v>
@@ -15676,10 +15676,10 @@
         <v>3.5</v>
       </c>
       <c r="N126" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="O126" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="P126" t="n">
         <v>1.4</v>
@@ -15697,13 +15697,13 @@
         <v>9</v>
       </c>
       <c r="U126" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="V126" t="n">
         <v>10</v>
       </c>
       <c r="W126" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="X126" t="n">
         <v>21</v>
@@ -15730,13 +15730,13 @@
         <v>8.5</v>
       </c>
       <c r="AF126" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG126" t="n">
         <v>9.5</v>
       </c>
       <c r="AH126" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI126" t="n">
         <v>19</v>
@@ -15777,13 +15777,13 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="H127" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I127" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J127" t="n">
         <v>1.04</v>
@@ -15792,16 +15792,16 @@
         <v>13</v>
       </c>
       <c r="L127" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="M127" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="N127" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="O127" t="n">
-        <v>2.15</v>
+        <v>2.08</v>
       </c>
       <c r="P127" t="n">
         <v>1.33</v>
@@ -15819,7 +15819,7 @@
         <v>8.5</v>
       </c>
       <c r="U127" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="V127" t="n">
         <v>8.5</v>
@@ -15840,7 +15840,7 @@
         <v>7.5</v>
       </c>
       <c r="AB127" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC127" t="n">
         <v>41</v>
@@ -15849,19 +15849,19 @@
         <v>151</v>
       </c>
       <c r="AE127" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF127" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG127" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH127" t="n">
         <v>51</v>
       </c>
       <c r="AI127" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ127" t="n">
         <v>41</v>
@@ -16875,31 +16875,31 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="H136" t="n">
         <v>3.3</v>
       </c>
       <c r="I136" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="J136" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K136" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L136" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M136" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N136" t="n">
-        <v>1.98</v>
+        <v>2.03</v>
       </c>
       <c r="O136" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="P136" t="n">
         <v>1.4</v>
@@ -16908,61 +16908,61 @@
         <v>2.75</v>
       </c>
       <c r="R136" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S136" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T136" t="n">
         <v>10</v>
       </c>
       <c r="U136" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="V136" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W136" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="X136" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="Y136" t="n">
         <v>34</v>
       </c>
       <c r="Z136" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA136" t="n">
         <v>6.5</v>
       </c>
       <c r="AB136" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC136" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD136" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AE136" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AF136" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG136" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AH136" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI136" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ136" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="137">
@@ -17729,19 +17729,19 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="H143" t="n">
         <v>2.9</v>
       </c>
       <c r="I143" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="J143" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K143" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L143" t="n">
         <v>1.4</v>
@@ -17768,16 +17768,16 @@
         <v>1.73</v>
       </c>
       <c r="T143" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="U143" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V143" t="n">
         <v>10</v>
       </c>
       <c r="W143" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="X143" t="n">
         <v>21</v>
@@ -17801,13 +17801,13 @@
         <v>351</v>
       </c>
       <c r="AE143" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AF143" t="n">
         <v>15</v>
       </c>
       <c r="AG143" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH143" t="n">
         <v>34</v>
@@ -18095,13 +18095,13 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="H146" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I146" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="J146" t="n">
         <v>1.02</v>
@@ -18134,7 +18134,7 @@
         <v>2.25</v>
       </c>
       <c r="T146" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="U146" t="n">
         <v>29</v>
@@ -18155,10 +18155,10 @@
         <v>19</v>
       </c>
       <c r="AA146" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB146" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC146" t="n">
         <v>41</v>
@@ -18176,13 +18176,13 @@
         <v>9</v>
       </c>
       <c r="AH146" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI146" t="n">
         <v>12</v>
       </c>
       <c r="AJ146" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="147">
@@ -18701,13 +18701,13 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="H151" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I151" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="J151" t="n">
         <v>1.08</v>
@@ -18740,19 +18740,19 @@
         <v>1.75</v>
       </c>
       <c r="T151" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="U151" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="V151" t="n">
         <v>13</v>
       </c>
       <c r="W151" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="X151" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Y151" t="n">
         <v>50</v>
@@ -18761,13 +18761,13 @@
         <v>6.6</v>
       </c>
       <c r="AA151" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AB151" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AC151" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AD151" t="n">
         <v>900</v>
@@ -18785,10 +18785,10 @@
         <v>16</v>
       </c>
       <c r="AI151" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AJ151" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="152">
@@ -19311,94 +19311,94 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>7.4</v>
+        <v>8</v>
       </c>
       <c r="H156" t="n">
-        <v>4.6</v>
+        <v>4.9</v>
       </c>
       <c r="I156" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="J156" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K156" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L156" t="n">
-        <v>1.21</v>
+        <v>1.18</v>
       </c>
       <c r="M156" t="n">
-        <v>3.95</v>
+        <v>4.3</v>
       </c>
       <c r="N156" t="n">
-        <v>1.65</v>
+        <v>1.55</v>
       </c>
       <c r="O156" t="n">
-        <v>2.12</v>
+        <v>2.3</v>
       </c>
       <c r="P156" t="n">
-        <v>1.34</v>
+        <v>1.28</v>
       </c>
       <c r="Q156" t="n">
-        <v>3</v>
+        <v>3.35</v>
       </c>
       <c r="R156" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S156" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T156" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="U156" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="V156" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="W156" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="X156" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="Y156" t="n">
         <v>70</v>
       </c>
       <c r="Z156" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA156" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AB156" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AC156" t="n">
+        <v>80</v>
+      </c>
+      <c r="AD156" t="n">
+        <v>600</v>
+      </c>
+      <c r="AE156" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF156" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AG156" t="n">
         <v>8.5</v>
       </c>
-      <c r="AA156" t="n">
-        <v>9</v>
-      </c>
-      <c r="AB156" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC156" t="n">
-        <v>90</v>
-      </c>
-      <c r="AD156" t="n">
-        <v>700</v>
-      </c>
-      <c r="AE156" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="AF156" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AG156" t="n">
-        <v>8.25</v>
-      </c>
       <c r="AH156" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AI156" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AJ156" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="157">
@@ -20665,7 +20665,7 @@
         <v>1.08</v>
       </c>
       <c r="K167" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="L167" t="n">
         <v>1.44</v>
@@ -24911,31 +24911,31 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="H202" t="n">
         <v>3</v>
       </c>
       <c r="I202" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="J202" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K202" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L202" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M202" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="N202" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="O202" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="P202" t="n">
         <v>1.44</v>
@@ -24944,16 +24944,16 @@
         <v>2.63</v>
       </c>
       <c r="R202" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S202" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="T202" t="n">
         <v>11</v>
       </c>
       <c r="U202" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="V202" t="n">
         <v>13</v>
@@ -24968,13 +24968,13 @@
         <v>41</v>
       </c>
       <c r="Z202" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA202" t="n">
         <v>6</v>
       </c>
       <c r="AB202" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC202" t="n">
         <v>51</v>
@@ -24983,7 +24983,7 @@
         <v>251</v>
       </c>
       <c r="AE202" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AF202" t="n">
         <v>9.5</v>
@@ -25048,16 +25048,16 @@
         <v>9</v>
       </c>
       <c r="L203" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M203" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N203" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="O203" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="P203" t="n">
         <v>1.44</v>
@@ -25155,13 +25155,13 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="H204" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I204" t="n">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="J204" t="n">
         <v>1.04</v>
@@ -25194,19 +25194,19 @@
         <v>2.2</v>
       </c>
       <c r="T204" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="U204" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="V204" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W204" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X204" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y204" t="n">
         <v>23</v>
@@ -25230,19 +25230,19 @@
         <v>11</v>
       </c>
       <c r="AF204" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG204" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH204" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI204" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ204" t="n">
         <v>29</v>
-      </c>
-      <c r="AI204" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ204" t="n">
-        <v>26</v>
       </c>
     </row>
     <row r="205">
@@ -25277,31 +25277,31 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="H205" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I205" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="J205" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K205" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L205" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="M205" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="N205" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="O205" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="P205" t="n">
         <v>1.25</v>
@@ -25310,10 +25310,10 @@
         <v>3.75</v>
       </c>
       <c r="R205" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="S205" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="T205" t="n">
         <v>13</v>
@@ -25322,7 +25322,7 @@
         <v>13</v>
       </c>
       <c r="V205" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W205" t="n">
         <v>21</v>
@@ -25334,7 +25334,7 @@
         <v>19</v>
       </c>
       <c r="Z205" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA205" t="n">
         <v>7.5</v>
@@ -25349,7 +25349,7 @@
         <v>81</v>
       </c>
       <c r="AE205" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF205" t="n">
         <v>21</v>
@@ -25358,10 +25358,10 @@
         <v>12</v>
       </c>
       <c r="AH205" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI205" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ205" t="n">
         <v>23</v>
@@ -25399,7 +25399,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="H206" t="n">
         <v>4.5</v>
@@ -25480,7 +25480,7 @@
         <v>21</v>
       </c>
       <c r="AH206" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AI206" t="n">
         <v>41</v>
@@ -25521,22 +25521,22 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="H207" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I207" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="J207" t="n">
         <v>1.06</v>
       </c>
       <c r="K207" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="L207" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="M207" t="n">
         <v>3.45</v>
@@ -25551,7 +25551,7 @@
         <v>1.4</v>
       </c>
       <c r="Q207" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="R207" t="n">
         <v>1.65</v>
@@ -25560,13 +25560,13 @@
         <v>2.1</v>
       </c>
       <c r="T207" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="U207" t="n">
         <v>9.75</v>
       </c>
       <c r="V207" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="W207" t="n">
         <v>17</v>
@@ -25578,34 +25578,34 @@
         <v>22</v>
       </c>
       <c r="Z207" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="AA207" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AB207" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AC207" t="n">
         <v>55</v>
       </c>
       <c r="AD207" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AE207" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AF207" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AG207" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH207" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AI207" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AJ207" t="n">
         <v>40</v>
@@ -25643,66 +25643,66 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>1.52</v>
+        <v>1.77</v>
       </c>
       <c r="H208" t="n">
-        <v>3.7</v>
+        <v>3.35</v>
       </c>
       <c r="I208" t="n">
-        <v>6.6</v>
+        <v>4.6</v>
       </c>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
-        <v>1.39</v>
+        <v>1.45</v>
       </c>
       <c r="M208" t="n">
-        <v>2.85</v>
+        <v>2.65</v>
       </c>
       <c r="N208" t="n">
-        <v>2.18</v>
+        <v>2.36</v>
       </c>
       <c r="O208" t="n">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="P208" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="Q208" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="R208" t="n">
-        <v>2.31</v>
+        <v>2.21</v>
       </c>
       <c r="S208" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="T208" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="U208" t="n">
-        <v>4.8</v>
+        <v>5.6</v>
       </c>
       <c r="V208" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="W208" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="X208" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Y208" t="n">
         <v>35</v>
       </c>
       <c r="Z208" t="n">
-        <v>6.4</v>
+        <v>5.8</v>
       </c>
       <c r="AA208" t="n">
-        <v>5.8</v>
+        <v>5.2</v>
       </c>
       <c r="AB208" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC208" t="n">
         <v>101</v>
@@ -25711,22 +25711,22 @@
         <v>101</v>
       </c>
       <c r="AE208" t="n">
-        <v>10</v>
+        <v>7.8</v>
       </c>
       <c r="AF208" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="AG208" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="AH208" t="n">
-        <v>101</v>
+        <v>70</v>
       </c>
       <c r="AI208" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="AJ208" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-04-06.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-06.xlsx
@@ -3087,13 +3087,13 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="H22" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I22" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="J22" t="n">
         <v>1.07</v>
@@ -3102,31 +3102,31 @@
         <v>9</v>
       </c>
       <c r="L22" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="M22" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N22" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="O22" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="P22" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="R22" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="S22" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="T22" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="U22" t="n">
         <v>6</v>
@@ -3141,19 +3141,19 @@
         <v>15</v>
       </c>
       <c r="Y22" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z22" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AA22" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB22" t="n">
         <v>23</v>
       </c>
       <c r="AC22" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AD22" t="n">
         <v>501</v>
@@ -3162,13 +3162,13 @@
         <v>15</v>
       </c>
       <c r="AF22" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG22" t="n">
         <v>23</v>
       </c>
       <c r="AH22" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AI22" t="n">
         <v>67</v>
@@ -3209,49 +3209,49 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="H23" t="n">
         <v>3.9</v>
       </c>
       <c r="I23" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="J23" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="K23" t="n">
+        <v>10</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M23" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="N23" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R23" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="T23" t="n">
         <v>6</v>
       </c>
-      <c r="J23" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="K23" t="n">
-        <v>11</v>
-      </c>
-      <c r="L23" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="M23" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="N23" t="n">
-        <v>2</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="P23" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="R23" t="n">
-        <v>2</v>
-      </c>
-      <c r="S23" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="T23" t="n">
+      <c r="U23" t="n">
         <v>6.5</v>
-      </c>
-      <c r="U23" t="n">
-        <v>7</v>
       </c>
       <c r="V23" t="n">
         <v>8.5</v>
@@ -3266,19 +3266,19 @@
         <v>29</v>
       </c>
       <c r="Z23" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AA23" t="n">
         <v>7.5</v>
       </c>
       <c r="AB23" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC23" t="n">
         <v>67</v>
       </c>
       <c r="AD23" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="AE23" t="n">
         <v>13</v>
@@ -3293,7 +3293,7 @@
         <v>67</v>
       </c>
       <c r="AI23" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AJ23" t="n">
         <v>51</v>
@@ -3331,19 +3331,19 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="H24" t="n">
         <v>3.7</v>
       </c>
       <c r="I24" t="n">
-        <v>5.25</v>
+        <v>5.75</v>
       </c>
       <c r="J24" t="n">
         <v>1.06</v>
       </c>
       <c r="K24" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="L24" t="n">
         <v>1.3</v>
@@ -3364,16 +3364,16 @@
         <v>2.75</v>
       </c>
       <c r="R24" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="S24" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="T24" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="U24" t="n">
         <v>7</v>
-      </c>
-      <c r="U24" t="n">
-        <v>7.5</v>
       </c>
       <c r="V24" t="n">
         <v>8.5</v>
@@ -3385,10 +3385,10 @@
         <v>13</v>
       </c>
       <c r="Y24" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z24" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA24" t="n">
         <v>7</v>
@@ -3400,16 +3400,16 @@
         <v>51</v>
       </c>
       <c r="AD24" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AE24" t="n">
         <v>13</v>
       </c>
       <c r="AF24" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG24" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH24" t="n">
         <v>51</v>
@@ -3418,7 +3418,7 @@
         <v>41</v>
       </c>
       <c r="AJ24" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25">
@@ -3941,31 +3941,31 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="H29" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I29" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="J29" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="K29" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="L29" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="M29" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="N29" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="O29" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="P29" t="n">
         <v>1.57</v>
@@ -3980,10 +3980,10 @@
         <v>1.57</v>
       </c>
       <c r="T29" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="U29" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="V29" t="n">
         <v>9.5</v>
@@ -3992,7 +3992,7 @@
         <v>15</v>
       </c>
       <c r="X29" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y29" t="n">
         <v>41</v>
@@ -4001,7 +4001,7 @@
         <v>6</v>
       </c>
       <c r="AA29" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB29" t="n">
         <v>21</v>
@@ -4013,19 +4013,19 @@
         <v>101</v>
       </c>
       <c r="AE29" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF29" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG29" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH29" t="n">
         <v>51</v>
       </c>
       <c r="AI29" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AJ29" t="n">
         <v>51</v>
@@ -4063,37 +4063,37 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="H30" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I30" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="J30" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="K30" t="n">
+        <v>6</v>
+      </c>
+      <c r="L30" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="M30" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="N30" t="n">
         <v>3.1</v>
       </c>
-      <c r="I30" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="K30" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="L30" t="n">
+      <c r="O30" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P30" t="n">
         <v>1.73</v>
       </c>
-      <c r="M30" t="n">
+      <c r="Q30" t="n">
         <v>2</v>
-      </c>
-      <c r="N30" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="O30" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P30" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>2.05</v>
       </c>
       <c r="R30" t="n">
         <v>2.75</v>
@@ -4102,10 +4102,10 @@
         <v>1.4</v>
       </c>
       <c r="T30" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="U30" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="V30" t="n">
         <v>11</v>
@@ -4129,16 +4129,16 @@
         <v>29</v>
       </c>
       <c r="AC30" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AD30" t="n">
         <v>101</v>
       </c>
       <c r="AE30" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AF30" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG30" t="n">
         <v>19</v>
@@ -4563,7 +4563,7 @@
         <v>1.03</v>
       </c>
       <c r="K34" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L34" t="n">
         <v>1.17</v>
@@ -4632,7 +4632,7 @@
         <v>19</v>
       </c>
       <c r="AH34" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI34" t="n">
         <v>41</v>
@@ -4917,10 +4917,10 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="H37" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I37" t="n">
         <v>6.5</v>
@@ -4932,22 +4932,22 @@
         <v>8</v>
       </c>
       <c r="L37" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M37" t="n">
+        <v>3</v>
+      </c>
+      <c r="N37" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="O37" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="P37" t="n">
         <v>1.44</v>
       </c>
-      <c r="M37" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="N37" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="O37" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="P37" t="n">
-        <v>1.5</v>
-      </c>
       <c r="Q37" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="R37" t="n">
         <v>2.2</v>
@@ -4974,7 +4974,7 @@
         <v>34</v>
       </c>
       <c r="Z37" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AA37" t="n">
         <v>7</v>
@@ -4989,7 +4989,7 @@
         <v>501</v>
       </c>
       <c r="AE37" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF37" t="n">
         <v>29</v>
@@ -5039,13 +5039,13 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="H38" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I38" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="J38" t="n">
         <v>1.11</v>
@@ -5054,16 +5054,16 @@
         <v>6.5</v>
       </c>
       <c r="L38" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="M38" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="N38" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="O38" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="P38" t="n">
         <v>1.57</v>
@@ -5072,22 +5072,22 @@
         <v>2.25</v>
       </c>
       <c r="R38" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S38" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="T38" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="U38" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="V38" t="n">
         <v>10</v>
       </c>
       <c r="W38" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X38" t="n">
         <v>23</v>
@@ -5102,7 +5102,7 @@
         <v>6</v>
       </c>
       <c r="AB38" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC38" t="n">
         <v>67</v>
@@ -5111,19 +5111,19 @@
         <v>501</v>
       </c>
       <c r="AE38" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AF38" t="n">
         <v>15</v>
       </c>
       <c r="AG38" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH38" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI38" t="n">
         <v>34</v>
-      </c>
-      <c r="AI38" t="n">
-        <v>29</v>
       </c>
       <c r="AJ38" t="n">
         <v>41</v>
@@ -5161,13 +5161,13 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="H39" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I39" t="n">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="J39" t="n">
         <v>1.11</v>
@@ -5200,19 +5200,19 @@
         <v>1.7</v>
       </c>
       <c r="T39" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="U39" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="V39" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="W39" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="X39" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Y39" t="n">
         <v>41</v>
@@ -5221,7 +5221,7 @@
         <v>6.5</v>
       </c>
       <c r="AA39" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AB39" t="n">
         <v>17</v>
@@ -5233,19 +5233,19 @@
         <v>501</v>
       </c>
       <c r="AE39" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AF39" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AG39" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH39" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AI39" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AJ39" t="n">
         <v>41</v>
@@ -5283,13 +5283,13 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="H40" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I40" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="J40" t="n">
         <v>1.1</v>
@@ -5316,10 +5316,10 @@
         <v>2.25</v>
       </c>
       <c r="R40" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S40" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="T40" t="n">
         <v>10</v>
@@ -5355,19 +5355,19 @@
         <v>501</v>
       </c>
       <c r="AE40" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AF40" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AG40" t="n">
         <v>9</v>
       </c>
       <c r="AH40" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI40" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ40" t="n">
         <v>41</v>
@@ -5405,37 +5405,37 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="H41" t="n">
         <v>3.1</v>
       </c>
       <c r="I41" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="J41" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K41" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L41" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="M41" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N41" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="O41" t="n">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="P41" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="R41" t="n">
         <v>2</v>
@@ -5444,25 +5444,25 @@
         <v>1.75</v>
       </c>
       <c r="T41" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="U41" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="V41" t="n">
         <v>9.5</v>
       </c>
       <c r="W41" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="X41" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y41" t="n">
         <v>34</v>
       </c>
       <c r="Z41" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AA41" t="n">
         <v>6</v>
@@ -5471,10 +5471,10 @@
         <v>17</v>
       </c>
       <c r="AC41" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD41" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="AE41" t="n">
         <v>9</v>
@@ -5527,13 +5527,13 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H42" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I42" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="J42" t="n">
         <v>1.1</v>
@@ -5566,16 +5566,16 @@
         <v>1.62</v>
       </c>
       <c r="T42" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="U42" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="V42" t="n">
         <v>9.5</v>
       </c>
       <c r="W42" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="X42" t="n">
         <v>21</v>
@@ -5590,7 +5590,7 @@
         <v>6.5</v>
       </c>
       <c r="AB42" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC42" t="n">
         <v>81</v>
@@ -5599,22 +5599,22 @@
         <v>1250</v>
       </c>
       <c r="AE42" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AF42" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG42" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH42" t="n">
         <v>41</v>
       </c>
       <c r="AI42" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ42" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="43">
@@ -5649,13 +5649,13 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="H43" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I43" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="J43" t="n">
         <v>1.08</v>
@@ -5670,10 +5670,10 @@
         <v>3</v>
       </c>
       <c r="N43" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="O43" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="P43" t="n">
         <v>1.5</v>
@@ -5694,7 +5694,7 @@
         <v>11</v>
       </c>
       <c r="V43" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W43" t="n">
         <v>21</v>
@@ -5771,43 +5771,43 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="H44" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I44" t="n">
         <v>3</v>
       </c>
       <c r="J44" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K44" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="L44" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="M44" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="N44" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="O44" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P44" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="R44" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S44" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="T44" t="n">
         <v>6.5</v>
@@ -5816,7 +5816,7 @@
         <v>11</v>
       </c>
       <c r="V44" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W44" t="n">
         <v>23</v>
@@ -5828,13 +5828,13 @@
         <v>41</v>
       </c>
       <c r="Z44" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AA44" t="n">
         <v>6</v>
       </c>
       <c r="AB44" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC44" t="n">
         <v>67</v>
@@ -7235,13 +7235,13 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="H56" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="I56" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="J56" t="n">
         <v>1.08</v>
@@ -7268,16 +7268,16 @@
         <v>2.38</v>
       </c>
       <c r="R56" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S56" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="T56" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U56" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="V56" t="n">
         <v>13</v>
@@ -7292,7 +7292,7 @@
         <v>41</v>
       </c>
       <c r="Z56" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AA56" t="n">
         <v>6.5</v>
@@ -7307,19 +7307,19 @@
         <v>301</v>
       </c>
       <c r="AE56" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AF56" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AG56" t="n">
         <v>9.5</v>
       </c>
       <c r="AH56" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AI56" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ56" t="n">
         <v>34</v>
@@ -7366,10 +7366,10 @@
         <v>2.75</v>
       </c>
       <c r="J57" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K57" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L57" t="n">
         <v>1.44</v>
@@ -7488,10 +7488,10 @@
         <v>5.25</v>
       </c>
       <c r="J58" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K58" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L58" t="n">
         <v>1.5</v>
@@ -7500,10 +7500,10 @@
         <v>2.5</v>
       </c>
       <c r="N58" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="O58" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="P58" t="n">
         <v>1.57</v>
@@ -8639,19 +8639,19 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="H68" t="n">
-        <v>4.1</v>
+        <v>4.33</v>
       </c>
       <c r="I68" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="J68" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K68" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L68" t="n">
         <v>1.3</v>
@@ -8660,10 +8660,10 @@
         <v>3.4</v>
       </c>
       <c r="N68" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="O68" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="P68" t="n">
         <v>1.44</v>
@@ -8687,19 +8687,19 @@
         <v>8.5</v>
       </c>
       <c r="W68" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="X68" t="n">
         <v>13</v>
       </c>
       <c r="Y68" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z68" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA68" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB68" t="n">
         <v>21</v>
@@ -8708,13 +8708,13 @@
         <v>67</v>
       </c>
       <c r="AD68" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="AE68" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF68" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG68" t="n">
         <v>19</v>
@@ -13963,31 +13963,31 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="H112" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="I112" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J112" t="n">
         <v>1.01</v>
       </c>
       <c r="K112" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="L112" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="M112" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N112" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="O112" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P112" t="n">
         <v>1.14</v>
@@ -13996,10 +13996,10 @@
         <v>5.5</v>
       </c>
       <c r="R112" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S112" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T112" t="n">
         <v>15</v>
@@ -14008,13 +14008,13 @@
         <v>9.5</v>
       </c>
       <c r="V112" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="W112" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X112" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y112" t="n">
         <v>23</v>
@@ -14023,19 +14023,19 @@
         <v>34</v>
       </c>
       <c r="AA112" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB112" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC112" t="n">
         <v>51</v>
       </c>
       <c r="AD112" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AE112" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AF112" t="n">
         <v>81</v>
@@ -14044,13 +14044,13 @@
         <v>41</v>
       </c>
       <c r="AH112" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AI112" t="n">
         <v>81</v>
       </c>
       <c r="AJ112" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
     </row>
     <row r="113">
@@ -15167,13 +15167,13 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="H122" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I122" t="n">
-        <v>2.35</v>
+        <v>2.2</v>
       </c>
       <c r="J122" t="n">
         <v>1.1</v>
@@ -15212,13 +15212,13 @@
         <v>15</v>
       </c>
       <c r="V122" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="W122" t="n">
+        <v>41</v>
+      </c>
+      <c r="X122" t="n">
         <v>34</v>
-      </c>
-      <c r="X122" t="n">
-        <v>29</v>
       </c>
       <c r="Y122" t="n">
         <v>41</v>
@@ -15227,7 +15227,7 @@
         <v>7</v>
       </c>
       <c r="AA122" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB122" t="n">
         <v>19</v>
@@ -15242,7 +15242,7 @@
         <v>6</v>
       </c>
       <c r="AF122" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AG122" t="n">
         <v>10</v>
@@ -15251,7 +15251,7 @@
         <v>21</v>
       </c>
       <c r="AI122" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ122" t="n">
         <v>41</v>
@@ -15289,19 +15289,19 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H123" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I123" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="J123" t="n">
         <v>1.08</v>
       </c>
       <c r="K123" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="L123" t="n">
         <v>1.44</v>
@@ -15316,22 +15316,22 @@
         <v>1.57</v>
       </c>
       <c r="P123" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="Q123" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="R123" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="S123" t="n">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="T123" t="n">
         <v>6</v>
       </c>
       <c r="U123" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="V123" t="n">
         <v>9.5</v>
@@ -15343,28 +15343,28 @@
         <v>21</v>
       </c>
       <c r="Y123" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Z123" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AA123" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB123" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC123" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AD123" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="AE123" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AF123" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG123" t="n">
         <v>13</v>
@@ -15777,13 +15777,13 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="H127" t="n">
         <v>3.7</v>
       </c>
       <c r="I127" t="n">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="J127" t="n">
         <v>1.04</v>
@@ -15798,10 +15798,10 @@
         <v>4</v>
       </c>
       <c r="N127" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="O127" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="P127" t="n">
         <v>1.33</v>
@@ -15810,16 +15810,16 @@
         <v>3.25</v>
       </c>
       <c r="R127" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="S127" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T127" t="n">
+        <v>8</v>
+      </c>
+      <c r="U127" t="n">
         <v>8.5</v>
-      </c>
-      <c r="U127" t="n">
-        <v>9</v>
       </c>
       <c r="V127" t="n">
         <v>8.5</v>
@@ -15834,19 +15834,19 @@
         <v>23</v>
       </c>
       <c r="Z127" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA127" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB127" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC127" t="n">
         <v>41</v>
       </c>
       <c r="AD127" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AE127" t="n">
         <v>15</v>
@@ -15855,13 +15855,13 @@
         <v>26</v>
       </c>
       <c r="AG127" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH127" t="n">
         <v>51</v>
       </c>
       <c r="AI127" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ127" t="n">
         <v>41</v>
@@ -25033,13 +25033,13 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="H203" t="n">
         <v>3.1</v>
       </c>
       <c r="I203" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="J203" t="n">
         <v>1.07</v>
@@ -25054,22 +25054,22 @@
         <v>3</v>
       </c>
       <c r="N203" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O203" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="P203" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="Q203" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="R203" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="S203" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T203" t="n">
         <v>9.5</v>
@@ -25078,10 +25078,10 @@
         <v>17</v>
       </c>
       <c r="V203" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="W203" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="X203" t="n">
         <v>29</v>
@@ -25090,7 +25090,7 @@
         <v>41</v>
       </c>
       <c r="Z203" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA203" t="n">
         <v>6</v>
@@ -25102,25 +25102,25 @@
         <v>51</v>
       </c>
       <c r="AD203" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AE203" t="n">
         <v>7</v>
       </c>
       <c r="AF203" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AG203" t="n">
         <v>9.5</v>
       </c>
       <c r="AH203" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI203" t="n">
         <v>19</v>
       </c>
       <c r="AJ203" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="204">
@@ -25399,46 +25399,46 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="H206" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I206" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="J206" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K206" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L206" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="M206" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="N206" t="n">
-        <v>1.57</v>
+        <v>1.48</v>
       </c>
       <c r="O206" t="n">
-        <v>2.35</v>
+        <v>2.6</v>
       </c>
       <c r="P206" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="Q206" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="R206" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="S206" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T206" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="U206" t="n">
         <v>8</v>
@@ -25456,10 +25456,10 @@
         <v>21</v>
       </c>
       <c r="Z206" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA206" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB206" t="n">
         <v>17</v>
@@ -25468,10 +25468,10 @@
         <v>41</v>
       </c>
       <c r="AD206" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AE206" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF206" t="n">
         <v>41</v>
@@ -25654,31 +25654,31 @@
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="M208" t="n">
-        <v>2.65</v>
+        <v>2.55</v>
       </c>
       <c r="N208" t="n">
-        <v>2.36</v>
+        <v>2.44</v>
       </c>
       <c r="O208" t="n">
-        <v>1.55</v>
+        <v>1.51</v>
       </c>
       <c r="P208" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Q208" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="R208" t="n">
-        <v>2.21</v>
+        <v>2.28</v>
       </c>
       <c r="S208" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="T208" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="U208" t="n">
         <v>5.6</v>
@@ -25690,19 +25690,19 @@
         <v>11</v>
       </c>
       <c r="X208" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Y208" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="Z208" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="AA208" t="n">
         <v>5.2</v>
       </c>
       <c r="AB208" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AC208" t="n">
         <v>101</v>
@@ -25711,7 +25711,7 @@
         <v>101</v>
       </c>
       <c r="AE208" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="AF208" t="n">
         <v>19</v>
@@ -25720,7 +25720,7 @@
         <v>13</v>
       </c>
       <c r="AH208" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AI208" t="n">
         <v>50</v>

--- a/Jogos_da_Semana_FlashScore_2025-04-06.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-06.xlsx
@@ -3215,7 +3215,7 @@
         <v>3.9</v>
       </c>
       <c r="I23" t="n">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="J23" t="n">
         <v>1.06</v>
@@ -3224,16 +3224,16 @@
         <v>10</v>
       </c>
       <c r="L23" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M23" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N23" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="O23" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="P23" t="n">
         <v>1.44</v>
@@ -3242,10 +3242,10 @@
         <v>2.63</v>
       </c>
       <c r="R23" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S23" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="T23" t="n">
         <v>6</v>
@@ -3260,13 +3260,13 @@
         <v>11</v>
       </c>
       <c r="X23" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y23" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z23" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA23" t="n">
         <v>7.5</v>
@@ -3278,7 +3278,7 @@
         <v>67</v>
       </c>
       <c r="AD23" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AE23" t="n">
         <v>13</v>
@@ -3287,7 +3287,7 @@
         <v>29</v>
       </c>
       <c r="AG23" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH23" t="n">
         <v>67</v>
@@ -3331,19 +3331,19 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="H24" t="n">
         <v>3.7</v>
       </c>
       <c r="I24" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="J24" t="n">
         <v>1.06</v>
       </c>
       <c r="K24" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="L24" t="n">
         <v>1.3</v>
@@ -3352,10 +3352,10 @@
         <v>3.4</v>
       </c>
       <c r="N24" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="O24" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="P24" t="n">
         <v>1.4</v>
@@ -3373,7 +3373,7 @@
         <v>6.5</v>
       </c>
       <c r="U24" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="V24" t="n">
         <v>8.5</v>
@@ -3382,7 +3382,7 @@
         <v>12</v>
       </c>
       <c r="X24" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y24" t="n">
         <v>29</v>
@@ -3406,10 +3406,10 @@
         <v>13</v>
       </c>
       <c r="AF24" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG24" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH24" t="n">
         <v>51</v>
@@ -3418,7 +3418,7 @@
         <v>41</v>
       </c>
       <c r="AJ24" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25">
@@ -5411,7 +5411,7 @@
         <v>3.1</v>
       </c>
       <c r="I41" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="J41" t="n">
         <v>1.1</v>
@@ -5438,10 +5438,10 @@
         <v>2.38</v>
       </c>
       <c r="R41" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S41" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="T41" t="n">
         <v>6</v>
@@ -5456,7 +5456,7 @@
         <v>19</v>
       </c>
       <c r="X41" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y41" t="n">
         <v>34</v>
@@ -5474,7 +5474,7 @@
         <v>67</v>
       </c>
       <c r="AD41" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AE41" t="n">
         <v>9</v>
@@ -5483,7 +5483,7 @@
         <v>17</v>
       </c>
       <c r="AG41" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH41" t="n">
         <v>41</v>
@@ -7366,10 +7366,10 @@
         <v>2.75</v>
       </c>
       <c r="J57" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K57" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L57" t="n">
         <v>1.44</v>
@@ -7426,7 +7426,7 @@
         <v>67</v>
       </c>
       <c r="AD57" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AE57" t="n">
         <v>7.5</v>
@@ -7482,82 +7482,82 @@
         <v>1.67</v>
       </c>
       <c r="H58" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I58" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="J58" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="K58" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L58" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="M58" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="N58" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="O58" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="P58" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="Q58" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R58" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="S58" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T58" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="U58" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="V58" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W58" t="n">
         <v>12</v>
       </c>
       <c r="X58" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y58" t="n">
         <v>41</v>
       </c>
       <c r="Z58" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AA58" t="n">
         <v>7.5</v>
       </c>
       <c r="AB58" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC58" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AD58" t="n">
         <v>101</v>
       </c>
       <c r="AE58" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AF58" t="n">
         <v>26</v>
       </c>
       <c r="AG58" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH58" t="n">
         <v>67</v>
@@ -7566,7 +7566,7 @@
         <v>51</v>
       </c>
       <c r="AJ58" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
     </row>
     <row r="59">
@@ -7744,10 +7744,10 @@
         <v>3.75</v>
       </c>
       <c r="N60" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="O60" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="P60" t="n">
         <v>1.36</v>
@@ -7756,25 +7756,25 @@
         <v>3</v>
       </c>
       <c r="R60" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="S60" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="T60" t="n">
         <v>6</v>
       </c>
       <c r="U60" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="V60" t="n">
         <v>9</v>
       </c>
       <c r="W60" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X60" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y60" t="n">
         <v>34</v>
@@ -7786,10 +7786,10 @@
         <v>10</v>
       </c>
       <c r="AB60" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC60" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AD60" t="n">
         <v>101</v>
@@ -7804,7 +7804,7 @@
         <v>26</v>
       </c>
       <c r="AH60" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AI60" t="n">
         <v>67</v>
@@ -13984,10 +13984,10 @@
         <v>10</v>
       </c>
       <c r="N112" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="O112" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P112" t="n">
         <v>1.14</v>
@@ -13996,10 +13996,10 @@
         <v>5.5</v>
       </c>
       <c r="R112" t="n">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S112" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T112" t="n">
         <v>15</v>
@@ -14008,34 +14008,34 @@
         <v>9.5</v>
       </c>
       <c r="V112" t="n">
+        <v>13</v>
+      </c>
+      <c r="W112" t="n">
+        <v>8</v>
+      </c>
+      <c r="X112" t="n">
         <v>11</v>
       </c>
-      <c r="W112" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="X112" t="n">
-        <v>10</v>
-      </c>
       <c r="Y112" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="Z112" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AA112" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB112" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC112" t="n">
         <v>51</v>
       </c>
       <c r="AD112" t="n">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="AE112" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AF112" t="n">
         <v>81</v>
@@ -14047,7 +14047,7 @@
         <v>251</v>
       </c>
       <c r="AI112" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AJ112" t="n">
         <v>67</v>
@@ -15289,43 +15289,43 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="H123" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="I123" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="J123" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="K123" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="L123" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="M123" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="N123" t="n">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="O123" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P123" t="n">
         <v>1.57</v>
       </c>
-      <c r="P123" t="n">
-        <v>1.53</v>
-      </c>
       <c r="Q123" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="R123" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="S123" t="n">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="T123" t="n">
         <v>6</v>
@@ -15334,19 +15334,19 @@
         <v>9.5</v>
       </c>
       <c r="V123" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W123" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="X123" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y123" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z123" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AA123" t="n">
         <v>6</v>
@@ -15361,7 +15361,7 @@
         <v>1000</v>
       </c>
       <c r="AE123" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AF123" t="n">
         <v>15</v>
@@ -15370,7 +15370,7 @@
         <v>13</v>
       </c>
       <c r="AH123" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI123" t="n">
         <v>34</v>
